--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="490"/>
+    <workbookView windowWidth="27765" windowHeight="13650" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="単体障害一覧" sheetId="7" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>通番</t>
   </si>
@@ -251,13 +251,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 管理-&gt;車室一覧-&gt;変更</t>
+    <t>物件管理</t>
+  </si>
+  <si>
+    <t>ソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 管理→車室一覧→変更</t>
   </si>
   <si>
     <t>刘一扬</t>
   </si>
   <si>
     <t>“賃料”和“収容可能サイズ”等输入数值部分可以输入负数并保存成功</t>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+  </si>
+  <si>
+    <t>その他</t>
   </si>
   <si>
     <r>
@@ -266,7 +278,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
-      <t>駐車場一覧-&gt;駐車場(空き状</t>
+      <t>駐車場一覧→駐車場(空き状</t>
     </r>
     <r>
       <rPr>
@@ -282,7 +294,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
-      <t>)-&gt;車室-&gt;申込みフォームを送る / 契約手続きに進む</t>
+      <t>)→車室→申込みフォームを送る / 契約手続きに進む</t>
     </r>
   </si>
   <si>
@@ -320,7 +332,10 @@
     </r>
   </si>
   <si>
-    <t>契約管理→随時対応→5 保管場所使用承諾証明書発行（名義変更）-&gt; 2.発送準備：請求書・保管場所使用承諾証明書発行</t>
+    <t>契約管理</t>
+  </si>
+  <si>
+    <t>契約管理→随時対応→5 保管場所使用承諾証明書発行（名義変更）→2.発送準備：請求書・保管場所使用承諾証明書発行</t>
   </si>
   <si>
     <r>
@@ -486,6 +501,9 @@
       <t>变
 改变用户分类为法人的送付先时，情况正常。</t>
     </r>
+  </si>
+  <si>
+    <t>テストケース</t>
   </si>
   <si>
     <t>001-001-011</t>
@@ -896,6 +914,346 @@
 1.点击放大镜，是否应该只弹出一个窗口？
 2.点击不同的放大镜，弹出的窗口是否是相同的？
 3.为了规避上面的两个问题，测试运行时，使用脚本关闭了弹出的第二个窗口，在剩下的一个弹出窗口里做搜索操作没有问题。但是模拟点击搜索选项后，虽然弹出窗口和手动运行测试时一样自动关闭了，但是点击的值并没有和手动测试时一样被传递到主窗口，进行了各种尝试都未解决；</t>
+  </si>
+  <si>
+    <t>003-001-020</t>
+  </si>
+  <si>
+    <t>契約管理→随時対応→5 保管場所使用承諾証明書発行（名義変更）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“対応完了”不成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹出提示“処理できない随時対応です”</t>
+    </r>
+  </si>
+  <si>
+    <t>002-001-009</t>
+  </si>
+  <si>
+    <t>ホワイトボード→申込ユーザー登録画面→貸止め</t>
+  </si>
+  <si>
+    <t>空车室“貸止め”火狐浏览器显示有问题，谷歌浏览器显示无问题</t>
+  </si>
+  <si>
+    <t>后台报错报错</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在管理后台新增停车场信息，保存时报错，未解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http://127.0.0.1:8000/admin/parkinglot/parkinglot/add/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作流程问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试文档后希望能在合适的时间得到评价和指正</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试数据清除或保留问题</t>
+    </r>
+  </si>
+  <si>
+    <t>所有测试数据每次测试的时候都要清空并重建数据库，还是测试数据每次累加？</t>
+  </si>
+  <si>
+    <t>关于之前工作进度及沟通效率的几点说明：
+1. 开始测试时给的test case有点问题 和wbs相比有的不全面、有的不连贯，我们是主要按照wbs上的功能模块及时间进行测试用例编写的；
+2. 关于沟通效率的问题:前两周的测试提交成果物，一直没用得到有效的点评，上周末这些问题才得到有效的指正；所以虽然我们的成果物和实际要求有偏差，但是上我们的工作进度比testcase要求还要饱满的；
+3. 关于业务沟通问题：我们的思路是小问题根据自己的理解来解决，不能确定的问题才会向你们提出；
+4. 现在我们会严格按照testcase的要求来做；</t>
+  </si>
+  <si>
+    <t>問い合わせ履歴</t>
+  </si>
+  <si>
+    <t>002-001-058</t>
+  </si>
+  <si>
+    <t>不具合・工事一覧 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+ホワイトボード→不具合・工事一覧-&gt;追加　不具合・工事-&gt;関連書類一式を追加できること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加相关文件，选择好文件、填写好备注，在保存之前点击添加的相关文件后面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除，此时保存，系统报错；</t>
+    </r>
+  </si>
+  <si>
+    <t>002-001-053</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，搜索驻车场，点击驻车场，車室可以显示出来，但是驻车场名称还是显示“-------”</t>
+    </r>
+  </si>
+  <si>
+    <t>003-001-003</t>
+  </si>
+  <si>
+    <t>操作鍵類の再発行・追加貸与</t>
+  </si>
+  <si>
+    <r>
+      <t>马鸿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 発送準備：スケジュール（期日･費用）の設定・送付先確認 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写好相应数据，在火狐中点击保存，页面会刷新但此任务小标签不会关闭，在谷歌浏览器中点击保存，页面刷新后此条任务小标签会关闭；其他几条任务标签在火狐中点击保存后却都会关闭；</t>
+    </r>
+  </si>
+  <si>
+    <t>契約管理→随時対応</t>
+  </si>
+  <si>
+    <t>003-001-005</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3 発送準備：請求書・操作鍵類・宅配便送付状準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动点击发送邮件，弹出层页面会在发送邮箱响应完毕后才关闭，而在自动此时的时候，发送邮件还没有响应完成，下一步的操作就会继续进行了，而且会莫名出现弹出框错误提示，在自动测试时是在进入下一个页面后才处理的这个错误提示框；</t>
+    </r>
   </si>
   <si>
     <t>１、現象区分</t>
@@ -1735,19 +2093,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1868,18 +2226,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1893,55 +2262,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1955,37 +2312,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2005,30 +2335,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2047,6 +2386,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2055,16 +2412,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2072,6 +2431,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2127,11 +2497,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -2172,13 +2537,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,13 +2597,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,37 +2657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,7 +2675,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,84 +2717,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2747,17 +3112,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2777,31 +3147,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2817,6 +3173,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2844,187 +3209,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3041,16 +3417,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3060,27 +3436,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3089,24 +3465,24 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3362,22 +3738,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3392,13 +3768,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="12" fillId="0" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="12" fillId="0" borderId="1" xfId="83" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3413,13 +3789,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3455,18 +3831,18 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3494,7 +3870,7 @@
     <xf numFmtId="56" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3503,7 +3879,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3518,7 +3894,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3527,10 +3903,10 @@
     <xf numFmtId="56" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3539,13 +3915,13 @@
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3576,7 +3952,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3586,7 +3962,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="101"/>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3598,20 +3974,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="65"/>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3623,7 +3996,10 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3632,7 +4008,7 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3645,7 +4021,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3667,29 +4043,29 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="6" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="6" borderId="1" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3699,7 +4075,7 @@
     <xf numFmtId="49" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3709,6 +4085,39 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3728,13 +4137,13 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3752,10 +4161,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3775,16 +4184,16 @@
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
     <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="超链接 4 2 2" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="超链接 4 2 2" xfId="13"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
     <cellStyle name="标题 4" xfId="18" builtinId="19"/>
     <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="20"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="标题" xfId="20" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
     <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
     <cellStyle name="标题 1" xfId="23" builtinId="16"/>
     <cellStyle name="标题 2" xfId="24" builtinId="17"/>
@@ -3803,11 +4212,11 @@
     <cellStyle name="好" xfId="37" builtinId="26"/>
     <cellStyle name="標準 2 2" xfId="38"/>
     <cellStyle name="适中" xfId="39" builtinId="28"/>
-    <cellStyle name="常规 8 2" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="41"/>
     <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="標準 5 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="43" builtinId="30"/>
+    <cellStyle name="標準 5 2" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
     <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="46"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
@@ -3828,8 +4237,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="Comma [0]" xfId="63"/>
     <cellStyle name="標準 2 2 3" xfId="64"/>
-    <cellStyle name="常规 2 4" xfId="65"/>
-    <cellStyle name="Normal_Sheet1" xfId="66"/>
+    <cellStyle name="Normal_Sheet1" xfId="65"/>
+    <cellStyle name="常规 2 4" xfId="66"/>
     <cellStyle name="ハイパーリンク 2" xfId="67"/>
     <cellStyle name="ハイパーリンク 2 3" xfId="68"/>
     <cellStyle name="標準 2 3" xfId="69"/>
@@ -3846,8 +4255,8 @@
     <cellStyle name="標準 4 3" xfId="80"/>
     <cellStyle name="標準 5" xfId="81"/>
     <cellStyle name="標準_Sheet1" xfId="82"/>
-    <cellStyle name="常规 6 2" xfId="83"/>
-    <cellStyle name="標準_sst107" xfId="84"/>
+    <cellStyle name="標準_sst107" xfId="83"/>
+    <cellStyle name="常规 6 2" xfId="84"/>
     <cellStyle name="常规 10" xfId="85"/>
     <cellStyle name="常规 10 2" xfId="86"/>
     <cellStyle name="常规 11" xfId="87"/>
@@ -3887,7 +4296,14 @@
     <cellStyle name="千位分隔 4" xfId="121"/>
     <cellStyle name="千位分隔 4 2" xfId="122"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3918,8 +4334,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4063,11 +4479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85346944"/>
-        <c:axId val="85361024"/>
+        <c:axId val="124532992"/>
+        <c:axId val="124547072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85346944"/>
+        <c:axId val="124532992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85361024"/>
+        <c:crossAx val="124547072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4111,7 +4527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85361024"/>
+        <c:axId val="124547072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4562,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85346944"/>
+        <c:crossAx val="124532992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,7 +4682,7 @@
           <c:x val="0.111776664983832"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.780440643012107"/>
-          <c:h val="0.658140282226889"/>
+          <c:h val="0.65814028222689"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4387,11 +4803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85405696"/>
-        <c:axId val="85407232"/>
+        <c:axId val="124558720"/>
+        <c:axId val="129700992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85405696"/>
+        <c:axId val="124558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,7 +4842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85407232"/>
+        <c:crossAx val="129700992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4435,7 +4851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85407232"/>
+        <c:axId val="129700992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,7 +4886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85405696"/>
+        <c:crossAx val="124558720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,7 +5005,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.0925927786473979"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.775721723334874"/>
+          <c:w val="0.775721723334875"/>
           <c:h val="0.651331719128332"/>
         </c:manualLayout>
       </c:layout>
@@ -4910,8 +5326,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83046784"/>
-        <c:axId val="83047552"/>
+        <c:axId val="129747584"/>
+        <c:axId val="129757952"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5024,11 +5440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83049088"/>
-        <c:axId val="83050880"/>
+        <c:axId val="129759488"/>
+        <c:axId val="134156288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83046784"/>
+        <c:axId val="129747584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83047552"/>
+        <c:crossAx val="129757952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5072,7 +5488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83047552"/>
+        <c:axId val="129757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,12 +5523,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83046784"/>
+        <c:crossAx val="129747584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83049088"/>
+        <c:axId val="129759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,7 +5553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83050880"/>
+        <c:crossAx val="134156288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5145,7 +5561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83050880"/>
+        <c:axId val="134156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5182,7 +5598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83049088"/>
+        <c:crossAx val="129759488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -5206,7 +5622,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.226337880604431"/>
-          <c:y val="0.934624697336566"/>
+          <c:y val="0.934624697336567"/>
           <c:w val="0.504116306449348"/>
           <c:h val="0.0484261501210651"/>
         </c:manualLayout>
@@ -5344,7 +5760,7 @@
           <c:x val="0.111776664983832"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.780440643012107"/>
-          <c:h val="0.65814028222689"/>
+          <c:h val="0.658140282226891"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5420,11 +5836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83083264"/>
-        <c:axId val="83084800"/>
+        <c:axId val="134188416"/>
+        <c:axId val="134190208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83083264"/>
+        <c:axId val="134188416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5459,7 +5875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83084800"/>
+        <c:crossAx val="134190208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5468,7 +5884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83084800"/>
+        <c:axId val="134190208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83083264"/>
+        <c:crossAx val="134188416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5735,11 +6151,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147403520"/>
-        <c:axId val="147405056"/>
+        <c:axId val="134295936"/>
+        <c:axId val="134297472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147403520"/>
+        <c:axId val="134295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5774,7 +6190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147405056"/>
+        <c:crossAx val="134297472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5783,7 +6199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147405056"/>
+        <c:axId val="134297472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5818,7 +6234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147403520"/>
+        <c:crossAx val="134295936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6050,11 +6466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152700416"/>
-        <c:axId val="152701952"/>
+        <c:axId val="134329472"/>
+        <c:axId val="134331008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152700416"/>
+        <c:axId val="134329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6089,7 +6505,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152701952"/>
+        <c:crossAx val="134331008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6098,7 +6514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152701952"/>
+        <c:axId val="134331008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6133,7 +6549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152700416"/>
+        <c:crossAx val="134329472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6253,7 +6669,7 @@
           <c:x val="0.111776664983832"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.780440643012107"/>
-          <c:h val="0.65814028222689"/>
+          <c:h val="0.658140282226891"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6329,11 +6745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152713472"/>
-        <c:axId val="152727552"/>
+        <c:axId val="134350720"/>
+        <c:axId val="134352256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152713472"/>
+        <c:axId val="134350720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +6784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152727552"/>
+        <c:crossAx val="134352256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6377,7 +6793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152727552"/>
+        <c:axId val="134352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,7 +6828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152713472"/>
+        <c:crossAx val="134350720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7347,14 +7763,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7367,7 +7783,7 @@
     <col min="6" max="6" width="11.5" style="162" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="161" customWidth="1"/>
     <col min="8" max="8" width="21.25" style="161" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="161" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="161" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="163" customWidth="1"/>
     <col min="11" max="11" width="6" style="161" customWidth="1"/>
     <col min="12" max="12" width="66.5" style="161" customWidth="1"/>
@@ -7433,16 +7849,16 @@
       <c r="P1" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="213" t="s">
+      <c r="Q1" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="213" t="s">
+      <c r="R1" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="213" t="s">
+      <c r="S1" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="213" t="s">
+      <c r="T1" s="224" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="187" t="s">
@@ -7506,17 +7922,17 @@
       <c r="N2" s="192"/>
       <c r="O2" s="192"/>
       <c r="P2" s="192"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
       <c r="U2" s="170"/>
       <c r="V2" s="208"/>
-      <c r="W2" s="215"/>
+      <c r="W2" s="226"/>
       <c r="X2" s="170"/>
       <c r="Y2" s="189"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="235"/>
       <c r="AB2" s="170"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:29">
@@ -7524,7 +7940,9 @@
       <c r="B3" s="173">
         <v>2</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="174" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="175" t="s">
         <v>27</v>
       </c>
@@ -7534,19 +7952,21 @@
       <c r="F3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="170"/>
+      <c r="G3" s="170" t="s">
+        <v>36</v>
+      </c>
       <c r="H3" s="178"/>
       <c r="I3" s="178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="193">
         <v>43230</v>
       </c>
       <c r="K3" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="195" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" s="196"/>
       <c r="N3" s="197"/>
@@ -7554,24 +7974,26 @@
       <c r="P3" s="198"/>
       <c r="Q3" s="198"/>
       <c r="R3" s="198"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="216"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="227"/>
       <c r="W3" s="193"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="226"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="237"/>
     </row>
     <row r="4" s="159" customFormat="1" ht="42" customHeight="1" spans="1:29">
       <c r="A4" s="172"/>
       <c r="B4" s="173">
         <v>3</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="174" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" s="175" t="s">
         <v>27</v>
       </c>
@@ -7581,19 +8003,21 @@
       <c r="F4" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="170"/>
+      <c r="G4" s="170" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="178"/>
       <c r="I4" s="178" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4" s="193">
         <v>43238</v>
       </c>
       <c r="K4" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M4" s="196"/>
       <c r="N4" s="197"/>
@@ -7601,24 +8025,26 @@
       <c r="P4" s="198"/>
       <c r="Q4" s="198"/>
       <c r="R4" s="198"/>
-      <c r="S4" s="216"/>
-      <c r="T4" s="216"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="216"/>
+      <c r="S4" s="227"/>
+      <c r="T4" s="227"/>
+      <c r="U4" s="228"/>
+      <c r="V4" s="227"/>
       <c r="W4" s="193"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="225"/>
-      <c r="AC4" s="226"/>
+      <c r="X4" s="229"/>
+      <c r="Y4" s="229"/>
+      <c r="Z4" s="229"/>
+      <c r="AA4" s="236"/>
+      <c r="AB4" s="236"/>
+      <c r="AC4" s="237"/>
     </row>
     <row r="5" s="159" customFormat="1" ht="79.5" customHeight="1" spans="1:29">
       <c r="A5" s="172"/>
       <c r="B5" s="173">
         <v>4</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" s="174" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" s="175" t="s">
         <v>27</v>
       </c>
@@ -7628,19 +8054,21 @@
       <c r="F5" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="170"/>
+      <c r="G5" s="170" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="178"/>
       <c r="I5" s="178" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J5" s="193">
         <v>43242</v>
       </c>
       <c r="K5" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="200" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M5" s="196"/>
       <c r="N5" s="197"/>
@@ -7648,24 +8076,26 @@
       <c r="P5" s="198"/>
       <c r="Q5" s="198"/>
       <c r="R5" s="198"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="216"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="216"/>
+      <c r="S5" s="227"/>
+      <c r="T5" s="227"/>
+      <c r="U5" s="228"/>
+      <c r="V5" s="227"/>
       <c r="W5" s="193"/>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="225"/>
-      <c r="AB5" s="225"/>
-      <c r="AC5" s="226"/>
+      <c r="X5" s="229"/>
+      <c r="Y5" s="229"/>
+      <c r="Z5" s="229"/>
+      <c r="AA5" s="236"/>
+      <c r="AB5" s="236"/>
+      <c r="AC5" s="237"/>
     </row>
     <row r="6" s="159" customFormat="1" ht="42" customHeight="1" spans="1:29">
       <c r="A6" s="172"/>
       <c r="B6" s="173">
         <v>5</v>
       </c>
-      <c r="C6" s="174"/>
+      <c r="C6" s="174" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="175" t="s">
         <v>27</v>
       </c>
@@ -7675,21 +8105,23 @@
       <c r="F6" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="170"/>
+      <c r="G6" s="170" t="s">
+        <v>47</v>
+      </c>
       <c r="H6" s="178" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I6" s="178" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J6" s="193">
         <v>43242</v>
       </c>
       <c r="K6" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="199" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M6" s="196"/>
       <c r="N6" s="197"/>
@@ -7697,24 +8129,26 @@
       <c r="P6" s="198"/>
       <c r="Q6" s="198"/>
       <c r="R6" s="198"/>
-      <c r="S6" s="216"/>
-      <c r="T6" s="216"/>
-      <c r="U6" s="217"/>
-      <c r="V6" s="216"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="228"/>
+      <c r="V6" s="227"/>
       <c r="W6" s="193"/>
-      <c r="X6" s="218"/>
-      <c r="Y6" s="218"/>
-      <c r="Z6" s="218"/>
-      <c r="AA6" s="225"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="226"/>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="229"/>
+      <c r="Z6" s="229"/>
+      <c r="AA6" s="236"/>
+      <c r="AB6" s="236"/>
+      <c r="AC6" s="237"/>
     </row>
     <row r="7" s="159" customFormat="1" ht="42" customHeight="1" spans="1:29">
       <c r="A7" s="172"/>
       <c r="B7" s="173">
         <v>6</v>
       </c>
-      <c r="C7" s="174"/>
+      <c r="C7" s="174" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="175" t="s">
         <v>27</v>
       </c>
@@ -7724,21 +8158,23 @@
       <c r="F7" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="170"/>
+      <c r="G7" s="170" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="178" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I7" s="178" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J7" s="193">
         <v>43244</v>
       </c>
       <c r="K7" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="201" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M7" s="196"/>
       <c r="N7" s="197"/>
@@ -7746,26 +8182,28 @@
       <c r="P7" s="198"/>
       <c r="Q7" s="198"/>
       <c r="R7" s="198"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="217"/>
-      <c r="V7" s="216"/>
+      <c r="S7" s="227"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="228"/>
+      <c r="V7" s="227"/>
       <c r="W7" s="193"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="225"/>
-      <c r="AB7" s="225"/>
-      <c r="AC7" s="226"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="229"/>
+      <c r="AA7" s="236"/>
+      <c r="AB7" s="236"/>
+      <c r="AC7" s="237"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:29">
       <c r="A8" s="172"/>
       <c r="B8" s="173">
         <v>7</v>
       </c>
-      <c r="C8" s="174"/>
+      <c r="C8" s="174" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="175" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="176" t="s">
         <v>28</v>
@@ -7773,21 +8211,23 @@
       <c r="F8" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="170"/>
+      <c r="G8" s="170" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="178" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I8" s="178" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J8" s="193">
         <v>43245</v>
       </c>
       <c r="K8" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="201" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M8" s="196"/>
       <c r="N8" s="197"/>
@@ -7795,25 +8235,27 @@
       <c r="P8" s="198"/>
       <c r="Q8" s="198"/>
       <c r="R8" s="198"/>
-      <c r="S8" s="216"/>
-      <c r="T8" s="216"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="216"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="227"/>
+      <c r="U8" s="228"/>
+      <c r="V8" s="227"/>
       <c r="W8" s="193"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="225"/>
-      <c r="AC8" s="226"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="237"/>
     </row>
     <row r="9" ht="24.75" customHeight="1" spans="1:29">
       <c r="A9" s="179"/>
       <c r="B9" s="180">
         <v>8</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182" t="s">
+      <c r="C9" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="176" t="s">
@@ -7822,47 +8264,51 @@
       <c r="F9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="170"/>
+      <c r="G9" s="170" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="178" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I9" s="178" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J9" s="193">
         <v>43245</v>
       </c>
       <c r="K9" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="202" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M9" s="203"/>
       <c r="N9" s="204"/>
       <c r="O9" s="192"/>
       <c r="P9" s="204"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
+      <c r="Q9" s="230"/>
+      <c r="R9" s="230"/>
+      <c r="S9" s="230"/>
+      <c r="T9" s="230"/>
       <c r="U9" s="205"/>
       <c r="V9" s="205"/>
-      <c r="W9" s="220"/>
+      <c r="W9" s="231"/>
       <c r="X9" s="205"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="225"/>
-      <c r="AA9" s="225"/>
-      <c r="AB9" s="228"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="236"/>
+      <c r="AB9" s="239"/>
       <c r="AC9" s="179"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:29">
+    <row r="10" ht="25.5" customHeight="1" spans="1:29">
       <c r="A10" s="179"/>
       <c r="B10" s="180">
         <v>9</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182" t="s">
+      <c r="C10" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="181" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="176" t="s">
@@ -7871,38 +8317,40 @@
       <c r="F10" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="170"/>
+      <c r="G10" s="170" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="178" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I10" s="205" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J10" s="193">
         <v>43248</v>
       </c>
       <c r="K10" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="206" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M10" s="203"/>
       <c r="N10" s="204"/>
       <c r="O10" s="192"/>
       <c r="P10" s="207"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
+      <c r="Q10" s="232"/>
+      <c r="R10" s="232"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="232"/>
       <c r="U10" s="205"/>
       <c r="V10" s="205"/>
-      <c r="W10" s="220"/>
+      <c r="W10" s="231"/>
       <c r="X10" s="205"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="225"/>
-      <c r="AB10" s="228"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
+      <c r="AB10" s="239"/>
       <c r="AC10" s="179"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:29">
@@ -7910,8 +8358,10 @@
       <c r="B11" s="180">
         <v>10</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182" t="s">
+      <c r="C11" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="181" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="176" t="s">
@@ -7920,46 +8370,48 @@
       <c r="F11" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="170"/>
+      <c r="G11" s="170" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="178" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I11" s="205" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J11" s="193">
         <v>43248</v>
       </c>
       <c r="K11" s="194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="202" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M11" s="203"/>
       <c r="N11" s="204"/>
       <c r="O11" s="192"/>
       <c r="P11" s="204"/>
-      <c r="Q11" s="219"/>
-      <c r="R11" s="219"/>
-      <c r="S11" s="219"/>
-      <c r="T11" s="219"/>
+      <c r="Q11" s="230"/>
+      <c r="R11" s="230"/>
+      <c r="S11" s="230"/>
+      <c r="T11" s="230"/>
       <c r="U11" s="205"/>
       <c r="V11" s="205"/>
-      <c r="W11" s="220"/>
+      <c r="W11" s="231"/>
       <c r="X11" s="205"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="225"/>
-      <c r="AA11" s="225"/>
-      <c r="AB11" s="228"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="236"/>
+      <c r="AA11" s="236"/>
+      <c r="AB11" s="239"/>
       <c r="AC11" s="179"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="2:28">
+    <row r="12" ht="96" spans="2:28">
       <c r="B12" s="159">
         <v>11</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184" t="s">
+      <c r="C12" s="182"/>
+      <c r="D12" s="183" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="176" t="s">
@@ -7969,181 +8421,875 @@
         <v>29</v>
       </c>
       <c r="G12" s="170"/>
-      <c r="H12" s="185" t="s">
-        <v>59</v>
+      <c r="H12" s="184" t="s">
+        <v>65</v>
       </c>
       <c r="I12" s="208" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J12" s="189">
         <v>43245</v>
       </c>
       <c r="K12" s="209" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L12" s="210" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M12" s="211"/>
       <c r="N12" s="192"/>
       <c r="O12" s="192"/>
       <c r="P12" s="212"/>
-      <c r="Q12" s="222"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
+      <c r="Q12" s="233"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="233"/>
+      <c r="T12" s="233"/>
       <c r="U12" s="208"/>
       <c r="V12" s="208"/>
-      <c r="W12" s="223"/>
+      <c r="W12" s="234"/>
       <c r="X12" s="208"/>
       <c r="Y12" s="189"/>
-      <c r="Z12" s="225"/>
-      <c r="AA12" s="225"/>
-      <c r="AB12" s="229"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="2:28">
-      <c r="B13" s="159"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="185"/>
+      <c r="Z12" s="236"/>
+      <c r="AA12" s="236"/>
+      <c r="AB12" s="240"/>
+    </row>
+    <row r="13" ht="28.5" customHeight="1" spans="2:28">
+      <c r="B13" s="159">
+        <v>12</v>
+      </c>
+      <c r="C13" s="174" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="184" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="193">
+        <v>43250</v>
+      </c>
+      <c r="K13" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="184" t="s">
+        <v>71</v>
+      </c>
       <c r="M13" s="211"/>
       <c r="N13" s="192"/>
       <c r="O13" s="192"/>
       <c r="P13" s="212"/>
-      <c r="Q13" s="222"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="233"/>
+      <c r="T13" s="233"/>
       <c r="U13" s="208"/>
       <c r="V13" s="208"/>
-      <c r="W13" s="223"/>
+      <c r="W13" s="234"/>
       <c r="X13" s="208"/>
       <c r="Y13" s="189"/>
-      <c r="Z13" s="225"/>
-      <c r="AA13" s="225"/>
-      <c r="AB13" s="229"/>
+      <c r="Z13" s="236"/>
+      <c r="AA13" s="236"/>
+      <c r="AB13" s="240"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="2:28">
-      <c r="B14" s="159"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="185"/>
+      <c r="B14" s="159">
+        <v>12</v>
+      </c>
+      <c r="C14" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="208" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="193">
+        <v>43250</v>
+      </c>
+      <c r="K14" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="184" t="s">
+        <v>74</v>
+      </c>
       <c r="M14" s="211"/>
       <c r="N14" s="192"/>
       <c r="O14" s="192"/>
       <c r="P14" s="212"/>
-      <c r="Q14" s="222"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
+      <c r="Q14" s="233"/>
+      <c r="R14" s="233"/>
+      <c r="S14" s="233"/>
+      <c r="T14" s="233"/>
       <c r="U14" s="208"/>
       <c r="V14" s="208"/>
-      <c r="W14" s="223"/>
+      <c r="W14" s="234"/>
       <c r="X14" s="208"/>
       <c r="Y14" s="189"/>
-      <c r="Z14" s="225"/>
-      <c r="AA14" s="225"/>
-      <c r="AB14" s="229"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="2:28">
-      <c r="B15" s="159"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="170"/>
+      <c r="Z14" s="236"/>
+      <c r="AA14" s="236"/>
+      <c r="AB14" s="240"/>
+    </row>
+    <row r="15" ht="24" spans="2:28">
+      <c r="B15" s="159">
+        <v>13</v>
+      </c>
+      <c r="C15" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="170" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="185"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="185"/>
+      <c r="I15" s="208" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="193">
+        <v>43217</v>
+      </c>
+      <c r="K15" s="209"/>
+      <c r="L15" s="213" t="s">
+        <v>76</v>
+      </c>
       <c r="M15" s="211"/>
       <c r="N15" s="192"/>
       <c r="O15" s="192"/>
       <c r="P15" s="212"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="233"/>
       <c r="U15" s="208"/>
       <c r="V15" s="208"/>
-      <c r="W15" s="223"/>
+      <c r="W15" s="234"/>
       <c r="X15" s="208"/>
       <c r="Y15" s="189"/>
-      <c r="Z15" s="225"/>
-      <c r="AA15" s="225"/>
-      <c r="AB15" s="229"/>
-    </row>
-    <row r="16" spans="16:16">
-      <c r="P16" s="162"/>
-    </row>
-    <row r="17" spans="16:16">
-      <c r="P17" s="162"/>
-    </row>
-    <row r="18" spans="16:16">
-      <c r="P18" s="162"/>
-    </row>
-    <row r="19" spans="16:16">
-      <c r="P19" s="162"/>
-    </row>
-    <row r="20" spans="16:16">
-      <c r="P20" s="162"/>
-    </row>
-    <row r="21" spans="16:16">
-      <c r="P21" s="162"/>
-    </row>
-    <row r="22" spans="16:16">
-      <c r="P22" s="162"/>
-    </row>
-    <row r="23" spans="16:16">
-      <c r="P23" s="162"/>
-    </row>
-    <row r="24" spans="16:16">
-      <c r="P24" s="162"/>
-    </row>
-    <row r="25" spans="16:16">
-      <c r="P25" s="162"/>
-    </row>
-    <row r="26" spans="16:16">
-      <c r="P26" s="162"/>
-    </row>
-    <row r="27" spans="16:16">
-      <c r="P27" s="162"/>
-    </row>
-    <row r="28" spans="16:16">
-      <c r="P28" s="162"/>
-    </row>
-    <row r="29" spans="16:16">
-      <c r="P29" s="162"/>
-    </row>
-    <row r="30" spans="16:16">
-      <c r="P30" s="162"/>
-    </row>
-    <row r="31" spans="16:16">
-      <c r="P31" s="162"/>
-    </row>
-    <row r="32" spans="16:16">
-      <c r="P32" s="162"/>
-    </row>
-    <row r="33" spans="16:16">
-      <c r="P33" s="162"/>
-    </row>
-    <row r="34" spans="16:16">
-      <c r="P34" s="162"/>
+      <c r="Z15" s="236"/>
+      <c r="AA15" s="236"/>
+      <c r="AB15" s="240"/>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" s="159">
+        <v>14</v>
+      </c>
+      <c r="C16" s="174"/>
+      <c r="D16" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="185"/>
+      <c r="I16" s="214" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="193">
+        <v>43238</v>
+      </c>
+      <c r="K16" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="215" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="211"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="233"/>
+      <c r="R16" s="233"/>
+      <c r="S16" s="233"/>
+      <c r="T16" s="233"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="208"/>
+      <c r="W16" s="234"/>
+      <c r="X16" s="208"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="236"/>
+      <c r="AA16" s="236"/>
+      <c r="AB16" s="240"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="159">
+        <v>15</v>
+      </c>
+      <c r="C17" s="174"/>
+      <c r="D17" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="185"/>
+      <c r="I17" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="193">
+        <v>43238</v>
+      </c>
+      <c r="K17" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="215" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="211"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="233"/>
+      <c r="S17" s="233"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="208"/>
+      <c r="V17" s="208"/>
+      <c r="W17" s="234"/>
+      <c r="X17" s="208"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="240"/>
+    </row>
+    <row r="18" ht="108" spans="2:28">
+      <c r="B18" s="159">
+        <v>16</v>
+      </c>
+      <c r="C18" s="174"/>
+      <c r="D18" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="185"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="193">
+        <v>43243</v>
+      </c>
+      <c r="K18" s="216" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="215" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="211"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="233"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="208"/>
+      <c r="W18" s="234"/>
+      <c r="X18" s="208"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="236"/>
+      <c r="AA18" s="236"/>
+      <c r="AB18" s="240"/>
+    </row>
+    <row r="19" ht="48" spans="2:28">
+      <c r="B19" s="159">
+        <v>17</v>
+      </c>
+      <c r="C19" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="217" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="193">
+        <v>43255</v>
+      </c>
+      <c r="K19" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="211"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="208"/>
+      <c r="V19" s="208"/>
+      <c r="W19" s="234"/>
+      <c r="X19" s="208"/>
+      <c r="Y19" s="189"/>
+      <c r="Z19" s="236"/>
+      <c r="AA19" s="236"/>
+      <c r="AB19" s="240"/>
+    </row>
+    <row r="20" ht="24" spans="2:28">
+      <c r="B20" s="159">
+        <v>18</v>
+      </c>
+      <c r="C20" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="217" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="193">
+        <v>43255</v>
+      </c>
+      <c r="K20" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="220" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="211"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="233"/>
+      <c r="R20" s="233"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
+      <c r="W20" s="234"/>
+      <c r="X20" s="208"/>
+      <c r="Y20" s="189"/>
+      <c r="Z20" s="236"/>
+      <c r="AA20" s="236"/>
+      <c r="AB20" s="240"/>
+    </row>
+    <row r="21" ht="36" spans="2:28">
+      <c r="B21" s="159">
+        <v>19</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="185" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="193">
+        <v>43257</v>
+      </c>
+      <c r="K21" s="222" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="223" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="211"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="212"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="208"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="208"/>
+      <c r="Y21" s="189"/>
+      <c r="Z21" s="236"/>
+      <c r="AA21" s="236"/>
+      <c r="AB21" s="240"/>
+    </row>
+    <row r="22" ht="48" spans="2:28">
+      <c r="B22" s="159">
+        <v>20</v>
+      </c>
+      <c r="C22" s="174" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="185" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="193">
+        <v>43257</v>
+      </c>
+      <c r="K22" s="222" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="223" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="211"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="233"/>
+      <c r="R22" s="233"/>
+      <c r="S22" s="233"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
+      <c r="W22" s="234"/>
+      <c r="X22" s="208"/>
+      <c r="Y22" s="189"/>
+      <c r="Z22" s="236"/>
+      <c r="AA22" s="236"/>
+      <c r="AB22" s="240"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B23" s="159"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="233"/>
+      <c r="T23" s="233"/>
+      <c r="U23" s="208"/>
+      <c r="V23" s="208"/>
+      <c r="W23" s="234"/>
+      <c r="X23" s="208"/>
+      <c r="Y23" s="189"/>
+      <c r="Z23" s="236"/>
+      <c r="AA23" s="236"/>
+      <c r="AB23" s="240"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B24" s="159"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="211"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="192"/>
+      <c r="P24" s="212"/>
+      <c r="Q24" s="233"/>
+      <c r="R24" s="233"/>
+      <c r="S24" s="233"/>
+      <c r="T24" s="233"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="208"/>
+      <c r="W24" s="234"/>
+      <c r="X24" s="208"/>
+      <c r="Y24" s="189"/>
+      <c r="Z24" s="236"/>
+      <c r="AA24" s="236"/>
+      <c r="AB24" s="240"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B25" s="159"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="212"/>
+      <c r="Q25" s="233"/>
+      <c r="R25" s="233"/>
+      <c r="S25" s="233"/>
+      <c r="T25" s="233"/>
+      <c r="U25" s="208"/>
+      <c r="V25" s="208"/>
+      <c r="W25" s="234"/>
+      <c r="X25" s="208"/>
+      <c r="Y25" s="189"/>
+      <c r="Z25" s="236"/>
+      <c r="AA25" s="236"/>
+      <c r="AB25" s="240"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B26" s="159"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="212"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="233"/>
+      <c r="T26" s="233"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
+      <c r="W26" s="234"/>
+      <c r="X26" s="208"/>
+      <c r="Y26" s="189"/>
+      <c r="Z26" s="236"/>
+      <c r="AA26" s="236"/>
+      <c r="AB26" s="240"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B27" s="159"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="211"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="192"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="233"/>
+      <c r="U27" s="208"/>
+      <c r="V27" s="208"/>
+      <c r="W27" s="234"/>
+      <c r="X27" s="208"/>
+      <c r="Y27" s="189"/>
+      <c r="Z27" s="236"/>
+      <c r="AA27" s="236"/>
+      <c r="AB27" s="240"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B28" s="159"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="233"/>
+      <c r="R28" s="233"/>
+      <c r="S28" s="233"/>
+      <c r="T28" s="233"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="234"/>
+      <c r="X28" s="208"/>
+      <c r="Y28" s="189"/>
+      <c r="Z28" s="236"/>
+      <c r="AA28" s="236"/>
+      <c r="AB28" s="240"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B29" s="159"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="192"/>
+      <c r="P29" s="212"/>
+      <c r="Q29" s="233"/>
+      <c r="R29" s="233"/>
+      <c r="S29" s="233"/>
+      <c r="T29" s="233"/>
+      <c r="U29" s="208"/>
+      <c r="V29" s="208"/>
+      <c r="W29" s="234"/>
+      <c r="X29" s="208"/>
+      <c r="Y29" s="189"/>
+      <c r="Z29" s="236"/>
+      <c r="AA29" s="236"/>
+      <c r="AB29" s="240"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B30" s="159"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="211"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="192"/>
+      <c r="P30" s="212"/>
+      <c r="Q30" s="233"/>
+      <c r="R30" s="233"/>
+      <c r="S30" s="233"/>
+      <c r="T30" s="233"/>
+      <c r="U30" s="208"/>
+      <c r="V30" s="208"/>
+      <c r="W30" s="234"/>
+      <c r="X30" s="208"/>
+      <c r="Y30" s="189"/>
+      <c r="Z30" s="236"/>
+      <c r="AA30" s="236"/>
+      <c r="AB30" s="240"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B31" s="159"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="192"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="233"/>
+      <c r="R31" s="233"/>
+      <c r="S31" s="233"/>
+      <c r="T31" s="233"/>
+      <c r="U31" s="208"/>
+      <c r="V31" s="208"/>
+      <c r="W31" s="234"/>
+      <c r="X31" s="208"/>
+      <c r="Y31" s="189"/>
+      <c r="Z31" s="236"/>
+      <c r="AA31" s="236"/>
+      <c r="AB31" s="240"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B32" s="159"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="192"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="233"/>
+      <c r="R32" s="233"/>
+      <c r="S32" s="233"/>
+      <c r="T32" s="233"/>
+      <c r="U32" s="208"/>
+      <c r="V32" s="208"/>
+      <c r="W32" s="234"/>
+      <c r="X32" s="208"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="236"/>
+      <c r="AA32" s="236"/>
+      <c r="AB32" s="240"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B33" s="159"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="212"/>
+      <c r="Q33" s="233"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="233"/>
+      <c r="T33" s="233"/>
+      <c r="U33" s="208"/>
+      <c r="V33" s="208"/>
+      <c r="W33" s="234"/>
+      <c r="X33" s="208"/>
+      <c r="Y33" s="189"/>
+      <c r="Z33" s="236"/>
+      <c r="AA33" s="236"/>
+      <c r="AB33" s="240"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B34" s="159"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="184"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="192"/>
+      <c r="P34" s="212"/>
+      <c r="Q34" s="233"/>
+      <c r="R34" s="233"/>
+      <c r="S34" s="233"/>
+      <c r="T34" s="233"/>
+      <c r="U34" s="208"/>
+      <c r="V34" s="208"/>
+      <c r="W34" s="234"/>
+      <c r="X34" s="208"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="236"/>
+      <c r="AA34" s="236"/>
+      <c r="AB34" s="240"/>
     </row>
     <row r="35" spans="16:16">
       <c r="P35" s="162"/>
@@ -8166,42 +9312,222 @@
     <row r="41" spans="16:16">
       <c r="P41" s="162"/>
     </row>
+    <row r="42" spans="16:16">
+      <c r="P42" s="162"/>
+    </row>
+    <row r="43" spans="16:16">
+      <c r="P43" s="162"/>
+    </row>
+    <row r="44" spans="16:16">
+      <c r="P44" s="162"/>
+    </row>
+    <row r="45" spans="16:16">
+      <c r="P45" s="162"/>
+    </row>
+    <row r="46" spans="16:16">
+      <c r="P46" s="162"/>
+    </row>
+    <row r="47" spans="16:16">
+      <c r="P47" s="162"/>
+    </row>
+    <row r="48" spans="16:16">
+      <c r="P48" s="162"/>
+    </row>
+    <row r="49" spans="16:16">
+      <c r="P49" s="162"/>
+    </row>
+    <row r="50" spans="16:16">
+      <c r="P50" s="162"/>
+    </row>
+    <row r="51" spans="16:16">
+      <c r="P51" s="162"/>
+    </row>
+    <row r="52" spans="16:16">
+      <c r="P52" s="162"/>
+    </row>
+    <row r="53" spans="16:16">
+      <c r="P53" s="162"/>
+    </row>
+    <row r="54" spans="16:16">
+      <c r="P54" s="162"/>
+    </row>
+    <row r="55" spans="16:16">
+      <c r="P55" s="162"/>
+    </row>
+    <row r="56" spans="16:16">
+      <c r="P56" s="162"/>
+    </row>
+    <row r="57" spans="16:16">
+      <c r="P57" s="162"/>
+    </row>
+    <row r="58" spans="16:16">
+      <c r="P58" s="162"/>
+    </row>
+    <row r="59" spans="16:16">
+      <c r="P59" s="162"/>
+    </row>
+    <row r="60" spans="16:16">
+      <c r="P60" s="162"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
       <formula>IF($B12="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="40" stopIfTrue="1">
       <formula>IF($B12="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L18">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
+      <formula>IF($B18="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+      <formula>IF($B18="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>IF($B20="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>IF($B22="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L17">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+      <formula>IF($B16="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>IF($B16="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19 K19">
+    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
+      <formula>IF($B19="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L22 K21:K22">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>IF($B21="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:T7 F13:F65516 P10:T15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:T7 P34:T34 F34:F65535 P10:T14 P15:T18 P19:T33">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 E14 E15 E16 E17 E18 E19 E20 E34 E21:E33">
+      <formula1>"新規,変更"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D19 D20 D34 D8:D13 D15:D18 D21:D33">
+      <formula1>"未着手,対応判断中,対応中,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F2:F13 F21:F33">
+      <formula1>発生段階</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15 G16 G17 G18 G19 G20 G34 G2:G14 G21:G33">
+      <formula1>"DB,ソース,テストケース,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N34 N2:N14 N15:N18 N19:N33">
+      <formula1>"●,✖"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34 O2:O14 O15:O18 O19:O33">
+      <formula1>"高,中,低,実害無し"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z34:AA34 Z2:AA14 Z15:AA18 Z19:AA33">
+      <formula1>"○,×"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>STS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D15">
-      <formula1>"未着手,対応判断中,対応中,完了"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
       <formula1>対応区分</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E15">
-      <formula1>"新規,変更"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
-      <formula1>発生段階</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15">
-      <formula1>"DB,ソース,テストケース,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N15">
-      <formula1>"●,✖"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15">
-      <formula1>"高,中,低,実害無し"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6 P8:P9">
       <formula1>現象区分</formula1>
@@ -8217,9 +9543,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6 T8:T9">
       <formula1>原因工程</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:AA15">
-      <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.196527777777778" right="0.313888888888889" top="0.707638888888889" bottom="0.55" header="0.393055555555556" footer="0.393055555555556"/>
@@ -8262,7 +9585,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:10">
       <c r="B2" s="68" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C2" s="68"/>
       <c r="E2" s="67"/>
@@ -8278,19 +9601,19 @@
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:5">
       <c r="B4" s="73" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="75">
-        <f>COUNTIF(単体障害一覧!P$2:P$405,B4)</f>
+        <f>COUNTIF(単体障害一覧!P$2:P$424,B4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="76" t="e">
@@ -8300,11 +9623,11 @@
     </row>
     <row r="5" customHeight="1" spans="2:5">
       <c r="B5" s="77" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="79">
-        <f>COUNTIF(単体障害一覧!P$2:P$405,B5)</f>
+        <f>COUNTIF(単体障害一覧!P$2:P$424,B5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="76" t="e">
@@ -8350,12 +9673,12 @@
     </row>
     <row r="12" customHeight="1" spans="2:2">
       <c r="B12" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="84" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
@@ -8381,7 +9704,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:3">
       <c r="B21" s="68" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C21" s="68"/>
     </row>
@@ -8391,19 +9714,19 @@
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
       <c r="B23" s="73" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="75">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B23)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B23)</f>
         <v>0</v>
       </c>
       <c r="E23" s="85" t="e">
@@ -8413,11 +9736,11 @@
     </row>
     <row r="24" customHeight="1" spans="2:5">
       <c r="B24" s="77" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B24)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B24)</f>
         <v>0</v>
       </c>
       <c r="E24" s="86" t="e">
@@ -8427,11 +9750,11 @@
     </row>
     <row r="25" customHeight="1" spans="2:5">
       <c r="B25" s="77" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B25)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B25)</f>
         <v>0</v>
       </c>
       <c r="E25" s="86" t="e">
@@ -8441,11 +9764,11 @@
     </row>
     <row r="26" customHeight="1" spans="2:5">
       <c r="B26" s="77" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B26)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B26)</f>
         <v>0</v>
       </c>
       <c r="E26" s="86" t="e">
@@ -8455,11 +9778,11 @@
     </row>
     <row r="27" customHeight="1" spans="2:5">
       <c r="B27" s="77" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B27)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B27)</f>
         <v>0</v>
       </c>
       <c r="E27" s="86" t="e">
@@ -8469,11 +9792,11 @@
     </row>
     <row r="28" customHeight="1" spans="2:5">
       <c r="B28" s="77" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B28)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B28)</f>
         <v>0</v>
       </c>
       <c r="E28" s="86" t="e">
@@ -8483,11 +9806,11 @@
     </row>
     <row r="29" customHeight="1" spans="2:5">
       <c r="B29" s="77" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B29)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B29)</f>
         <v>0</v>
       </c>
       <c r="E29" s="86" t="e">
@@ -8497,11 +9820,11 @@
     </row>
     <row r="30" customHeight="1" spans="2:5">
       <c r="B30" s="77" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B30)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B30)</f>
         <v>0</v>
       </c>
       <c r="E30" s="86" t="e">
@@ -8511,11 +9834,11 @@
     </row>
     <row r="31" customHeight="1" spans="2:5">
       <c r="B31" s="77" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B31)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B31)</f>
         <v>0</v>
       </c>
       <c r="E31" s="86" t="e">
@@ -8525,11 +9848,11 @@
     </row>
     <row r="32" customHeight="1" spans="2:5">
       <c r="B32" s="77" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B32)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B32)</f>
         <v>0</v>
       </c>
       <c r="E32" s="86" t="e">
@@ -8539,11 +9862,11 @@
     </row>
     <row r="33" customHeight="1" spans="2:5">
       <c r="B33" s="77" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="79">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B33)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B33)</f>
         <v>0</v>
       </c>
       <c r="E33" s="86" t="e">
@@ -8553,11 +9876,11 @@
     </row>
     <row r="34" customHeight="1" spans="2:5">
       <c r="B34" s="80" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="82">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$405,B34)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$424,B34)</f>
         <v>0</v>
       </c>
       <c r="E34" s="87" t="e">
@@ -8567,12 +9890,12 @@
     </row>
     <row r="35" customHeight="1" spans="2:2">
       <c r="B35" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:5">
       <c r="B36" s="84" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C36" s="84"/>
       <c r="D36" s="84"/>
@@ -8598,7 +9921,7 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="2:3">
       <c r="B43" s="68" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C43" s="68"/>
     </row>
@@ -8608,19 +9931,19 @@
       </c>
       <c r="C44" s="70"/>
       <c r="D44" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E44" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:5">
       <c r="B45" s="73" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C45" s="74"/>
       <c r="D45" s="75">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B45)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B45)</f>
         <v>0</v>
       </c>
       <c r="E45" s="85" t="e">
@@ -8630,11 +9953,11 @@
     </row>
     <row r="46" customHeight="1" spans="2:5">
       <c r="B46" s="77" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C46" s="78"/>
       <c r="D46" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B46)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B46)</f>
         <v>0</v>
       </c>
       <c r="E46" s="86" t="e">
@@ -8644,11 +9967,11 @@
     </row>
     <row r="47" customHeight="1" spans="2:5">
       <c r="B47" s="77" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C47" s="78"/>
       <c r="D47" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B47)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B47)</f>
         <v>0</v>
       </c>
       <c r="E47" s="86" t="e">
@@ -8658,11 +9981,11 @@
     </row>
     <row r="48" customHeight="1" spans="2:5">
       <c r="B48" s="77" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C48" s="78"/>
       <c r="D48" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B48)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B48)</f>
         <v>0</v>
       </c>
       <c r="E48" s="86" t="e">
@@ -8672,11 +9995,11 @@
     </row>
     <row r="49" customHeight="1" spans="2:5">
       <c r="B49" s="77" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C49" s="78"/>
       <c r="D49" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B49)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B49)</f>
         <v>0</v>
       </c>
       <c r="E49" s="86" t="e">
@@ -8686,11 +10009,11 @@
     </row>
     <row r="50" customHeight="1" spans="2:5">
       <c r="B50" s="77" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B50)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B50)</f>
         <v>0</v>
       </c>
       <c r="E50" s="86" t="e">
@@ -8700,11 +10023,11 @@
     </row>
     <row r="51" customHeight="1" spans="2:5">
       <c r="B51" s="77" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C51" s="78"/>
       <c r="D51" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B51)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B51)</f>
         <v>0</v>
       </c>
       <c r="E51" s="86" t="e">
@@ -8714,11 +10037,11 @@
     </row>
     <row r="52" customHeight="1" spans="2:5">
       <c r="B52" s="77" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C52" s="78"/>
       <c r="D52" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B52)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B52)</f>
         <v>0</v>
       </c>
       <c r="E52" s="86" t="e">
@@ -8728,11 +10051,11 @@
     </row>
     <row r="53" customHeight="1" spans="2:5">
       <c r="B53" s="77" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C53" s="78"/>
       <c r="D53" s="79">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B53)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B53)</f>
         <v>0</v>
       </c>
       <c r="E53" s="86" t="e">
@@ -8742,11 +10065,11 @@
     </row>
     <row r="54" customHeight="1" spans="2:5">
       <c r="B54" s="80" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C54" s="81"/>
       <c r="D54" s="82">
-        <f>COUNTIF(単体障害一覧!R$2:R$405,B54)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$424,B54)</f>
         <v>0</v>
       </c>
       <c r="E54" s="87" t="e">
@@ -8756,12 +10079,12 @@
     </row>
     <row r="55" customHeight="1" spans="2:2">
       <c r="B55" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:5">
       <c r="B56" s="84" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
@@ -8787,7 +10110,7 @@
     </row>
     <row r="64" customHeight="1" spans="2:3">
       <c r="B64" s="68" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C64" s="68"/>
     </row>
@@ -8797,19 +10120,19 @@
       </c>
       <c r="C65" s="89"/>
       <c r="D65" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E65" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:5">
       <c r="B66" s="90" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C66" s="91"/>
       <c r="D66" s="75">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B66)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B66)</f>
         <v>0</v>
       </c>
       <c r="E66" s="85" t="e">
@@ -8819,11 +10142,11 @@
     </row>
     <row r="67" customHeight="1" spans="2:5">
       <c r="B67" s="92" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C67" s="93"/>
       <c r="D67" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B67)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B67)</f>
         <v>0</v>
       </c>
       <c r="E67" s="86" t="e">
@@ -8833,11 +10156,11 @@
     </row>
     <row r="68" customHeight="1" spans="2:5">
       <c r="B68" s="92" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C68" s="93"/>
       <c r="D68" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B68)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B68)</f>
         <v>0</v>
       </c>
       <c r="E68" s="86" t="e">
@@ -8847,11 +10170,11 @@
     </row>
     <row r="69" customHeight="1" spans="2:5">
       <c r="B69" s="92" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C69" s="93"/>
       <c r="D69" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B69)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B69)</f>
         <v>0</v>
       </c>
       <c r="E69" s="86" t="e">
@@ -8861,11 +10184,11 @@
     </row>
     <row r="70" customHeight="1" spans="2:5">
       <c r="B70" s="92" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C70" s="93"/>
       <c r="D70" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B70)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B70)</f>
         <v>0</v>
       </c>
       <c r="E70" s="86" t="e">
@@ -8875,7 +10198,7 @@
     </row>
     <row r="71" customHeight="1" spans="2:5">
       <c r="B71" s="92" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C71" s="93"/>
       <c r="D71" s="79"/>
@@ -8883,7 +10206,7 @@
     </row>
     <row r="72" customHeight="1" spans="2:5">
       <c r="B72" s="92" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C72" s="93"/>
       <c r="D72" s="79"/>
@@ -8891,7 +10214,7 @@
     </row>
     <row r="73" customHeight="1" spans="2:5">
       <c r="B73" s="92" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C73" s="93"/>
       <c r="D73" s="79"/>
@@ -8899,11 +10222,11 @@
     </row>
     <row r="74" customHeight="1" spans="2:5">
       <c r="B74" s="92" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C74" s="93"/>
       <c r="D74" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B74)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B74)</f>
         <v>0</v>
       </c>
       <c r="E74" s="86" t="e">
@@ -8913,11 +10236,11 @@
     </row>
     <row r="75" customHeight="1" spans="2:5">
       <c r="B75" s="92" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C75" s="93"/>
       <c r="D75" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B75)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B75)</f>
         <v>0</v>
       </c>
       <c r="E75" s="86" t="e">
@@ -8927,11 +10250,11 @@
     </row>
     <row r="76" customHeight="1" spans="2:5">
       <c r="B76" s="92" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C76" s="93"/>
       <c r="D76" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B76)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B76)</f>
         <v>0</v>
       </c>
       <c r="E76" s="86" t="e">
@@ -8941,11 +10264,11 @@
     </row>
     <row r="77" customHeight="1" spans="2:5">
       <c r="B77" s="92" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C77" s="93"/>
       <c r="D77" s="79">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B77)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B77)</f>
         <v>0</v>
       </c>
       <c r="E77" s="86" t="e">
@@ -8955,11 +10278,11 @@
     </row>
     <row r="78" customHeight="1" spans="2:5">
       <c r="B78" s="94" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C78" s="95"/>
       <c r="D78" s="82">
-        <f>COUNTIF(単体障害一覧!S$2:S$405,B78)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$424,B78)</f>
         <v>0</v>
       </c>
       <c r="E78" s="87" t="e">
@@ -8969,14 +10292,14 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="2:5">
       <c r="B79" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="65"/>
     </row>
     <row r="80" ht="23.25" customHeight="1" spans="2:7">
       <c r="B80" s="84" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C80" s="84"/>
       <c r="D80" s="84"/>
@@ -9010,7 +10333,7 @@
     </row>
     <row r="84" customHeight="1" spans="2:3">
       <c r="B84" s="68" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C84" s="68"/>
     </row>
@@ -9020,19 +10343,19 @@
       </c>
       <c r="C85" s="89"/>
       <c r="D85" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E85" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:5">
       <c r="B86" s="90" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C86" s="91"/>
       <c r="D86" s="75">
-        <f>COUNTIF(単体障害一覧!T$2:T$405,B86)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$424,B86)</f>
         <v>0</v>
       </c>
       <c r="E86" s="85" t="e">
@@ -9042,11 +10365,11 @@
     </row>
     <row r="87" customHeight="1" spans="2:5">
       <c r="B87" s="92" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C87" s="93"/>
       <c r="D87" s="79">
-        <f>COUNTIF(単体障害一覧!T$2:T$405,B87)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$424,B87)</f>
         <v>0</v>
       </c>
       <c r="E87" s="86" t="e">
@@ -9056,11 +10379,11 @@
     </row>
     <row r="88" customHeight="1" spans="2:5">
       <c r="B88" s="92" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C88" s="93"/>
       <c r="D88" s="79">
-        <f>COUNTIF(単体障害一覧!T$2:T$405,B88)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$424,B88)</f>
         <v>0</v>
       </c>
       <c r="E88" s="86" t="e">
@@ -9070,11 +10393,11 @@
     </row>
     <row r="89" customHeight="1" spans="2:5">
       <c r="B89" s="94" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C89" s="95"/>
       <c r="D89" s="82">
-        <f>COUNTIF(単体障害一覧!T$2:T$405,B89)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$424,B89)</f>
         <v>0</v>
       </c>
       <c r="E89" s="87" t="e">
@@ -9084,14 +10407,14 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="2:5">
       <c r="B90" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D90" s="65"/>
       <c r="E90" s="65"/>
     </row>
     <row r="91" ht="23.25" customHeight="1" spans="2:7">
       <c r="B91" s="84" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C91" s="84"/>
       <c r="D91" s="84"/>
@@ -9125,7 +10448,7 @@
     </row>
     <row r="95" customHeight="1" spans="2:3">
       <c r="B95" s="68" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C95" s="68"/>
     </row>
@@ -9135,19 +10458,19 @@
       </c>
       <c r="C96" s="89"/>
       <c r="D96" s="71" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E96" s="72" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:5">
       <c r="B97" s="90" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C97" s="91"/>
       <c r="D97" s="75">
-        <f>COUNTIF(単体障害一覧!B$2:B$405,B97)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$424,B97)</f>
         <v>0</v>
       </c>
       <c r="E97" s="85" t="e">
@@ -9161,7 +10484,7 @@
       </c>
       <c r="C98" s="93"/>
       <c r="D98" s="79">
-        <f>COUNTIF(単体障害一覧!B$2:B$405,B98)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$424,B98)</f>
         <v>0</v>
       </c>
       <c r="E98" s="86" t="e">
@@ -9171,11 +10494,11 @@
     </row>
     <row r="99" customHeight="1" spans="2:5">
       <c r="B99" s="94" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C99" s="95"/>
       <c r="D99" s="82">
-        <f>COUNTIF(単体障害一覧!B$2:B$405,B99)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$424,B99)</f>
         <v>0</v>
       </c>
       <c r="E99" s="87" t="e">
@@ -9185,14 +10508,14 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="2:5">
       <c r="B100" s="66" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D100" s="65"/>
       <c r="E100" s="65"/>
     </row>
     <row r="101" ht="23.25" customHeight="1" spans="2:7">
       <c r="B101" s="84" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C101" s="84"/>
       <c r="D101" s="84"/>
@@ -9227,7 +10550,7 @@
     <row r="105" s="63" customFormat="1" ht="12.75" customHeight="1" spans="1:50">
       <c r="A105" s="97"/>
       <c r="B105" s="97" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C105" s="98"/>
       <c r="D105" s="99"/>
@@ -9249,37 +10572,37 @@
     </row>
     <row r="106" s="64" customFormat="1" ht="15.75" customHeight="1" spans="2:26">
       <c r="B106" s="100" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C106" s="101" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D106" s="102" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E106" s="103"/>
       <c r="F106" s="104" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G106" s="105"/>
       <c r="H106" s="106"/>
       <c r="I106" s="104" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="J106" s="105"/>
       <c r="K106" s="105"/>
       <c r="L106" s="106"/>
       <c r="M106" s="104" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="N106" s="105"/>
       <c r="O106" s="105"/>
       <c r="P106" s="106"/>
       <c r="Q106" s="124" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="R106" s="124" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="U106" s="136"/>
       <c r="V106" s="136"/>
@@ -9290,34 +10613,34 @@
     </row>
     <row r="107" s="63" customFormat="1" ht="35.25" customHeight="1" spans="2:26">
       <c r="B107" s="107" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C107" s="108" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D107" s="109" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E107" s="110"/>
       <c r="F107" s="111" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G107" s="112"/>
       <c r="H107" s="113"/>
       <c r="I107" s="111" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="J107" s="112"/>
       <c r="K107" s="112"/>
       <c r="L107" s="113"/>
       <c r="M107" s="134" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N107" s="134"/>
       <c r="O107" s="134"/>
       <c r="P107" s="134"/>
       <c r="Q107" s="137" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R107" s="138">
         <v>39603</v>
@@ -9564,7 +10887,7 @@
     </row>
     <row r="118" customHeight="1" spans="2:7">
       <c r="B118" s="68" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C118" s="68"/>
       <c r="F118" s="96"/>
@@ -9572,22 +10895,22 @@
     </row>
     <row r="119" customHeight="1" spans="2:7">
       <c r="B119" s="123" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C119" s="123" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D119" s="123" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E119" s="123" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="F119" s="124" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G119" s="125" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:7">
@@ -9603,11 +10926,11 @@
         <v>39707</v>
       </c>
       <c r="C121" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B121)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B121)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D121" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B121)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B121)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E121" s="130">
@@ -9629,11 +10952,11 @@
         <v>39713</v>
       </c>
       <c r="C122" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B122)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B122)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D122" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B122)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B122)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E122" s="130" t="e">
@@ -9655,11 +10978,11 @@
         <v>39719</v>
       </c>
       <c r="C123" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B123)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B123)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D123" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B123)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B123)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E123" s="130" t="e">
@@ -9681,11 +11004,11 @@
         <v>39725</v>
       </c>
       <c r="C124" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B124)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B124)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D124" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B124)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B124)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E124" s="130" t="e">
@@ -9707,11 +11030,11 @@
         <v>39731</v>
       </c>
       <c r="C125" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B125)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B125)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D125" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B125)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B125)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E125" s="130" t="e">
@@ -9733,11 +11056,11 @@
         <v>39737</v>
       </c>
       <c r="C126" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B126)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B126)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D126" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B126)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B126)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E126" s="130" t="e">
@@ -9759,11 +11082,11 @@
         <v>39743</v>
       </c>
       <c r="C127" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B127)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B127)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D127" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B127)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B127)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E127" s="130" t="e">
@@ -9785,11 +11108,11 @@
         <v>39749</v>
       </c>
       <c r="C128" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B128)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B128)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D128" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B128)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B128)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E128" s="130" t="e">
@@ -9811,11 +11134,11 @@
         <v>39755</v>
       </c>
       <c r="C129" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B129)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B129)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D129" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B129)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B129)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E129" s="130" t="e">
@@ -9837,11 +11160,11 @@
         <v>39761</v>
       </c>
       <c r="C130" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B130)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B130)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D130" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B130)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B130)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E130" s="130" t="e">
@@ -9863,11 +11186,11 @@
         <v>39767</v>
       </c>
       <c r="C131" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B131)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B131)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D131" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B131)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B131)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E131" s="130" t="e">
@@ -9889,11 +11212,11 @@
         <v>39773</v>
       </c>
       <c r="C132" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B132)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B132)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D132" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B132)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B132)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E132" s="130" t="e">
@@ -9915,11 +11238,11 @@
         <v>39779</v>
       </c>
       <c r="C133" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B133)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B133)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D133" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B133)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B133)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E133" s="130" t="e">
@@ -9941,11 +11264,11 @@
         <v>39785</v>
       </c>
       <c r="C134" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B134)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B134)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D134" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B134)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B134)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E134" s="130" t="e">
@@ -9967,11 +11290,11 @@
         <v>39791</v>
       </c>
       <c r="C135" s="129">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$405&lt;B135)*(単体障害一覧!J$2:J$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$424&lt;B135)*(単体障害一覧!J$2:J$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D135" s="129">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$405&lt;B135)*(単体障害一覧!Y$2:Y$405&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$424&lt;B135)*(単体障害一覧!Y$2:Y$424&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E135" s="130" t="e">
@@ -9998,7 +11321,7 @@
     </row>
     <row r="137" s="65" customFormat="1" ht="12" customHeight="1" spans="2:12">
       <c r="B137" s="65" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C137" s="145"/>
       <c r="D137" s="145"/>
@@ -10013,7 +11336,7 @@
     </row>
     <row r="138" s="65" customFormat="1" ht="59.25" customHeight="1" spans="2:12">
       <c r="B138" s="148" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C138" s="148"/>
       <c r="D138" s="148"/>
@@ -10041,7 +11364,7 @@
     </row>
     <row r="140" s="65" customFormat="1" ht="14.25" customHeight="1" spans="2:12">
       <c r="B140" s="149" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C140" s="145"/>
       <c r="D140" s="145"/>
@@ -10056,13 +11379,13 @@
     </row>
     <row r="141" s="65" customFormat="1" ht="14.25" customHeight="1" spans="2:13">
       <c r="B141" s="123" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C141" s="150" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D141" s="150" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E141" s="150"/>
       <c r="F141" s="150"/>
@@ -10081,7 +11404,7 @@
         <v>39707</v>
       </c>
       <c r="C142" s="153" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
@@ -10242,7 +11565,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -10250,7 +11573,7 @@
     </row>
     <row r="2" spans="3:55">
       <c r="C2" s="23" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -10307,20 +11630,20 @@
     </row>
     <row r="3" spans="4:55">
       <c r="D3" s="25" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="25" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27"/>
       <c r="M3" s="25" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
@@ -10328,14 +11651,14 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="27"/>
       <c r="S3" s="25" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="27"/>
       <c r="X3" s="36" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="Y3" s="37"/>
       <c r="Z3" s="37"/>
@@ -10343,7 +11666,7 @@
       <c r="AB3" s="37"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="36" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AE3" s="37"/>
       <c r="AF3" s="37"/>
@@ -10352,19 +11675,19 @@
       <c r="AI3" s="37"/>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="25" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="AL3" s="26"/>
       <c r="AM3" s="26"/>
       <c r="AN3" s="27"/>
       <c r="AO3" s="25" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="26"/>
       <c r="AR3" s="27"/>
       <c r="AS3" s="36" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AT3" s="37"/>
       <c r="AU3" s="37"/>
@@ -10374,7 +11697,7 @@
       <c r="AY3" s="37"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="25" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="BB3" s="26"/>
       <c r="BC3" s="27"/>
@@ -10422,7 +11745,7 @@
       <c r="AQ4" s="29"/>
       <c r="AR4" s="30"/>
       <c r="AS4" s="39" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="AT4" s="40"/>
       <c r="AU4" s="40"/>
@@ -10437,20 +11760,20 @@
     </row>
     <row r="5" spans="4:55">
       <c r="D5" s="31" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
       <c r="H5" s="31" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
       <c r="M5" s="31" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
@@ -10458,14 +11781,14 @@
       <c r="Q5" s="32"/>
       <c r="R5" s="33"/>
       <c r="S5" s="51" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
       <c r="W5" s="50"/>
       <c r="X5" s="58" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
@@ -10473,7 +11796,7 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="50"/>
       <c r="AD5" s="51" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
@@ -10494,7 +11817,7 @@
       <c r="AQ5" s="32"/>
       <c r="AR5" s="33"/>
       <c r="AS5" s="31" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AT5" s="32"/>
       <c r="AU5" s="32"/>
@@ -10565,31 +11888,31 @@
     </row>
     <row r="7" ht="22.5" spans="4:23">
       <c r="D7" s="23" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="W7" s="60" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="4:33">
       <c r="D8" s="35" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38"/>
       <c r="I8" s="36" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="38"/>
       <c r="N8" s="36" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -10614,20 +11937,20 @@
     <row r="9" spans="4:33">
       <c r="D9" s="35"/>
       <c r="E9" s="39" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="41"/>
       <c r="N9" s="53" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -10660,14 +11983,14 @@
       <c r="G10" s="44"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="46" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
@@ -10689,7 +12012,7 @@
       <c r="AF10" s="44"/>
       <c r="AG10" s="45"/>
       <c r="AH10" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="4:34">
@@ -10703,14 +12026,14 @@
       <c r="G11" s="44"/>
       <c r="H11" s="45"/>
       <c r="I11" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
       <c r="N11" s="54" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
@@ -10732,7 +12055,7 @@
       <c r="AF11" s="55"/>
       <c r="AG11" s="61"/>
       <c r="AH11" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="4:34">
@@ -10746,14 +12069,14 @@
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
       <c r="I12" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="56" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
@@ -10775,7 +12098,7 @@
       <c r="AF12" s="57"/>
       <c r="AG12" s="62"/>
       <c r="AH12" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="4:34">
@@ -10789,14 +12112,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
       <c r="N13" s="56" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
@@ -10818,23 +12141,23 @@
       <c r="AF13" s="57"/>
       <c r="AG13" s="62"/>
       <c r="AH13" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="23" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="4:25">
       <c r="D17" s="47" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
       <c r="H17" s="36" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -10845,7 +12168,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="36" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
@@ -10858,13 +12181,13 @@
     </row>
     <row r="18" spans="4:25">
       <c r="D18" s="48" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -10875,7 +12198,7 @@
       <c r="O18" s="40"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="39" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
@@ -10888,13 +12211,13 @@
     </row>
     <row r="19" spans="4:25">
       <c r="D19" s="49" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="50"/>
       <c r="H19" s="51" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -10905,7 +12228,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="51" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
@@ -10918,13 +12241,13 @@
     </row>
     <row r="20" spans="4:25">
       <c r="D20" s="49" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="50"/>
       <c r="H20" s="51" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -10935,7 +12258,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="51" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
@@ -10948,33 +12271,33 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="22" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" ht="22.5" spans="4:4">
       <c r="D23" s="23" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="4:33">
       <c r="D24" s="35" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="38"/>
       <c r="I24" s="36" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="38"/>
       <c r="N24" s="36" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -10999,20 +12322,20 @@
     <row r="25" spans="4:33">
       <c r="D25" s="35"/>
       <c r="E25" s="39" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
       <c r="I25" s="39" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
       <c r="N25" s="53" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -11045,14 +12368,14 @@
       <c r="G26" s="44"/>
       <c r="H26" s="45"/>
       <c r="I26" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
       <c r="N26" s="54" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
@@ -11085,14 +12408,14 @@
       <c r="G27" s="44"/>
       <c r="H27" s="45"/>
       <c r="I27" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
       <c r="N27" s="56" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="O27" s="57"/>
       <c r="P27" s="57"/>
@@ -11125,14 +12448,14 @@
       <c r="G28" s="44"/>
       <c r="H28" s="45"/>
       <c r="I28" s="46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
       <c r="N28" s="56" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="O28" s="57"/>
       <c r="P28" s="57"/>
@@ -11165,14 +12488,14 @@
       <c r="G29" s="44"/>
       <c r="H29" s="45"/>
       <c r="I29" s="43" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
       <c r="N29" s="56" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O29" s="57"/>
       <c r="P29" s="57"/>
@@ -11196,111 +12519,111 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="22" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="4:16">
       <c r="D58" s="52" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
@@ -11317,7 +12640,7 @@
     </row>
     <row r="59" spans="4:16">
       <c r="D59" s="52" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -11374,7 +12697,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:9">
@@ -11382,13 +12705,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -11414,100 +12737,100 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" ht="12" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="12" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="12" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="12" spans="1:9">
@@ -11517,13 +12840,13 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I7" s="19"/>
     </row>
@@ -11534,13 +12857,13 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -11551,13 +12874,13 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -11568,13 +12891,13 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="I10" s="21"/>
     </row>
@@ -11585,13 +12908,13 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I11" s="21"/>
     </row>
@@ -11602,13 +12925,13 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -11619,11 +12942,11 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="8" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I13" s="21"/>
     </row>
@@ -11634,11 +12957,11 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="8" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I14" s="21"/>
     </row>
@@ -11651,7 +12974,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="11"/>
       <c r="H15" s="8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I15" s="21"/>
     </row>
@@ -11664,7 +12987,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -11681,17 +13004,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="490"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="221">
   <si>
     <t>通番</t>
   </si>
@@ -1635,6 +1635,75 @@
     </r>
   </si>
   <si>
+    <t>随時対応一覧</t>
+  </si>
+  <si>
+    <t>随時対応一覧-&gt;値上げ更新-&gt;変更-&gt;ファイル-支払能力を証明できる書類</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>后，无法保存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>更新代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码后无此问题</t>
+    </r>
+  </si>
+  <si>
     <t>ホワイトボード -&gt;チラシ配布資料 -&gt;一時保存
 ホワイトボード -&gt;チラシ配布資料 -&gt;決定</t>
   </si>
@@ -1923,7 +1992,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>马鸿</t>
+      <t>增加</t>
     </r>
     <r>
       <rPr>
@@ -1931,10 +2000,8 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
       </rPr>
-      <t>涛</t>
-    </r>
-  </si>
-  <si>
+      <t>“任意保険・自賠責保険更新-&gt;自賠責保険</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1942,7 +2009,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加</t>
+      <t>”时，点击</t>
     </r>
     <r>
       <rPr>
@@ -1950,7 +2017,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
       </rPr>
-      <t>“任意保険・自賠責保険更新-&gt;自賠責保険</t>
+      <t>“次へ</t>
     </r>
     <r>
       <rPr>
@@ -1959,16 +2026,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>”时，点击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>“次へ</t>
-    </r>
+      <t>”，数据同时保存了两条，见图No.001-005；</t>
+    </r>
+  </si>
+  <si>
+    <t>003-001-191</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1976,13 +2040,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>”，数据同时保存了两条，见图No.001-005；</t>
-    </r>
-  </si>
-  <si>
-    <t>003-001-191</t>
-  </si>
-  <si>
+      <t>测试点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>003-001-191</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1990,15 +2057,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>测试点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+      <t>自賠責保険</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>003-001-191</t>
+      <t>･</t>
     </r>
     <r>
       <rPr>
@@ -2007,7 +2074,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>自賠責保険</t>
+      <t>任意保険一覧画面，手动添加自賠責保険或任意保険后，在自賠責保険</t>
     </r>
     <r>
       <rPr>
@@ -2024,15 +2091,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>任意保険一覧画面，手动添加自賠責保険或任意保険后，在自賠責保険</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>･</t>
+      <t>任意保険一覧画面看不到相应数据；
+由此引来下面的问题：“随时对应”里面筛选出来的“任意保険</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -2041,8 +2110,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>任意保険一覧画面看不到相应数据；
-由此引来下面的问题：“随时对应”里面筛选出来的“任意保険</t>
+      <t>自賠責保険”和“任意保険</t>
     </r>
     <r>
       <rPr>
@@ -2060,17 +2128,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>自賠責保険”和“任意保険</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
+      <t>自賠責保険”里面的数据为什么会不同？</t>
+    </r>
+  </si>
+  <si>
+    <t>代码报错</t>
+  </si>
+  <si>
+    <t>対応判断中</t>
+  </si>
+  <si>
+    <t>単体結果検収</t>
+  </si>
+  <si>
+    <t>项目代码报错</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2078,23 +2151,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>自賠責保険”里面的数据为什么会不同？</t>
-    </r>
-  </si>
-  <si>
-    <t>代码报错</t>
-  </si>
-  <si>
-    <t>対応判断中</t>
-  </si>
-  <si>
-    <t>単体結果検収</t>
-  </si>
-  <si>
-    <t>项目代码报错</t>
-  </si>
-  <si>
-    <r>
       <t>更新</t>
     </r>
     <r>
@@ -2113,6 +2169,62 @@
         <charset val="134"/>
       </rPr>
       <t>项目代码，运行报错；</t>
+    </r>
+  </si>
+  <si>
+    <t>請求管理</t>
+  </si>
+  <si>
+    <t>004-001-009</t>
+  </si>
+  <si>
+    <t>請求管理→入金導入履歴</t>
+  </si>
+  <si>
+    <t>004-001-021</t>
+  </si>
+  <si>
+    <t>請求管理→駐車場別請求一覧</t>
+  </si>
+  <si>
+    <r>
+      <t>請求管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-&gt;駐車場別請求一覧,検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”失败，无法搜索所在地；</t>
     </r>
   </si>
   <si>
@@ -2483,16 +2595,6 @@
     <t>　　　　　　　　　　改修テーマ：0.7～1.2件/KLOC</t>
   </si>
   <si>
-    <t>請求管理→入金導入履歴</t>
-  </si>
-  <si>
-    <t>004-001-009</t>
-  </si>
-  <si>
-    <t>請求管理</t>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2507,7 +2609,6 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>行</t>
     </r>
@@ -2525,7 +2626,6 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>EXCEL</t>
     </r>
@@ -2540,47 +2640,42 @@
 手动测试时无弹出框。
 </t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>传证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>追记：问题已解决。
+原因是：点击按钮后，由于网速原因页面没有加载出来就需要点击页面上的元素
+解决办法：等待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，无法保存</t>
+      <t>秒</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
     </r>
     <r>
       <rPr>
@@ -2589,20 +2684,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <t>随時対応一覧-&gt;値上げ更新-&gt;変更-&gt;ファイル-支払能力を証明できる書類</t>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <t>随時対応一覧</t>
-  </si>
-  <si>
-    <r>
-      <t>更新代</t>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>入金按</t>
     </r>
     <r>
       <rPr>
@@ -2611,9 +2701,172 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>码后无此问题</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+      <t>钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>后，会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>送一封主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>“【エリア・パーキング】駐車場賃料に関するお知らせ”的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">件。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>件与“繰越一覧”画面可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>送的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>件内容一致，只是不包含客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>具体信息。疑似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">多余操作。
+</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2623,16 +2876,16 @@
   <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="182" formatCode="m/d"/>
     <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="184" formatCode="0.0_ "/>
     <numFmt numFmtId="185" formatCode="0_ "/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2708,11 +2961,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2724,75 +2972,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2808,18 +3000,20 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
     <font>
@@ -2830,13 +3024,137 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="明朝"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2853,6 +3171,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2876,17 +3200,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
@@ -2900,129 +3213,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3378,160 +3579,249 @@
   </borders>
   <cellStyleXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3539,159 +3829,233 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3699,7 +4063,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3709,247 +4075,82 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4113,28 +4314,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="1" xfId="116" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="1" xfId="175" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4258,7 +4459,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4267,30 +4468,30 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="172"/>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="138"/>
+    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52"/>
+    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4305,34 +4506,34 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4342,61 +4543,61 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="147" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="228" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="139" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="215" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4406,52 +4607,58 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="222" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="217" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="225" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="25" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="140" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4464,22 +4671,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4488,25 +4695,25 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="204" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="204" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="172" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4521,10 +4728,10 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4536,10 +4743,10 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4554,10 +4761,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="116" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4608,362 +4815,412 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="25" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="25" xfId="262" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="346">
-    <cellStyle name="Comma [0]" xfId="34"/>
-    <cellStyle name="Comma [0] 2" xfId="13"/>
-    <cellStyle name="Comma [0] 3" xfId="7"/>
-    <cellStyle name="Comma [0] 3 2" xfId="36"/>
-    <cellStyle name="Currency [0]" xfId="20"/>
-    <cellStyle name="Currency [0] 2" xfId="39"/>
-    <cellStyle name="Currency [0] 3" xfId="32"/>
-    <cellStyle name="Currency [0] 3 2" xfId="4"/>
-    <cellStyle name="Normal_Sheet1" xfId="41"/>
-    <cellStyle name="ハイパーリンク 2" xfId="43"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="2"/>
-    <cellStyle name="ハイパーリンク 2 2 2" xfId="29"/>
-    <cellStyle name="ハイパーリンク 2 2 2 2" xfId="44"/>
-    <cellStyle name="ハイパーリンク 2 2 2 2 2" xfId="295"/>
-    <cellStyle name="ハイパーリンク 2 2 2 3" xfId="235"/>
+    <cellStyle name="Comma [0]" xfId="46"/>
+    <cellStyle name="Comma [0] 2" xfId="17"/>
+    <cellStyle name="Comma [0] 3" xfId="10"/>
+    <cellStyle name="Comma [0] 3 2" xfId="49"/>
+    <cellStyle name="Currency [0]" xfId="27"/>
+    <cellStyle name="Currency [0] 2" xfId="51"/>
+    <cellStyle name="Currency [0] 3" xfId="35"/>
+    <cellStyle name="Currency [0] 3 2" xfId="3"/>
+    <cellStyle name="Normal_Sheet1" xfId="54"/>
+    <cellStyle name="ハイパーリンク 2" xfId="55"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="ハイパーリンク 2 2 2" xfId="22"/>
+    <cellStyle name="ハイパーリンク 2 2 2 2" xfId="56"/>
+    <cellStyle name="ハイパーリンク 2 2 2 2 2" xfId="41"/>
+    <cellStyle name="ハイパーリンク 2 2 2 3" xfId="57"/>
     <cellStyle name="ハイパーリンク 2 2 3" xfId="14"/>
-    <cellStyle name="ハイパーリンク 2 2 3 2" xfId="294"/>
-    <cellStyle name="ハイパーリンク 2 2 4" xfId="8"/>
-    <cellStyle name="ハイパーリンク 2 2 5" xfId="30"/>
-    <cellStyle name="ハイパーリンク 2 2 6" xfId="233"/>
-    <cellStyle name="ハイパーリンク 2 3" xfId="45"/>
-    <cellStyle name="ハイパーリンク 2 3 2" xfId="46"/>
-    <cellStyle name="ハイパーリンク 2 3 2 2" xfId="48"/>
-    <cellStyle name="ハイパーリンク 2 3 2 3" xfId="37"/>
-    <cellStyle name="ハイパーリンク 2 3 2 4" xfId="296"/>
-    <cellStyle name="ハイパーリンク 2 3 3" xfId="49"/>
-    <cellStyle name="ハイパーリンク 2 3 4" xfId="51"/>
-    <cellStyle name="ハイパーリンク 2 3 5" xfId="245"/>
-    <cellStyle name="ハイパーリンク 2 4" xfId="53"/>
-    <cellStyle name="ハイパーリンク 2 4 2" xfId="293"/>
-    <cellStyle name="ハイパーリンク 2 5" xfId="54"/>
-    <cellStyle name="ハイパーリンク 2 6" xfId="55"/>
-    <cellStyle name="ハイパーリンク 2 7" xfId="244"/>
-    <cellStyle name="標準 2" xfId="56"/>
-    <cellStyle name="標準 2 2" xfId="58"/>
-    <cellStyle name="標準 2 2 2" xfId="59"/>
-    <cellStyle name="標準 2 2 2 2" xfId="60"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="61"/>
-    <cellStyle name="標準 2 2 2 2 2 2" xfId="329"/>
-    <cellStyle name="標準 2 2 2 2 3" xfId="241"/>
-    <cellStyle name="標準 2 2 2 3" xfId="62"/>
-    <cellStyle name="標準 2 2 2 3 2" xfId="328"/>
-    <cellStyle name="標準 2 2 2 4" xfId="63"/>
-    <cellStyle name="標準 2 2 2 5" xfId="64"/>
-    <cellStyle name="標準 2 2 2 6" xfId="240"/>
-    <cellStyle name="標準 2 2 3" xfId="65"/>
-    <cellStyle name="標準 2 2 3 2" xfId="66"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="68"/>
-    <cellStyle name="標準 2 2 3 2 3" xfId="69"/>
-    <cellStyle name="標準 2 2 3 2 4" xfId="330"/>
-    <cellStyle name="標準 2 2 3 3" xfId="70"/>
-    <cellStyle name="標準 2 2 3 4" xfId="72"/>
-    <cellStyle name="標準 2 2 3 5" xfId="242"/>
-    <cellStyle name="標準 2 2 4" xfId="74"/>
-    <cellStyle name="標準 2 2 4 2" xfId="327"/>
-    <cellStyle name="標準 2 2 5" xfId="75"/>
-    <cellStyle name="標準 2 2 6" xfId="76"/>
-    <cellStyle name="標準 2 2 7" xfId="236"/>
-    <cellStyle name="標準 2 3" xfId="77"/>
-    <cellStyle name="標準 2 3 2" xfId="27"/>
-    <cellStyle name="標準 2 3 2 2" xfId="78"/>
-    <cellStyle name="標準 2 3 2 2 2" xfId="332"/>
-    <cellStyle name="標準 2 3 2 3" xfId="239"/>
-    <cellStyle name="標準 2 3 3" xfId="28"/>
-    <cellStyle name="標準 2 3 3 2" xfId="331"/>
-    <cellStyle name="標準 2 3 4" xfId="80"/>
-    <cellStyle name="標準 2 3 5" xfId="81"/>
-    <cellStyle name="標準 2 3 6" xfId="246"/>
-    <cellStyle name="標準 2 4" xfId="82"/>
-    <cellStyle name="標準 2 4 2" xfId="83"/>
-    <cellStyle name="標準 2 4 2 2" xfId="84"/>
-    <cellStyle name="標準 2 4 2 3" xfId="85"/>
-    <cellStyle name="標準 2 4 2 4" xfId="333"/>
-    <cellStyle name="標準 2 4 3" xfId="1"/>
-    <cellStyle name="標準 2 4 4" xfId="86"/>
-    <cellStyle name="標準 2 4 5" xfId="247"/>
-    <cellStyle name="標準 2 5" xfId="87"/>
-    <cellStyle name="標準 2 5 2" xfId="326"/>
-    <cellStyle name="標準 2 6" xfId="16"/>
-    <cellStyle name="標準 2 7" xfId="88"/>
-    <cellStyle name="標準 2 8" xfId="238"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="23"/>
-    <cellStyle name="標準 26" xfId="12"/>
-    <cellStyle name="標準 26 2" xfId="90"/>
-    <cellStyle name="標準 26 2 2" xfId="91"/>
-    <cellStyle name="標準 26 2 2 2" xfId="335"/>
-    <cellStyle name="標準 26 2 3" xfId="249"/>
-    <cellStyle name="標準 26 3" xfId="92"/>
-    <cellStyle name="標準 26 3 2" xfId="334"/>
-    <cellStyle name="標準 26 4" xfId="93"/>
-    <cellStyle name="標準 26 5" xfId="95"/>
-    <cellStyle name="標準 26 6" xfId="248"/>
-    <cellStyle name="標準 3" xfId="97"/>
-    <cellStyle name="標準 3 2" xfId="99"/>
-    <cellStyle name="標準 3 2 2" xfId="100"/>
-    <cellStyle name="標準 3 2 2 2" xfId="101"/>
-    <cellStyle name="標準 3 2 2 2 2" xfId="338"/>
-    <cellStyle name="標準 3 2 2 3" xfId="252"/>
-    <cellStyle name="標準 3 2 3" xfId="103"/>
-    <cellStyle name="標準 3 2 3 2" xfId="337"/>
-    <cellStyle name="標準 3 2 4" xfId="102"/>
-    <cellStyle name="標準 3 2 5" xfId="104"/>
-    <cellStyle name="標準 3 2 6" xfId="251"/>
-    <cellStyle name="標準 3 3" xfId="105"/>
-    <cellStyle name="標準 3 3 2" xfId="106"/>
-    <cellStyle name="標準 3 3 2 2" xfId="107"/>
-    <cellStyle name="標準 3 3 2 3" xfId="109"/>
-    <cellStyle name="標準 3 3 2 4" xfId="339"/>
-    <cellStyle name="標準 3 3 3" xfId="111"/>
-    <cellStyle name="標準 3 3 4" xfId="112"/>
-    <cellStyle name="標準 3 3 5" xfId="253"/>
-    <cellStyle name="標準 3 4" xfId="113"/>
-    <cellStyle name="標準 3 4 2" xfId="336"/>
-    <cellStyle name="標準 3 5" xfId="114"/>
-    <cellStyle name="標準 3 6" xfId="115"/>
-    <cellStyle name="標準 3 7" xfId="250"/>
-    <cellStyle name="標準 4" xfId="118"/>
-    <cellStyle name="標準 4 2" xfId="119"/>
-    <cellStyle name="標準 4 2 2" xfId="94"/>
-    <cellStyle name="標準 4 2 2 2" xfId="25"/>
-    <cellStyle name="標準 4 2 2 2 2" xfId="342"/>
-    <cellStyle name="標準 4 2 2 3" xfId="256"/>
-    <cellStyle name="標準 4 2 3" xfId="96"/>
-    <cellStyle name="標準 4 2 3 2" xfId="341"/>
-    <cellStyle name="標準 4 2 4" xfId="108"/>
-    <cellStyle name="標準 4 2 5" xfId="110"/>
-    <cellStyle name="標準 4 2 6" xfId="255"/>
-    <cellStyle name="標準 4 3" xfId="120"/>
-    <cellStyle name="標準 4 3 2" xfId="121"/>
-    <cellStyle name="標準 4 3 2 2" xfId="123"/>
-    <cellStyle name="標準 4 3 2 3" xfId="125"/>
-    <cellStyle name="標準 4 3 2 4" xfId="343"/>
-    <cellStyle name="標準 4 3 3" xfId="57"/>
-    <cellStyle name="標準 4 3 4" xfId="98"/>
-    <cellStyle name="標準 4 3 5" xfId="257"/>
-    <cellStyle name="標準 4 4" xfId="127"/>
-    <cellStyle name="標準 4 4 2" xfId="340"/>
-    <cellStyle name="標準 4 5" xfId="128"/>
-    <cellStyle name="標準 4 6" xfId="129"/>
-    <cellStyle name="標準 4 7" xfId="254"/>
-    <cellStyle name="標準 5" xfId="131"/>
-    <cellStyle name="標準 5 2" xfId="22"/>
-    <cellStyle name="標準 5 2 2" xfId="132"/>
-    <cellStyle name="標準 5 2 2 2" xfId="345"/>
-    <cellStyle name="標準 5 2 3" xfId="237"/>
-    <cellStyle name="標準 5 3" xfId="24"/>
-    <cellStyle name="標準 5 3 2" xfId="344"/>
-    <cellStyle name="標準 5 4" xfId="3"/>
-    <cellStyle name="標準 5 5" xfId="26"/>
-    <cellStyle name="標準 5 6" xfId="258"/>
-    <cellStyle name="標準_Sheet1" xfId="133"/>
-    <cellStyle name="標準_sst107" xfId="116"/>
+    <cellStyle name="ハイパーリンク 2 2 3 2" xfId="58"/>
+    <cellStyle name="ハイパーリンク 2 2 4" xfId="59"/>
+    <cellStyle name="ハイパーリンク 2 2 5" xfId="61"/>
+    <cellStyle name="ハイパーリンク 2 2 6" xfId="62"/>
+    <cellStyle name="ハイパーリンク 2 3" xfId="63"/>
+    <cellStyle name="ハイパーリンク 2 3 2" xfId="66"/>
+    <cellStyle name="ハイパーリンク 2 3 2 2" xfId="67"/>
+    <cellStyle name="ハイパーリンク 2 3 2 3" xfId="48"/>
+    <cellStyle name="ハイパーリンク 2 3 2 4" xfId="69"/>
+    <cellStyle name="ハイパーリンク 2 3 3" xfId="72"/>
+    <cellStyle name="ハイパーリンク 2 3 4" xfId="74"/>
+    <cellStyle name="ハイパーリンク 2 3 5" xfId="53"/>
+    <cellStyle name="ハイパーリンク 2 4" xfId="75"/>
+    <cellStyle name="ハイパーリンク 2 4 2" xfId="77"/>
+    <cellStyle name="ハイパーリンク 2 5" xfId="78"/>
+    <cellStyle name="ハイパーリンク 2 6" xfId="79"/>
+    <cellStyle name="ハイパーリンク 2 7" xfId="80"/>
+    <cellStyle name="標準 2" xfId="82"/>
+    <cellStyle name="標準 2 2" xfId="83"/>
+    <cellStyle name="標準 2 2 2" xfId="84"/>
+    <cellStyle name="標準 2 2 2 2" xfId="85"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="86"/>
+    <cellStyle name="標準 2 2 2 2 2 2" xfId="87"/>
+    <cellStyle name="標準 2 2 2 2 3" xfId="88"/>
+    <cellStyle name="標準 2 2 2 3" xfId="89"/>
+    <cellStyle name="標準 2 2 2 3 2" xfId="90"/>
+    <cellStyle name="標準 2 2 2 4" xfId="92"/>
+    <cellStyle name="標準 2 2 2 5" xfId="93"/>
+    <cellStyle name="標準 2 2 2 6" xfId="94"/>
+    <cellStyle name="標準 2 2 3" xfId="95"/>
+    <cellStyle name="標準 2 2 3 2" xfId="97"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="99"/>
+    <cellStyle name="標準 2 2 3 2 3" xfId="100"/>
+    <cellStyle name="標準 2 2 3 2 4" xfId="101"/>
+    <cellStyle name="標準 2 2 3 3" xfId="103"/>
+    <cellStyle name="標準 2 2 3 4" xfId="105"/>
+    <cellStyle name="標準 2 2 3 5" xfId="31"/>
+    <cellStyle name="標準 2 2 4" xfId="106"/>
+    <cellStyle name="標準 2 2 4 2" xfId="108"/>
+    <cellStyle name="標準 2 2 5" xfId="109"/>
+    <cellStyle name="標準 2 2 6" xfId="110"/>
+    <cellStyle name="標準 2 2 7" xfId="111"/>
+    <cellStyle name="標準 2 3" xfId="112"/>
+    <cellStyle name="標準 2 3 2" xfId="42"/>
+    <cellStyle name="標準 2 3 2 2" xfId="114"/>
+    <cellStyle name="標準 2 3 2 2 2" xfId="116"/>
+    <cellStyle name="標準 2 3 2 3" xfId="45"/>
+    <cellStyle name="標準 2 3 3" xfId="43"/>
+    <cellStyle name="標準 2 3 3 2" xfId="117"/>
+    <cellStyle name="標準 2 3 4" xfId="118"/>
+    <cellStyle name="標準 2 3 5" xfId="119"/>
+    <cellStyle name="標準 2 3 6" xfId="120"/>
+    <cellStyle name="標準 2 4" xfId="121"/>
+    <cellStyle name="標準 2 4 2" xfId="122"/>
+    <cellStyle name="標準 2 4 2 2" xfId="123"/>
+    <cellStyle name="標準 2 4 2 3" xfId="124"/>
+    <cellStyle name="標準 2 4 2 4" xfId="126"/>
+    <cellStyle name="標準 2 4 3" xfId="2"/>
+    <cellStyle name="標準 2 4 4" xfId="127"/>
+    <cellStyle name="標準 2 4 5" xfId="129"/>
+    <cellStyle name="標準 2 5" xfId="130"/>
+    <cellStyle name="標準 2 5 2" xfId="131"/>
+    <cellStyle name="標準 2 6" xfId="20"/>
+    <cellStyle name="標準 2 7" xfId="133"/>
+    <cellStyle name="標準 2 8" xfId="135"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="37"/>
+    <cellStyle name="標準 26" xfId="16"/>
+    <cellStyle name="標準 26 2" xfId="136"/>
+    <cellStyle name="標準 26 2 2" xfId="137"/>
+    <cellStyle name="標準 26 2 2 2" xfId="139"/>
+    <cellStyle name="標準 26 2 3" xfId="141"/>
+    <cellStyle name="標準 26 3" xfId="142"/>
+    <cellStyle name="標準 26 3 2" xfId="143"/>
+    <cellStyle name="標準 26 4" xfId="145"/>
+    <cellStyle name="標準 26 5" xfId="147"/>
+    <cellStyle name="標準 26 6" xfId="150"/>
+    <cellStyle name="標準 3" xfId="152"/>
+    <cellStyle name="標準 3 2" xfId="153"/>
+    <cellStyle name="標準 3 2 2" xfId="154"/>
+    <cellStyle name="標準 3 2 2 2" xfId="156"/>
+    <cellStyle name="標準 3 2 2 2 2" xfId="23"/>
+    <cellStyle name="標準 3 2 2 3" xfId="158"/>
+    <cellStyle name="標準 3 2 3" xfId="159"/>
+    <cellStyle name="標準 3 2 3 2" xfId="161"/>
+    <cellStyle name="標準 3 2 4" xfId="155"/>
+    <cellStyle name="標準 3 2 5" xfId="157"/>
+    <cellStyle name="標準 3 2 6" xfId="162"/>
+    <cellStyle name="標準 3 3" xfId="163"/>
+    <cellStyle name="標準 3 3 2" xfId="164"/>
+    <cellStyle name="標準 3 3 2 2" xfId="149"/>
+    <cellStyle name="標準 3 3 2 3" xfId="166"/>
+    <cellStyle name="標準 3 3 2 4" xfId="168"/>
+    <cellStyle name="標準 3 3 3" xfId="169"/>
+    <cellStyle name="標準 3 3 4" xfId="160"/>
+    <cellStyle name="標準 3 3 5" xfId="170"/>
+    <cellStyle name="標準 3 4" xfId="171"/>
+    <cellStyle name="標準 3 4 2" xfId="172"/>
+    <cellStyle name="標準 3 5" xfId="173"/>
+    <cellStyle name="標準 3 6" xfId="176"/>
+    <cellStyle name="標準 3 7" xfId="178"/>
+    <cellStyle name="標準 4" xfId="180"/>
+    <cellStyle name="標準 4 2" xfId="181"/>
+    <cellStyle name="標準 4 2 2" xfId="144"/>
+    <cellStyle name="標準 4 2 2 2" xfId="39"/>
+    <cellStyle name="標準 4 2 2 2 2" xfId="182"/>
+    <cellStyle name="標準 4 2 2 3" xfId="6"/>
+    <cellStyle name="標準 4 2 3" xfId="146"/>
+    <cellStyle name="標準 4 2 3 2" xfId="183"/>
+    <cellStyle name="標準 4 2 4" xfId="148"/>
+    <cellStyle name="標準 4 2 5" xfId="165"/>
+    <cellStyle name="標準 4 2 6" xfId="167"/>
+    <cellStyle name="標準 4 3" xfId="184"/>
+    <cellStyle name="標準 4 3 2" xfId="186"/>
+    <cellStyle name="標準 4 3 2 2" xfId="188"/>
+    <cellStyle name="標準 4 3 2 3" xfId="190"/>
+    <cellStyle name="標準 4 3 2 4" xfId="192"/>
+    <cellStyle name="標準 4 3 3" xfId="81"/>
+    <cellStyle name="標準 4 3 4" xfId="151"/>
+    <cellStyle name="標準 4 3 5" xfId="179"/>
+    <cellStyle name="標準 4 4" xfId="193"/>
+    <cellStyle name="標準 4 4 2" xfId="194"/>
+    <cellStyle name="標準 4 5" xfId="195"/>
+    <cellStyle name="標準 4 6" xfId="197"/>
+    <cellStyle name="標準 4 7" xfId="9"/>
+    <cellStyle name="標準 5" xfId="198"/>
+    <cellStyle name="標準 5 2" xfId="36"/>
+    <cellStyle name="標準 5 2 2" xfId="199"/>
+    <cellStyle name="標準 5 2 2 2" xfId="201"/>
+    <cellStyle name="標準 5 2 3" xfId="202"/>
+    <cellStyle name="標準 5 3" xfId="38"/>
+    <cellStyle name="標準 5 3 2" xfId="91"/>
+    <cellStyle name="標準 5 4" xfId="4"/>
+    <cellStyle name="標準 5 5" xfId="40"/>
+    <cellStyle name="標準 5 6" xfId="33"/>
+    <cellStyle name="標準_Sheet1" xfId="204"/>
+    <cellStyle name="標準_sst107" xfId="175"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="135"/>
-    <cellStyle name="常规 10 2" xfId="136"/>
-    <cellStyle name="常规 10 2 2" xfId="137"/>
-    <cellStyle name="常规 10 2 2 2" xfId="302"/>
-    <cellStyle name="常规 10 2 3" xfId="260"/>
-    <cellStyle name="常规 10 3" xfId="138"/>
-    <cellStyle name="常规 10 3 2" xfId="301"/>
-    <cellStyle name="常规 10 4" xfId="259"/>
-    <cellStyle name="常规 11" xfId="139"/>
-    <cellStyle name="常规 11 2" xfId="140"/>
-    <cellStyle name="常规 11 2 2" xfId="304"/>
-    <cellStyle name="常规 11 2 3" xfId="262"/>
-    <cellStyle name="常规 11 3" xfId="141"/>
-    <cellStyle name="常规 11 3 2" xfId="303"/>
-    <cellStyle name="常规 11 4" xfId="261"/>
-    <cellStyle name="常规 12" xfId="142"/>
-    <cellStyle name="常规 12 2" xfId="305"/>
-    <cellStyle name="常规 12 3" xfId="263"/>
-    <cellStyle name="常规 13" xfId="143"/>
-    <cellStyle name="常规 13 2" xfId="292"/>
-    <cellStyle name="常规 14" xfId="144"/>
-    <cellStyle name="常规 15" xfId="232"/>
-    <cellStyle name="常规 2" xfId="145"/>
-    <cellStyle name="常规 2 2" xfId="50"/>
-    <cellStyle name="常规 2 3" xfId="52"/>
-    <cellStyle name="常规 2 4" xfId="42"/>
-    <cellStyle name="常规 2 4 2" xfId="147"/>
-    <cellStyle name="常规 2 4 2 2" xfId="148"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="307"/>
-    <cellStyle name="常规 2 4 2 3" xfId="264"/>
-    <cellStyle name="常规 2 4 3" xfId="149"/>
-    <cellStyle name="常规 2 4 3 2" xfId="306"/>
-    <cellStyle name="常规 2 4 4" xfId="150"/>
-    <cellStyle name="常规 2 4 5" xfId="243"/>
-    <cellStyle name="常规 3" xfId="151"/>
-    <cellStyle name="常规 3 2" xfId="152"/>
-    <cellStyle name="常规 3 2 2" xfId="153"/>
-    <cellStyle name="常规 3 2 2 2" xfId="154"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="310"/>
-    <cellStyle name="常规 3 2 2 3" xfId="267"/>
-    <cellStyle name="常规 3 2 3" xfId="67"/>
-    <cellStyle name="常规 3 2 3 2" xfId="309"/>
-    <cellStyle name="常规 3 2 4" xfId="71"/>
-    <cellStyle name="常规 3 2 5" xfId="73"/>
-    <cellStyle name="常规 3 2 6" xfId="266"/>
-    <cellStyle name="常规 3 3" xfId="155"/>
-    <cellStyle name="常规 3 3 2" xfId="156"/>
-    <cellStyle name="常规 3 3 2 2" xfId="157"/>
-    <cellStyle name="常规 3 3 2 3" xfId="158"/>
-    <cellStyle name="常规 3 3 2 4" xfId="311"/>
-    <cellStyle name="常规 3 3 3" xfId="159"/>
-    <cellStyle name="常规 3 3 4" xfId="146"/>
-    <cellStyle name="常规 3 3 5" xfId="268"/>
-    <cellStyle name="常规 3 4" xfId="160"/>
-    <cellStyle name="常规 3 4 2" xfId="308"/>
-    <cellStyle name="常规 3 5" xfId="79"/>
-    <cellStyle name="常规 3 6" xfId="35"/>
-    <cellStyle name="常规 3 7" xfId="265"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="常规 5" xfId="162"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 5 2 2" xfId="17"/>
-    <cellStyle name="常规 5 2 2 2" xfId="313"/>
-    <cellStyle name="常规 5 2 3" xfId="234"/>
-    <cellStyle name="常规 5 3" xfId="89"/>
-    <cellStyle name="常规 5 3 2" xfId="312"/>
-    <cellStyle name="常规 5 4" xfId="163"/>
-    <cellStyle name="常规 5 5" xfId="164"/>
-    <cellStyle name="常规 5 6" xfId="269"/>
-    <cellStyle name="常规 6" xfId="10"/>
-    <cellStyle name="常规 6 2" xfId="117"/>
-    <cellStyle name="常规 7" xfId="165"/>
-    <cellStyle name="常规 7 2" xfId="130"/>
-    <cellStyle name="常规 7 2 2" xfId="166"/>
-    <cellStyle name="常规 7 2 2 2" xfId="315"/>
-    <cellStyle name="常规 7 2 3" xfId="271"/>
-    <cellStyle name="常规 7 3" xfId="6"/>
-    <cellStyle name="常规 7 3 2" xfId="314"/>
-    <cellStyle name="常规 7 4" xfId="167"/>
-    <cellStyle name="常规 7 5" xfId="169"/>
-    <cellStyle name="常规 7 6" xfId="270"/>
-    <cellStyle name="常规 8" xfId="171"/>
-    <cellStyle name="常规 8 2" xfId="21"/>
-    <cellStyle name="常规 8 3" xfId="19"/>
-    <cellStyle name="常规 8 4" xfId="134"/>
-    <cellStyle name="常规 8 5" xfId="272"/>
-    <cellStyle name="常规 9" xfId="172"/>
-    <cellStyle name="常规 9 2" xfId="173"/>
-    <cellStyle name="常规 9 2 2" xfId="317"/>
+    <cellStyle name="常规 10" xfId="205"/>
+    <cellStyle name="常规 10 2" xfId="206"/>
+    <cellStyle name="常规 10 2 2" xfId="207"/>
+    <cellStyle name="常规 10 2 2 2" xfId="209"/>
+    <cellStyle name="常规 10 2 3" xfId="210"/>
+    <cellStyle name="常规 10 3" xfId="211"/>
+    <cellStyle name="常规 10 3 2" xfId="213"/>
+    <cellStyle name="常规 10 4" xfId="214"/>
+    <cellStyle name="常规 11" xfId="215"/>
+    <cellStyle name="常规 11 2" xfId="216"/>
+    <cellStyle name="常规 11 2 2" xfId="128"/>
+    <cellStyle name="常规 11 2 3" xfId="217"/>
+    <cellStyle name="常规 11 3" xfId="218"/>
+    <cellStyle name="常规 11 3 2" xfId="125"/>
+    <cellStyle name="常规 11 4" xfId="200"/>
+    <cellStyle name="常规 12" xfId="219"/>
+    <cellStyle name="常规 12 2" xfId="220"/>
+    <cellStyle name="常规 12 3" xfId="221"/>
+    <cellStyle name="常规 13" xfId="222"/>
+    <cellStyle name="常规 13 2" xfId="223"/>
+    <cellStyle name="常规 14" xfId="224"/>
+    <cellStyle name="常规 15" xfId="225"/>
+    <cellStyle name="常规 2" xfId="227"/>
+    <cellStyle name="常规 2 2" xfId="71"/>
+    <cellStyle name="常规 2 3" xfId="73"/>
+    <cellStyle name="常规 2 4" xfId="52"/>
+    <cellStyle name="常规 2 4 2" xfId="228"/>
+    <cellStyle name="常规 2 4 2 2" xfId="229"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="230"/>
+    <cellStyle name="常规 2 4 2 3" xfId="231"/>
+    <cellStyle name="常规 2 4 3" xfId="232"/>
+    <cellStyle name="常规 2 4 3 2" xfId="233"/>
+    <cellStyle name="常规 2 4 4" xfId="234"/>
+    <cellStyle name="常规 2 4 5" xfId="236"/>
+    <cellStyle name="常规 3" xfId="238"/>
+    <cellStyle name="常规 3 2" xfId="239"/>
+    <cellStyle name="常规 3 2 2" xfId="240"/>
+    <cellStyle name="常规 3 2 2 2" xfId="241"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="242"/>
+    <cellStyle name="常规 3 2 2 3" xfId="243"/>
+    <cellStyle name="常规 3 2 3" xfId="96"/>
+    <cellStyle name="常规 3 2 3 2" xfId="98"/>
+    <cellStyle name="常规 3 2 4" xfId="102"/>
+    <cellStyle name="常规 3 2 5" xfId="104"/>
+    <cellStyle name="常规 3 2 6" xfId="30"/>
+    <cellStyle name="常规 3 3" xfId="244"/>
+    <cellStyle name="常规 3 3 2" xfId="245"/>
+    <cellStyle name="常规 3 3 2 2" xfId="246"/>
+    <cellStyle name="常规 3 3 2 3" xfId="208"/>
+    <cellStyle name="常规 3 3 2 4" xfId="12"/>
+    <cellStyle name="常规 3 3 3" xfId="107"/>
+    <cellStyle name="常规 3 3 4" xfId="226"/>
+    <cellStyle name="常规 3 3 5" xfId="237"/>
+    <cellStyle name="常规 3 4" xfId="247"/>
+    <cellStyle name="常规 3 4 2" xfId="250"/>
+    <cellStyle name="常规 3 5" xfId="113"/>
+    <cellStyle name="常规 3 6" xfId="44"/>
+    <cellStyle name="常规 3 7" xfId="212"/>
+    <cellStyle name="常规 4" xfId="251"/>
+    <cellStyle name="常规 5" xfId="252"/>
+    <cellStyle name="常规 5 2" xfId="19"/>
+    <cellStyle name="常规 5 2 2" xfId="21"/>
+    <cellStyle name="常规 5 2 2 2" xfId="253"/>
+    <cellStyle name="常规 5 2 3" xfId="24"/>
+    <cellStyle name="常规 5 3" xfId="132"/>
+    <cellStyle name="常规 5 3 2" xfId="254"/>
+    <cellStyle name="常规 5 4" xfId="134"/>
+    <cellStyle name="常规 5 5" xfId="255"/>
+    <cellStyle name="常规 5 6" xfId="256"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="常规 6 2" xfId="174"/>
+    <cellStyle name="常规 7" xfId="257"/>
+    <cellStyle name="常规 7 2" xfId="196"/>
+    <cellStyle name="常规 7 2 2" xfId="235"/>
+    <cellStyle name="常规 7 2 2 2" xfId="258"/>
+    <cellStyle name="常规 7 2 3" xfId="259"/>
+    <cellStyle name="常规 7 3" xfId="8"/>
+    <cellStyle name="常规 7 3 2" xfId="262"/>
+    <cellStyle name="常规 7 4" xfId="264"/>
+    <cellStyle name="常规 7 5" xfId="266"/>
+    <cellStyle name="常规 7 6" xfId="268"/>
+    <cellStyle name="常规 8" xfId="269"/>
+    <cellStyle name="常规 8 2" xfId="32"/>
+    <cellStyle name="常规 8 3" xfId="29"/>
+    <cellStyle name="常规 8 4" xfId="203"/>
+    <cellStyle name="常规 8 5" xfId="270"/>
+    <cellStyle name="常规 9" xfId="138"/>
+    <cellStyle name="常规 9 2" xfId="271"/>
+    <cellStyle name="常规 9 2 2" xfId="273"/>
     <cellStyle name="常规 9 2 3" xfId="274"/>
-    <cellStyle name="常规 9 3" xfId="174"/>
-    <cellStyle name="常规 9 3 2" xfId="316"/>
-    <cellStyle name="常规 9 4" xfId="273"/>
-    <cellStyle name="超链接 2" xfId="38"/>
-    <cellStyle name="超链接 2 2" xfId="175"/>
-    <cellStyle name="超链接 2 2 2" xfId="176"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="177"/>
-    <cellStyle name="超链接 2 2 3" xfId="178"/>
-    <cellStyle name="超链接 2 2 4" xfId="179"/>
-    <cellStyle name="超链接 2 2 5" xfId="276"/>
-    <cellStyle name="超链接 2 3" xfId="180"/>
-    <cellStyle name="超链接 2 3 2" xfId="182"/>
-    <cellStyle name="超链接 2 3 3" xfId="183"/>
-    <cellStyle name="超链接 2 3 4" xfId="184"/>
-    <cellStyle name="超链接 2 4" xfId="185"/>
-    <cellStyle name="超链接 2 5" xfId="47"/>
-    <cellStyle name="超链接 2 6" xfId="275"/>
-    <cellStyle name="超链接 3" xfId="187"/>
-    <cellStyle name="超链接 3 2" xfId="188"/>
-    <cellStyle name="超链接 3 2 2" xfId="189"/>
-    <cellStyle name="超链接 3 3" xfId="190"/>
-    <cellStyle name="超链接 3 4" xfId="191"/>
-    <cellStyle name="超链接 3 5" xfId="277"/>
-    <cellStyle name="超链接 4" xfId="122"/>
-    <cellStyle name="超链接 4 2" xfId="124"/>
-    <cellStyle name="超链接 4 2 2" xfId="9"/>
-    <cellStyle name="超链接 4 2 2 2" xfId="192"/>
-    <cellStyle name="超链接 4 2 3" xfId="40"/>
-    <cellStyle name="超链接 4 2 4" xfId="33"/>
-    <cellStyle name="超链接 4 2 5" xfId="279"/>
-    <cellStyle name="超链接 4 3" xfId="126"/>
-    <cellStyle name="超链接 4 3 2" xfId="31"/>
-    <cellStyle name="超链接 4 4" xfId="193"/>
-    <cellStyle name="超链接 4 5" xfId="194"/>
-    <cellStyle name="超链接 4 6" xfId="278"/>
-    <cellStyle name="桁区切り 2" xfId="195"/>
-    <cellStyle name="桁区切り 2 2" xfId="196"/>
-    <cellStyle name="桁区切り 2 2 2" xfId="197"/>
-    <cellStyle name="桁区切り 2 2 2 2" xfId="198"/>
-    <cellStyle name="桁区切り 2 2 2 2 2" xfId="299"/>
-    <cellStyle name="桁区切り 2 2 2 3" xfId="282"/>
-    <cellStyle name="桁区切り 2 2 3" xfId="199"/>
-    <cellStyle name="桁区切り 2 2 3 2" xfId="298"/>
-    <cellStyle name="桁区切り 2 2 4" xfId="18"/>
-    <cellStyle name="桁区切り 2 2 5" xfId="200"/>
-    <cellStyle name="桁区切り 2 2 6" xfId="281"/>
-    <cellStyle name="桁区切り 2 3" xfId="201"/>
-    <cellStyle name="桁区切り 2 3 2" xfId="202"/>
-    <cellStyle name="桁区切り 2 3 2 2" xfId="181"/>
-    <cellStyle name="桁区切り 2 3 2 3" xfId="186"/>
-    <cellStyle name="桁区切り 2 3 2 4" xfId="300"/>
-    <cellStyle name="桁区切り 2 3 3" xfId="203"/>
-    <cellStyle name="桁区切り 2 3 4" xfId="204"/>
-    <cellStyle name="桁区切り 2 3 5" xfId="283"/>
-    <cellStyle name="桁区切り 2 4" xfId="205"/>
-    <cellStyle name="桁区切り 2 4 2" xfId="297"/>
-    <cellStyle name="桁区切り 2 5" xfId="206"/>
-    <cellStyle name="桁区切り 2 6" xfId="207"/>
-    <cellStyle name="桁区切り 2 7" xfId="280"/>
-    <cellStyle name="千位分隔 2" xfId="208"/>
-    <cellStyle name="千位分隔 2 2" xfId="210"/>
-    <cellStyle name="千位分隔 2 2 2" xfId="211"/>
-    <cellStyle name="千位分隔 2 2 2 2" xfId="319"/>
-    <cellStyle name="千位分隔 2 2 3" xfId="285"/>
-    <cellStyle name="千位分隔 2 3" xfId="213"/>
-    <cellStyle name="千位分隔 2 3 2" xfId="318"/>
-    <cellStyle name="千位分隔 2 4" xfId="212"/>
-    <cellStyle name="千位分隔 2 5" xfId="214"/>
-    <cellStyle name="千位分隔 2 6" xfId="284"/>
-    <cellStyle name="千位分隔 3" xfId="215"/>
-    <cellStyle name="千位分隔 3 2" xfId="217"/>
-    <cellStyle name="千位分隔 3 2 2" xfId="218"/>
-    <cellStyle name="千位分隔 3 2 2 2" xfId="219"/>
-    <cellStyle name="千位分隔 3 2 2 2 2" xfId="322"/>
-    <cellStyle name="千位分隔 3 2 2 3" xfId="288"/>
-    <cellStyle name="千位分隔 3 2 3" xfId="220"/>
-    <cellStyle name="千位分隔 3 2 3 2" xfId="321"/>
-    <cellStyle name="千位分隔 3 2 4" xfId="11"/>
-    <cellStyle name="千位分隔 3 2 5" xfId="221"/>
-    <cellStyle name="千位分隔 3 2 6" xfId="287"/>
-    <cellStyle name="千位分隔 3 3" xfId="222"/>
-    <cellStyle name="千位分隔 3 3 2" xfId="5"/>
-    <cellStyle name="千位分隔 3 3 2 2" xfId="209"/>
-    <cellStyle name="千位分隔 3 3 2 3" xfId="216"/>
-    <cellStyle name="千位分隔 3 3 2 4" xfId="323"/>
-    <cellStyle name="千位分隔 3 3 3" xfId="168"/>
-    <cellStyle name="千位分隔 3 3 4" xfId="170"/>
-    <cellStyle name="千位分隔 3 3 5" xfId="289"/>
-    <cellStyle name="千位分隔 3 4" xfId="223"/>
-    <cellStyle name="千位分隔 3 4 2" xfId="320"/>
-    <cellStyle name="千位分隔 3 5" xfId="224"/>
-    <cellStyle name="千位分隔 3 6" xfId="225"/>
-    <cellStyle name="千位分隔 3 7" xfId="286"/>
-    <cellStyle name="千位分隔 4" xfId="226"/>
-    <cellStyle name="千位分隔 4 2" xfId="227"/>
-    <cellStyle name="千位分隔 4 2 2" xfId="228"/>
-    <cellStyle name="千位分隔 4 2 2 2" xfId="325"/>
-    <cellStyle name="千位分隔 4 2 3" xfId="229"/>
-    <cellStyle name="千位分隔 4 2 4" xfId="291"/>
-    <cellStyle name="千位分隔 4 3" xfId="230"/>
-    <cellStyle name="千位分隔 4 3 2" xfId="324"/>
-    <cellStyle name="千位分隔 4 4" xfId="231"/>
-    <cellStyle name="千位分隔 4 5" xfId="290"/>
+    <cellStyle name="常规 9 3" xfId="275"/>
+    <cellStyle name="常规 9 3 2" xfId="276"/>
+    <cellStyle name="常规 9 4" xfId="277"/>
+    <cellStyle name="超链接 2" xfId="47"/>
+    <cellStyle name="超链接 2 2" xfId="278"/>
+    <cellStyle name="超链接 2 2 2" xfId="279"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="280"/>
+    <cellStyle name="超链接 2 2 3" xfId="282"/>
+    <cellStyle name="超链接 2 2 4" xfId="283"/>
+    <cellStyle name="超链接 2 2 5" xfId="284"/>
+    <cellStyle name="超链接 2 3" xfId="286"/>
+    <cellStyle name="超链接 2 3 2" xfId="287"/>
+    <cellStyle name="超链接 2 3 3" xfId="288"/>
+    <cellStyle name="超链接 2 3 4" xfId="289"/>
+    <cellStyle name="超链接 2 4" xfId="292"/>
+    <cellStyle name="超链接 2 5" xfId="65"/>
+    <cellStyle name="超链接 2 6" xfId="70"/>
+    <cellStyle name="超链接 3" xfId="68"/>
+    <cellStyle name="超链接 3 2" xfId="293"/>
+    <cellStyle name="超链接 3 2 2" xfId="294"/>
+    <cellStyle name="超链接 3 3" xfId="295"/>
+    <cellStyle name="超链接 3 4" xfId="296"/>
+    <cellStyle name="超链接 3 5" xfId="76"/>
+    <cellStyle name="超链接 4" xfId="185"/>
+    <cellStyle name="超链接 4 2" xfId="187"/>
+    <cellStyle name="超链接 4 2 2" xfId="11"/>
+    <cellStyle name="超链接 4 2 2 2" xfId="297"/>
+    <cellStyle name="超链接 4 2 3" xfId="50"/>
+    <cellStyle name="超链接 4 2 4" xfId="34"/>
+    <cellStyle name="超链接 4 2 5" xfId="298"/>
+    <cellStyle name="超链接 4 3" xfId="189"/>
+    <cellStyle name="超链接 4 3 2" xfId="60"/>
+    <cellStyle name="超链接 4 4" xfId="191"/>
+    <cellStyle name="超链接 4 5" xfId="299"/>
+    <cellStyle name="超链接 4 6" xfId="300"/>
+    <cellStyle name="桁区切り 2" xfId="301"/>
+    <cellStyle name="桁区切り 2 2" xfId="302"/>
+    <cellStyle name="桁区切り 2 2 2" xfId="303"/>
+    <cellStyle name="桁区切り 2 2 2 2" xfId="140"/>
+    <cellStyle name="桁区切り 2 2 2 2 2" xfId="291"/>
+    <cellStyle name="桁区切り 2 2 2 3" xfId="304"/>
+    <cellStyle name="桁区切り 2 2 3" xfId="305"/>
+    <cellStyle name="桁区切り 2 2 3 2" xfId="306"/>
+    <cellStyle name="桁区切り 2 2 4" xfId="26"/>
+    <cellStyle name="桁区切り 2 2 5" xfId="307"/>
+    <cellStyle name="桁区切り 2 2 6" xfId="308"/>
+    <cellStyle name="桁区切り 2 3" xfId="309"/>
+    <cellStyle name="桁区切り 2 3 2" xfId="310"/>
+    <cellStyle name="桁区切り 2 3 2 2" xfId="285"/>
+    <cellStyle name="桁区切り 2 3 2 3" xfId="290"/>
+    <cellStyle name="桁区切り 2 3 2 4" xfId="64"/>
+    <cellStyle name="桁区切り 2 3 3" xfId="311"/>
+    <cellStyle name="桁区切り 2 3 4" xfId="312"/>
+    <cellStyle name="桁区切り 2 3 5" xfId="313"/>
+    <cellStyle name="桁区切り 2 4" xfId="314"/>
+    <cellStyle name="桁区切り 2 4 2" xfId="315"/>
+    <cellStyle name="桁区切り 2 5" xfId="316"/>
+    <cellStyle name="桁区切り 2 6" xfId="317"/>
+    <cellStyle name="桁区切り 2 7" xfId="318"/>
+    <cellStyle name="千位分隔 2" xfId="261"/>
+    <cellStyle name="千位分隔 2 2" xfId="319"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="321"/>
+    <cellStyle name="千位分隔 2 2 2 2" xfId="323"/>
+    <cellStyle name="千位分隔 2 2 3" xfId="249"/>
+    <cellStyle name="千位分隔 2 3" xfId="324"/>
+    <cellStyle name="千位分隔 2 3 2" xfId="326"/>
+    <cellStyle name="千位分隔 2 4" xfId="320"/>
+    <cellStyle name="千位分隔 2 5" xfId="248"/>
+    <cellStyle name="千位分隔 2 6" xfId="5"/>
+    <cellStyle name="千位分隔 3" xfId="328"/>
+    <cellStyle name="千位分隔 3 2" xfId="329"/>
+    <cellStyle name="千位分隔 3 2 2" xfId="177"/>
+    <cellStyle name="千位分隔 3 2 2 2" xfId="330"/>
+    <cellStyle name="千位分隔 3 2 2 2 2" xfId="25"/>
+    <cellStyle name="千位分隔 3 2 2 3" xfId="331"/>
+    <cellStyle name="千位分隔 3 2 3" xfId="332"/>
+    <cellStyle name="千位分隔 3 2 3 2" xfId="333"/>
+    <cellStyle name="千位分隔 3 2 4" xfId="18"/>
+    <cellStyle name="千位分隔 3 2 5" xfId="334"/>
+    <cellStyle name="千位分隔 3 2 6" xfId="272"/>
+    <cellStyle name="千位分隔 3 3" xfId="335"/>
+    <cellStyle name="千位分隔 3 3 2" xfId="7"/>
+    <cellStyle name="千位分隔 3 3 2 2" xfId="260"/>
+    <cellStyle name="千位分隔 3 3 2 3" xfId="327"/>
+    <cellStyle name="千位分隔 3 3 2 4" xfId="337"/>
+    <cellStyle name="千位分隔 3 3 3" xfId="263"/>
+    <cellStyle name="千位分隔 3 3 4" xfId="265"/>
+    <cellStyle name="千位分隔 3 3 5" xfId="267"/>
+    <cellStyle name="千位分隔 3 4" xfId="325"/>
+    <cellStyle name="千位分隔 3 4 2" xfId="28"/>
+    <cellStyle name="千位分隔 3 5" xfId="115"/>
+    <cellStyle name="千位分隔 3 6" xfId="338"/>
+    <cellStyle name="千位分隔 3 7" xfId="339"/>
+    <cellStyle name="千位分隔 4" xfId="336"/>
+    <cellStyle name="千位分隔 4 2" xfId="340"/>
+    <cellStyle name="千位分隔 4 2 2" xfId="341"/>
+    <cellStyle name="千位分隔 4 2 2 2" xfId="342"/>
+    <cellStyle name="千位分隔 4 2 3" xfId="343"/>
+    <cellStyle name="千位分隔 4 2 4" xfId="344"/>
+    <cellStyle name="千位分隔 4 3" xfId="345"/>
+    <cellStyle name="千位分隔 4 3 2" xfId="281"/>
+    <cellStyle name="千位分隔 4 4" xfId="322"/>
+    <cellStyle name="千位分隔 4 5" xfId="15"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="88">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5533,8 +5790,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="79"/>
-      <tableStyleElement type="headerRow" dxfId="78"/>
+      <tableStyleElement type="wholeTable" dxfId="87"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5542,6 +5799,11 @@
       <color rgb="FF3333FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5647,11 +5909,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="133543424"/>
-        <c:axId val="133544960"/>
+        <c:axId val="138401280"/>
+        <c:axId val="138402816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133543424"/>
+        <c:axId val="138401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5685,14 +5947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133544960"/>
+        <c:crossAx val="138402816"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133544960"/>
+        <c:axId val="138402816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,7 +5988,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133543424"/>
+        <c:crossAx val="138401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5941,11 +6203,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="133560960"/>
-        <c:axId val="138961280"/>
+        <c:axId val="130431616"/>
+        <c:axId val="130453888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133560960"/>
+        <c:axId val="130431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5979,14 +6241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138961280"/>
+        <c:crossAx val="130453888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138961280"/>
+        <c:axId val="130453888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6020,7 +6282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133560960"/>
+        <c:crossAx val="130431616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6430,8 +6692,8 @@
         </c:ser>
         <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="141576064"/>
-        <c:axId val="141586432"/>
+        <c:axId val="143484800"/>
+        <c:axId val="143495168"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6531,11 +6793,11 @@
         </c:ser>
         <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="141587968"/>
-        <c:axId val="141589504"/>
+        <c:axId val="143496704"/>
+        <c:axId val="143498240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141576064"/>
+        <c:axId val="143484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,14 +6831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141586432"/>
+        <c:crossAx val="143495168"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141586432"/>
+        <c:axId val="143495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6610,25 +6872,25 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141576064"/>
+        <c:crossAx val="143484800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141587968"/>
+        <c:axId val="143496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="141589504"/>
+        <c:crossAx val="143498240"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141589504"/>
+        <c:axId val="143498240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6664,7 +6926,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141587968"/>
+        <c:crossAx val="143496704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -6876,11 +7138,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="141617792"/>
-        <c:axId val="133833088"/>
+        <c:axId val="137833088"/>
+        <c:axId val="137838976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141617792"/>
+        <c:axId val="137833088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6914,14 +7176,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133833088"/>
+        <c:crossAx val="137838976"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133833088"/>
+        <c:axId val="137838976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6955,7 +7217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141617792"/>
+        <c:crossAx val="137833088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,11 +7423,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="133840256"/>
-        <c:axId val="133870720"/>
+        <c:axId val="137846144"/>
+        <c:axId val="137876608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133840256"/>
+        <c:axId val="137846144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7199,14 +7461,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133870720"/>
+        <c:crossAx val="137876608"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133870720"/>
+        <c:axId val="137876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,7 +7502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133840256"/>
+        <c:crossAx val="137846144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7446,11 +7708,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="141640064"/>
-        <c:axId val="141641600"/>
+        <c:axId val="143806848"/>
+        <c:axId val="143808384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141640064"/>
+        <c:axId val="143806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7484,14 +7746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141641600"/>
+        <c:crossAx val="143808384"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141641600"/>
+        <c:axId val="143808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,7 +7787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141640064"/>
+        <c:crossAx val="143806848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7695,11 +7957,11 @@
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="141657216"/>
-        <c:axId val="141658752"/>
+        <c:axId val="143824000"/>
+        <c:axId val="143825536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141657216"/>
+        <c:axId val="143824000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7733,14 +7995,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141658752"/>
+        <c:crossAx val="143825536"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141658752"/>
+        <c:axId val="143825536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7774,7 +8036,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141657216"/>
+        <c:crossAx val="143824000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8574,10 +8836,10 @@
   <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8656,16 +8918,16 @@
       <c r="P1" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="165" t="s">
+      <c r="Q1" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="165" t="s">
+      <c r="R1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="165" t="s">
+      <c r="S1" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="165" t="s">
+      <c r="T1" s="167" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="123" t="s">
@@ -8729,17 +8991,17 @@
       <c r="N2" s="128"/>
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
       <c r="U2" s="101"/>
       <c r="V2" s="144"/>
-      <c r="W2" s="167"/>
+      <c r="W2" s="169"/>
       <c r="X2" s="101"/>
       <c r="Y2" s="125"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="176"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
       <c r="AB2" s="101"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
@@ -8781,17 +9043,17 @@
       <c r="P3" s="134"/>
       <c r="Q3" s="134"/>
       <c r="R3" s="134"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="168"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="170"/>
       <c r="W3" s="129"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="178"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="180"/>
     </row>
     <row r="4" spans="1:29" s="90" customFormat="1" ht="42" customHeight="1">
       <c r="A4" s="103"/>
@@ -8832,17 +9094,17 @@
       <c r="P4" s="134"/>
       <c r="Q4" s="134"/>
       <c r="R4" s="134"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="168"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="170"/>
       <c r="W4" s="129"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="178"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="172"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="180"/>
     </row>
     <row r="5" spans="1:29" s="90" customFormat="1" ht="79.5" customHeight="1">
       <c r="A5" s="103"/>
@@ -8883,17 +9145,17 @@
       <c r="P5" s="134"/>
       <c r="Q5" s="134"/>
       <c r="R5" s="134"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="168"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="170"/>
       <c r="W5" s="129"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="177"/>
-      <c r="AB5" s="177"/>
-      <c r="AC5" s="178"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="180"/>
     </row>
     <row r="6" spans="1:29" s="90" customFormat="1" ht="42" customHeight="1">
       <c r="A6" s="103"/>
@@ -8936,17 +9198,17 @@
       <c r="P6" s="134"/>
       <c r="Q6" s="134"/>
       <c r="R6" s="134"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="168"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="170"/>
       <c r="W6" s="129"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="177"/>
-      <c r="AB6" s="177"/>
-      <c r="AC6" s="178"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="179"/>
+      <c r="AB6" s="179"/>
+      <c r="AC6" s="180"/>
     </row>
     <row r="7" spans="1:29" s="90" customFormat="1" ht="42" customHeight="1">
       <c r="A7" s="103"/>
@@ -8989,17 +9251,17 @@
       <c r="P7" s="134"/>
       <c r="Q7" s="134"/>
       <c r="R7" s="134"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="168"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="170"/>
       <c r="W7" s="129"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="178"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="180"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="103"/>
@@ -9042,17 +9304,17 @@
       <c r="P8" s="134"/>
       <c r="Q8" s="134"/>
       <c r="R8" s="134"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="168"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="170"/>
       <c r="W8" s="129"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="178"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="180"/>
     </row>
     <row r="9" spans="1:29" ht="24.75" customHeight="1">
       <c r="A9" s="110"/>
@@ -9093,18 +9355,18 @@
       <c r="N9" s="140"/>
       <c r="O9" s="128"/>
       <c r="P9" s="140"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="171"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
       <c r="U9" s="141"/>
       <c r="V9" s="141"/>
-      <c r="W9" s="172"/>
+      <c r="W9" s="174"/>
       <c r="X9" s="141"/>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="180"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="182"/>
       <c r="AC9" s="110"/>
     </row>
     <row r="10" spans="1:29" ht="25.5" customHeight="1">
@@ -9146,18 +9408,18 @@
       <c r="N10" s="140"/>
       <c r="O10" s="128"/>
       <c r="P10" s="143"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
       <c r="U10" s="141"/>
       <c r="V10" s="141"/>
-      <c r="W10" s="172"/>
+      <c r="W10" s="174"/>
       <c r="X10" s="141"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="180"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="182"/>
       <c r="AC10" s="110"/>
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1">
@@ -9199,18 +9461,18 @@
       <c r="N11" s="140"/>
       <c r="O11" s="128"/>
       <c r="P11" s="140"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
       <c r="U11" s="141"/>
       <c r="V11" s="141"/>
-      <c r="W11" s="172"/>
+      <c r="W11" s="174"/>
       <c r="X11" s="141"/>
-      <c r="Y11" s="179"/>
-      <c r="Z11" s="177"/>
-      <c r="AA11" s="177"/>
-      <c r="AB11" s="180"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="182"/>
       <c r="AC11" s="110"/>
     </row>
     <row r="12" spans="1:29" ht="96">
@@ -9247,18 +9509,18 @@
       <c r="N12" s="128"/>
       <c r="O12" s="128"/>
       <c r="P12" s="148"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
       <c r="U12" s="144"/>
       <c r="V12" s="144"/>
-      <c r="W12" s="175"/>
+      <c r="W12" s="177"/>
       <c r="X12" s="144"/>
       <c r="Y12" s="125"/>
-      <c r="Z12" s="177"/>
-      <c r="AA12" s="177"/>
-      <c r="AB12" s="181"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="183"/>
     </row>
     <row r="13" spans="1:29" ht="28.5" customHeight="1">
       <c r="B13" s="90">
@@ -9298,18 +9560,18 @@
       <c r="N13" s="128"/>
       <c r="O13" s="128"/>
       <c r="P13" s="148"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
       <c r="U13" s="144"/>
       <c r="V13" s="144"/>
-      <c r="W13" s="175"/>
+      <c r="W13" s="177"/>
       <c r="X13" s="144"/>
       <c r="Y13" s="125"/>
-      <c r="Z13" s="177"/>
-      <c r="AA13" s="177"/>
-      <c r="AB13" s="181"/>
+      <c r="Z13" s="179"/>
+      <c r="AA13" s="179"/>
+      <c r="AB13" s="183"/>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1">
       <c r="B14" s="90">
@@ -9349,18 +9611,18 @@
       <c r="N14" s="128"/>
       <c r="O14" s="128"/>
       <c r="P14" s="148"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
       <c r="U14" s="144"/>
       <c r="V14" s="144"/>
-      <c r="W14" s="175"/>
+      <c r="W14" s="177"/>
       <c r="X14" s="144"/>
       <c r="Y14" s="125"/>
-      <c r="Z14" s="177"/>
-      <c r="AA14" s="177"/>
-      <c r="AB14" s="181"/>
+      <c r="Z14" s="179"/>
+      <c r="AA14" s="179"/>
+      <c r="AB14" s="183"/>
     </row>
     <row r="15" spans="1:29" ht="24">
       <c r="B15" s="90">
@@ -9396,18 +9658,18 @@
       <c r="N15" s="128"/>
       <c r="O15" s="128"/>
       <c r="P15" s="148"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
       <c r="U15" s="144"/>
       <c r="V15" s="144"/>
-      <c r="W15" s="175"/>
+      <c r="W15" s="177"/>
       <c r="X15" s="144"/>
       <c r="Y15" s="125"/>
-      <c r="Z15" s="177"/>
-      <c r="AA15" s="177"/>
-      <c r="AB15" s="181"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="183"/>
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="90">
@@ -9443,18 +9705,18 @@
       <c r="N16" s="128"/>
       <c r="O16" s="128"/>
       <c r="P16" s="148"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="174"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
       <c r="U16" s="144"/>
       <c r="V16" s="144"/>
-      <c r="W16" s="175"/>
+      <c r="W16" s="177"/>
       <c r="X16" s="144"/>
       <c r="Y16" s="125"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="181"/>
+      <c r="Z16" s="179"/>
+      <c r="AA16" s="179"/>
+      <c r="AB16" s="183"/>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="90">
@@ -9490,18 +9752,18 @@
       <c r="N17" s="128"/>
       <c r="O17" s="128"/>
       <c r="P17" s="148"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="174"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
       <c r="U17" s="144"/>
       <c r="V17" s="144"/>
-      <c r="W17" s="175"/>
+      <c r="W17" s="177"/>
       <c r="X17" s="144"/>
       <c r="Y17" s="125"/>
-      <c r="Z17" s="177"/>
-      <c r="AA17" s="177"/>
-      <c r="AB17" s="181"/>
+      <c r="Z17" s="179"/>
+      <c r="AA17" s="179"/>
+      <c r="AB17" s="183"/>
     </row>
     <row r="18" spans="2:28" ht="108">
       <c r="B18" s="90">
@@ -9535,18 +9797,18 @@
       <c r="N18" s="128"/>
       <c r="O18" s="128"/>
       <c r="P18" s="148"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
       <c r="U18" s="144"/>
       <c r="V18" s="144"/>
-      <c r="W18" s="175"/>
+      <c r="W18" s="177"/>
       <c r="X18" s="144"/>
       <c r="Y18" s="125"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="181"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="183"/>
     </row>
     <row r="19" spans="2:28" ht="48">
       <c r="B19" s="90">
@@ -9570,34 +9832,34 @@
       <c r="H19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="153" t="s">
+      <c r="I19" s="121" t="s">
         <v>84</v>
       </c>
       <c r="J19" s="129">
         <v>43255</v>
       </c>
-      <c r="K19" s="154" t="s">
+      <c r="K19" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="155" t="s">
+      <c r="L19" s="154" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="147"/>
       <c r="N19" s="128"/>
       <c r="O19" s="128"/>
       <c r="P19" s="148"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
       <c r="U19" s="144"/>
       <c r="V19" s="144"/>
-      <c r="W19" s="175"/>
+      <c r="W19" s="177"/>
       <c r="X19" s="144"/>
       <c r="Y19" s="125"/>
-      <c r="Z19" s="177"/>
-      <c r="AA19" s="177"/>
-      <c r="AB19" s="181"/>
+      <c r="Z19" s="179"/>
+      <c r="AA19" s="179"/>
+      <c r="AB19" s="183"/>
     </row>
     <row r="20" spans="2:28" ht="24">
       <c r="B20" s="90">
@@ -9621,34 +9883,34 @@
       <c r="H20" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="153" t="s">
+      <c r="I20" s="121" t="s">
         <v>84</v>
       </c>
       <c r="J20" s="129">
         <v>43255</v>
       </c>
-      <c r="K20" s="154" t="s">
+      <c r="K20" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="156" t="s">
+      <c r="L20" s="155" t="s">
         <v>87</v>
       </c>
       <c r="M20" s="147"/>
       <c r="N20" s="128"/>
       <c r="O20" s="128"/>
       <c r="P20" s="148"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
       <c r="U20" s="144"/>
       <c r="V20" s="144"/>
-      <c r="W20" s="175"/>
+      <c r="W20" s="177"/>
       <c r="X20" s="144"/>
       <c r="Y20" s="125"/>
-      <c r="Z20" s="177"/>
-      <c r="AA20" s="177"/>
-      <c r="AB20" s="181"/>
+      <c r="Z20" s="179"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="183"/>
     </row>
     <row r="21" spans="2:28" ht="36">
       <c r="B21" s="90">
@@ -9670,13 +9932,13 @@
       <c r="H21" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="153" t="s">
+      <c r="I21" s="121" t="s">
         <v>89</v>
       </c>
       <c r="J21" s="129">
         <v>43257</v>
       </c>
-      <c r="K21" s="154" t="s">
+      <c r="K21" s="153" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="146" t="s">
@@ -9686,18 +9948,18 @@
       <c r="N21" s="128"/>
       <c r="O21" s="128"/>
       <c r="P21" s="148"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
       <c r="U21" s="144"/>
       <c r="V21" s="144"/>
-      <c r="W21" s="175"/>
+      <c r="W21" s="177"/>
       <c r="X21" s="144"/>
       <c r="Y21" s="125"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
-      <c r="AB21" s="181"/>
+      <c r="Z21" s="179"/>
+      <c r="AA21" s="179"/>
+      <c r="AB21" s="183"/>
     </row>
     <row r="22" spans="2:28" ht="48">
       <c r="B22" s="90">
@@ -9721,13 +9983,13 @@
       <c r="H22" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="153" t="s">
+      <c r="I22" s="121" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="129">
         <v>43257</v>
       </c>
-      <c r="K22" s="154" t="s">
+      <c r="K22" s="153" t="s">
         <v>67</v>
       </c>
       <c r="L22" s="146" t="s">
@@ -9737,18 +9999,18 @@
       <c r="N22" s="128"/>
       <c r="O22" s="128"/>
       <c r="P22" s="148"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
       <c r="U22" s="144"/>
       <c r="V22" s="144"/>
-      <c r="W22" s="175"/>
+      <c r="W22" s="177"/>
       <c r="X22" s="144"/>
       <c r="Y22" s="125"/>
-      <c r="Z22" s="177"/>
-      <c r="AA22" s="177"/>
-      <c r="AB22" s="181"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="179"/>
+      <c r="AB22" s="183"/>
     </row>
     <row r="23" spans="2:28" ht="24">
       <c r="B23" s="90">
@@ -9772,13 +10034,13 @@
       <c r="H23" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="153" t="s">
+      <c r="I23" s="121" t="s">
         <v>95</v>
       </c>
       <c r="J23" s="129">
         <v>43262</v>
       </c>
-      <c r="K23" s="154" t="s">
+      <c r="K23" s="153" t="s">
         <v>67</v>
       </c>
       <c r="L23" s="146" t="s">
@@ -9788,18 +10050,18 @@
       <c r="N23" s="128"/>
       <c r="O23" s="128"/>
       <c r="P23" s="148"/>
-      <c r="Q23" s="174"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="174"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
       <c r="U23" s="144"/>
       <c r="V23" s="144"/>
-      <c r="W23" s="175"/>
+      <c r="W23" s="177"/>
       <c r="X23" s="144"/>
       <c r="Y23" s="125"/>
-      <c r="Z23" s="177"/>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="181"/>
+      <c r="Z23" s="179"/>
+      <c r="AA23" s="179"/>
+      <c r="AB23" s="183"/>
     </row>
     <row r="24" spans="2:28" ht="36" customHeight="1">
       <c r="B24" s="104">
@@ -9829,28 +10091,28 @@
       <c r="J24" s="129">
         <v>43255</v>
       </c>
-      <c r="K24" s="157" t="s">
+      <c r="K24" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="158" t="s">
+      <c r="L24" s="157" t="s">
         <v>100</v>
       </c>
       <c r="M24" s="147"/>
       <c r="N24" s="128"/>
       <c r="O24" s="128"/>
       <c r="P24" s="148"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
       <c r="U24" s="144"/>
       <c r="V24" s="144"/>
-      <c r="W24" s="175"/>
+      <c r="W24" s="177"/>
       <c r="X24" s="144"/>
       <c r="Y24" s="125"/>
-      <c r="Z24" s="177"/>
-      <c r="AA24" s="177"/>
-      <c r="AB24" s="181"/>
+      <c r="Z24" s="179"/>
+      <c r="AA24" s="179"/>
+      <c r="AB24" s="183"/>
     </row>
     <row r="25" spans="2:28" ht="30" customHeight="1">
       <c r="B25" s="104">
@@ -9878,28 +10140,28 @@
       <c r="J25" s="129">
         <v>43255</v>
       </c>
-      <c r="K25" s="157" t="s">
+      <c r="K25" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="159" t="s">
+      <c r="L25" s="158" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="147"/>
       <c r="N25" s="128"/>
       <c r="O25" s="128"/>
       <c r="P25" s="148"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
       <c r="U25" s="144"/>
       <c r="V25" s="144"/>
-      <c r="W25" s="175"/>
+      <c r="W25" s="177"/>
       <c r="X25" s="144"/>
       <c r="Y25" s="125"/>
-      <c r="Z25" s="177"/>
-      <c r="AA25" s="177"/>
-      <c r="AB25" s="181"/>
+      <c r="Z25" s="179"/>
+      <c r="AA25" s="179"/>
+      <c r="AB25" s="183"/>
     </row>
     <row r="26" spans="2:28" ht="30.75" customHeight="1">
       <c r="B26" s="104">
@@ -9927,35 +10189,35 @@
       <c r="J26" s="129">
         <v>43256</v>
       </c>
-      <c r="K26" s="157" t="s">
+      <c r="K26" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="160" t="s">
+      <c r="L26" s="159" t="s">
         <v>103</v>
       </c>
       <c r="M26" s="147"/>
       <c r="N26" s="128"/>
       <c r="O26" s="128"/>
       <c r="P26" s="148"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
       <c r="U26" s="144"/>
       <c r="V26" s="144"/>
-      <c r="W26" s="175"/>
+      <c r="W26" s="177"/>
       <c r="X26" s="144"/>
       <c r="Y26" s="125"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="181"/>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="183"/>
     </row>
     <row r="27" spans="2:28" ht="30.75" customHeight="1">
       <c r="B27" s="90">
         <v>25</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="D27" s="118" t="s">
         <v>54</v>
@@ -9971,35 +10233,35 @@
       </c>
       <c r="H27" s="120"/>
       <c r="I27" s="135" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="J27" s="129">
         <v>43262</v>
       </c>
-      <c r="K27" s="157" t="s">
+      <c r="K27" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="217" t="s">
-        <v>214</v>
+      <c r="L27" s="160" t="s">
+        <v>106</v>
       </c>
       <c r="M27" s="147" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="N27" s="128"/>
       <c r="O27" s="128"/>
       <c r="P27" s="148"/>
-      <c r="Q27" s="174"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
+      <c r="Q27" s="176"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
       <c r="U27" s="144"/>
       <c r="V27" s="144"/>
-      <c r="W27" s="175"/>
+      <c r="W27" s="177"/>
       <c r="X27" s="144"/>
       <c r="Y27" s="125"/>
-      <c r="Z27" s="177"/>
-      <c r="AA27" s="177"/>
-      <c r="AB27" s="181"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="183"/>
     </row>
     <row r="28" spans="2:28" ht="73.5" customHeight="1">
       <c r="B28" s="90">
@@ -10022,44 +10284,44 @@
       </c>
       <c r="H28" s="116"/>
       <c r="I28" s="135" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J28" s="129">
         <v>43272</v>
       </c>
-      <c r="K28" s="157" t="s">
+      <c r="K28" s="156" t="s">
         <v>38</v>
       </c>
       <c r="L28" s="115" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M28" s="161" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N28" s="128"/>
       <c r="O28" s="128"/>
       <c r="P28" s="148"/>
-      <c r="Q28" s="174"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
       <c r="U28" s="145" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="V28" s="144"/>
-      <c r="W28" s="175"/>
+      <c r="W28" s="177"/>
       <c r="X28" s="144"/>
       <c r="Y28" s="125"/>
-      <c r="Z28" s="177"/>
-      <c r="AA28" s="177"/>
-      <c r="AB28" s="181"/>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="183"/>
     </row>
     <row r="29" spans="2:28" ht="24">
       <c r="B29" s="90">
         <v>27</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D29" s="118" t="s">
         <v>27</v>
@@ -10074,7 +10336,7 @@
         <v>47</v>
       </c>
       <c r="H29" s="116" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I29" s="162" t="s">
         <v>95</v>
@@ -10083,34 +10345,34 @@
         <v>43262</v>
       </c>
       <c r="K29" s="152" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="L29" s="146" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M29" s="147"/>
       <c r="N29" s="128"/>
       <c r="O29" s="128"/>
       <c r="P29" s="148"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
       <c r="U29" s="144"/>
       <c r="V29" s="144"/>
-      <c r="W29" s="175"/>
+      <c r="W29" s="177"/>
       <c r="X29" s="144"/>
       <c r="Y29" s="125"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="181"/>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
+      <c r="AB29" s="183"/>
     </row>
     <row r="30" spans="2:28" ht="49.5">
       <c r="B30" s="90">
         <v>28</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="118" t="s">
         <v>27</v>
@@ -10125,7 +10387,7 @@
         <v>47</v>
       </c>
       <c r="H30" s="116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I30" s="162" t="s">
         <v>95</v>
@@ -10134,48 +10396,48 @@
         <v>43273</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="164" t="s">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="L30" s="146" t="s">
+        <v>116</v>
       </c>
       <c r="M30" s="147"/>
       <c r="N30" s="128"/>
       <c r="O30" s="128"/>
       <c r="P30" s="148"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
       <c r="U30" s="144"/>
       <c r="V30" s="144"/>
-      <c r="W30" s="175"/>
+      <c r="W30" s="177"/>
       <c r="X30" s="144"/>
       <c r="Y30" s="125"/>
-      <c r="Z30" s="177"/>
-      <c r="AA30" s="177"/>
-      <c r="AB30" s="181"/>
+      <c r="Z30" s="179"/>
+      <c r="AA30" s="179"/>
+      <c r="AB30" s="183"/>
     </row>
     <row r="31" spans="2:28" ht="14.25" customHeight="1">
       <c r="B31" s="90">
         <v>29</v>
       </c>
       <c r="C31" s="122" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D31" s="114" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E31" s="113" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G31" s="101"/>
       <c r="H31" s="116"/>
       <c r="I31" s="145" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J31" s="129">
         <v>43276</v>
@@ -10183,35 +10445,35 @@
       <c r="K31" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="156" t="s">
-        <v>118</v>
+      <c r="L31" s="155" t="s">
+        <v>121</v>
       </c>
       <c r="M31" s="147"/>
       <c r="N31" s="128"/>
       <c r="O31" s="128"/>
       <c r="P31" s="148"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
       <c r="U31" s="144"/>
       <c r="V31" s="144"/>
-      <c r="W31" s="175"/>
+      <c r="W31" s="177"/>
       <c r="X31" s="144"/>
       <c r="Y31" s="125"/>
-      <c r="Z31" s="177"/>
-      <c r="AA31" s="177"/>
-      <c r="AB31" s="181"/>
-    </row>
-    <row r="32" spans="2:28" ht="33.75" customHeight="1">
+      <c r="Z31" s="179"/>
+      <c r="AA31" s="179"/>
+      <c r="AB31" s="183"/>
+    </row>
+    <row r="32" spans="2:28" ht="63" customHeight="1">
       <c r="B32" s="90">
         <v>30</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="D32" s="114" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E32" s="113" t="s">
         <v>28</v>
@@ -10223,94 +10485,138 @@
         <v>41</v>
       </c>
       <c r="H32" s="116" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="I32" s="105" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="J32" s="129">
         <v>43278</v>
       </c>
-      <c r="K32" s="157" t="s">
+      <c r="K32" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="216" t="s">
-        <v>213</v>
+      <c r="L32" s="164" t="s">
+        <v>219</v>
       </c>
       <c r="M32" s="147"/>
       <c r="N32" s="128"/>
       <c r="O32" s="128"/>
       <c r="P32" s="148"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
+      <c r="Q32" s="176"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
       <c r="U32" s="144"/>
       <c r="V32" s="144"/>
-      <c r="W32" s="175"/>
+      <c r="W32" s="177"/>
       <c r="X32" s="144"/>
       <c r="Y32" s="125"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="181"/>
+      <c r="Z32" s="179"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="183"/>
     </row>
     <row r="33" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="115"/>
+      <c r="B33" s="90">
+        <v>31</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="129">
+        <v>43278</v>
+      </c>
+      <c r="K33" s="145" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="166" t="s">
+        <v>127</v>
+      </c>
       <c r="M33" s="147"/>
       <c r="N33" s="128"/>
       <c r="O33" s="128"/>
       <c r="P33" s="148"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
+      <c r="Q33" s="176"/>
+      <c r="R33" s="176"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
       <c r="U33" s="144"/>
       <c r="V33" s="144"/>
-      <c r="W33" s="175"/>
+      <c r="W33" s="177"/>
       <c r="X33" s="144"/>
       <c r="Y33" s="125"/>
-      <c r="Z33" s="177"/>
-      <c r="AA33" s="177"/>
-      <c r="AB33" s="181"/>
-    </row>
-    <row r="34" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="115"/>
+      <c r="Z33" s="179"/>
+      <c r="AA33" s="179"/>
+      <c r="AB33" s="183"/>
+    </row>
+    <row r="34" spans="2:28" ht="59.25" customHeight="1">
+      <c r="B34" s="90">
+        <v>32</v>
+      </c>
+      <c r="C34" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="129">
+        <v>43279</v>
+      </c>
+      <c r="K34" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="115" t="s">
+        <v>220</v>
+      </c>
       <c r="M34" s="147"/>
       <c r="N34" s="128"/>
       <c r="O34" s="128"/>
       <c r="P34" s="148"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
-      <c r="T34" s="174"/>
+      <c r="Q34" s="176"/>
+      <c r="R34" s="176"/>
+      <c r="S34" s="176"/>
+      <c r="T34" s="176"/>
       <c r="U34" s="144"/>
       <c r="V34" s="144"/>
-      <c r="W34" s="175"/>
+      <c r="W34" s="177"/>
       <c r="X34" s="144"/>
       <c r="Y34" s="125"/>
-      <c r="Z34" s="177"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="181"/>
+      <c r="Z34" s="179"/>
+      <c r="AA34" s="179"/>
+      <c r="AB34" s="183"/>
     </row>
     <row r="35" spans="2:28" ht="14.25" customHeight="1">
       <c r="B35" s="90"/>
@@ -10328,18 +10634,18 @@
       <c r="N35" s="128"/>
       <c r="O35" s="128"/>
       <c r="P35" s="148"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-      <c r="S35" s="174"/>
-      <c r="T35" s="174"/>
+      <c r="Q35" s="176"/>
+      <c r="R35" s="176"/>
+      <c r="S35" s="176"/>
+      <c r="T35" s="176"/>
       <c r="U35" s="144"/>
       <c r="V35" s="144"/>
-      <c r="W35" s="175"/>
+      <c r="W35" s="177"/>
       <c r="X35" s="144"/>
       <c r="Y35" s="125"/>
-      <c r="Z35" s="177"/>
-      <c r="AA35" s="177"/>
-      <c r="AB35" s="181"/>
+      <c r="Z35" s="179"/>
+      <c r="AA35" s="179"/>
+      <c r="AB35" s="183"/>
     </row>
     <row r="36" spans="2:28" ht="14.25" customHeight="1">
       <c r="B36" s="90"/>
@@ -10357,18 +10663,18 @@
       <c r="N36" s="128"/>
       <c r="O36" s="128"/>
       <c r="P36" s="148"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="174"/>
-      <c r="T36" s="174"/>
+      <c r="Q36" s="176"/>
+      <c r="R36" s="176"/>
+      <c r="S36" s="176"/>
+      <c r="T36" s="176"/>
       <c r="U36" s="144"/>
       <c r="V36" s="144"/>
-      <c r="W36" s="175"/>
+      <c r="W36" s="177"/>
       <c r="X36" s="144"/>
       <c r="Y36" s="125"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="177"/>
-      <c r="AB36" s="181"/>
+      <c r="Z36" s="179"/>
+      <c r="AA36" s="179"/>
+      <c r="AB36" s="183"/>
     </row>
     <row r="37" spans="2:28" ht="14.25" customHeight="1">
       <c r="B37" s="90"/>
@@ -10386,18 +10692,18 @@
       <c r="N37" s="128"/>
       <c r="O37" s="128"/>
       <c r="P37" s="148"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
       <c r="U37" s="144"/>
       <c r="V37" s="144"/>
-      <c r="W37" s="175"/>
+      <c r="W37" s="177"/>
       <c r="X37" s="144"/>
       <c r="Y37" s="125"/>
-      <c r="Z37" s="177"/>
-      <c r="AA37" s="177"/>
-      <c r="AB37" s="181"/>
+      <c r="Z37" s="179"/>
+      <c r="AA37" s="179"/>
+      <c r="AB37" s="183"/>
     </row>
     <row r="38" spans="2:28" ht="14.25" customHeight="1">
       <c r="B38" s="90"/>
@@ -10415,18 +10721,18 @@
       <c r="N38" s="128"/>
       <c r="O38" s="128"/>
       <c r="P38" s="148"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
       <c r="U38" s="144"/>
       <c r="V38" s="144"/>
-      <c r="W38" s="175"/>
+      <c r="W38" s="177"/>
       <c r="X38" s="144"/>
       <c r="Y38" s="125"/>
-      <c r="Z38" s="177"/>
-      <c r="AA38" s="177"/>
-      <c r="AB38" s="181"/>
+      <c r="Z38" s="179"/>
+      <c r="AA38" s="179"/>
+      <c r="AB38" s="183"/>
     </row>
     <row r="39" spans="2:28" ht="14.25" customHeight="1">
       <c r="B39" s="90"/>
@@ -10444,18 +10750,18 @@
       <c r="N39" s="128"/>
       <c r="O39" s="128"/>
       <c r="P39" s="148"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="176"/>
       <c r="U39" s="144"/>
       <c r="V39" s="144"/>
-      <c r="W39" s="175"/>
+      <c r="W39" s="177"/>
       <c r="X39" s="144"/>
       <c r="Y39" s="125"/>
-      <c r="Z39" s="177"/>
-      <c r="AA39" s="177"/>
-      <c r="AB39" s="181"/>
+      <c r="Z39" s="179"/>
+      <c r="AA39" s="179"/>
+      <c r="AB39" s="183"/>
     </row>
     <row r="40" spans="2:28" ht="14.25" customHeight="1">
       <c r="B40" s="90"/>
@@ -10473,18 +10779,18 @@
       <c r="N40" s="128"/>
       <c r="O40" s="128"/>
       <c r="P40" s="148"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="174"/>
-      <c r="T40" s="174"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="176"/>
       <c r="U40" s="144"/>
       <c r="V40" s="144"/>
-      <c r="W40" s="175"/>
+      <c r="W40" s="177"/>
       <c r="X40" s="144"/>
       <c r="Y40" s="125"/>
-      <c r="Z40" s="177"/>
-      <c r="AA40" s="177"/>
-      <c r="AB40" s="181"/>
+      <c r="Z40" s="179"/>
+      <c r="AA40" s="179"/>
+      <c r="AB40" s="183"/>
     </row>
     <row r="41" spans="2:28" ht="14.25" customHeight="1">
       <c r="B41" s="90"/>
@@ -10502,18 +10808,18 @@
       <c r="N41" s="128"/>
       <c r="O41" s="128"/>
       <c r="P41" s="148"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
       <c r="U41" s="144"/>
       <c r="V41" s="144"/>
-      <c r="W41" s="175"/>
+      <c r="W41" s="177"/>
       <c r="X41" s="144"/>
       <c r="Y41" s="125"/>
-      <c r="Z41" s="177"/>
-      <c r="AA41" s="177"/>
-      <c r="AB41" s="181"/>
+      <c r="Z41" s="179"/>
+      <c r="AA41" s="179"/>
+      <c r="AB41" s="183"/>
     </row>
     <row r="42" spans="2:28" ht="14.25" customHeight="1">
       <c r="B42" s="90"/>
@@ -10531,18 +10837,18 @@
       <c r="N42" s="128"/>
       <c r="O42" s="128"/>
       <c r="P42" s="148"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
+      <c r="Q42" s="176"/>
+      <c r="R42" s="176"/>
+      <c r="S42" s="176"/>
+      <c r="T42" s="176"/>
       <c r="U42" s="144"/>
       <c r="V42" s="144"/>
-      <c r="W42" s="175"/>
+      <c r="W42" s="177"/>
       <c r="X42" s="144"/>
       <c r="Y42" s="125"/>
-      <c r="Z42" s="177"/>
-      <c r="AA42" s="177"/>
-      <c r="AB42" s="181"/>
+      <c r="Z42" s="179"/>
+      <c r="AA42" s="179"/>
+      <c r="AB42" s="183"/>
     </row>
     <row r="43" spans="2:28" ht="14.25" customHeight="1">
       <c r="B43" s="90"/>
@@ -10560,18 +10866,18 @@
       <c r="N43" s="128"/>
       <c r="O43" s="128"/>
       <c r="P43" s="148"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
+      <c r="Q43" s="176"/>
+      <c r="R43" s="176"/>
+      <c r="S43" s="176"/>
+      <c r="T43" s="176"/>
       <c r="U43" s="144"/>
       <c r="V43" s="144"/>
-      <c r="W43" s="175"/>
+      <c r="W43" s="177"/>
       <c r="X43" s="144"/>
       <c r="Y43" s="125"/>
-      <c r="Z43" s="177"/>
-      <c r="AA43" s="177"/>
-      <c r="AB43" s="181"/>
+      <c r="Z43" s="179"/>
+      <c r="AA43" s="179"/>
+      <c r="AB43" s="183"/>
     </row>
     <row r="44" spans="2:28" ht="14.25" customHeight="1">
       <c r="B44" s="90"/>
@@ -10589,18 +10895,18 @@
       <c r="N44" s="128"/>
       <c r="O44" s="128"/>
       <c r="P44" s="148"/>
-      <c r="Q44" s="174"/>
-      <c r="R44" s="174"/>
-      <c r="S44" s="174"/>
-      <c r="T44" s="174"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="176"/>
+      <c r="S44" s="176"/>
+      <c r="T44" s="176"/>
       <c r="U44" s="144"/>
       <c r="V44" s="144"/>
-      <c r="W44" s="175"/>
+      <c r="W44" s="177"/>
       <c r="X44" s="144"/>
       <c r="Y44" s="125"/>
-      <c r="Z44" s="177"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="181"/>
+      <c r="Z44" s="179"/>
+      <c r="AA44" s="179"/>
+      <c r="AB44" s="183"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1">
       <c r="B45" s="90"/>
@@ -10618,18 +10924,18 @@
       <c r="N45" s="128"/>
       <c r="O45" s="128"/>
       <c r="P45" s="148"/>
-      <c r="Q45" s="174"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="174"/>
+      <c r="Q45" s="176"/>
+      <c r="R45" s="176"/>
+      <c r="S45" s="176"/>
+      <c r="T45" s="176"/>
       <c r="U45" s="144"/>
       <c r="V45" s="144"/>
-      <c r="W45" s="175"/>
+      <c r="W45" s="177"/>
       <c r="X45" s="144"/>
       <c r="Y45" s="125"/>
-      <c r="Z45" s="177"/>
-      <c r="AA45" s="177"/>
-      <c r="AB45" s="181"/>
+      <c r="Z45" s="179"/>
+      <c r="AA45" s="179"/>
+      <c r="AB45" s="183"/>
     </row>
     <row r="46" spans="2:28" ht="14.25" customHeight="1">
       <c r="B46" s="90"/>
@@ -10647,18 +10953,18 @@
       <c r="N46" s="128"/>
       <c r="O46" s="128"/>
       <c r="P46" s="148"/>
-      <c r="Q46" s="174"/>
-      <c r="R46" s="174"/>
-      <c r="S46" s="174"/>
-      <c r="T46" s="174"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
       <c r="U46" s="144"/>
       <c r="V46" s="144"/>
-      <c r="W46" s="175"/>
+      <c r="W46" s="177"/>
       <c r="X46" s="144"/>
       <c r="Y46" s="125"/>
-      <c r="Z46" s="177"/>
-      <c r="AA46" s="177"/>
-      <c r="AB46" s="181"/>
+      <c r="Z46" s="179"/>
+      <c r="AA46" s="179"/>
+      <c r="AB46" s="183"/>
     </row>
     <row r="47" spans="2:28" ht="14.25" customHeight="1">
       <c r="B47" s="90"/>
@@ -10676,18 +10982,18 @@
       <c r="N47" s="128"/>
       <c r="O47" s="128"/>
       <c r="P47" s="148"/>
-      <c r="Q47" s="174"/>
-      <c r="R47" s="174"/>
-      <c r="S47" s="174"/>
-      <c r="T47" s="174"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
       <c r="U47" s="144"/>
       <c r="V47" s="144"/>
-      <c r="W47" s="175"/>
+      <c r="W47" s="177"/>
       <c r="X47" s="144"/>
       <c r="Y47" s="125"/>
-      <c r="Z47" s="177"/>
-      <c r="AA47" s="177"/>
-      <c r="AB47" s="181"/>
+      <c r="Z47" s="179"/>
+      <c r="AA47" s="179"/>
+      <c r="AB47" s="183"/>
     </row>
     <row r="48" spans="2:28" ht="14.25" customHeight="1">
       <c r="B48" s="90"/>
@@ -10705,18 +11011,18 @@
       <c r="N48" s="128"/>
       <c r="O48" s="128"/>
       <c r="P48" s="148"/>
-      <c r="Q48" s="174"/>
-      <c r="R48" s="174"/>
-      <c r="S48" s="174"/>
-      <c r="T48" s="174"/>
+      <c r="Q48" s="176"/>
+      <c r="R48" s="176"/>
+      <c r="S48" s="176"/>
+      <c r="T48" s="176"/>
       <c r="U48" s="144"/>
       <c r="V48" s="144"/>
-      <c r="W48" s="175"/>
+      <c r="W48" s="177"/>
       <c r="X48" s="144"/>
       <c r="Y48" s="125"/>
-      <c r="Z48" s="177"/>
-      <c r="AA48" s="177"/>
-      <c r="AB48" s="181"/>
+      <c r="Z48" s="179"/>
+      <c r="AA48" s="179"/>
+      <c r="AB48" s="183"/>
     </row>
     <row r="49" spans="2:28" ht="14.25" customHeight="1">
       <c r="B49" s="90"/>
@@ -10734,18 +11040,18 @@
       <c r="N49" s="128"/>
       <c r="O49" s="128"/>
       <c r="P49" s="148"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
-      <c r="T49" s="174"/>
+      <c r="Q49" s="176"/>
+      <c r="R49" s="176"/>
+      <c r="S49" s="176"/>
+      <c r="T49" s="176"/>
       <c r="U49" s="144"/>
       <c r="V49" s="144"/>
-      <c r="W49" s="175"/>
+      <c r="W49" s="177"/>
       <c r="X49" s="144"/>
       <c r="Y49" s="125"/>
-      <c r="Z49" s="177"/>
-      <c r="AA49" s="177"/>
-      <c r="AB49" s="181"/>
+      <c r="Z49" s="179"/>
+      <c r="AA49" s="179"/>
+      <c r="AB49" s="183"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1">
       <c r="B50" s="90"/>
@@ -10763,18 +11069,18 @@
       <c r="N50" s="128"/>
       <c r="O50" s="128"/>
       <c r="P50" s="148"/>
-      <c r="Q50" s="174"/>
-      <c r="R50" s="174"/>
-      <c r="S50" s="174"/>
-      <c r="T50" s="174"/>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="176"/>
+      <c r="S50" s="176"/>
+      <c r="T50" s="176"/>
       <c r="U50" s="144"/>
       <c r="V50" s="144"/>
-      <c r="W50" s="175"/>
+      <c r="W50" s="177"/>
       <c r="X50" s="144"/>
       <c r="Y50" s="125"/>
-      <c r="Z50" s="177"/>
-      <c r="AA50" s="177"/>
-      <c r="AB50" s="181"/>
+      <c r="Z50" s="179"/>
+      <c r="AA50" s="179"/>
+      <c r="AB50" s="183"/>
     </row>
     <row r="51" spans="2:28" ht="14.25" customHeight="1">
       <c r="B51" s="90"/>
@@ -10792,18 +11098,18 @@
       <c r="N51" s="128"/>
       <c r="O51" s="128"/>
       <c r="P51" s="148"/>
-      <c r="Q51" s="174"/>
-      <c r="R51" s="174"/>
-      <c r="S51" s="174"/>
-      <c r="T51" s="174"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
       <c r="U51" s="144"/>
       <c r="V51" s="144"/>
-      <c r="W51" s="175"/>
+      <c r="W51" s="177"/>
       <c r="X51" s="144"/>
       <c r="Y51" s="125"/>
-      <c r="Z51" s="177"/>
-      <c r="AA51" s="177"/>
-      <c r="AB51" s="181"/>
+      <c r="Z51" s="179"/>
+      <c r="AA51" s="179"/>
+      <c r="AB51" s="183"/>
     </row>
     <row r="52" spans="2:28" ht="14.25" customHeight="1">
       <c r="B52" s="90"/>
@@ -10821,18 +11127,18 @@
       <c r="N52" s="128"/>
       <c r="O52" s="128"/>
       <c r="P52" s="148"/>
-      <c r="Q52" s="174"/>
-      <c r="R52" s="174"/>
-      <c r="S52" s="174"/>
-      <c r="T52" s="174"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="176"/>
+      <c r="S52" s="176"/>
+      <c r="T52" s="176"/>
       <c r="U52" s="144"/>
       <c r="V52" s="144"/>
-      <c r="W52" s="175"/>
+      <c r="W52" s="177"/>
       <c r="X52" s="144"/>
       <c r="Y52" s="125"/>
-      <c r="Z52" s="177"/>
-      <c r="AA52" s="177"/>
-      <c r="AB52" s="181"/>
+      <c r="Z52" s="179"/>
+      <c r="AA52" s="179"/>
+      <c r="AB52" s="183"/>
     </row>
     <row r="53" spans="2:28" ht="14.25" customHeight="1">
       <c r="B53" s="90"/>
@@ -10850,18 +11156,18 @@
       <c r="N53" s="128"/>
       <c r="O53" s="128"/>
       <c r="P53" s="148"/>
-      <c r="Q53" s="174"/>
-      <c r="R53" s="174"/>
-      <c r="S53" s="174"/>
-      <c r="T53" s="174"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
       <c r="U53" s="144"/>
       <c r="V53" s="144"/>
-      <c r="W53" s="175"/>
+      <c r="W53" s="177"/>
       <c r="X53" s="144"/>
       <c r="Y53" s="125"/>
-      <c r="Z53" s="177"/>
-      <c r="AA53" s="177"/>
-      <c r="AB53" s="181"/>
+      <c r="Z53" s="179"/>
+      <c r="AA53" s="179"/>
+      <c r="AB53" s="183"/>
     </row>
     <row r="54" spans="2:28" ht="14.25" customHeight="1">
       <c r="B54" s="90"/>
@@ -10879,18 +11185,18 @@
       <c r="N54" s="128"/>
       <c r="O54" s="128"/>
       <c r="P54" s="148"/>
-      <c r="Q54" s="174"/>
-      <c r="R54" s="174"/>
-      <c r="S54" s="174"/>
-      <c r="T54" s="174"/>
+      <c r="Q54" s="176"/>
+      <c r="R54" s="176"/>
+      <c r="S54" s="176"/>
+      <c r="T54" s="176"/>
       <c r="U54" s="144"/>
       <c r="V54" s="144"/>
-      <c r="W54" s="175"/>
+      <c r="W54" s="177"/>
       <c r="X54" s="144"/>
       <c r="Y54" s="125"/>
-      <c r="Z54" s="177"/>
-      <c r="AA54" s="177"/>
-      <c r="AB54" s="181"/>
+      <c r="Z54" s="179"/>
+      <c r="AA54" s="179"/>
+      <c r="AB54" s="183"/>
     </row>
     <row r="55" spans="2:28" ht="14.25" customHeight="1">
       <c r="B55" s="90"/>
@@ -10908,18 +11214,18 @@
       <c r="N55" s="128"/>
       <c r="O55" s="128"/>
       <c r="P55" s="148"/>
-      <c r="Q55" s="174"/>
-      <c r="R55" s="174"/>
-      <c r="S55" s="174"/>
-      <c r="T55" s="174"/>
+      <c r="Q55" s="176"/>
+      <c r="R55" s="176"/>
+      <c r="S55" s="176"/>
+      <c r="T55" s="176"/>
       <c r="U55" s="144"/>
       <c r="V55" s="144"/>
-      <c r="W55" s="175"/>
+      <c r="W55" s="177"/>
       <c r="X55" s="144"/>
       <c r="Y55" s="125"/>
-      <c r="Z55" s="177"/>
-      <c r="AA55" s="177"/>
-      <c r="AB55" s="181"/>
+      <c r="Z55" s="179"/>
+      <c r="AA55" s="179"/>
+      <c r="AB55" s="183"/>
     </row>
     <row r="56" spans="2:28" ht="14.25" customHeight="1">
       <c r="B56" s="90"/>
@@ -10937,18 +11243,18 @@
       <c r="N56" s="128"/>
       <c r="O56" s="128"/>
       <c r="P56" s="148"/>
-      <c r="Q56" s="174"/>
-      <c r="R56" s="174"/>
-      <c r="S56" s="174"/>
-      <c r="T56" s="174"/>
+      <c r="Q56" s="176"/>
+      <c r="R56" s="176"/>
+      <c r="S56" s="176"/>
+      <c r="T56" s="176"/>
       <c r="U56" s="144"/>
       <c r="V56" s="144"/>
-      <c r="W56" s="175"/>
+      <c r="W56" s="177"/>
       <c r="X56" s="144"/>
       <c r="Y56" s="125"/>
-      <c r="Z56" s="177"/>
-      <c r="AA56" s="177"/>
-      <c r="AB56" s="181"/>
+      <c r="Z56" s="179"/>
+      <c r="AA56" s="179"/>
+      <c r="AB56" s="183"/>
     </row>
     <row r="57" spans="2:28" ht="14.25" customHeight="1">
       <c r="B57" s="90"/>
@@ -10966,18 +11272,18 @@
       <c r="N57" s="128"/>
       <c r="O57" s="128"/>
       <c r="P57" s="148"/>
-      <c r="Q57" s="174"/>
-      <c r="R57" s="174"/>
-      <c r="S57" s="174"/>
-      <c r="T57" s="174"/>
+      <c r="Q57" s="176"/>
+      <c r="R57" s="176"/>
+      <c r="S57" s="176"/>
+      <c r="T57" s="176"/>
       <c r="U57" s="144"/>
       <c r="V57" s="144"/>
-      <c r="W57" s="175"/>
+      <c r="W57" s="177"/>
       <c r="X57" s="144"/>
       <c r="Y57" s="125"/>
-      <c r="Z57" s="177"/>
-      <c r="AA57" s="177"/>
-      <c r="AB57" s="181"/>
+      <c r="Z57" s="179"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="183"/>
     </row>
     <row r="58" spans="2:28" ht="14.25" customHeight="1">
       <c r="B58" s="90"/>
@@ -10995,18 +11301,18 @@
       <c r="N58" s="128"/>
       <c r="O58" s="128"/>
       <c r="P58" s="148"/>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174"/>
-      <c r="S58" s="174"/>
-      <c r="T58" s="174"/>
+      <c r="Q58" s="176"/>
+      <c r="R58" s="176"/>
+      <c r="S58" s="176"/>
+      <c r="T58" s="176"/>
       <c r="U58" s="144"/>
       <c r="V58" s="144"/>
-      <c r="W58" s="175"/>
+      <c r="W58" s="177"/>
       <c r="X58" s="144"/>
       <c r="Y58" s="125"/>
-      <c r="Z58" s="177"/>
-      <c r="AA58" s="177"/>
-      <c r="AB58" s="181"/>
+      <c r="Z58" s="179"/>
+      <c r="AA58" s="179"/>
+      <c r="AB58" s="183"/>
     </row>
     <row r="59" spans="2:28" ht="14.25" customHeight="1">
       <c r="B59" s="90"/>
@@ -11024,18 +11330,18 @@
       <c r="N59" s="128"/>
       <c r="O59" s="128"/>
       <c r="P59" s="148"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="174"/>
+      <c r="Q59" s="176"/>
+      <c r="R59" s="176"/>
+      <c r="S59" s="176"/>
+      <c r="T59" s="176"/>
       <c r="U59" s="144"/>
       <c r="V59" s="144"/>
-      <c r="W59" s="175"/>
+      <c r="W59" s="177"/>
       <c r="X59" s="144"/>
       <c r="Y59" s="125"/>
-      <c r="Z59" s="177"/>
-      <c r="AA59" s="177"/>
-      <c r="AB59" s="181"/>
+      <c r="Z59" s="179"/>
+      <c r="AA59" s="179"/>
+      <c r="AB59" s="183"/>
     </row>
     <row r="60" spans="2:28" ht="14.25" customHeight="1">
       <c r="B60" s="90"/>
@@ -11053,18 +11359,18 @@
       <c r="N60" s="128"/>
       <c r="O60" s="128"/>
       <c r="P60" s="148"/>
-      <c r="Q60" s="174"/>
-      <c r="R60" s="174"/>
-      <c r="S60" s="174"/>
-      <c r="T60" s="174"/>
+      <c r="Q60" s="176"/>
+      <c r="R60" s="176"/>
+      <c r="S60" s="176"/>
+      <c r="T60" s="176"/>
       <c r="U60" s="144"/>
       <c r="V60" s="144"/>
-      <c r="W60" s="175"/>
+      <c r="W60" s="177"/>
       <c r="X60" s="144"/>
       <c r="Y60" s="125"/>
-      <c r="Z60" s="177"/>
-      <c r="AA60" s="177"/>
-      <c r="AB60" s="181"/>
+      <c r="Z60" s="179"/>
+      <c r="AA60" s="179"/>
+      <c r="AB60" s="183"/>
     </row>
     <row r="61" spans="2:28" ht="14.25" customHeight="1">
       <c r="B61" s="90"/>
@@ -11082,18 +11388,18 @@
       <c r="N61" s="128"/>
       <c r="O61" s="128"/>
       <c r="P61" s="148"/>
-      <c r="Q61" s="174"/>
-      <c r="R61" s="174"/>
-      <c r="S61" s="174"/>
-      <c r="T61" s="174"/>
+      <c r="Q61" s="176"/>
+      <c r="R61" s="176"/>
+      <c r="S61" s="176"/>
+      <c r="T61" s="176"/>
       <c r="U61" s="144"/>
       <c r="V61" s="144"/>
-      <c r="W61" s="175"/>
+      <c r="W61" s="177"/>
       <c r="X61" s="144"/>
       <c r="Y61" s="125"/>
-      <c r="Z61" s="177"/>
-      <c r="AA61" s="177"/>
-      <c r="AB61" s="181"/>
+      <c r="Z61" s="179"/>
+      <c r="AA61" s="179"/>
+      <c r="AB61" s="183"/>
     </row>
     <row r="62" spans="2:28" ht="14.25" customHeight="1">
       <c r="B62" s="90"/>
@@ -11111,18 +11417,18 @@
       <c r="N62" s="128"/>
       <c r="O62" s="128"/>
       <c r="P62" s="148"/>
-      <c r="Q62" s="174"/>
-      <c r="R62" s="174"/>
-      <c r="S62" s="174"/>
-      <c r="T62" s="174"/>
+      <c r="Q62" s="176"/>
+      <c r="R62" s="176"/>
+      <c r="S62" s="176"/>
+      <c r="T62" s="176"/>
       <c r="U62" s="144"/>
       <c r="V62" s="144"/>
-      <c r="W62" s="175"/>
+      <c r="W62" s="177"/>
       <c r="X62" s="144"/>
       <c r="Y62" s="125"/>
-      <c r="Z62" s="177"/>
-      <c r="AA62" s="177"/>
-      <c r="AB62" s="181"/>
+      <c r="Z62" s="179"/>
+      <c r="AA62" s="179"/>
+      <c r="AB62" s="183"/>
     </row>
     <row r="63" spans="2:28" ht="14.25" customHeight="1">
       <c r="B63" s="90"/>
@@ -11140,18 +11446,18 @@
       <c r="N63" s="128"/>
       <c r="O63" s="128"/>
       <c r="P63" s="148"/>
-      <c r="Q63" s="174"/>
-      <c r="R63" s="174"/>
-      <c r="S63" s="174"/>
-      <c r="T63" s="174"/>
+      <c r="Q63" s="176"/>
+      <c r="R63" s="176"/>
+      <c r="S63" s="176"/>
+      <c r="T63" s="176"/>
       <c r="U63" s="144"/>
       <c r="V63" s="144"/>
-      <c r="W63" s="175"/>
+      <c r="W63" s="177"/>
       <c r="X63" s="144"/>
       <c r="Y63" s="125"/>
-      <c r="Z63" s="177"/>
-      <c r="AA63" s="177"/>
-      <c r="AB63" s="181"/>
+      <c r="Z63" s="179"/>
+      <c r="AA63" s="179"/>
+      <c r="AB63" s="183"/>
     </row>
     <row r="64" spans="2:28" ht="14.25" customHeight="1">
       <c r="B64" s="90"/>
@@ -11169,18 +11475,18 @@
       <c r="N64" s="128"/>
       <c r="O64" s="128"/>
       <c r="P64" s="148"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="174"/>
-      <c r="S64" s="174"/>
-      <c r="T64" s="174"/>
+      <c r="Q64" s="176"/>
+      <c r="R64" s="176"/>
+      <c r="S64" s="176"/>
+      <c r="T64" s="176"/>
       <c r="U64" s="144"/>
       <c r="V64" s="144"/>
-      <c r="W64" s="175"/>
+      <c r="W64" s="177"/>
       <c r="X64" s="144"/>
       <c r="Y64" s="125"/>
-      <c r="Z64" s="177"/>
-      <c r="AA64" s="177"/>
-      <c r="AB64" s="181"/>
+      <c r="Z64" s="179"/>
+      <c r="AA64" s="179"/>
+      <c r="AB64" s="183"/>
     </row>
     <row r="65" spans="2:28" ht="14.25" customHeight="1">
       <c r="B65" s="90"/>
@@ -11198,18 +11504,18 @@
       <c r="N65" s="128"/>
       <c r="O65" s="128"/>
       <c r="P65" s="148"/>
-      <c r="Q65" s="174"/>
-      <c r="R65" s="174"/>
-      <c r="S65" s="174"/>
-      <c r="T65" s="174"/>
+      <c r="Q65" s="176"/>
+      <c r="R65" s="176"/>
+      <c r="S65" s="176"/>
+      <c r="T65" s="176"/>
       <c r="U65" s="144"/>
       <c r="V65" s="144"/>
-      <c r="W65" s="175"/>
+      <c r="W65" s="177"/>
       <c r="X65" s="144"/>
       <c r="Y65" s="125"/>
-      <c r="Z65" s="177"/>
-      <c r="AA65" s="177"/>
-      <c r="AB65" s="181"/>
+      <c r="Z65" s="179"/>
+      <c r="AA65" s="179"/>
+      <c r="AB65" s="183"/>
     </row>
     <row r="66" spans="2:28" ht="14.25" customHeight="1">
       <c r="B66" s="90"/>
@@ -11227,18 +11533,18 @@
       <c r="N66" s="128"/>
       <c r="O66" s="128"/>
       <c r="P66" s="148"/>
-      <c r="Q66" s="174"/>
-      <c r="R66" s="174"/>
-      <c r="S66" s="174"/>
-      <c r="T66" s="174"/>
+      <c r="Q66" s="176"/>
+      <c r="R66" s="176"/>
+      <c r="S66" s="176"/>
+      <c r="T66" s="176"/>
       <c r="U66" s="144"/>
       <c r="V66" s="144"/>
-      <c r="W66" s="175"/>
+      <c r="W66" s="177"/>
       <c r="X66" s="144"/>
       <c r="Y66" s="125"/>
-      <c r="Z66" s="177"/>
-      <c r="AA66" s="177"/>
-      <c r="AB66" s="181"/>
+      <c r="Z66" s="179"/>
+      <c r="AA66" s="179"/>
+      <c r="AB66" s="183"/>
     </row>
     <row r="67" spans="2:28" ht="14.25" customHeight="1">
       <c r="B67" s="90"/>
@@ -11256,18 +11562,18 @@
       <c r="N67" s="128"/>
       <c r="O67" s="128"/>
       <c r="P67" s="148"/>
-      <c r="Q67" s="174"/>
-      <c r="R67" s="174"/>
-      <c r="S67" s="174"/>
-      <c r="T67" s="174"/>
+      <c r="Q67" s="176"/>
+      <c r="R67" s="176"/>
+      <c r="S67" s="176"/>
+      <c r="T67" s="176"/>
       <c r="U67" s="144"/>
       <c r="V67" s="144"/>
-      <c r="W67" s="175"/>
+      <c r="W67" s="177"/>
       <c r="X67" s="144"/>
       <c r="Y67" s="125"/>
-      <c r="Z67" s="177"/>
-      <c r="AA67" s="177"/>
-      <c r="AB67" s="181"/>
+      <c r="Z67" s="179"/>
+      <c r="AA67" s="179"/>
+      <c r="AB67" s="183"/>
     </row>
     <row r="68" spans="2:28" ht="14.25" customHeight="1">
       <c r="B68" s="90"/>
@@ -11285,18 +11591,18 @@
       <c r="N68" s="128"/>
       <c r="O68" s="128"/>
       <c r="P68" s="148"/>
-      <c r="Q68" s="174"/>
-      <c r="R68" s="174"/>
-      <c r="S68" s="174"/>
-      <c r="T68" s="174"/>
+      <c r="Q68" s="176"/>
+      <c r="R68" s="176"/>
+      <c r="S68" s="176"/>
+      <c r="T68" s="176"/>
       <c r="U68" s="144"/>
       <c r="V68" s="144"/>
-      <c r="W68" s="175"/>
+      <c r="W68" s="177"/>
       <c r="X68" s="144"/>
       <c r="Y68" s="125"/>
-      <c r="Z68" s="177"/>
-      <c r="AA68" s="177"/>
-      <c r="AB68" s="181"/>
+      <c r="Z68" s="179"/>
+      <c r="AA68" s="179"/>
+      <c r="AB68" s="183"/>
     </row>
     <row r="69" spans="2:28" ht="14.25" customHeight="1">
       <c r="B69" s="90"/>
@@ -11314,18 +11620,18 @@
       <c r="N69" s="128"/>
       <c r="O69" s="128"/>
       <c r="P69" s="148"/>
-      <c r="Q69" s="174"/>
-      <c r="R69" s="174"/>
-      <c r="S69" s="174"/>
-      <c r="T69" s="174"/>
+      <c r="Q69" s="176"/>
+      <c r="R69" s="176"/>
+      <c r="S69" s="176"/>
+      <c r="T69" s="176"/>
       <c r="U69" s="144"/>
       <c r="V69" s="144"/>
-      <c r="W69" s="175"/>
+      <c r="W69" s="177"/>
       <c r="X69" s="144"/>
       <c r="Y69" s="125"/>
-      <c r="Z69" s="177"/>
-      <c r="AA69" s="177"/>
-      <c r="AB69" s="181"/>
+      <c r="Z69" s="179"/>
+      <c r="AA69" s="179"/>
+      <c r="AB69" s="183"/>
     </row>
     <row r="70" spans="2:28" ht="14.25" customHeight="1">
       <c r="B70" s="90"/>
@@ -11343,18 +11649,18 @@
       <c r="N70" s="128"/>
       <c r="O70" s="128"/>
       <c r="P70" s="148"/>
-      <c r="Q70" s="174"/>
-      <c r="R70" s="174"/>
-      <c r="S70" s="174"/>
-      <c r="T70" s="174"/>
+      <c r="Q70" s="176"/>
+      <c r="R70" s="176"/>
+      <c r="S70" s="176"/>
+      <c r="T70" s="176"/>
       <c r="U70" s="144"/>
       <c r="V70" s="144"/>
-      <c r="W70" s="175"/>
+      <c r="W70" s="177"/>
       <c r="X70" s="144"/>
       <c r="Y70" s="125"/>
-      <c r="Z70" s="177"/>
-      <c r="AA70" s="177"/>
-      <c r="AB70" s="181"/>
+      <c r="Z70" s="179"/>
+      <c r="AA70" s="179"/>
+      <c r="AB70" s="183"/>
     </row>
     <row r="71" spans="2:28" ht="14.25" customHeight="1">
       <c r="B71" s="90"/>
@@ -11372,18 +11678,18 @@
       <c r="N71" s="128"/>
       <c r="O71" s="128"/>
       <c r="P71" s="148"/>
-      <c r="Q71" s="174"/>
-      <c r="R71" s="174"/>
-      <c r="S71" s="174"/>
-      <c r="T71" s="174"/>
+      <c r="Q71" s="176"/>
+      <c r="R71" s="176"/>
+      <c r="S71" s="176"/>
+      <c r="T71" s="176"/>
       <c r="U71" s="144"/>
       <c r="V71" s="144"/>
-      <c r="W71" s="175"/>
+      <c r="W71" s="177"/>
       <c r="X71" s="144"/>
       <c r="Y71" s="125"/>
-      <c r="Z71" s="177"/>
-      <c r="AA71" s="177"/>
-      <c r="AB71" s="181"/>
+      <c r="Z71" s="179"/>
+      <c r="AA71" s="179"/>
+      <c r="AB71" s="183"/>
     </row>
     <row r="72" spans="2:28" ht="14.25" customHeight="1">
       <c r="B72" s="90"/>
@@ -11401,18 +11707,18 @@
       <c r="N72" s="128"/>
       <c r="O72" s="128"/>
       <c r="P72" s="148"/>
-      <c r="Q72" s="174"/>
-      <c r="R72" s="174"/>
-      <c r="S72" s="174"/>
-      <c r="T72" s="174"/>
+      <c r="Q72" s="176"/>
+      <c r="R72" s="176"/>
+      <c r="S72" s="176"/>
+      <c r="T72" s="176"/>
       <c r="U72" s="144"/>
       <c r="V72" s="144"/>
-      <c r="W72" s="175"/>
+      <c r="W72" s="177"/>
       <c r="X72" s="144"/>
       <c r="Y72" s="125"/>
-      <c r="Z72" s="177"/>
-      <c r="AA72" s="177"/>
-      <c r="AB72" s="181"/>
+      <c r="Z72" s="179"/>
+      <c r="AA72" s="179"/>
+      <c r="AB72" s="183"/>
     </row>
     <row r="73" spans="2:28" ht="14.25" customHeight="1">
       <c r="B73" s="90"/>
@@ -11430,18 +11736,18 @@
       <c r="N73" s="128"/>
       <c r="O73" s="128"/>
       <c r="P73" s="148"/>
-      <c r="Q73" s="174"/>
-      <c r="R73" s="174"/>
-      <c r="S73" s="174"/>
-      <c r="T73" s="174"/>
+      <c r="Q73" s="176"/>
+      <c r="R73" s="176"/>
+      <c r="S73" s="176"/>
+      <c r="T73" s="176"/>
       <c r="U73" s="144"/>
       <c r="V73" s="144"/>
-      <c r="W73" s="175"/>
+      <c r="W73" s="177"/>
       <c r="X73" s="144"/>
       <c r="Y73" s="125"/>
-      <c r="Z73" s="177"/>
-      <c r="AA73" s="177"/>
-      <c r="AB73" s="181"/>
+      <c r="Z73" s="179"/>
+      <c r="AA73" s="179"/>
+      <c r="AB73" s="183"/>
     </row>
     <row r="74" spans="2:28" ht="14.25" customHeight="1">
       <c r="B74" s="90"/>
@@ -11459,18 +11765,18 @@
       <c r="N74" s="128"/>
       <c r="O74" s="128"/>
       <c r="P74" s="148"/>
-      <c r="Q74" s="174"/>
-      <c r="R74" s="174"/>
-      <c r="S74" s="174"/>
-      <c r="T74" s="174"/>
+      <c r="Q74" s="176"/>
+      <c r="R74" s="176"/>
+      <c r="S74" s="176"/>
+      <c r="T74" s="176"/>
       <c r="U74" s="144"/>
       <c r="V74" s="144"/>
-      <c r="W74" s="175"/>
+      <c r="W74" s="177"/>
       <c r="X74" s="144"/>
       <c r="Y74" s="125"/>
-      <c r="Z74" s="177"/>
-      <c r="AA74" s="177"/>
-      <c r="AB74" s="181"/>
+      <c r="Z74" s="179"/>
+      <c r="AA74" s="179"/>
+      <c r="AB74" s="183"/>
     </row>
     <row r="75" spans="2:28" ht="14.25" customHeight="1">
       <c r="B75" s="90"/>
@@ -11488,18 +11794,18 @@
       <c r="N75" s="128"/>
       <c r="O75" s="128"/>
       <c r="P75" s="148"/>
-      <c r="Q75" s="174"/>
-      <c r="R75" s="174"/>
-      <c r="S75" s="174"/>
-      <c r="T75" s="174"/>
+      <c r="Q75" s="176"/>
+      <c r="R75" s="176"/>
+      <c r="S75" s="176"/>
+      <c r="T75" s="176"/>
       <c r="U75" s="144"/>
       <c r="V75" s="144"/>
-      <c r="W75" s="175"/>
+      <c r="W75" s="177"/>
       <c r="X75" s="144"/>
       <c r="Y75" s="125"/>
-      <c r="Z75" s="177"/>
-      <c r="AA75" s="177"/>
-      <c r="AB75" s="181"/>
+      <c r="Z75" s="179"/>
+      <c r="AA75" s="179"/>
+      <c r="AB75" s="183"/>
     </row>
     <row r="76" spans="2:28" ht="14.25" customHeight="1">
       <c r="B76" s="90"/>
@@ -11517,18 +11823,18 @@
       <c r="N76" s="128"/>
       <c r="O76" s="128"/>
       <c r="P76" s="148"/>
-      <c r="Q76" s="174"/>
-      <c r="R76" s="174"/>
-      <c r="S76" s="174"/>
-      <c r="T76" s="174"/>
+      <c r="Q76" s="176"/>
+      <c r="R76" s="176"/>
+      <c r="S76" s="176"/>
+      <c r="T76" s="176"/>
       <c r="U76" s="144"/>
       <c r="V76" s="144"/>
-      <c r="W76" s="175"/>
+      <c r="W76" s="177"/>
       <c r="X76" s="144"/>
       <c r="Y76" s="125"/>
-      <c r="Z76" s="177"/>
-      <c r="AA76" s="177"/>
-      <c r="AB76" s="181"/>
+      <c r="Z76" s="179"/>
+      <c r="AA76" s="179"/>
+      <c r="AB76" s="183"/>
     </row>
     <row r="77" spans="2:28" ht="14.25" customHeight="1">
       <c r="B77" s="90"/>
@@ -11546,18 +11852,18 @@
       <c r="N77" s="128"/>
       <c r="O77" s="128"/>
       <c r="P77" s="148"/>
-      <c r="Q77" s="174"/>
-      <c r="R77" s="174"/>
-      <c r="S77" s="174"/>
-      <c r="T77" s="174"/>
+      <c r="Q77" s="176"/>
+      <c r="R77" s="176"/>
+      <c r="S77" s="176"/>
+      <c r="T77" s="176"/>
       <c r="U77" s="144"/>
       <c r="V77" s="144"/>
-      <c r="W77" s="175"/>
+      <c r="W77" s="177"/>
       <c r="X77" s="144"/>
       <c r="Y77" s="125"/>
-      <c r="Z77" s="177"/>
-      <c r="AA77" s="177"/>
-      <c r="AB77" s="181"/>
+      <c r="Z77" s="179"/>
+      <c r="AA77" s="179"/>
+      <c r="AB77" s="183"/>
     </row>
     <row r="78" spans="2:28" ht="14.25" customHeight="1">
       <c r="B78" s="90"/>
@@ -11575,18 +11881,18 @@
       <c r="N78" s="128"/>
       <c r="O78" s="128"/>
       <c r="P78" s="148"/>
-      <c r="Q78" s="174"/>
-      <c r="R78" s="174"/>
-      <c r="S78" s="174"/>
-      <c r="T78" s="174"/>
+      <c r="Q78" s="176"/>
+      <c r="R78" s="176"/>
+      <c r="S78" s="176"/>
+      <c r="T78" s="176"/>
       <c r="U78" s="144"/>
       <c r="V78" s="144"/>
-      <c r="W78" s="175"/>
+      <c r="W78" s="177"/>
       <c r="X78" s="144"/>
       <c r="Y78" s="125"/>
-      <c r="Z78" s="177"/>
-      <c r="AA78" s="177"/>
-      <c r="AB78" s="181"/>
+      <c r="Z78" s="179"/>
+      <c r="AA78" s="179"/>
+      <c r="AB78" s="183"/>
     </row>
     <row r="79" spans="2:28" ht="14.25" customHeight="1">
       <c r="B79" s="90"/>
@@ -11604,18 +11910,18 @@
       <c r="N79" s="128"/>
       <c r="O79" s="128"/>
       <c r="P79" s="148"/>
-      <c r="Q79" s="174"/>
-      <c r="R79" s="174"/>
-      <c r="S79" s="174"/>
-      <c r="T79" s="174"/>
+      <c r="Q79" s="176"/>
+      <c r="R79" s="176"/>
+      <c r="S79" s="176"/>
+      <c r="T79" s="176"/>
       <c r="U79" s="144"/>
       <c r="V79" s="144"/>
-      <c r="W79" s="175"/>
+      <c r="W79" s="177"/>
       <c r="X79" s="144"/>
       <c r="Y79" s="125"/>
-      <c r="Z79" s="177"/>
-      <c r="AA79" s="177"/>
-      <c r="AB79" s="181"/>
+      <c r="Z79" s="179"/>
+      <c r="AA79" s="179"/>
+      <c r="AB79" s="183"/>
     </row>
     <row r="80" spans="2:28" ht="14.25" customHeight="1">
       <c r="B80" s="90"/>
@@ -11633,18 +11939,18 @@
       <c r="N80" s="128"/>
       <c r="O80" s="128"/>
       <c r="P80" s="148"/>
-      <c r="Q80" s="174"/>
-      <c r="R80" s="174"/>
-      <c r="S80" s="174"/>
-      <c r="T80" s="174"/>
+      <c r="Q80" s="176"/>
+      <c r="R80" s="176"/>
+      <c r="S80" s="176"/>
+      <c r="T80" s="176"/>
       <c r="U80" s="144"/>
       <c r="V80" s="144"/>
-      <c r="W80" s="175"/>
+      <c r="W80" s="177"/>
       <c r="X80" s="144"/>
       <c r="Y80" s="125"/>
-      <c r="Z80" s="177"/>
-      <c r="AA80" s="177"/>
-      <c r="AB80" s="181"/>
+      <c r="Z80" s="179"/>
+      <c r="AA80" s="179"/>
+      <c r="AB80" s="183"/>
     </row>
     <row r="81" spans="2:28" ht="14.25" customHeight="1">
       <c r="B81" s="90"/>
@@ -11662,18 +11968,18 @@
       <c r="N81" s="128"/>
       <c r="O81" s="128"/>
       <c r="P81" s="148"/>
-      <c r="Q81" s="174"/>
-      <c r="R81" s="174"/>
-      <c r="S81" s="174"/>
-      <c r="T81" s="174"/>
+      <c r="Q81" s="176"/>
+      <c r="R81" s="176"/>
+      <c r="S81" s="176"/>
+      <c r="T81" s="176"/>
       <c r="U81" s="144"/>
       <c r="V81" s="144"/>
-      <c r="W81" s="175"/>
+      <c r="W81" s="177"/>
       <c r="X81" s="144"/>
       <c r="Y81" s="125"/>
-      <c r="Z81" s="177"/>
-      <c r="AA81" s="177"/>
-      <c r="AB81" s="181"/>
+      <c r="Z81" s="179"/>
+      <c r="AA81" s="179"/>
+      <c r="AB81" s="183"/>
     </row>
     <row r="82" spans="2:28" ht="14.25" customHeight="1">
       <c r="B82" s="90"/>
@@ -11691,18 +11997,18 @@
       <c r="N82" s="128"/>
       <c r="O82" s="128"/>
       <c r="P82" s="148"/>
-      <c r="Q82" s="174"/>
-      <c r="R82" s="174"/>
-      <c r="S82" s="174"/>
-      <c r="T82" s="174"/>
+      <c r="Q82" s="176"/>
+      <c r="R82" s="176"/>
+      <c r="S82" s="176"/>
+      <c r="T82" s="176"/>
       <c r="U82" s="144"/>
       <c r="V82" s="144"/>
-      <c r="W82" s="175"/>
+      <c r="W82" s="177"/>
       <c r="X82" s="144"/>
       <c r="Y82" s="125"/>
-      <c r="Z82" s="177"/>
-      <c r="AA82" s="177"/>
-      <c r="AB82" s="181"/>
+      <c r="Z82" s="179"/>
+      <c r="AA82" s="179"/>
+      <c r="AB82" s="183"/>
     </row>
     <row r="83" spans="2:28" ht="14.25" customHeight="1">
       <c r="B83" s="90"/>
@@ -11720,18 +12026,18 @@
       <c r="N83" s="128"/>
       <c r="O83" s="128"/>
       <c r="P83" s="148"/>
-      <c r="Q83" s="174"/>
-      <c r="R83" s="174"/>
-      <c r="S83" s="174"/>
-      <c r="T83" s="174"/>
+      <c r="Q83" s="176"/>
+      <c r="R83" s="176"/>
+      <c r="S83" s="176"/>
+      <c r="T83" s="176"/>
       <c r="U83" s="144"/>
       <c r="V83" s="144"/>
-      <c r="W83" s="175"/>
+      <c r="W83" s="177"/>
       <c r="X83" s="144"/>
       <c r="Y83" s="125"/>
-      <c r="Z83" s="177"/>
-      <c r="AA83" s="177"/>
-      <c r="AB83" s="181"/>
+      <c r="Z83" s="179"/>
+      <c r="AA83" s="179"/>
+      <c r="AB83" s="183"/>
     </row>
     <row r="84" spans="2:28" ht="14.25" customHeight="1">
       <c r="B84" s="90"/>
@@ -11749,25 +12055,25 @@
       <c r="N84" s="128"/>
       <c r="O84" s="128"/>
       <c r="P84" s="148"/>
-      <c r="Q84" s="174"/>
-      <c r="R84" s="174"/>
-      <c r="S84" s="174"/>
-      <c r="T84" s="174"/>
+      <c r="Q84" s="176"/>
+      <c r="R84" s="176"/>
+      <c r="S84" s="176"/>
+      <c r="T84" s="176"/>
       <c r="U84" s="144"/>
       <c r="V84" s="144"/>
-      <c r="W84" s="175"/>
+      <c r="W84" s="177"/>
       <c r="X84" s="144"/>
       <c r="Y84" s="125"/>
-      <c r="Z84" s="177"/>
-      <c r="AA84" s="177"/>
-      <c r="AB84" s="181"/>
+      <c r="Z84" s="179"/>
+      <c r="AA84" s="179"/>
+      <c r="AB84" s="183"/>
     </row>
     <row r="85" spans="2:28" ht="14.25" customHeight="1">
       <c r="B85" s="90"/>
       <c r="C85" s="113"/>
       <c r="D85" s="114"/>
       <c r="E85" s="113"/>
-      <c r="F85" s="182"/>
+      <c r="F85" s="184"/>
       <c r="G85" s="101"/>
       <c r="H85" s="115"/>
       <c r="I85" s="144"/>
@@ -11778,18 +12084,18 @@
       <c r="N85" s="128"/>
       <c r="O85" s="128"/>
       <c r="P85" s="148"/>
-      <c r="Q85" s="174"/>
-      <c r="R85" s="174"/>
-      <c r="S85" s="174"/>
-      <c r="T85" s="174"/>
+      <c r="Q85" s="176"/>
+      <c r="R85" s="176"/>
+      <c r="S85" s="176"/>
+      <c r="T85" s="176"/>
       <c r="U85" s="144"/>
       <c r="V85" s="144"/>
-      <c r="W85" s="175"/>
+      <c r="W85" s="177"/>
       <c r="X85" s="144"/>
       <c r="Y85" s="125"/>
-      <c r="Z85" s="177"/>
-      <c r="AA85" s="177"/>
-      <c r="AB85" s="181"/>
+      <c r="Z85" s="179"/>
+      <c r="AA85" s="179"/>
+      <c r="AB85" s="183"/>
     </row>
     <row r="86" spans="2:28">
       <c r="P86" s="93"/>
@@ -11870,281 +12176,309 @@
       <c r="P111" s="93"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="77" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
       <formula>IF($B12="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
       <formula>IF($B12="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
       <formula>IF($B18="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="87" stopIfTrue="1">
       <formula>IF($B18="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="73" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="73" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="74" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="76" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="77" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="78" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="67" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="67" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="68" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="69" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="70" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="72" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="61" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="65" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
       <formula>IF($B20="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="58" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="59" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="60" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="62" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>IF($B22="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="47" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="43" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="44" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="45" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="47" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="41" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="41" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>IF($B23="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="16" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="17" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="31" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="27" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
+      <formula>IF($B29="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="expression" dxfId="31" priority="39" stopIfTrue="1">
+      <formula>IF($B29="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="40" stopIfTrue="1">
       <formula>IF($B29="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K30:L30">
+    <cfRule type="expression" dxfId="15" priority="37" stopIfTrue="1">
+      <formula>IF($B30="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
+      <formula>IF($B30="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+      <formula>IF($B33="完了",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K16:L17">
-    <cfRule type="expression" dxfId="9" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="81" stopIfTrue="1">
       <formula>IF($B16="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="82" stopIfTrue="1">
       <formula>IF($B16="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 K19">
-    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="79" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="80" stopIfTrue="1">
       <formula>IF($B19="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L22 K21:K22">
-    <cfRule type="expression" dxfId="5" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="63" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="64" stopIfTrue="1">
       <formula>IF($B21="完了",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L29">
-    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
-      <formula>IF($B29="完了",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32" stopIfTrue="1">
-      <formula>IF($B29="完了",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:L30">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
-      <formula>IF($B30="完了",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>IF($B30="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -12160,14 +12494,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F84">
       <formula1>発生段階</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85">
+      <formula1>"DB,ソース,テストケース,その他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>STS</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
       <formula1>対応区分</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85">
-      <formula1>"DB,ソース,テストケース,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N85">
       <formula1>"●,✖"</formula1>
@@ -12223,40 +12557,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="9" customHeight="1">
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="26" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="184"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1">
       <c r="B4" s="29" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="31">
@@ -12270,7 +12604,7 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" customHeight="1">
       <c r="B5" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35">
@@ -12320,56 +12654,56 @@
     </row>
     <row r="12" spans="2:10" ht="17.25" customHeight="1">
       <c r="B12" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="215" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
+      <c r="B13" s="217" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1">
       <c r="B21" s="26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1">
-      <c r="B22" s="183" t="s">
+      <c r="B22" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="184"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1">
       <c r="B23" s="29" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31">
@@ -12383,7 +12717,7 @@
     </row>
     <row r="24" spans="2:5" ht="17.25" customHeight="1">
       <c r="B24" s="33" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35">
@@ -12397,7 +12731,7 @@
     </row>
     <row r="25" spans="2:5" ht="17.25" customHeight="1">
       <c r="B25" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="35">
@@ -12411,7 +12745,7 @@
     </row>
     <row r="26" spans="2:5" ht="17.25" customHeight="1">
       <c r="B26" s="33" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="35">
@@ -12425,7 +12759,7 @@
     </row>
     <row r="27" spans="2:5" ht="17.25" customHeight="1">
       <c r="B27" s="33" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="35">
@@ -12439,7 +12773,7 @@
     </row>
     <row r="28" spans="2:5" ht="17.25" customHeight="1">
       <c r="B28" s="33" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="35">
@@ -12453,7 +12787,7 @@
     </row>
     <row r="29" spans="2:5" ht="17.25" customHeight="1">
       <c r="B29" s="33" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="35">
@@ -12467,7 +12801,7 @@
     </row>
     <row r="30" spans="2:5" ht="17.25" customHeight="1">
       <c r="B30" s="33" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35">
@@ -12481,7 +12815,7 @@
     </row>
     <row r="31" spans="2:5" ht="17.25" customHeight="1">
       <c r="B31" s="33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="35">
@@ -12495,7 +12829,7 @@
     </row>
     <row r="32" spans="2:5" ht="17.25" customHeight="1">
       <c r="B32" s="33" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="35">
@@ -12509,7 +12843,7 @@
     </row>
     <row r="33" spans="2:5" ht="17.25" customHeight="1">
       <c r="B33" s="33" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35">
@@ -12523,7 +12857,7 @@
     </row>
     <row r="34" spans="2:5" ht="17.25" customHeight="1">
       <c r="B34" s="36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="38">
@@ -12537,56 +12871,56 @@
     </row>
     <row r="35" spans="2:5" ht="17.25" customHeight="1">
       <c r="B35" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B36" s="215" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="215"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
+      <c r="B36" s="217" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B37" s="215"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
+      <c r="B37" s="217"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B38" s="215"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
+      <c r="B38" s="217"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B39" s="215"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
+      <c r="B39" s="217"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="217"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" s="26" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
-      <c r="B44" s="183" t="s">
+      <c r="B44" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="184"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="17.25" customHeight="1">
       <c r="B45" s="29" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="31">
@@ -12600,7 +12934,7 @@
     </row>
     <row r="46" spans="2:5" ht="17.25" customHeight="1">
       <c r="B46" s="33" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="35">
@@ -12614,7 +12948,7 @@
     </row>
     <row r="47" spans="2:5" ht="17.25" customHeight="1">
       <c r="B47" s="33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="35">
@@ -12628,7 +12962,7 @@
     </row>
     <row r="48" spans="2:5" ht="17.25" customHeight="1">
       <c r="B48" s="33" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="35">
@@ -12642,7 +12976,7 @@
     </row>
     <row r="49" spans="2:5" ht="17.25" customHeight="1">
       <c r="B49" s="33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35">
@@ -12656,7 +12990,7 @@
     </row>
     <row r="50" spans="2:5" ht="17.25" customHeight="1">
       <c r="B50" s="33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="35">
@@ -12670,7 +13004,7 @@
     </row>
     <row r="51" spans="2:5" ht="17.25" customHeight="1">
       <c r="B51" s="33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="35">
@@ -12684,7 +13018,7 @@
     </row>
     <row r="52" spans="2:5" ht="17.25" customHeight="1">
       <c r="B52" s="33" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C52" s="34"/>
       <c r="D52" s="35">
@@ -12698,7 +13032,7 @@
     </row>
     <row r="53" spans="2:5" ht="17.25" customHeight="1">
       <c r="B53" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="35">
@@ -12712,7 +13046,7 @@
     </row>
     <row r="54" spans="2:5" ht="17.25" customHeight="1">
       <c r="B54" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="38">
@@ -12726,56 +13060,56 @@
     </row>
     <row r="55" spans="2:5" ht="17.25" customHeight="1">
       <c r="B55" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B56" s="215" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="215"/>
-      <c r="D56" s="215"/>
-      <c r="E56" s="215"/>
+      <c r="B56" s="217" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="217"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="217"/>
     </row>
     <row r="57" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B57" s="215"/>
-      <c r="C57" s="215"/>
-      <c r="D57" s="215"/>
-      <c r="E57" s="215"/>
+      <c r="B57" s="217"/>
+      <c r="C57" s="217"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B58" s="215"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="215"/>
-      <c r="E58" s="215"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
     </row>
     <row r="59" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B59" s="215"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
+      <c r="B59" s="217"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" customHeight="1">
       <c r="B64" s="26" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B65" s="185" t="s">
+      <c r="B65" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="186"/>
+      <c r="C65" s="188"/>
       <c r="D65" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="17.25" customHeight="1">
       <c r="B66" s="44" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="31">
@@ -12789,7 +13123,7 @@
     </row>
     <row r="67" spans="2:7" ht="17.25" customHeight="1">
       <c r="B67" s="46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="35">
@@ -12803,7 +13137,7 @@
     </row>
     <row r="68" spans="2:7" ht="17.25" customHeight="1">
       <c r="B68" s="46" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C68" s="47"/>
       <c r="D68" s="35">
@@ -12817,7 +13151,7 @@
     </row>
     <row r="69" spans="2:7" ht="17.25" customHeight="1">
       <c r="B69" s="46" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="35">
@@ -12831,7 +13165,7 @@
     </row>
     <row r="70" spans="2:7" ht="17.25" customHeight="1">
       <c r="B70" s="46" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C70" s="47"/>
       <c r="D70" s="35">
@@ -12845,7 +13179,7 @@
     </row>
     <row r="71" spans="2:7" ht="17.25" customHeight="1">
       <c r="B71" s="46" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="35"/>
@@ -12853,7 +13187,7 @@
     </row>
     <row r="72" spans="2:7" ht="17.25" customHeight="1">
       <c r="B72" s="46" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="35"/>
@@ -12861,7 +13195,7 @@
     </row>
     <row r="73" spans="2:7" ht="17.25" customHeight="1">
       <c r="B73" s="46" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C73" s="47"/>
       <c r="D73" s="35"/>
@@ -12869,7 +13203,7 @@
     </row>
     <row r="74" spans="2:7" ht="17.25" customHeight="1">
       <c r="B74" s="46" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C74" s="47"/>
       <c r="D74" s="35">
@@ -12883,7 +13217,7 @@
     </row>
     <row r="75" spans="2:7" ht="17.25" customHeight="1">
       <c r="B75" s="46" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="35">
@@ -12897,7 +13231,7 @@
     </row>
     <row r="76" spans="2:7" ht="17.25" customHeight="1">
       <c r="B76" s="46" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="35">
@@ -12911,7 +13245,7 @@
     </row>
     <row r="77" spans="2:7" ht="17.25" customHeight="1">
       <c r="B77" s="46" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="35">
@@ -12925,7 +13259,7 @@
     </row>
     <row r="78" spans="2:7" ht="17.25" customHeight="1">
       <c r="B78" s="48" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="38">
@@ -12939,34 +13273,34 @@
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1">
       <c r="B79" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B80" s="215" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="215"/>
-      <c r="D80" s="215"/>
-      <c r="E80" s="215"/>
+      <c r="B80" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="217"/>
+      <c r="D80" s="217"/>
+      <c r="E80" s="217"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B81" s="215"/>
-      <c r="C81" s="215"/>
-      <c r="D81" s="215"/>
-      <c r="E81" s="215"/>
+      <c r="B81" s="217"/>
+      <c r="C81" s="217"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="217"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B82" s="215"/>
-      <c r="C82" s="215"/>
-      <c r="D82" s="215"/>
-      <c r="E82" s="215"/>
+      <c r="B82" s="217"/>
+      <c r="C82" s="217"/>
+      <c r="D82" s="217"/>
+      <c r="E82" s="217"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
     </row>
@@ -12980,25 +13314,25 @@
     </row>
     <row r="84" spans="2:7" ht="17.25" customHeight="1">
       <c r="B84" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B85" s="185" t="s">
+      <c r="B85" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="186"/>
+      <c r="C85" s="188"/>
       <c r="D85" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="17.25" customHeight="1">
       <c r="B86" s="44" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="31">
@@ -13012,7 +13346,7 @@
     </row>
     <row r="87" spans="2:7" ht="17.25" customHeight="1">
       <c r="B87" s="46" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C87" s="47"/>
       <c r="D87" s="35">
@@ -13026,7 +13360,7 @@
     </row>
     <row r="88" spans="2:7" ht="17.25" customHeight="1">
       <c r="B88" s="46" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C88" s="47"/>
       <c r="D88" s="35">
@@ -13040,7 +13374,7 @@
     </row>
     <row r="89" spans="2:7" ht="17.25" customHeight="1">
       <c r="B89" s="48" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="38">
@@ -13054,34 +13388,34 @@
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1">
       <c r="B90" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B91" s="215" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
+      <c r="B91" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="217"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="217"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B92" s="215"/>
-      <c r="C92" s="215"/>
-      <c r="D92" s="215"/>
-      <c r="E92" s="215"/>
+      <c r="B92" s="217"/>
+      <c r="C92" s="217"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="217"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B93" s="215"/>
-      <c r="C93" s="215"/>
-      <c r="D93" s="215"/>
-      <c r="E93" s="215"/>
+      <c r="B93" s="217"/>
+      <c r="C93" s="217"/>
+      <c r="D93" s="217"/>
+      <c r="E93" s="217"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
     </row>
@@ -13095,25 +13429,25 @@
     </row>
     <row r="95" spans="2:7" ht="17.25" customHeight="1">
       <c r="B95" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B96" s="185" t="s">
+      <c r="B96" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="186"/>
+      <c r="C96" s="188"/>
       <c r="D96" s="27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:50" ht="17.25" customHeight="1">
       <c r="B97" s="44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="31">
@@ -13141,7 +13475,7 @@
     </row>
     <row r="99" spans="1:50" ht="17.25" customHeight="1">
       <c r="B99" s="48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="38">
@@ -13155,34 +13489,34 @@
     </row>
     <row r="100" spans="1:50" ht="15.75" customHeight="1">
       <c r="B100" s="25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B101" s="215" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="215"/>
-      <c r="D101" s="215"/>
-      <c r="E101" s="215"/>
+      <c r="B101" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="217"/>
+      <c r="D101" s="217"/>
+      <c r="E101" s="217"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B102" s="215"/>
-      <c r="C102" s="215"/>
-      <c r="D102" s="215"/>
-      <c r="E102" s="215"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="217"/>
+      <c r="D102" s="217"/>
+      <c r="E102" s="217"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B103" s="215"/>
-      <c r="C103" s="215"/>
-      <c r="D103" s="215"/>
-      <c r="E103" s="215"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="217"/>
+      <c r="D103" s="217"/>
+      <c r="E103" s="217"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
     </row>
@@ -13197,7 +13531,7 @@
     <row r="105" spans="1:50" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="51" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C105" s="52"/>
       <c r="D105" s="53"/>
@@ -13219,37 +13553,37 @@
     </row>
     <row r="106" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="B106" s="54" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" s="188"/>
-      <c r="F106" s="189" t="s">
-        <v>176</v>
-      </c>
-      <c r="G106" s="190"/>
-      <c r="H106" s="191"/>
-      <c r="I106" s="189" t="s">
-        <v>177</v>
-      </c>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="191"/>
-      <c r="M106" s="189" t="s">
-        <v>178</v>
-      </c>
-      <c r="N106" s="190"/>
-      <c r="O106" s="190"/>
-      <c r="P106" s="191"/>
+        <v>183</v>
+      </c>
+      <c r="D106" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="190"/>
+      <c r="F106" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" s="192"/>
+      <c r="H106" s="193"/>
+      <c r="I106" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="J106" s="192"/>
+      <c r="K106" s="192"/>
+      <c r="L106" s="193"/>
+      <c r="M106" s="191" t="s">
+        <v>187</v>
+      </c>
+      <c r="N106" s="192"/>
+      <c r="O106" s="192"/>
+      <c r="P106" s="193"/>
       <c r="Q106" s="63" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="R106" s="63" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="U106" s="70"/>
       <c r="V106" s="70"/>
@@ -13260,34 +13594,34 @@
     </row>
     <row r="107" spans="1:50" s="22" customFormat="1" ht="35.25" customHeight="1">
       <c r="B107" s="56" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C107" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" s="192" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="193"/>
-      <c r="F107" s="194" t="s">
-        <v>184</v>
-      </c>
-      <c r="G107" s="195"/>
-      <c r="H107" s="196"/>
-      <c r="I107" s="194" t="s">
-        <v>185</v>
-      </c>
-      <c r="J107" s="195"/>
-      <c r="K107" s="195"/>
-      <c r="L107" s="196"/>
-      <c r="M107" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="N107" s="197"/>
-      <c r="O107" s="197"/>
-      <c r="P107" s="197"/>
+        <v>191</v>
+      </c>
+      <c r="D107" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" s="195"/>
+      <c r="F107" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="G107" s="197"/>
+      <c r="H107" s="198"/>
+      <c r="I107" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="198"/>
+      <c r="M107" s="199" t="s">
+        <v>195</v>
+      </c>
+      <c r="N107" s="199"/>
+      <c r="O107" s="199"/>
+      <c r="P107" s="199"/>
       <c r="Q107" s="71" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="R107" s="72">
         <v>39603</v>
@@ -13302,19 +13636,19 @@
     <row r="108" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="198"/>
-      <c r="E108" s="199"/>
-      <c r="F108" s="200"/>
-      <c r="G108" s="201"/>
-      <c r="H108" s="202"/>
-      <c r="I108" s="200"/>
-      <c r="J108" s="201"/>
-      <c r="K108" s="201"/>
-      <c r="L108" s="202"/>
-      <c r="M108" s="203"/>
-      <c r="N108" s="203"/>
-      <c r="O108" s="203"/>
-      <c r="P108" s="203"/>
+      <c r="D108" s="200"/>
+      <c r="E108" s="201"/>
+      <c r="F108" s="202"/>
+      <c r="G108" s="203"/>
+      <c r="H108" s="204"/>
+      <c r="I108" s="202"/>
+      <c r="J108" s="203"/>
+      <c r="K108" s="203"/>
+      <c r="L108" s="204"/>
+      <c r="M108" s="205"/>
+      <c r="N108" s="205"/>
+      <c r="O108" s="205"/>
+      <c r="P108" s="205"/>
       <c r="Q108" s="73"/>
       <c r="R108" s="74"/>
       <c r="U108" s="70"/>
@@ -13327,19 +13661,19 @@
     <row r="109" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B109" s="58"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="199"/>
-      <c r="F109" s="200"/>
-      <c r="G109" s="201"/>
-      <c r="H109" s="202"/>
-      <c r="I109" s="200"/>
-      <c r="J109" s="201"/>
-      <c r="K109" s="201"/>
-      <c r="L109" s="202"/>
-      <c r="M109" s="203"/>
-      <c r="N109" s="203"/>
-      <c r="O109" s="203"/>
-      <c r="P109" s="203"/>
+      <c r="D109" s="200"/>
+      <c r="E109" s="201"/>
+      <c r="F109" s="202"/>
+      <c r="G109" s="203"/>
+      <c r="H109" s="204"/>
+      <c r="I109" s="202"/>
+      <c r="J109" s="203"/>
+      <c r="K109" s="203"/>
+      <c r="L109" s="204"/>
+      <c r="M109" s="205"/>
+      <c r="N109" s="205"/>
+      <c r="O109" s="205"/>
+      <c r="P109" s="205"/>
       <c r="Q109" s="73"/>
       <c r="R109" s="74"/>
       <c r="U109" s="70"/>
@@ -13352,19 +13686,19 @@
     <row r="110" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B110" s="58"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="198"/>
-      <c r="E110" s="199"/>
-      <c r="F110" s="200"/>
-      <c r="G110" s="201"/>
-      <c r="H110" s="202"/>
-      <c r="I110" s="200"/>
-      <c r="J110" s="201"/>
-      <c r="K110" s="201"/>
-      <c r="L110" s="202"/>
-      <c r="M110" s="203"/>
-      <c r="N110" s="203"/>
-      <c r="O110" s="203"/>
-      <c r="P110" s="203"/>
+      <c r="D110" s="200"/>
+      <c r="E110" s="201"/>
+      <c r="F110" s="202"/>
+      <c r="G110" s="203"/>
+      <c r="H110" s="204"/>
+      <c r="I110" s="202"/>
+      <c r="J110" s="203"/>
+      <c r="K110" s="203"/>
+      <c r="L110" s="204"/>
+      <c r="M110" s="205"/>
+      <c r="N110" s="205"/>
+      <c r="O110" s="205"/>
+      <c r="P110" s="205"/>
       <c r="Q110" s="73"/>
       <c r="R110" s="74"/>
       <c r="U110" s="70"/>
@@ -13377,19 +13711,19 @@
     <row r="111" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B111" s="58"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="199"/>
-      <c r="F111" s="200"/>
-      <c r="G111" s="201"/>
-      <c r="H111" s="202"/>
-      <c r="I111" s="200"/>
-      <c r="J111" s="201"/>
-      <c r="K111" s="201"/>
-      <c r="L111" s="202"/>
-      <c r="M111" s="203"/>
-      <c r="N111" s="203"/>
-      <c r="O111" s="203"/>
-      <c r="P111" s="203"/>
+      <c r="D111" s="200"/>
+      <c r="E111" s="201"/>
+      <c r="F111" s="202"/>
+      <c r="G111" s="203"/>
+      <c r="H111" s="204"/>
+      <c r="I111" s="202"/>
+      <c r="J111" s="203"/>
+      <c r="K111" s="203"/>
+      <c r="L111" s="204"/>
+      <c r="M111" s="205"/>
+      <c r="N111" s="205"/>
+      <c r="O111" s="205"/>
+      <c r="P111" s="205"/>
       <c r="Q111" s="73"/>
       <c r="R111" s="74"/>
       <c r="U111" s="70"/>
@@ -13402,19 +13736,19 @@
     <row r="112" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B112" s="58"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="199"/>
-      <c r="F112" s="200"/>
-      <c r="G112" s="201"/>
-      <c r="H112" s="202"/>
-      <c r="I112" s="200"/>
-      <c r="J112" s="201"/>
-      <c r="K112" s="201"/>
-      <c r="L112" s="202"/>
-      <c r="M112" s="203"/>
-      <c r="N112" s="203"/>
-      <c r="O112" s="203"/>
-      <c r="P112" s="203"/>
+      <c r="D112" s="200"/>
+      <c r="E112" s="201"/>
+      <c r="F112" s="202"/>
+      <c r="G112" s="203"/>
+      <c r="H112" s="204"/>
+      <c r="I112" s="202"/>
+      <c r="J112" s="203"/>
+      <c r="K112" s="203"/>
+      <c r="L112" s="204"/>
+      <c r="M112" s="205"/>
+      <c r="N112" s="205"/>
+      <c r="O112" s="205"/>
+      <c r="P112" s="205"/>
       <c r="Q112" s="73"/>
       <c r="R112" s="74"/>
       <c r="U112" s="70"/>
@@ -13427,19 +13761,19 @@
     <row r="113" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B113" s="58"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="199"/>
-      <c r="F113" s="200"/>
-      <c r="G113" s="201"/>
-      <c r="H113" s="202"/>
-      <c r="I113" s="200"/>
-      <c r="J113" s="201"/>
-      <c r="K113" s="201"/>
-      <c r="L113" s="202"/>
-      <c r="M113" s="203"/>
-      <c r="N113" s="203"/>
-      <c r="O113" s="203"/>
-      <c r="P113" s="203"/>
+      <c r="D113" s="200"/>
+      <c r="E113" s="201"/>
+      <c r="F113" s="202"/>
+      <c r="G113" s="203"/>
+      <c r="H113" s="204"/>
+      <c r="I113" s="202"/>
+      <c r="J113" s="203"/>
+      <c r="K113" s="203"/>
+      <c r="L113" s="204"/>
+      <c r="M113" s="205"/>
+      <c r="N113" s="205"/>
+      <c r="O113" s="205"/>
+      <c r="P113" s="205"/>
       <c r="Q113" s="73"/>
       <c r="R113" s="74"/>
       <c r="U113" s="70"/>
@@ -13452,19 +13786,19 @@
     <row r="114" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B114" s="58"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="198"/>
-      <c r="E114" s="199"/>
-      <c r="F114" s="200"/>
-      <c r="G114" s="201"/>
-      <c r="H114" s="202"/>
-      <c r="I114" s="200"/>
-      <c r="J114" s="201"/>
-      <c r="K114" s="201"/>
-      <c r="L114" s="202"/>
-      <c r="M114" s="203"/>
-      <c r="N114" s="203"/>
-      <c r="O114" s="203"/>
-      <c r="P114" s="203"/>
+      <c r="D114" s="200"/>
+      <c r="E114" s="201"/>
+      <c r="F114" s="202"/>
+      <c r="G114" s="203"/>
+      <c r="H114" s="204"/>
+      <c r="I114" s="202"/>
+      <c r="J114" s="203"/>
+      <c r="K114" s="203"/>
+      <c r="L114" s="204"/>
+      <c r="M114" s="205"/>
+      <c r="N114" s="205"/>
+      <c r="O114" s="205"/>
+      <c r="P114" s="205"/>
       <c r="Q114" s="73"/>
       <c r="R114" s="74"/>
       <c r="U114" s="70"/>
@@ -13477,19 +13811,19 @@
     <row r="115" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="198"/>
-      <c r="E115" s="199"/>
-      <c r="F115" s="200"/>
-      <c r="G115" s="201"/>
-      <c r="H115" s="202"/>
-      <c r="I115" s="200"/>
-      <c r="J115" s="201"/>
-      <c r="K115" s="201"/>
-      <c r="L115" s="202"/>
-      <c r="M115" s="203"/>
-      <c r="N115" s="203"/>
-      <c r="O115" s="203"/>
-      <c r="P115" s="203"/>
+      <c r="D115" s="200"/>
+      <c r="E115" s="201"/>
+      <c r="F115" s="202"/>
+      <c r="G115" s="203"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="202"/>
+      <c r="J115" s="203"/>
+      <c r="K115" s="203"/>
+      <c r="L115" s="204"/>
+      <c r="M115" s="205"/>
+      <c r="N115" s="205"/>
+      <c r="O115" s="205"/>
+      <c r="P115" s="205"/>
       <c r="Q115" s="73"/>
       <c r="R115" s="74"/>
       <c r="U115" s="70"/>
@@ -13502,19 +13836,19 @@
     <row r="116" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B116" s="58"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="198"/>
-      <c r="E116" s="199"/>
-      <c r="F116" s="200"/>
-      <c r="G116" s="201"/>
-      <c r="H116" s="202"/>
-      <c r="I116" s="200"/>
-      <c r="J116" s="201"/>
-      <c r="K116" s="201"/>
-      <c r="L116" s="202"/>
-      <c r="M116" s="203"/>
-      <c r="N116" s="203"/>
-      <c r="O116" s="203"/>
-      <c r="P116" s="203"/>
+      <c r="D116" s="200"/>
+      <c r="E116" s="201"/>
+      <c r="F116" s="202"/>
+      <c r="G116" s="203"/>
+      <c r="H116" s="204"/>
+      <c r="I116" s="202"/>
+      <c r="J116" s="203"/>
+      <c r="K116" s="203"/>
+      <c r="L116" s="204"/>
+      <c r="M116" s="205"/>
+      <c r="N116" s="205"/>
+      <c r="O116" s="205"/>
+      <c r="P116" s="205"/>
       <c r="Q116" s="73"/>
       <c r="R116" s="74"/>
       <c r="U116" s="70"/>
@@ -13534,39 +13868,39 @@
     </row>
     <row r="118" spans="2:26" ht="17.25" customHeight="1">
       <c r="B118" s="26" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C118" s="26"/>
       <c r="F118" s="50"/>
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B119" s="209" t="s">
-        <v>174</v>
-      </c>
-      <c r="C119" s="209" t="s">
-        <v>189</v>
-      </c>
-      <c r="D119" s="209" t="s">
-        <v>190</v>
-      </c>
-      <c r="E119" s="209" t="s">
-        <v>191</v>
-      </c>
-      <c r="F119" s="211" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" s="212" t="s">
-        <v>193</v>
+      <c r="B119" s="211" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="211" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="211" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" s="211" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="213" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="214" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B120" s="210"/>
-      <c r="C120" s="210"/>
-      <c r="D120" s="210"/>
-      <c r="E120" s="210"/>
-      <c r="F120" s="211"/>
-      <c r="G120" s="213"/>
+      <c r="B120" s="212"/>
+      <c r="C120" s="212"/>
+      <c r="D120" s="212"/>
+      <c r="E120" s="212"/>
+      <c r="F120" s="213"/>
+      <c r="G120" s="215"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1">
       <c r="B121" s="64">
@@ -13968,7 +14302,7 @@
     </row>
     <row r="137" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B137" s="24" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
@@ -13982,19 +14316,19 @@
       <c r="L137" s="88"/>
     </row>
     <row r="138" spans="2:13" s="24" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B138" s="204" t="s">
-        <v>194</v>
-      </c>
-      <c r="C138" s="204"/>
-      <c r="D138" s="204"/>
-      <c r="E138" s="204"/>
-      <c r="F138" s="204"/>
-      <c r="G138" s="204"/>
-      <c r="H138" s="204"/>
-      <c r="I138" s="204"/>
-      <c r="J138" s="204"/>
-      <c r="K138" s="204"/>
-      <c r="L138" s="204"/>
+      <c r="B138" s="206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="206"/>
+      <c r="D138" s="206"/>
+      <c r="E138" s="206"/>
+      <c r="F138" s="206"/>
+      <c r="G138" s="206"/>
+      <c r="H138" s="206"/>
+      <c r="I138" s="206"/>
+      <c r="J138" s="206"/>
+      <c r="K138" s="206"/>
+      <c r="L138" s="206"/>
     </row>
     <row r="139" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="82"/>
@@ -14011,7 +14345,7 @@
     </row>
     <row r="140" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B140" s="83" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C140" s="79"/>
       <c r="D140" s="79"/>
@@ -14026,85 +14360,85 @@
     </row>
     <row r="141" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B141" s="62" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C141" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="D141" s="205" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" s="205"/>
-      <c r="F141" s="205"/>
-      <c r="G141" s="205"/>
-      <c r="H141" s="206" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="207" t="s">
+        <v>206</v>
+      </c>
+      <c r="E141" s="207"/>
+      <c r="F141" s="207"/>
+      <c r="G141" s="207"/>
+      <c r="H141" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="206"/>
-      <c r="J141" s="206"/>
-      <c r="K141" s="206"/>
-      <c r="L141" s="206"/>
-      <c r="M141" s="206"/>
+      <c r="I141" s="208"/>
+      <c r="J141" s="208"/>
+      <c r="K141" s="208"/>
+      <c r="L141" s="208"/>
+      <c r="M141" s="208"/>
     </row>
     <row r="142" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B142" s="85">
         <v>39707</v>
       </c>
       <c r="C142" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="D142" s="207"/>
-      <c r="E142" s="207"/>
-      <c r="F142" s="207"/>
-      <c r="G142" s="207"/>
-      <c r="H142" s="208"/>
-      <c r="I142" s="208"/>
-      <c r="J142" s="208"/>
-      <c r="K142" s="208"/>
-      <c r="L142" s="208"/>
-      <c r="M142" s="208"/>
+        <v>207</v>
+      </c>
+      <c r="D142" s="209"/>
+      <c r="E142" s="209"/>
+      <c r="F142" s="209"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="210"/>
+      <c r="I142" s="210"/>
+      <c r="J142" s="210"/>
+      <c r="K142" s="210"/>
+      <c r="L142" s="210"/>
+      <c r="M142" s="210"/>
     </row>
     <row r="143" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
-      <c r="D143" s="207"/>
-      <c r="E143" s="207"/>
-      <c r="F143" s="207"/>
-      <c r="G143" s="207"/>
-      <c r="H143" s="208"/>
-      <c r="I143" s="208"/>
-      <c r="J143" s="208"/>
-      <c r="K143" s="208"/>
-      <c r="L143" s="208"/>
-      <c r="M143" s="208"/>
+      <c r="D143" s="209"/>
+      <c r="E143" s="209"/>
+      <c r="F143" s="209"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="210"/>
+      <c r="I143" s="210"/>
+      <c r="J143" s="210"/>
+      <c r="K143" s="210"/>
+      <c r="L143" s="210"/>
+      <c r="M143" s="210"/>
     </row>
     <row r="144" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B144" s="85"/>
       <c r="C144" s="86"/>
-      <c r="D144" s="207"/>
-      <c r="E144" s="207"/>
-      <c r="F144" s="207"/>
-      <c r="G144" s="207"/>
-      <c r="H144" s="208"/>
-      <c r="I144" s="208"/>
-      <c r="J144" s="208"/>
-      <c r="K144" s="208"/>
-      <c r="L144" s="208"/>
-      <c r="M144" s="208"/>
+      <c r="D144" s="209"/>
+      <c r="E144" s="209"/>
+      <c r="F144" s="209"/>
+      <c r="G144" s="209"/>
+      <c r="H144" s="210"/>
+      <c r="I144" s="210"/>
+      <c r="J144" s="210"/>
+      <c r="K144" s="210"/>
+      <c r="L144" s="210"/>
+      <c r="M144" s="210"/>
     </row>
     <row r="145" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B145" s="85"/>
       <c r="C145" s="86"/>
-      <c r="D145" s="207"/>
-      <c r="E145" s="207"/>
-      <c r="F145" s="207"/>
-      <c r="G145" s="207"/>
-      <c r="H145" s="208"/>
-      <c r="I145" s="208"/>
-      <c r="J145" s="208"/>
-      <c r="K145" s="208"/>
-      <c r="L145" s="208"/>
-      <c r="M145" s="208"/>
+      <c r="D145" s="209"/>
+      <c r="E145" s="209"/>
+      <c r="F145" s="209"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="210"/>
+      <c r="I145" s="210"/>
+      <c r="J145" s="210"/>
+      <c r="K145" s="210"/>
+      <c r="L145" s="210"/>
+      <c r="M145" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -14183,7 +14517,7 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B85:C85"/>
   </mergeCells>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98263888888888895" bottom="0.98263888888888895" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
@@ -14215,7 +14549,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1">
@@ -14223,13 +14557,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -14255,79 +14589,79 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12">
       <c r="A4" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12">
       <c r="A5" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12">
@@ -14339,16 +14673,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12">
@@ -14358,13 +14692,13 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I7" s="19"/>
     </row>
@@ -14375,13 +14709,13 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -14392,13 +14726,13 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -14409,13 +14743,13 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I10" s="21"/>
     </row>
@@ -14426,13 +14760,13 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I11" s="21"/>
     </row>
@@ -14443,13 +14777,13 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -14460,11 +14794,11 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I13" s="21"/>
     </row>
@@ -14475,11 +14809,11 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I14" s="21"/>
     </row>
@@ -14492,7 +14826,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="11"/>
       <c r="H15" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I15" s="21"/>
     </row>
@@ -14505,7 +14839,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -14522,21 +14856,21 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -2596,6 +2596,201 @@
   </si>
   <si>
     <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>入金按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>后，会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>送一封主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>“【エリア・パーキング】駐車場賃料に関するお知らせ”的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">件。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>件与“繰越一覧”画面可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>送的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>件内容一致，只是不包含客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>具体信息。疑似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">多余操作。
+</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
@@ -2659,7 +2854,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -2670,201 +2865,6 @@
         <charset val="134"/>
       </rPr>
       <t>秒</t>
-    </r>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>入金按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>后，会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>送一封主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>题为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>“【エリア・パーキング】駐車場賃料に関するお知らせ”的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">件。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该邮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>件与“繰越一覧”画面可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>送的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>件内容一致，只是不包含客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>具体信息。疑似</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">多余操作。
-</t>
     </r>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
@@ -2876,14 +2876,14 @@
   <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="182" formatCode="m/d"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="m/d"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
   <fonts count="55">
     <font>
@@ -3581,7 +3581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -3592,7 +3592,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3613,7 +3613,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3625,7 +3625,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3640,7 +3640,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3648,7 +3648,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4353,16 +4353,16 @@
     <xf numFmtId="56" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4386,7 +4386,7 @@
     <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4395,7 +4395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4410,25 +4410,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4459,7 +4459,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,7 +4469,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="138"/>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4481,14 +4481,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52"/>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4506,7 +4506,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4518,7 +4518,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4530,7 +4530,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4543,7 +4543,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,10 +4565,10 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="228" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="228" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4597,7 +4597,7 @@
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4607,22 +4607,22 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4631,34 +4631,34 @@
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="222" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="222" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="216" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="217" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="217" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="25" xfId="225" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="225" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4704,7 +4704,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="138" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4713,107 +4713,107 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="346">
@@ -5838,8 +5838,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.5190678684544313E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.519067868454432E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -5856,7 +5856,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5828510612584605E-2"/>
-          <c:y val="0.11730205278592401"/>
+          <c:y val="0.11730205278592402"/>
           <c:w val="0.80638879738335301"/>
           <c:h val="0.55131964809384204"/>
         </c:manualLayout>
@@ -5908,12 +5908,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="138401280"/>
-        <c:axId val="138402816"/>
+        <c:axId val="141016064"/>
+        <c:axId val="141021952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138401280"/>
+        <c:axId val="141016064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,14 +5946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138402816"/>
+        <c:crossAx val="141021952"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138402816"/>
+        <c:axId val="141021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,7 +5987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138401280"/>
+        <c:crossAx val="141016064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6038,7 +6037,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6075,8 +6074,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.0232730603965498E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.0232730603965505E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6092,10 +6091,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383203"/>
+          <c:x val="0.11177666498383206"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689125"/>
+          <c:h val="0.65814028222689147"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6202,12 +6201,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="130431616"/>
-        <c:axId val="130453888"/>
+        <c:axId val="141074816"/>
+        <c:axId val="141076352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130431616"/>
+        <c:axId val="141074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,14 +6239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130453888"/>
+        <c:crossAx val="141076352"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130453888"/>
+        <c:axId val="141076352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6282,7 +6280,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130431616"/>
+        <c:crossAx val="141074816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6332,7 +6330,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6369,8 +6367,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39506259248458309"/>
-          <c:y val="3.1476997578692802E-2"/>
+          <c:x val="0.3950625924845832"/>
+          <c:y val="3.1476997578692809E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6386,10 +6384,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2592778647397914E-2"/>
+          <c:x val="9.2592778647397928E-2"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.77572172333487732"/>
-          <c:h val="0.6513317191283331"/>
+          <c:w val="0.77572172333487766"/>
+          <c:h val="0.65133171912833321"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6690,10 +6688,9 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="143484800"/>
-        <c:axId val="143495168"/>
+        <c:axId val="141587584"/>
+        <c:axId val="141589120"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6791,13 +6788,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="143496704"/>
-        <c:axId val="143498240"/>
+        <c:axId val="141619584"/>
+        <c:axId val="141621120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143484800"/>
+        <c:axId val="141587584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6831,14 +6827,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143495168"/>
+        <c:crossAx val="141589120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143495168"/>
+        <c:axId val="141589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6872,29 +6868,29 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143484800"/>
+        <c:crossAx val="141587584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="143496704"/>
+        <c:axId val="141619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="143498240"/>
+        <c:crossAx val="141621120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143498240"/>
+        <c:axId val="141621120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000411"/>
+          <c:min val="0.75000000000000422"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -6926,7 +6922,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143496704"/>
+        <c:crossAx val="141619584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -6949,10 +6945,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22633788060443102"/>
-          <c:y val="0.93462469733656817"/>
-          <c:w val="0.50411630644934791"/>
-          <c:h val="4.842615012106511E-2"/>
+          <c:x val="0.22633788060443105"/>
+          <c:y val="0.93462469733656839"/>
+          <c:w val="0.5041163064493478"/>
+          <c:h val="4.8426150121065104E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7018,7 +7014,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7055,8 +7051,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.0232707900360201E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.0232707900360208E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7072,10 +7068,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383203"/>
+          <c:x val="0.11177666498383206"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689225"/>
+          <c:h val="0.65814028222689247"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7137,12 +7133,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="137833088"/>
-        <c:axId val="137838976"/>
+        <c:axId val="141125504"/>
+        <c:axId val="141127040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137833088"/>
+        <c:axId val="141125504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,14 +7171,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137838976"/>
+        <c:crossAx val="141127040"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137838976"/>
+        <c:axId val="141127040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,7 +7212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137833088"/>
+        <c:crossAx val="141125504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7267,7 +7262,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7304,8 +7299,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.5190678684544313E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.519067868454432E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7322,7 +7317,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5828510612584605E-2"/>
-          <c:y val="0.11730205278592401"/>
+          <c:y val="0.11730205278592402"/>
           <c:w val="0.80638879738335301"/>
           <c:h val="0.55131964809384204"/>
         </c:manualLayout>
@@ -7422,12 +7417,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="137846144"/>
-        <c:axId val="137876608"/>
+        <c:axId val="141147136"/>
+        <c:axId val="142955264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137846144"/>
+        <c:axId val="141147136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7461,14 +7455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137876608"/>
+        <c:crossAx val="142955264"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137876608"/>
+        <c:axId val="142955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7502,7 +7496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137846144"/>
+        <c:crossAx val="141147136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7552,7 +7546,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7589,8 +7583,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.5190678684544313E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.519067868454432E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7607,7 +7601,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5828510612584605E-2"/>
-          <c:y val="0.11730205278592401"/>
+          <c:y val="0.11730205278592402"/>
           <c:w val="0.80638879738335301"/>
           <c:h val="0.55131964809384204"/>
         </c:manualLayout>
@@ -7707,12 +7701,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="143806848"/>
-        <c:axId val="143808384"/>
+        <c:axId val="142975360"/>
+        <c:axId val="142976896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143806848"/>
+        <c:axId val="142975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7746,14 +7739,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143808384"/>
+        <c:crossAx val="142976896"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143808384"/>
+        <c:axId val="142976896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7787,7 +7780,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143806848"/>
+        <c:crossAx val="142975360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7837,7 +7830,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7874,8 +7867,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674008"/>
-          <c:y val="3.0232707900360201E-2"/>
+          <c:x val="0.38523037913674013"/>
+          <c:y val="3.0232707900360208E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7891,10 +7884,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383203"/>
+          <c:x val="0.11177666498383206"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689225"/>
+          <c:h val="0.65814028222689247"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7956,12 +7949,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="143824000"/>
-        <c:axId val="143825536"/>
+        <c:axId val="144254464"/>
+        <c:axId val="144256000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143824000"/>
+        <c:axId val="144254464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7995,14 +7987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143825536"/>
+        <c:crossAx val="144256000"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143825536"/>
+        <c:axId val="144256000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8036,7 +8028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143824000"/>
+        <c:crossAx val="144254464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8086,7 +8078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8836,10 +8828,10 @@
   <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -10497,7 +10489,7 @@
         <v>38</v>
       </c>
       <c r="L32" s="164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" s="147"/>
       <c r="N32" s="128"/>
@@ -10599,7 +10591,7 @@
         <v>38</v>
       </c>
       <c r="L34" s="115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M34" s="147"/>
       <c r="N34" s="128"/>
@@ -12557,30 +12549,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="9" customHeight="1">
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="217"/>
       <c r="D3" s="27" t="s">
         <v>129</v>
       </c>
@@ -12658,30 +12650,30 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="217" t="s">
+      <c r="B13" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="217"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="217"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1">
       <c r="B21" s="26" t="s">
@@ -12690,10 +12682,10 @@
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="186"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="27" t="s">
         <v>129</v>
       </c>
@@ -12875,30 +12867,30 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B36" s="217" t="s">
+      <c r="B36" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="217"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B37" s="217"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="217"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B38" s="217"/>
-      <c r="C38" s="217"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B39" s="217"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="217"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" s="26" t="s">
@@ -12907,10 +12899,10 @@
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
-      <c r="B44" s="185" t="s">
+      <c r="B44" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="186"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="27" t="s">
         <v>129</v>
       </c>
@@ -13064,30 +13056,30 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B56" s="217" t="s">
+      <c r="B56" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="217"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
     </row>
     <row r="57" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B57" s="217"/>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
     </row>
     <row r="59" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B59" s="217"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
+      <c r="B59" s="188"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="188"/>
+      <c r="E59" s="188"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" customHeight="1">
       <c r="B64" s="26" t="s">
@@ -13096,10 +13088,10 @@
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B65" s="187" t="s">
+      <c r="B65" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="188"/>
+      <c r="C65" s="210"/>
       <c r="D65" s="27" t="s">
         <v>129</v>
       </c>
@@ -13279,28 +13271,28 @@
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B80" s="217" t="s">
+      <c r="B80" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="217"/>
-      <c r="D80" s="217"/>
-      <c r="E80" s="217"/>
+      <c r="C80" s="188"/>
+      <c r="D80" s="188"/>
+      <c r="E80" s="188"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B81" s="217"/>
-      <c r="C81" s="217"/>
-      <c r="D81" s="217"/>
-      <c r="E81" s="217"/>
+      <c r="B81" s="188"/>
+      <c r="C81" s="188"/>
+      <c r="D81" s="188"/>
+      <c r="E81" s="188"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B82" s="217"/>
-      <c r="C82" s="217"/>
-      <c r="D82" s="217"/>
-      <c r="E82" s="217"/>
+      <c r="B82" s="188"/>
+      <c r="C82" s="188"/>
+      <c r="D82" s="188"/>
+      <c r="E82" s="188"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
     </row>
@@ -13319,10 +13311,10 @@
       <c r="C84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B85" s="187" t="s">
+      <c r="B85" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="188"/>
+      <c r="C85" s="210"/>
       <c r="D85" s="27" t="s">
         <v>129</v>
       </c>
@@ -13394,28 +13386,28 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B91" s="217" t="s">
+      <c r="B91" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="217"/>
-      <c r="D91" s="217"/>
-      <c r="E91" s="217"/>
+      <c r="C91" s="188"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="188"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B92" s="217"/>
-      <c r="C92" s="217"/>
-      <c r="D92" s="217"/>
-      <c r="E92" s="217"/>
+      <c r="B92" s="188"/>
+      <c r="C92" s="188"/>
+      <c r="D92" s="188"/>
+      <c r="E92" s="188"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B93" s="217"/>
-      <c r="C93" s="217"/>
-      <c r="D93" s="217"/>
-      <c r="E93" s="217"/>
+      <c r="B93" s="188"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="188"/>
+      <c r="E93" s="188"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
     </row>
@@ -13434,10 +13426,10 @@
       <c r="C95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B96" s="187" t="s">
+      <c r="B96" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="188"/>
+      <c r="C96" s="210"/>
       <c r="D96" s="27" t="s">
         <v>129</v>
       </c>
@@ -13495,28 +13487,28 @@
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B101" s="217" t="s">
+      <c r="B101" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="217"/>
-      <c r="D101" s="217"/>
-      <c r="E101" s="217"/>
+      <c r="C101" s="188"/>
+      <c r="D101" s="188"/>
+      <c r="E101" s="188"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B102" s="217"/>
-      <c r="C102" s="217"/>
-      <c r="D102" s="217"/>
-      <c r="E102" s="217"/>
+      <c r="B102" s="188"/>
+      <c r="C102" s="188"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="188"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B103" s="217"/>
-      <c r="C103" s="217"/>
-      <c r="D103" s="217"/>
-      <c r="E103" s="217"/>
+      <c r="B103" s="188"/>
+      <c r="C103" s="188"/>
+      <c r="D103" s="188"/>
+      <c r="E103" s="188"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
     </row>
@@ -13558,27 +13550,27 @@
       <c r="C106" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="189" t="s">
+      <c r="D106" s="211" t="s">
         <v>184</v>
       </c>
-      <c r="E106" s="190"/>
-      <c r="F106" s="191" t="s">
+      <c r="E106" s="212"/>
+      <c r="F106" s="213" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="192"/>
-      <c r="H106" s="193"/>
-      <c r="I106" s="191" t="s">
+      <c r="G106" s="214"/>
+      <c r="H106" s="215"/>
+      <c r="I106" s="213" t="s">
         <v>186</v>
       </c>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
-      <c r="L106" s="193"/>
-      <c r="M106" s="191" t="s">
+      <c r="J106" s="214"/>
+      <c r="K106" s="214"/>
+      <c r="L106" s="215"/>
+      <c r="M106" s="213" t="s">
         <v>187</v>
       </c>
-      <c r="N106" s="192"/>
-      <c r="O106" s="192"/>
-      <c r="P106" s="193"/>
+      <c r="N106" s="214"/>
+      <c r="O106" s="214"/>
+      <c r="P106" s="215"/>
       <c r="Q106" s="63" t="s">
         <v>188</v>
       </c>
@@ -13599,27 +13591,27 @@
       <c r="C107" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="194" t="s">
+      <c r="D107" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="195"/>
-      <c r="F107" s="196" t="s">
+      <c r="E107" s="204"/>
+      <c r="F107" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="G107" s="197"/>
-      <c r="H107" s="198"/>
-      <c r="I107" s="196" t="s">
+      <c r="G107" s="206"/>
+      <c r="H107" s="207"/>
+      <c r="I107" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="J107" s="197"/>
-      <c r="K107" s="197"/>
-      <c r="L107" s="198"/>
-      <c r="M107" s="199" t="s">
+      <c r="J107" s="206"/>
+      <c r="K107" s="206"/>
+      <c r="L107" s="207"/>
+      <c r="M107" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="N107" s="199"/>
-      <c r="O107" s="199"/>
-      <c r="P107" s="199"/>
+      <c r="N107" s="208"/>
+      <c r="O107" s="208"/>
+      <c r="P107" s="208"/>
       <c r="Q107" s="71" t="s">
         <v>196</v>
       </c>
@@ -13636,19 +13628,19 @@
     <row r="108" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="200"/>
-      <c r="E108" s="201"/>
-      <c r="F108" s="202"/>
-      <c r="G108" s="203"/>
-      <c r="H108" s="204"/>
-      <c r="I108" s="202"/>
-      <c r="J108" s="203"/>
-      <c r="K108" s="203"/>
-      <c r="L108" s="204"/>
-      <c r="M108" s="205"/>
-      <c r="N108" s="205"/>
-      <c r="O108" s="205"/>
-      <c r="P108" s="205"/>
+      <c r="D108" s="197"/>
+      <c r="E108" s="198"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="200"/>
+      <c r="H108" s="201"/>
+      <c r="I108" s="199"/>
+      <c r="J108" s="200"/>
+      <c r="K108" s="200"/>
+      <c r="L108" s="201"/>
+      <c r="M108" s="202"/>
+      <c r="N108" s="202"/>
+      <c r="O108" s="202"/>
+      <c r="P108" s="202"/>
       <c r="Q108" s="73"/>
       <c r="R108" s="74"/>
       <c r="U108" s="70"/>
@@ -13661,19 +13653,19 @@
     <row r="109" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B109" s="58"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="200"/>
-      <c r="E109" s="201"/>
-      <c r="F109" s="202"/>
-      <c r="G109" s="203"/>
-      <c r="H109" s="204"/>
-      <c r="I109" s="202"/>
-      <c r="J109" s="203"/>
-      <c r="K109" s="203"/>
-      <c r="L109" s="204"/>
-      <c r="M109" s="205"/>
-      <c r="N109" s="205"/>
-      <c r="O109" s="205"/>
-      <c r="P109" s="205"/>
+      <c r="D109" s="197"/>
+      <c r="E109" s="198"/>
+      <c r="F109" s="199"/>
+      <c r="G109" s="200"/>
+      <c r="H109" s="201"/>
+      <c r="I109" s="199"/>
+      <c r="J109" s="200"/>
+      <c r="K109" s="200"/>
+      <c r="L109" s="201"/>
+      <c r="M109" s="202"/>
+      <c r="N109" s="202"/>
+      <c r="O109" s="202"/>
+      <c r="P109" s="202"/>
       <c r="Q109" s="73"/>
       <c r="R109" s="74"/>
       <c r="U109" s="70"/>
@@ -13686,19 +13678,19 @@
     <row r="110" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B110" s="58"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="200"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="202"/>
-      <c r="G110" s="203"/>
-      <c r="H110" s="204"/>
-      <c r="I110" s="202"/>
-      <c r="J110" s="203"/>
-      <c r="K110" s="203"/>
-      <c r="L110" s="204"/>
-      <c r="M110" s="205"/>
-      <c r="N110" s="205"/>
-      <c r="O110" s="205"/>
-      <c r="P110" s="205"/>
+      <c r="D110" s="197"/>
+      <c r="E110" s="198"/>
+      <c r="F110" s="199"/>
+      <c r="G110" s="200"/>
+      <c r="H110" s="201"/>
+      <c r="I110" s="199"/>
+      <c r="J110" s="200"/>
+      <c r="K110" s="200"/>
+      <c r="L110" s="201"/>
+      <c r="M110" s="202"/>
+      <c r="N110" s="202"/>
+      <c r="O110" s="202"/>
+      <c r="P110" s="202"/>
       <c r="Q110" s="73"/>
       <c r="R110" s="74"/>
       <c r="U110" s="70"/>
@@ -13711,19 +13703,19 @@
     <row r="111" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B111" s="58"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="200"/>
-      <c r="E111" s="201"/>
-      <c r="F111" s="202"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="204"/>
-      <c r="I111" s="202"/>
-      <c r="J111" s="203"/>
-      <c r="K111" s="203"/>
-      <c r="L111" s="204"/>
-      <c r="M111" s="205"/>
-      <c r="N111" s="205"/>
-      <c r="O111" s="205"/>
-      <c r="P111" s="205"/>
+      <c r="D111" s="197"/>
+      <c r="E111" s="198"/>
+      <c r="F111" s="199"/>
+      <c r="G111" s="200"/>
+      <c r="H111" s="201"/>
+      <c r="I111" s="199"/>
+      <c r="J111" s="200"/>
+      <c r="K111" s="200"/>
+      <c r="L111" s="201"/>
+      <c r="M111" s="202"/>
+      <c r="N111" s="202"/>
+      <c r="O111" s="202"/>
+      <c r="P111" s="202"/>
       <c r="Q111" s="73"/>
       <c r="R111" s="74"/>
       <c r="U111" s="70"/>
@@ -13736,19 +13728,19 @@
     <row r="112" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B112" s="58"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
-      <c r="G112" s="203"/>
-      <c r="H112" s="204"/>
-      <c r="I112" s="202"/>
-      <c r="J112" s="203"/>
-      <c r="K112" s="203"/>
-      <c r="L112" s="204"/>
-      <c r="M112" s="205"/>
-      <c r="N112" s="205"/>
-      <c r="O112" s="205"/>
-      <c r="P112" s="205"/>
+      <c r="D112" s="197"/>
+      <c r="E112" s="198"/>
+      <c r="F112" s="199"/>
+      <c r="G112" s="200"/>
+      <c r="H112" s="201"/>
+      <c r="I112" s="199"/>
+      <c r="J112" s="200"/>
+      <c r="K112" s="200"/>
+      <c r="L112" s="201"/>
+      <c r="M112" s="202"/>
+      <c r="N112" s="202"/>
+      <c r="O112" s="202"/>
+      <c r="P112" s="202"/>
       <c r="Q112" s="73"/>
       <c r="R112" s="74"/>
       <c r="U112" s="70"/>
@@ -13761,19 +13753,19 @@
     <row r="113" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B113" s="58"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="200"/>
-      <c r="E113" s="201"/>
-      <c r="F113" s="202"/>
-      <c r="G113" s="203"/>
-      <c r="H113" s="204"/>
-      <c r="I113" s="202"/>
-      <c r="J113" s="203"/>
-      <c r="K113" s="203"/>
-      <c r="L113" s="204"/>
-      <c r="M113" s="205"/>
-      <c r="N113" s="205"/>
-      <c r="O113" s="205"/>
-      <c r="P113" s="205"/>
+      <c r="D113" s="197"/>
+      <c r="E113" s="198"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="200"/>
+      <c r="H113" s="201"/>
+      <c r="I113" s="199"/>
+      <c r="J113" s="200"/>
+      <c r="K113" s="200"/>
+      <c r="L113" s="201"/>
+      <c r="M113" s="202"/>
+      <c r="N113" s="202"/>
+      <c r="O113" s="202"/>
+      <c r="P113" s="202"/>
       <c r="Q113" s="73"/>
       <c r="R113" s="74"/>
       <c r="U113" s="70"/>
@@ -13786,19 +13778,19 @@
     <row r="114" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B114" s="58"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="200"/>
-      <c r="E114" s="201"/>
-      <c r="F114" s="202"/>
-      <c r="G114" s="203"/>
-      <c r="H114" s="204"/>
-      <c r="I114" s="202"/>
-      <c r="J114" s="203"/>
-      <c r="K114" s="203"/>
-      <c r="L114" s="204"/>
-      <c r="M114" s="205"/>
-      <c r="N114" s="205"/>
-      <c r="O114" s="205"/>
-      <c r="P114" s="205"/>
+      <c r="D114" s="197"/>
+      <c r="E114" s="198"/>
+      <c r="F114" s="199"/>
+      <c r="G114" s="200"/>
+      <c r="H114" s="201"/>
+      <c r="I114" s="199"/>
+      <c r="J114" s="200"/>
+      <c r="K114" s="200"/>
+      <c r="L114" s="201"/>
+      <c r="M114" s="202"/>
+      <c r="N114" s="202"/>
+      <c r="O114" s="202"/>
+      <c r="P114" s="202"/>
       <c r="Q114" s="73"/>
       <c r="R114" s="74"/>
       <c r="U114" s="70"/>
@@ -13811,19 +13803,19 @@
     <row r="115" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="200"/>
-      <c r="E115" s="201"/>
-      <c r="F115" s="202"/>
-      <c r="G115" s="203"/>
-      <c r="H115" s="204"/>
-      <c r="I115" s="202"/>
-      <c r="J115" s="203"/>
-      <c r="K115" s="203"/>
-      <c r="L115" s="204"/>
-      <c r="M115" s="205"/>
-      <c r="N115" s="205"/>
-      <c r="O115" s="205"/>
-      <c r="P115" s="205"/>
+      <c r="D115" s="197"/>
+      <c r="E115" s="198"/>
+      <c r="F115" s="199"/>
+      <c r="G115" s="200"/>
+      <c r="H115" s="201"/>
+      <c r="I115" s="199"/>
+      <c r="J115" s="200"/>
+      <c r="K115" s="200"/>
+      <c r="L115" s="201"/>
+      <c r="M115" s="202"/>
+      <c r="N115" s="202"/>
+      <c r="O115" s="202"/>
+      <c r="P115" s="202"/>
       <c r="Q115" s="73"/>
       <c r="R115" s="74"/>
       <c r="U115" s="70"/>
@@ -13836,19 +13828,19 @@
     <row r="116" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B116" s="58"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="200"/>
-      <c r="E116" s="201"/>
-      <c r="F116" s="202"/>
-      <c r="G116" s="203"/>
-      <c r="H116" s="204"/>
-      <c r="I116" s="202"/>
-      <c r="J116" s="203"/>
-      <c r="K116" s="203"/>
-      <c r="L116" s="204"/>
-      <c r="M116" s="205"/>
-      <c r="N116" s="205"/>
-      <c r="O116" s="205"/>
-      <c r="P116" s="205"/>
+      <c r="D116" s="197"/>
+      <c r="E116" s="198"/>
+      <c r="F116" s="199"/>
+      <c r="G116" s="200"/>
+      <c r="H116" s="201"/>
+      <c r="I116" s="199"/>
+      <c r="J116" s="200"/>
+      <c r="K116" s="200"/>
+      <c r="L116" s="201"/>
+      <c r="M116" s="202"/>
+      <c r="N116" s="202"/>
+      <c r="O116" s="202"/>
+      <c r="P116" s="202"/>
       <c r="Q116" s="73"/>
       <c r="R116" s="74"/>
       <c r="U116" s="70"/>
@@ -13875,32 +13867,32 @@
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B119" s="211" t="s">
+      <c r="B119" s="189" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="211" t="s">
+      <c r="C119" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="211" t="s">
+      <c r="D119" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="211" t="s">
+      <c r="E119" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="F119" s="213" t="s">
+      <c r="F119" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="G119" s="214" t="s">
+      <c r="G119" s="185" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B120" s="212"/>
-      <c r="C120" s="212"/>
-      <c r="D120" s="212"/>
-      <c r="E120" s="212"/>
-      <c r="F120" s="213"/>
-      <c r="G120" s="215"/>
+      <c r="B120" s="190"/>
+      <c r="C120" s="190"/>
+      <c r="D120" s="190"/>
+      <c r="E120" s="190"/>
+      <c r="F120" s="191"/>
+      <c r="G120" s="186"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1">
       <c r="B121" s="64">
@@ -14316,19 +14308,19 @@
       <c r="L137" s="88"/>
     </row>
     <row r="138" spans="2:13" s="24" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B138" s="206" t="s">
+      <c r="B138" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="206"/>
-      <c r="D138" s="206"/>
-      <c r="E138" s="206"/>
-      <c r="F138" s="206"/>
-      <c r="G138" s="206"/>
-      <c r="H138" s="206"/>
-      <c r="I138" s="206"/>
-      <c r="J138" s="206"/>
-      <c r="K138" s="206"/>
-      <c r="L138" s="206"/>
+      <c r="C138" s="194"/>
+      <c r="D138" s="194"/>
+      <c r="E138" s="194"/>
+      <c r="F138" s="194"/>
+      <c r="G138" s="194"/>
+      <c r="H138" s="194"/>
+      <c r="I138" s="194"/>
+      <c r="J138" s="194"/>
+      <c r="K138" s="194"/>
+      <c r="L138" s="194"/>
     </row>
     <row r="139" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="82"/>
@@ -14365,20 +14357,20 @@
       <c r="C141" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D141" s="207" t="s">
+      <c r="D141" s="195" t="s">
         <v>206</v>
       </c>
-      <c r="E141" s="207"/>
-      <c r="F141" s="207"/>
-      <c r="G141" s="207"/>
-      <c r="H141" s="208" t="s">
+      <c r="E141" s="195"/>
+      <c r="F141" s="195"/>
+      <c r="G141" s="195"/>
+      <c r="H141" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="208"/>
-      <c r="J141" s="208"/>
-      <c r="K141" s="208"/>
-      <c r="L141" s="208"/>
-      <c r="M141" s="208"/>
+      <c r="I141" s="196"/>
+      <c r="J141" s="196"/>
+      <c r="K141" s="196"/>
+      <c r="L141" s="196"/>
+      <c r="M141" s="196"/>
     </row>
     <row r="142" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B142" s="85">
@@ -14387,61 +14379,119 @@
       <c r="C142" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D142" s="209"/>
-      <c r="E142" s="209"/>
-      <c r="F142" s="209"/>
-      <c r="G142" s="209"/>
-      <c r="H142" s="210"/>
-      <c r="I142" s="210"/>
-      <c r="J142" s="210"/>
-      <c r="K142" s="210"/>
-      <c r="L142" s="210"/>
-      <c r="M142" s="210"/>
+      <c r="D142" s="192"/>
+      <c r="E142" s="192"/>
+      <c r="F142" s="192"/>
+      <c r="G142" s="192"/>
+      <c r="H142" s="193"/>
+      <c r="I142" s="193"/>
+      <c r="J142" s="193"/>
+      <c r="K142" s="193"/>
+      <c r="L142" s="193"/>
+      <c r="M142" s="193"/>
     </row>
     <row r="143" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
-      <c r="D143" s="209"/>
-      <c r="E143" s="209"/>
-      <c r="F143" s="209"/>
-      <c r="G143" s="209"/>
-      <c r="H143" s="210"/>
-      <c r="I143" s="210"/>
-      <c r="J143" s="210"/>
-      <c r="K143" s="210"/>
-      <c r="L143" s="210"/>
-      <c r="M143" s="210"/>
+      <c r="D143" s="192"/>
+      <c r="E143" s="192"/>
+      <c r="F143" s="192"/>
+      <c r="G143" s="192"/>
+      <c r="H143" s="193"/>
+      <c r="I143" s="193"/>
+      <c r="J143" s="193"/>
+      <c r="K143" s="193"/>
+      <c r="L143" s="193"/>
+      <c r="M143" s="193"/>
     </row>
     <row r="144" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B144" s="85"/>
       <c r="C144" s="86"/>
-      <c r="D144" s="209"/>
-      <c r="E144" s="209"/>
-      <c r="F144" s="209"/>
-      <c r="G144" s="209"/>
-      <c r="H144" s="210"/>
-      <c r="I144" s="210"/>
-      <c r="J144" s="210"/>
-      <c r="K144" s="210"/>
-      <c r="L144" s="210"/>
-      <c r="M144" s="210"/>
+      <c r="D144" s="192"/>
+      <c r="E144" s="192"/>
+      <c r="F144" s="192"/>
+      <c r="G144" s="192"/>
+      <c r="H144" s="193"/>
+      <c r="I144" s="193"/>
+      <c r="J144" s="193"/>
+      <c r="K144" s="193"/>
+      <c r="L144" s="193"/>
+      <c r="M144" s="193"/>
     </row>
     <row r="145" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B145" s="85"/>
       <c r="C145" s="86"/>
-      <c r="D145" s="209"/>
-      <c r="E145" s="209"/>
-      <c r="F145" s="209"/>
-      <c r="G145" s="209"/>
-      <c r="H145" s="210"/>
-      <c r="I145" s="210"/>
-      <c r="J145" s="210"/>
-      <c r="K145" s="210"/>
-      <c r="L145" s="210"/>
-      <c r="M145" s="210"/>
+      <c r="D145" s="192"/>
+      <c r="E145" s="192"/>
+      <c r="F145" s="192"/>
+      <c r="G145" s="192"/>
+      <c r="H145" s="193"/>
+      <c r="I145" s="193"/>
+      <c r="J145" s="193"/>
+      <c r="K145" s="193"/>
+      <c r="L145" s="193"/>
+      <c r="M145" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:M141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:M142"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:M143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:M144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:M145"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="B80:E82"/>
@@ -14455,67 +14505,9 @@
     <mergeCell ref="D119:D120"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="F119:F120"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="H143:M143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:M144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="H145:M145"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="H141:M141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="H142:M142"/>
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="F115:H115"/>
     <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98263888888888895" bottom="0.98263888888888895" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="490"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
   <si>
     <t>通番</t>
   </si>
@@ -2867,6 +2867,281 @@
       <t>秒</t>
     </r>
     <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日早晨更新areaparking代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码后发现项目主页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>home无法打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开，见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>No.002-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>013。且数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处变动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除表ap_waiting_contact,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作有较大影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。具体影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有包含此表的EXCEL的IN_DB都需要修改并重新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。因主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>home无法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>示，故退回6月26日19:20的代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作，IN_DB中表ap_waiting_contact未作修改。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2885,7 +3160,7 @@
     <numFmt numFmtId="182" formatCode="0.0_ "/>
     <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3224,6 +3499,80 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3577,7 +3926,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="346">
+  <cellStyleXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -4151,8 +4500,189 @@
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4716,6 +5246,84 @@
     <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4737,86 +5345,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="25" xfId="346" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="346">
+  <cellStyles count="460">
     <cellStyle name="Comma [0]" xfId="46"/>
     <cellStyle name="Comma [0] 2" xfId="17"/>
     <cellStyle name="Comma [0] 3" xfId="10"/>
@@ -4831,142 +5364,190 @@
     <cellStyle name="ハイパーリンク 2 2 2" xfId="22"/>
     <cellStyle name="ハイパーリンク 2 2 2 2" xfId="56"/>
     <cellStyle name="ハイパーリンク 2 2 2 2 2" xfId="41"/>
+    <cellStyle name="ハイパーリンク 2 2 2 2 3" xfId="350"/>
     <cellStyle name="ハイパーリンク 2 2 2 3" xfId="57"/>
+    <cellStyle name="ハイパーリンク 2 2 2 4" xfId="349"/>
     <cellStyle name="ハイパーリンク 2 2 3" xfId="14"/>
     <cellStyle name="ハイパーリンク 2 2 3 2" xfId="58"/>
+    <cellStyle name="ハイパーリンク 2 2 3 3" xfId="351"/>
     <cellStyle name="ハイパーリンク 2 2 4" xfId="59"/>
     <cellStyle name="ハイパーリンク 2 2 5" xfId="61"/>
     <cellStyle name="ハイパーリンク 2 2 6" xfId="62"/>
+    <cellStyle name="ハイパーリンク 2 2 7" xfId="348"/>
     <cellStyle name="ハイパーリンク 2 3" xfId="63"/>
     <cellStyle name="ハイパーリンク 2 3 2" xfId="66"/>
     <cellStyle name="ハイパーリンク 2 3 2 2" xfId="67"/>
     <cellStyle name="ハイパーリンク 2 3 2 3" xfId="48"/>
     <cellStyle name="ハイパーリンク 2 3 2 4" xfId="69"/>
+    <cellStyle name="ハイパーリンク 2 3 2 5" xfId="353"/>
     <cellStyle name="ハイパーリンク 2 3 3" xfId="72"/>
     <cellStyle name="ハイパーリンク 2 3 4" xfId="74"/>
     <cellStyle name="ハイパーリンク 2 3 5" xfId="53"/>
+    <cellStyle name="ハイパーリンク 2 3 6" xfId="352"/>
     <cellStyle name="ハイパーリンク 2 4" xfId="75"/>
     <cellStyle name="ハイパーリンク 2 4 2" xfId="77"/>
+    <cellStyle name="ハイパーリンク 2 4 3" xfId="354"/>
     <cellStyle name="ハイパーリンク 2 5" xfId="78"/>
     <cellStyle name="ハイパーリンク 2 6" xfId="79"/>
     <cellStyle name="ハイパーリンク 2 7" xfId="80"/>
+    <cellStyle name="ハイパーリンク 2 8" xfId="347"/>
     <cellStyle name="標準 2" xfId="82"/>
     <cellStyle name="標準 2 2" xfId="83"/>
     <cellStyle name="標準 2 2 2" xfId="84"/>
     <cellStyle name="標準 2 2 2 2" xfId="85"/>
     <cellStyle name="標準 2 2 2 2 2" xfId="86"/>
     <cellStyle name="標準 2 2 2 2 2 2" xfId="87"/>
+    <cellStyle name="標準 2 2 2 2 2 3" xfId="359"/>
     <cellStyle name="標準 2 2 2 2 3" xfId="88"/>
+    <cellStyle name="標準 2 2 2 2 4" xfId="358"/>
     <cellStyle name="標準 2 2 2 3" xfId="89"/>
     <cellStyle name="標準 2 2 2 3 2" xfId="90"/>
+    <cellStyle name="標準 2 2 2 3 3" xfId="360"/>
     <cellStyle name="標準 2 2 2 4" xfId="92"/>
     <cellStyle name="標準 2 2 2 5" xfId="93"/>
     <cellStyle name="標準 2 2 2 6" xfId="94"/>
+    <cellStyle name="標準 2 2 2 7" xfId="357"/>
     <cellStyle name="標準 2 2 3" xfId="95"/>
     <cellStyle name="標準 2 2 3 2" xfId="97"/>
     <cellStyle name="標準 2 2 3 2 2" xfId="99"/>
     <cellStyle name="標準 2 2 3 2 3" xfId="100"/>
     <cellStyle name="標準 2 2 3 2 4" xfId="101"/>
+    <cellStyle name="標準 2 2 3 2 5" xfId="362"/>
     <cellStyle name="標準 2 2 3 3" xfId="103"/>
     <cellStyle name="標準 2 2 3 4" xfId="105"/>
     <cellStyle name="標準 2 2 3 5" xfId="31"/>
+    <cellStyle name="標準 2 2 3 6" xfId="361"/>
     <cellStyle name="標準 2 2 4" xfId="106"/>
     <cellStyle name="標準 2 2 4 2" xfId="108"/>
+    <cellStyle name="標準 2 2 4 3" xfId="363"/>
     <cellStyle name="標準 2 2 5" xfId="109"/>
     <cellStyle name="標準 2 2 6" xfId="110"/>
     <cellStyle name="標準 2 2 7" xfId="111"/>
+    <cellStyle name="標準 2 2 8" xfId="356"/>
     <cellStyle name="標準 2 3" xfId="112"/>
     <cellStyle name="標準 2 3 2" xfId="42"/>
     <cellStyle name="標準 2 3 2 2" xfId="114"/>
     <cellStyle name="標準 2 3 2 2 2" xfId="116"/>
+    <cellStyle name="標準 2 3 2 2 3" xfId="366"/>
     <cellStyle name="標準 2 3 2 3" xfId="45"/>
+    <cellStyle name="標準 2 3 2 4" xfId="365"/>
     <cellStyle name="標準 2 3 3" xfId="43"/>
     <cellStyle name="標準 2 3 3 2" xfId="117"/>
+    <cellStyle name="標準 2 3 3 3" xfId="367"/>
     <cellStyle name="標準 2 3 4" xfId="118"/>
     <cellStyle name="標準 2 3 5" xfId="119"/>
     <cellStyle name="標準 2 3 6" xfId="120"/>
+    <cellStyle name="標準 2 3 7" xfId="364"/>
     <cellStyle name="標準 2 4" xfId="121"/>
     <cellStyle name="標準 2 4 2" xfId="122"/>
     <cellStyle name="標準 2 4 2 2" xfId="123"/>
     <cellStyle name="標準 2 4 2 3" xfId="124"/>
     <cellStyle name="標準 2 4 2 4" xfId="126"/>
+    <cellStyle name="標準 2 4 2 5" xfId="369"/>
     <cellStyle name="標準 2 4 3" xfId="2"/>
     <cellStyle name="標準 2 4 4" xfId="127"/>
     <cellStyle name="標準 2 4 5" xfId="129"/>
+    <cellStyle name="標準 2 4 6" xfId="368"/>
     <cellStyle name="標準 2 5" xfId="130"/>
     <cellStyle name="標準 2 5 2" xfId="131"/>
+    <cellStyle name="標準 2 5 3" xfId="370"/>
     <cellStyle name="標準 2 6" xfId="20"/>
     <cellStyle name="標準 2 7" xfId="133"/>
     <cellStyle name="標準 2 8" xfId="135"/>
+    <cellStyle name="標準 2 9" xfId="355"/>
     <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="37"/>
     <cellStyle name="標準 26" xfId="16"/>
     <cellStyle name="標準 26 2" xfId="136"/>
     <cellStyle name="標準 26 2 2" xfId="137"/>
     <cellStyle name="標準 26 2 2 2" xfId="139"/>
+    <cellStyle name="標準 26 2 2 3" xfId="373"/>
     <cellStyle name="標準 26 2 3" xfId="141"/>
+    <cellStyle name="標準 26 2 4" xfId="372"/>
     <cellStyle name="標準 26 3" xfId="142"/>
     <cellStyle name="標準 26 3 2" xfId="143"/>
+    <cellStyle name="標準 26 3 3" xfId="374"/>
     <cellStyle name="標準 26 4" xfId="145"/>
     <cellStyle name="標準 26 5" xfId="147"/>
     <cellStyle name="標準 26 6" xfId="150"/>
+    <cellStyle name="標準 26 7" xfId="371"/>
     <cellStyle name="標準 3" xfId="152"/>
     <cellStyle name="標準 3 2" xfId="153"/>
     <cellStyle name="標準 3 2 2" xfId="154"/>
     <cellStyle name="標準 3 2 2 2" xfId="156"/>
     <cellStyle name="標準 3 2 2 2 2" xfId="23"/>
+    <cellStyle name="標準 3 2 2 2 3" xfId="378"/>
     <cellStyle name="標準 3 2 2 3" xfId="158"/>
+    <cellStyle name="標準 3 2 2 4" xfId="377"/>
     <cellStyle name="標準 3 2 3" xfId="159"/>
     <cellStyle name="標準 3 2 3 2" xfId="161"/>
+    <cellStyle name="標準 3 2 3 3" xfId="379"/>
     <cellStyle name="標準 3 2 4" xfId="155"/>
     <cellStyle name="標準 3 2 5" xfId="157"/>
     <cellStyle name="標準 3 2 6" xfId="162"/>
+    <cellStyle name="標準 3 2 7" xfId="376"/>
     <cellStyle name="標準 3 3" xfId="163"/>
     <cellStyle name="標準 3 3 2" xfId="164"/>
     <cellStyle name="標準 3 3 2 2" xfId="149"/>
     <cellStyle name="標準 3 3 2 3" xfId="166"/>
     <cellStyle name="標準 3 3 2 4" xfId="168"/>
+    <cellStyle name="標準 3 3 2 5" xfId="381"/>
     <cellStyle name="標準 3 3 3" xfId="169"/>
     <cellStyle name="標準 3 3 4" xfId="160"/>
     <cellStyle name="標準 3 3 5" xfId="170"/>
+    <cellStyle name="標準 3 3 6" xfId="380"/>
     <cellStyle name="標準 3 4" xfId="171"/>
     <cellStyle name="標準 3 4 2" xfId="172"/>
+    <cellStyle name="標準 3 4 3" xfId="382"/>
     <cellStyle name="標準 3 5" xfId="173"/>
     <cellStyle name="標準 3 6" xfId="176"/>
     <cellStyle name="標準 3 7" xfId="178"/>
+    <cellStyle name="標準 3 8" xfId="375"/>
     <cellStyle name="標準 4" xfId="180"/>
     <cellStyle name="標準 4 2" xfId="181"/>
     <cellStyle name="標準 4 2 2" xfId="144"/>
     <cellStyle name="標準 4 2 2 2" xfId="39"/>
     <cellStyle name="標準 4 2 2 2 2" xfId="182"/>
+    <cellStyle name="標準 4 2 2 2 3" xfId="386"/>
     <cellStyle name="標準 4 2 2 3" xfId="6"/>
+    <cellStyle name="標準 4 2 2 4" xfId="385"/>
     <cellStyle name="標準 4 2 3" xfId="146"/>
     <cellStyle name="標準 4 2 3 2" xfId="183"/>
+    <cellStyle name="標準 4 2 3 3" xfId="387"/>
     <cellStyle name="標準 4 2 4" xfId="148"/>
     <cellStyle name="標準 4 2 5" xfId="165"/>
     <cellStyle name="標準 4 2 6" xfId="167"/>
+    <cellStyle name="標準 4 2 7" xfId="384"/>
     <cellStyle name="標準 4 3" xfId="184"/>
     <cellStyle name="標準 4 3 2" xfId="186"/>
     <cellStyle name="標準 4 3 2 2" xfId="188"/>
     <cellStyle name="標準 4 3 2 3" xfId="190"/>
     <cellStyle name="標準 4 3 2 4" xfId="192"/>
+    <cellStyle name="標準 4 3 2 5" xfId="389"/>
     <cellStyle name="標準 4 3 3" xfId="81"/>
     <cellStyle name="標準 4 3 4" xfId="151"/>
     <cellStyle name="標準 4 3 5" xfId="179"/>
+    <cellStyle name="標準 4 3 6" xfId="388"/>
     <cellStyle name="標準 4 4" xfId="193"/>
     <cellStyle name="標準 4 4 2" xfId="194"/>
+    <cellStyle name="標準 4 4 3" xfId="390"/>
     <cellStyle name="標準 4 5" xfId="195"/>
     <cellStyle name="標準 4 6" xfId="197"/>
     <cellStyle name="標準 4 7" xfId="9"/>
+    <cellStyle name="標準 4 8" xfId="383"/>
     <cellStyle name="標準 5" xfId="198"/>
     <cellStyle name="標準 5 2" xfId="36"/>
     <cellStyle name="標準 5 2 2" xfId="199"/>
     <cellStyle name="標準 5 2 2 2" xfId="201"/>
+    <cellStyle name="標準 5 2 2 3" xfId="393"/>
     <cellStyle name="標準 5 2 3" xfId="202"/>
+    <cellStyle name="標準 5 2 4" xfId="392"/>
     <cellStyle name="標準 5 3" xfId="38"/>
     <cellStyle name="標準 5 3 2" xfId="91"/>
+    <cellStyle name="標準 5 3 3" xfId="394"/>
     <cellStyle name="標準 5 4" xfId="4"/>
     <cellStyle name="標準 5 5" xfId="40"/>
     <cellStyle name="標準 5 6" xfId="33"/>
+    <cellStyle name="標準 5 7" xfId="391"/>
     <cellStyle name="標準_Sheet1" xfId="204"/>
     <cellStyle name="標準_sst107" xfId="175"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4974,24 +5555,36 @@
     <cellStyle name="常规 10 2" xfId="206"/>
     <cellStyle name="常规 10 2 2" xfId="207"/>
     <cellStyle name="常规 10 2 2 2" xfId="209"/>
+    <cellStyle name="常规 10 2 2 3" xfId="397"/>
     <cellStyle name="常规 10 2 3" xfId="210"/>
+    <cellStyle name="常规 10 2 4" xfId="396"/>
     <cellStyle name="常规 10 3" xfId="211"/>
     <cellStyle name="常规 10 3 2" xfId="213"/>
+    <cellStyle name="常规 10 3 3" xfId="398"/>
     <cellStyle name="常规 10 4" xfId="214"/>
+    <cellStyle name="常规 10 5" xfId="395"/>
     <cellStyle name="常规 11" xfId="215"/>
     <cellStyle name="常规 11 2" xfId="216"/>
     <cellStyle name="常规 11 2 2" xfId="128"/>
+    <cellStyle name="常规 11 2 2 2" xfId="401"/>
     <cellStyle name="常规 11 2 3" xfId="217"/>
+    <cellStyle name="常规 11 2 4" xfId="400"/>
     <cellStyle name="常规 11 3" xfId="218"/>
     <cellStyle name="常规 11 3 2" xfId="125"/>
+    <cellStyle name="常规 11 3 3" xfId="402"/>
     <cellStyle name="常规 11 4" xfId="200"/>
+    <cellStyle name="常规 11 5" xfId="399"/>
     <cellStyle name="常规 12" xfId="219"/>
     <cellStyle name="常规 12 2" xfId="220"/>
+    <cellStyle name="常规 12 2 2" xfId="404"/>
     <cellStyle name="常规 12 3" xfId="221"/>
+    <cellStyle name="常规 12 4" xfId="403"/>
     <cellStyle name="常规 13" xfId="222"/>
     <cellStyle name="常规 13 2" xfId="223"/>
+    <cellStyle name="常规 13 3" xfId="405"/>
     <cellStyle name="常规 14" xfId="224"/>
     <cellStyle name="常规 15" xfId="225"/>
+    <cellStyle name="常规 16" xfId="346"/>
     <cellStyle name="常规 2" xfId="227"/>
     <cellStyle name="常规 2 2" xfId="71"/>
     <cellStyle name="常规 2 3" xfId="73"/>
@@ -4999,70 +5592,95 @@
     <cellStyle name="常规 2 4 2" xfId="228"/>
     <cellStyle name="常规 2 4 2 2" xfId="229"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="230"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="408"/>
     <cellStyle name="常规 2 4 2 3" xfId="231"/>
+    <cellStyle name="常规 2 4 2 4" xfId="407"/>
     <cellStyle name="常规 2 4 3" xfId="232"/>
     <cellStyle name="常规 2 4 3 2" xfId="233"/>
+    <cellStyle name="常规 2 4 3 3" xfId="409"/>
     <cellStyle name="常规 2 4 4" xfId="234"/>
     <cellStyle name="常规 2 4 5" xfId="236"/>
+    <cellStyle name="常规 2 4 6" xfId="406"/>
     <cellStyle name="常规 3" xfId="238"/>
     <cellStyle name="常规 3 2" xfId="239"/>
     <cellStyle name="常规 3 2 2" xfId="240"/>
     <cellStyle name="常规 3 2 2 2" xfId="241"/>
     <cellStyle name="常规 3 2 2 2 2" xfId="242"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="413"/>
     <cellStyle name="常规 3 2 2 3" xfId="243"/>
+    <cellStyle name="常规 3 2 2 4" xfId="412"/>
     <cellStyle name="常规 3 2 3" xfId="96"/>
     <cellStyle name="常规 3 2 3 2" xfId="98"/>
+    <cellStyle name="常规 3 2 3 3" xfId="414"/>
     <cellStyle name="常规 3 2 4" xfId="102"/>
     <cellStyle name="常规 3 2 5" xfId="104"/>
     <cellStyle name="常规 3 2 6" xfId="30"/>
+    <cellStyle name="常规 3 2 7" xfId="411"/>
     <cellStyle name="常规 3 3" xfId="244"/>
     <cellStyle name="常规 3 3 2" xfId="245"/>
     <cellStyle name="常规 3 3 2 2" xfId="246"/>
     <cellStyle name="常规 3 3 2 3" xfId="208"/>
     <cellStyle name="常规 3 3 2 4" xfId="12"/>
+    <cellStyle name="常规 3 3 2 5" xfId="416"/>
     <cellStyle name="常规 3 3 3" xfId="107"/>
     <cellStyle name="常规 3 3 4" xfId="226"/>
     <cellStyle name="常规 3 3 5" xfId="237"/>
+    <cellStyle name="常规 3 3 6" xfId="415"/>
     <cellStyle name="常规 3 4" xfId="247"/>
     <cellStyle name="常规 3 4 2" xfId="250"/>
+    <cellStyle name="常规 3 4 3" xfId="417"/>
     <cellStyle name="常规 3 5" xfId="113"/>
     <cellStyle name="常规 3 6" xfId="44"/>
     <cellStyle name="常规 3 7" xfId="212"/>
+    <cellStyle name="常规 3 8" xfId="410"/>
     <cellStyle name="常规 4" xfId="251"/>
     <cellStyle name="常规 5" xfId="252"/>
     <cellStyle name="常规 5 2" xfId="19"/>
     <cellStyle name="常规 5 2 2" xfId="21"/>
     <cellStyle name="常规 5 2 2 2" xfId="253"/>
+    <cellStyle name="常规 5 2 2 3" xfId="420"/>
     <cellStyle name="常规 5 2 3" xfId="24"/>
+    <cellStyle name="常规 5 2 4" xfId="419"/>
     <cellStyle name="常规 5 3" xfId="132"/>
     <cellStyle name="常规 5 3 2" xfId="254"/>
+    <cellStyle name="常规 5 3 3" xfId="421"/>
     <cellStyle name="常规 5 4" xfId="134"/>
     <cellStyle name="常规 5 5" xfId="255"/>
     <cellStyle name="常规 5 6" xfId="256"/>
+    <cellStyle name="常规 5 7" xfId="418"/>
     <cellStyle name="常规 6" xfId="13"/>
     <cellStyle name="常规 6 2" xfId="174"/>
     <cellStyle name="常规 7" xfId="257"/>
     <cellStyle name="常规 7 2" xfId="196"/>
     <cellStyle name="常规 7 2 2" xfId="235"/>
     <cellStyle name="常规 7 2 2 2" xfId="258"/>
+    <cellStyle name="常规 7 2 2 3" xfId="424"/>
     <cellStyle name="常规 7 2 3" xfId="259"/>
+    <cellStyle name="常规 7 2 4" xfId="423"/>
     <cellStyle name="常规 7 3" xfId="8"/>
     <cellStyle name="常规 7 3 2" xfId="262"/>
+    <cellStyle name="常规 7 3 3" xfId="425"/>
     <cellStyle name="常规 7 4" xfId="264"/>
     <cellStyle name="常规 7 5" xfId="266"/>
     <cellStyle name="常规 7 6" xfId="268"/>
+    <cellStyle name="常规 7 7" xfId="422"/>
     <cellStyle name="常规 8" xfId="269"/>
     <cellStyle name="常规 8 2" xfId="32"/>
     <cellStyle name="常规 8 3" xfId="29"/>
     <cellStyle name="常规 8 4" xfId="203"/>
     <cellStyle name="常规 8 5" xfId="270"/>
+    <cellStyle name="常规 8 6" xfId="426"/>
     <cellStyle name="常规 9" xfId="138"/>
     <cellStyle name="常规 9 2" xfId="271"/>
     <cellStyle name="常规 9 2 2" xfId="273"/>
+    <cellStyle name="常规 9 2 2 2" xfId="429"/>
     <cellStyle name="常规 9 2 3" xfId="274"/>
+    <cellStyle name="常规 9 2 4" xfId="428"/>
     <cellStyle name="常规 9 3" xfId="275"/>
     <cellStyle name="常规 9 3 2" xfId="276"/>
+    <cellStyle name="常规 9 3 3" xfId="430"/>
     <cellStyle name="常规 9 4" xfId="277"/>
+    <cellStyle name="常规 9 5" xfId="427"/>
     <cellStyle name="超链接 2" xfId="47"/>
     <cellStyle name="超链接 2 2" xfId="278"/>
     <cellStyle name="超链接 2 2 2" xfId="279"/>
@@ -5070,6 +5688,7 @@
     <cellStyle name="超链接 2 2 3" xfId="282"/>
     <cellStyle name="超链接 2 2 4" xfId="283"/>
     <cellStyle name="超链接 2 2 5" xfId="284"/>
+    <cellStyle name="超链接 2 2 6" xfId="432"/>
     <cellStyle name="超链接 2 3" xfId="286"/>
     <cellStyle name="超链接 2 3 2" xfId="287"/>
     <cellStyle name="超链接 2 3 3" xfId="288"/>
@@ -5077,12 +5696,14 @@
     <cellStyle name="超链接 2 4" xfId="292"/>
     <cellStyle name="超链接 2 5" xfId="65"/>
     <cellStyle name="超链接 2 6" xfId="70"/>
+    <cellStyle name="超链接 2 7" xfId="431"/>
     <cellStyle name="超链接 3" xfId="68"/>
     <cellStyle name="超链接 3 2" xfId="293"/>
     <cellStyle name="超链接 3 2 2" xfId="294"/>
     <cellStyle name="超链接 3 3" xfId="295"/>
     <cellStyle name="超链接 3 4" xfId="296"/>
     <cellStyle name="超链接 3 5" xfId="76"/>
+    <cellStyle name="超链接 3 6" xfId="433"/>
     <cellStyle name="超链接 4" xfId="185"/>
     <cellStyle name="超链接 4 2" xfId="187"/>
     <cellStyle name="超链接 4 2 2" xfId="11"/>
@@ -5090,79 +5711,105 @@
     <cellStyle name="超链接 4 2 3" xfId="50"/>
     <cellStyle name="超链接 4 2 4" xfId="34"/>
     <cellStyle name="超链接 4 2 5" xfId="298"/>
+    <cellStyle name="超链接 4 2 6" xfId="435"/>
     <cellStyle name="超链接 4 3" xfId="189"/>
     <cellStyle name="超链接 4 3 2" xfId="60"/>
     <cellStyle name="超链接 4 4" xfId="191"/>
     <cellStyle name="超链接 4 5" xfId="299"/>
     <cellStyle name="超链接 4 6" xfId="300"/>
+    <cellStyle name="超链接 4 7" xfId="434"/>
     <cellStyle name="桁区切り 2" xfId="301"/>
     <cellStyle name="桁区切り 2 2" xfId="302"/>
     <cellStyle name="桁区切り 2 2 2" xfId="303"/>
     <cellStyle name="桁区切り 2 2 2 2" xfId="140"/>
     <cellStyle name="桁区切り 2 2 2 2 2" xfId="291"/>
+    <cellStyle name="桁区切り 2 2 2 2 3" xfId="439"/>
     <cellStyle name="桁区切り 2 2 2 3" xfId="304"/>
+    <cellStyle name="桁区切り 2 2 2 4" xfId="438"/>
     <cellStyle name="桁区切り 2 2 3" xfId="305"/>
     <cellStyle name="桁区切り 2 2 3 2" xfId="306"/>
+    <cellStyle name="桁区切り 2 2 3 3" xfId="440"/>
     <cellStyle name="桁区切り 2 2 4" xfId="26"/>
     <cellStyle name="桁区切り 2 2 5" xfId="307"/>
     <cellStyle name="桁区切り 2 2 6" xfId="308"/>
+    <cellStyle name="桁区切り 2 2 7" xfId="437"/>
     <cellStyle name="桁区切り 2 3" xfId="309"/>
     <cellStyle name="桁区切り 2 3 2" xfId="310"/>
     <cellStyle name="桁区切り 2 3 2 2" xfId="285"/>
     <cellStyle name="桁区切り 2 3 2 3" xfId="290"/>
     <cellStyle name="桁区切り 2 3 2 4" xfId="64"/>
+    <cellStyle name="桁区切り 2 3 2 5" xfId="442"/>
     <cellStyle name="桁区切り 2 3 3" xfId="311"/>
     <cellStyle name="桁区切り 2 3 4" xfId="312"/>
     <cellStyle name="桁区切り 2 3 5" xfId="313"/>
+    <cellStyle name="桁区切り 2 3 6" xfId="441"/>
     <cellStyle name="桁区切り 2 4" xfId="314"/>
     <cellStyle name="桁区切り 2 4 2" xfId="315"/>
+    <cellStyle name="桁区切り 2 4 3" xfId="443"/>
     <cellStyle name="桁区切り 2 5" xfId="316"/>
     <cellStyle name="桁区切り 2 6" xfId="317"/>
     <cellStyle name="桁区切り 2 7" xfId="318"/>
+    <cellStyle name="桁区切り 2 8" xfId="436"/>
     <cellStyle name="千位分隔 2" xfId="261"/>
     <cellStyle name="千位分隔 2 2" xfId="319"/>
     <cellStyle name="千位分隔 2 2 2" xfId="321"/>
     <cellStyle name="千位分隔 2 2 2 2" xfId="323"/>
+    <cellStyle name="千位分隔 2 2 2 3" xfId="446"/>
     <cellStyle name="千位分隔 2 2 3" xfId="249"/>
+    <cellStyle name="千位分隔 2 2 4" xfId="445"/>
     <cellStyle name="千位分隔 2 3" xfId="324"/>
     <cellStyle name="千位分隔 2 3 2" xfId="326"/>
+    <cellStyle name="千位分隔 2 3 3" xfId="447"/>
     <cellStyle name="千位分隔 2 4" xfId="320"/>
     <cellStyle name="千位分隔 2 5" xfId="248"/>
     <cellStyle name="千位分隔 2 6" xfId="5"/>
+    <cellStyle name="千位分隔 2 7" xfId="444"/>
     <cellStyle name="千位分隔 3" xfId="328"/>
     <cellStyle name="千位分隔 3 2" xfId="329"/>
     <cellStyle name="千位分隔 3 2 2" xfId="177"/>
     <cellStyle name="千位分隔 3 2 2 2" xfId="330"/>
     <cellStyle name="千位分隔 3 2 2 2 2" xfId="25"/>
+    <cellStyle name="千位分隔 3 2 2 2 3" xfId="451"/>
     <cellStyle name="千位分隔 3 2 2 3" xfId="331"/>
+    <cellStyle name="千位分隔 3 2 2 4" xfId="450"/>
     <cellStyle name="千位分隔 3 2 3" xfId="332"/>
     <cellStyle name="千位分隔 3 2 3 2" xfId="333"/>
+    <cellStyle name="千位分隔 3 2 3 3" xfId="452"/>
     <cellStyle name="千位分隔 3 2 4" xfId="18"/>
     <cellStyle name="千位分隔 3 2 5" xfId="334"/>
     <cellStyle name="千位分隔 3 2 6" xfId="272"/>
+    <cellStyle name="千位分隔 3 2 7" xfId="449"/>
     <cellStyle name="千位分隔 3 3" xfId="335"/>
     <cellStyle name="千位分隔 3 3 2" xfId="7"/>
     <cellStyle name="千位分隔 3 3 2 2" xfId="260"/>
     <cellStyle name="千位分隔 3 3 2 3" xfId="327"/>
     <cellStyle name="千位分隔 3 3 2 4" xfId="337"/>
+    <cellStyle name="千位分隔 3 3 2 5" xfId="454"/>
     <cellStyle name="千位分隔 3 3 3" xfId="263"/>
     <cellStyle name="千位分隔 3 3 4" xfId="265"/>
     <cellStyle name="千位分隔 3 3 5" xfId="267"/>
+    <cellStyle name="千位分隔 3 3 6" xfId="453"/>
     <cellStyle name="千位分隔 3 4" xfId="325"/>
     <cellStyle name="千位分隔 3 4 2" xfId="28"/>
+    <cellStyle name="千位分隔 3 4 3" xfId="455"/>
     <cellStyle name="千位分隔 3 5" xfId="115"/>
     <cellStyle name="千位分隔 3 6" xfId="338"/>
     <cellStyle name="千位分隔 3 7" xfId="339"/>
+    <cellStyle name="千位分隔 3 8" xfId="448"/>
     <cellStyle name="千位分隔 4" xfId="336"/>
     <cellStyle name="千位分隔 4 2" xfId="340"/>
     <cellStyle name="千位分隔 4 2 2" xfId="341"/>
     <cellStyle name="千位分隔 4 2 2 2" xfId="342"/>
+    <cellStyle name="千位分隔 4 2 2 3" xfId="458"/>
     <cellStyle name="千位分隔 4 2 3" xfId="343"/>
     <cellStyle name="千位分隔 4 2 4" xfId="344"/>
+    <cellStyle name="千位分隔 4 2 5" xfId="457"/>
     <cellStyle name="千位分隔 4 3" xfId="345"/>
     <cellStyle name="千位分隔 4 3 2" xfId="281"/>
+    <cellStyle name="千位分隔 4 3 3" xfId="459"/>
     <cellStyle name="千位分隔 4 4" xfId="322"/>
     <cellStyle name="千位分隔 4 5" xfId="15"/>
+    <cellStyle name="千位分隔 4 6" xfId="456"/>
   </cellStyles>
   <dxfs count="88">
     <dxf>
@@ -5799,11 +6446,6 @@
       <color rgb="FF3333FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -5838,8 +6480,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.519067868454432E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.5190678684544327E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -5908,11 +6550,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141016064"/>
-        <c:axId val="141021952"/>
+        <c:axId val="139438336"/>
+        <c:axId val="139440128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141016064"/>
+        <c:axId val="139438336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,14 +6588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141021952"/>
+        <c:crossAx val="139440128"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141021952"/>
+        <c:axId val="139440128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5987,7 +6629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141016064"/>
+        <c:crossAx val="139438336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6037,7 +6679,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6074,8 +6716,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.0232730603965505E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.0232730603965512E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6091,10 +6733,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383206"/>
+          <c:x val="0.11177666498383208"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689147"/>
+          <c:h val="0.6581402822268918"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6201,11 +6843,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141074816"/>
-        <c:axId val="141076352"/>
+        <c:axId val="140184960"/>
+        <c:axId val="140215424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141074816"/>
+        <c:axId val="140184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,14 +6881,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141076352"/>
+        <c:crossAx val="140215424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141076352"/>
+        <c:axId val="140215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6280,7 +6922,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141074816"/>
+        <c:crossAx val="140184960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6330,7 +6972,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6367,8 +7009,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3950625924845832"/>
-          <c:y val="3.1476997578692809E-2"/>
+          <c:x val="0.39506259248458331"/>
+          <c:y val="3.1476997578692816E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6386,8 +7028,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.2592778647397928E-2"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.77572172333487766"/>
-          <c:h val="0.65133171912833321"/>
+          <c:w val="0.77572172333487799"/>
+          <c:h val="0.65133171912833332"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6689,8 +7331,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141587584"/>
-        <c:axId val="141589120"/>
+        <c:axId val="142170752"/>
+        <c:axId val="142177024"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6789,11 +7431,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141619584"/>
-        <c:axId val="141621120"/>
+        <c:axId val="142178560"/>
+        <c:axId val="142184448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141587584"/>
+        <c:axId val="142170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,14 +7469,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141589120"/>
+        <c:crossAx val="142177024"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141589120"/>
+        <c:axId val="142177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6868,29 +7510,29 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141587584"/>
+        <c:crossAx val="142170752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141619584"/>
+        <c:axId val="142178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="141621120"/>
+        <c:crossAx val="142184448"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141621120"/>
+        <c:axId val="142184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000422"/>
+          <c:min val="0.75000000000000433"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -6922,7 +7564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141619584"/>
+        <c:crossAx val="142178560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -6945,10 +7587,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22633788060443105"/>
-          <c:y val="0.93462469733656839"/>
-          <c:w val="0.5041163064493478"/>
-          <c:h val="4.8426150121065104E-2"/>
+          <c:x val="0.22633788060443108"/>
+          <c:y val="0.93462469733656861"/>
+          <c:w val="0.50411630644934768"/>
+          <c:h val="4.8426150121065097E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7014,7 +7656,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7051,8 +7693,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.0232707900360208E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.0232707900360214E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7068,10 +7710,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383206"/>
+          <c:x val="0.11177666498383208"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689247"/>
+          <c:h val="0.6581402822268928"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7133,11 +7775,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141125504"/>
-        <c:axId val="141127040"/>
+        <c:axId val="142220672"/>
+        <c:axId val="142230656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141125504"/>
+        <c:axId val="142220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7171,14 +7813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141127040"/>
+        <c:crossAx val="142230656"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141127040"/>
+        <c:axId val="142230656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7212,7 +7854,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141125504"/>
+        <c:crossAx val="142220672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7262,7 +7904,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7299,8 +7941,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.519067868454432E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.5190678684544327E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7417,11 +8059,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141147136"/>
-        <c:axId val="142955264"/>
+        <c:axId val="142258560"/>
+        <c:axId val="142260096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141147136"/>
+        <c:axId val="142258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,14 +8097,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142955264"/>
+        <c:crossAx val="142260096"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142955264"/>
+        <c:axId val="142260096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7496,7 +8138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141147136"/>
+        <c:crossAx val="142258560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7546,7 +8188,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7583,8 +8225,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.519067868454432E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.5190678684544327E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7701,11 +8343,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="142975360"/>
-        <c:axId val="142976896"/>
+        <c:axId val="141055104"/>
+        <c:axId val="141056640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142975360"/>
+        <c:axId val="141055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7739,14 +8381,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142976896"/>
+        <c:crossAx val="141056640"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142976896"/>
+        <c:axId val="141056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7780,7 +8422,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142975360"/>
+        <c:crossAx val="141055104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7830,7 +8472,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7867,8 +8509,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674013"/>
-          <c:y val="3.0232707900360208E-2"/>
+          <c:x val="0.38523037913674024"/>
+          <c:y val="3.0232707900360214E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7884,10 +8526,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383206"/>
+          <c:x val="0.11177666498383208"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689247"/>
+          <c:h val="0.6581402822268928"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7949,11 +8591,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="144254464"/>
-        <c:axId val="144256000"/>
+        <c:axId val="141076352"/>
+        <c:axId val="141077888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144254464"/>
+        <c:axId val="141076352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7987,14 +8629,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144256000"/>
+        <c:crossAx val="141077888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144256000"/>
+        <c:axId val="141077888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8028,7 +8670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144254464"/>
+        <c:crossAx val="141076352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8078,7 +8720,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8828,10 +9470,10 @@
   <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -10610,18 +11252,32 @@
       <c r="AA34" s="179"/>
       <c r="AB34" s="183"/>
     </row>
-    <row r="35" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B35" s="90"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="114"/>
+    <row r="35" spans="2:28" ht="57.75" customHeight="1">
+      <c r="B35" s="90">
+        <v>33</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="114" t="s">
+        <v>27</v>
+      </c>
       <c r="E35" s="113"/>
-      <c r="F35" s="108"/>
+      <c r="F35" s="108" t="s">
+        <v>29</v>
+      </c>
       <c r="G35" s="101"/>
       <c r="H35" s="116"/>
       <c r="I35" s="144"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="115"/>
+      <c r="J35" s="129">
+        <v>43279</v>
+      </c>
+      <c r="K35" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="218" t="s">
+        <v>221</v>
+      </c>
       <c r="M35" s="147"/>
       <c r="N35" s="128"/>
       <c r="O35" s="128"/>
@@ -12486,7 +13142,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F84">
       <formula1>発生段階</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85 C35">
       <formula1>"DB,ソース,テストケース,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
@@ -12549,30 +13205,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="9" customHeight="1">
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="27" t="s">
         <v>129</v>
       </c>
@@ -12650,30 +13306,30 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="188"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1">
       <c r="B21" s="26" t="s">
@@ -12682,10 +13338,10 @@
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="27" t="s">
         <v>129</v>
       </c>
@@ -12867,30 +13523,30 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="214"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" s="26" t="s">
@@ -12899,10 +13555,10 @@
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="217"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="27" t="s">
         <v>129</v>
       </c>
@@ -13056,30 +13712,30 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B56" s="188" t="s">
+      <c r="B56" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
+      <c r="C56" s="214"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="214"/>
     </row>
     <row r="57" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="214"/>
+      <c r="E57" s="214"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B58" s="188"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="188"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="214"/>
+      <c r="D58" s="214"/>
+      <c r="E58" s="214"/>
     </row>
     <row r="59" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B59" s="188"/>
-      <c r="C59" s="188"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
+      <c r="B59" s="214"/>
+      <c r="C59" s="214"/>
+      <c r="D59" s="214"/>
+      <c r="E59" s="214"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" customHeight="1">
       <c r="B64" s="26" t="s">
@@ -13088,10 +13744,10 @@
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B65" s="209" t="s">
+      <c r="B65" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="210"/>
+      <c r="C65" s="188"/>
       <c r="D65" s="27" t="s">
         <v>129</v>
       </c>
@@ -13271,28 +13927,28 @@
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="188"/>
-      <c r="D80" s="188"/>
-      <c r="E80" s="188"/>
+      <c r="C80" s="214"/>
+      <c r="D80" s="214"/>
+      <c r="E80" s="214"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B81" s="188"/>
-      <c r="C81" s="188"/>
-      <c r="D81" s="188"/>
-      <c r="E81" s="188"/>
+      <c r="B81" s="214"/>
+      <c r="C81" s="214"/>
+      <c r="D81" s="214"/>
+      <c r="E81" s="214"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B82" s="188"/>
-      <c r="C82" s="188"/>
-      <c r="D82" s="188"/>
-      <c r="E82" s="188"/>
+      <c r="B82" s="214"/>
+      <c r="C82" s="214"/>
+      <c r="D82" s="214"/>
+      <c r="E82" s="214"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
     </row>
@@ -13311,10 +13967,10 @@
       <c r="C84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B85" s="209" t="s">
+      <c r="B85" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="210"/>
+      <c r="C85" s="188"/>
       <c r="D85" s="27" t="s">
         <v>129</v>
       </c>
@@ -13386,28 +14042,28 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B91" s="188" t="s">
+      <c r="B91" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="188"/>
-      <c r="D91" s="188"/>
-      <c r="E91" s="188"/>
+      <c r="C91" s="214"/>
+      <c r="D91" s="214"/>
+      <c r="E91" s="214"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B92" s="188"/>
-      <c r="C92" s="188"/>
-      <c r="D92" s="188"/>
-      <c r="E92" s="188"/>
+      <c r="B92" s="214"/>
+      <c r="C92" s="214"/>
+      <c r="D92" s="214"/>
+      <c r="E92" s="214"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B93" s="188"/>
-      <c r="C93" s="188"/>
-      <c r="D93" s="188"/>
-      <c r="E93" s="188"/>
+      <c r="B93" s="214"/>
+      <c r="C93" s="214"/>
+      <c r="D93" s="214"/>
+      <c r="E93" s="214"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
     </row>
@@ -13426,10 +14082,10 @@
       <c r="C95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B96" s="209" t="s">
+      <c r="B96" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="210"/>
+      <c r="C96" s="188"/>
       <c r="D96" s="27" t="s">
         <v>129</v>
       </c>
@@ -13487,28 +14143,28 @@
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B101" s="188" t="s">
+      <c r="B101" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="188"/>
-      <c r="D101" s="188"/>
-      <c r="E101" s="188"/>
+      <c r="C101" s="214"/>
+      <c r="D101" s="214"/>
+      <c r="E101" s="214"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B102" s="188"/>
-      <c r="C102" s="188"/>
-      <c r="D102" s="188"/>
-      <c r="E102" s="188"/>
+      <c r="B102" s="214"/>
+      <c r="C102" s="214"/>
+      <c r="D102" s="214"/>
+      <c r="E102" s="214"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B103" s="188"/>
-      <c r="C103" s="188"/>
-      <c r="D103" s="188"/>
-      <c r="E103" s="188"/>
+      <c r="B103" s="214"/>
+      <c r="C103" s="214"/>
+      <c r="D103" s="214"/>
+      <c r="E103" s="214"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
     </row>
@@ -13550,27 +14206,27 @@
       <c r="C106" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="211" t="s">
+      <c r="D106" s="189" t="s">
         <v>184</v>
       </c>
-      <c r="E106" s="212"/>
-      <c r="F106" s="213" t="s">
+      <c r="E106" s="190"/>
+      <c r="F106" s="191" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="214"/>
-      <c r="H106" s="215"/>
-      <c r="I106" s="213" t="s">
+      <c r="G106" s="192"/>
+      <c r="H106" s="193"/>
+      <c r="I106" s="191" t="s">
         <v>186</v>
       </c>
-      <c r="J106" s="214"/>
-      <c r="K106" s="214"/>
-      <c r="L106" s="215"/>
-      <c r="M106" s="213" t="s">
+      <c r="J106" s="192"/>
+      <c r="K106" s="192"/>
+      <c r="L106" s="193"/>
+      <c r="M106" s="191" t="s">
         <v>187</v>
       </c>
-      <c r="N106" s="214"/>
-      <c r="O106" s="214"/>
-      <c r="P106" s="215"/>
+      <c r="N106" s="192"/>
+      <c r="O106" s="192"/>
+      <c r="P106" s="193"/>
       <c r="Q106" s="63" t="s">
         <v>188</v>
       </c>
@@ -13591,27 +14247,27 @@
       <c r="C107" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="203" t="s">
+      <c r="D107" s="194" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="204"/>
-      <c r="F107" s="205" t="s">
+      <c r="E107" s="195"/>
+      <c r="F107" s="196" t="s">
         <v>193</v>
       </c>
-      <c r="G107" s="206"/>
-      <c r="H107" s="207"/>
-      <c r="I107" s="205" t="s">
+      <c r="G107" s="197"/>
+      <c r="H107" s="198"/>
+      <c r="I107" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="J107" s="206"/>
-      <c r="K107" s="206"/>
-      <c r="L107" s="207"/>
-      <c r="M107" s="208" t="s">
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="198"/>
+      <c r="M107" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="N107" s="208"/>
-      <c r="O107" s="208"/>
-      <c r="P107" s="208"/>
+      <c r="N107" s="199"/>
+      <c r="O107" s="199"/>
+      <c r="P107" s="199"/>
       <c r="Q107" s="71" t="s">
         <v>196</v>
       </c>
@@ -13628,19 +14284,19 @@
     <row r="108" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="197"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="199"/>
-      <c r="G108" s="200"/>
-      <c r="H108" s="201"/>
-      <c r="I108" s="199"/>
-      <c r="J108" s="200"/>
-      <c r="K108" s="200"/>
-      <c r="L108" s="201"/>
-      <c r="M108" s="202"/>
-      <c r="N108" s="202"/>
-      <c r="O108" s="202"/>
-      <c r="P108" s="202"/>
+      <c r="D108" s="200"/>
+      <c r="E108" s="201"/>
+      <c r="F108" s="202"/>
+      <c r="G108" s="203"/>
+      <c r="H108" s="204"/>
+      <c r="I108" s="202"/>
+      <c r="J108" s="203"/>
+      <c r="K108" s="203"/>
+      <c r="L108" s="204"/>
+      <c r="M108" s="205"/>
+      <c r="N108" s="205"/>
+      <c r="O108" s="205"/>
+      <c r="P108" s="205"/>
       <c r="Q108" s="73"/>
       <c r="R108" s="74"/>
       <c r="U108" s="70"/>
@@ -13653,19 +14309,19 @@
     <row r="109" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B109" s="58"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="197"/>
-      <c r="E109" s="198"/>
-      <c r="F109" s="199"/>
-      <c r="G109" s="200"/>
-      <c r="H109" s="201"/>
-      <c r="I109" s="199"/>
-      <c r="J109" s="200"/>
-      <c r="K109" s="200"/>
-      <c r="L109" s="201"/>
-      <c r="M109" s="202"/>
-      <c r="N109" s="202"/>
-      <c r="O109" s="202"/>
-      <c r="P109" s="202"/>
+      <c r="D109" s="200"/>
+      <c r="E109" s="201"/>
+      <c r="F109" s="202"/>
+      <c r="G109" s="203"/>
+      <c r="H109" s="204"/>
+      <c r="I109" s="202"/>
+      <c r="J109" s="203"/>
+      <c r="K109" s="203"/>
+      <c r="L109" s="204"/>
+      <c r="M109" s="205"/>
+      <c r="N109" s="205"/>
+      <c r="O109" s="205"/>
+      <c r="P109" s="205"/>
       <c r="Q109" s="73"/>
       <c r="R109" s="74"/>
       <c r="U109" s="70"/>
@@ -13678,19 +14334,19 @@
     <row r="110" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B110" s="58"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="197"/>
-      <c r="E110" s="198"/>
-      <c r="F110" s="199"/>
-      <c r="G110" s="200"/>
-      <c r="H110" s="201"/>
-      <c r="I110" s="199"/>
-      <c r="J110" s="200"/>
-      <c r="K110" s="200"/>
-      <c r="L110" s="201"/>
-      <c r="M110" s="202"/>
-      <c r="N110" s="202"/>
-      <c r="O110" s="202"/>
-      <c r="P110" s="202"/>
+      <c r="D110" s="200"/>
+      <c r="E110" s="201"/>
+      <c r="F110" s="202"/>
+      <c r="G110" s="203"/>
+      <c r="H110" s="204"/>
+      <c r="I110" s="202"/>
+      <c r="J110" s="203"/>
+      <c r="K110" s="203"/>
+      <c r="L110" s="204"/>
+      <c r="M110" s="205"/>
+      <c r="N110" s="205"/>
+      <c r="O110" s="205"/>
+      <c r="P110" s="205"/>
       <c r="Q110" s="73"/>
       <c r="R110" s="74"/>
       <c r="U110" s="70"/>
@@ -13703,19 +14359,19 @@
     <row r="111" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B111" s="58"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="197"/>
-      <c r="E111" s="198"/>
-      <c r="F111" s="199"/>
-      <c r="G111" s="200"/>
-      <c r="H111" s="201"/>
-      <c r="I111" s="199"/>
-      <c r="J111" s="200"/>
-      <c r="K111" s="200"/>
-      <c r="L111" s="201"/>
-      <c r="M111" s="202"/>
-      <c r="N111" s="202"/>
-      <c r="O111" s="202"/>
-      <c r="P111" s="202"/>
+      <c r="D111" s="200"/>
+      <c r="E111" s="201"/>
+      <c r="F111" s="202"/>
+      <c r="G111" s="203"/>
+      <c r="H111" s="204"/>
+      <c r="I111" s="202"/>
+      <c r="J111" s="203"/>
+      <c r="K111" s="203"/>
+      <c r="L111" s="204"/>
+      <c r="M111" s="205"/>
+      <c r="N111" s="205"/>
+      <c r="O111" s="205"/>
+      <c r="P111" s="205"/>
       <c r="Q111" s="73"/>
       <c r="R111" s="74"/>
       <c r="U111" s="70"/>
@@ -13728,19 +14384,19 @@
     <row r="112" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B112" s="58"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="197"/>
-      <c r="E112" s="198"/>
-      <c r="F112" s="199"/>
-      <c r="G112" s="200"/>
-      <c r="H112" s="201"/>
-      <c r="I112" s="199"/>
-      <c r="J112" s="200"/>
-      <c r="K112" s="200"/>
-      <c r="L112" s="201"/>
-      <c r="M112" s="202"/>
-      <c r="N112" s="202"/>
-      <c r="O112" s="202"/>
-      <c r="P112" s="202"/>
+      <c r="D112" s="200"/>
+      <c r="E112" s="201"/>
+      <c r="F112" s="202"/>
+      <c r="G112" s="203"/>
+      <c r="H112" s="204"/>
+      <c r="I112" s="202"/>
+      <c r="J112" s="203"/>
+      <c r="K112" s="203"/>
+      <c r="L112" s="204"/>
+      <c r="M112" s="205"/>
+      <c r="N112" s="205"/>
+      <c r="O112" s="205"/>
+      <c r="P112" s="205"/>
       <c r="Q112" s="73"/>
       <c r="R112" s="74"/>
       <c r="U112" s="70"/>
@@ -13753,19 +14409,19 @@
     <row r="113" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B113" s="58"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="197"/>
-      <c r="E113" s="198"/>
-      <c r="F113" s="199"/>
-      <c r="G113" s="200"/>
-      <c r="H113" s="201"/>
-      <c r="I113" s="199"/>
-      <c r="J113" s="200"/>
-      <c r="K113" s="200"/>
-      <c r="L113" s="201"/>
-      <c r="M113" s="202"/>
-      <c r="N113" s="202"/>
-      <c r="O113" s="202"/>
-      <c r="P113" s="202"/>
+      <c r="D113" s="200"/>
+      <c r="E113" s="201"/>
+      <c r="F113" s="202"/>
+      <c r="G113" s="203"/>
+      <c r="H113" s="204"/>
+      <c r="I113" s="202"/>
+      <c r="J113" s="203"/>
+      <c r="K113" s="203"/>
+      <c r="L113" s="204"/>
+      <c r="M113" s="205"/>
+      <c r="N113" s="205"/>
+      <c r="O113" s="205"/>
+      <c r="P113" s="205"/>
       <c r="Q113" s="73"/>
       <c r="R113" s="74"/>
       <c r="U113" s="70"/>
@@ -13778,19 +14434,19 @@
     <row r="114" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B114" s="58"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="197"/>
-      <c r="E114" s="198"/>
-      <c r="F114" s="199"/>
-      <c r="G114" s="200"/>
-      <c r="H114" s="201"/>
-      <c r="I114" s="199"/>
-      <c r="J114" s="200"/>
-      <c r="K114" s="200"/>
-      <c r="L114" s="201"/>
-      <c r="M114" s="202"/>
-      <c r="N114" s="202"/>
-      <c r="O114" s="202"/>
-      <c r="P114" s="202"/>
+      <c r="D114" s="200"/>
+      <c r="E114" s="201"/>
+      <c r="F114" s="202"/>
+      <c r="G114" s="203"/>
+      <c r="H114" s="204"/>
+      <c r="I114" s="202"/>
+      <c r="J114" s="203"/>
+      <c r="K114" s="203"/>
+      <c r="L114" s="204"/>
+      <c r="M114" s="205"/>
+      <c r="N114" s="205"/>
+      <c r="O114" s="205"/>
+      <c r="P114" s="205"/>
       <c r="Q114" s="73"/>
       <c r="R114" s="74"/>
       <c r="U114" s="70"/>
@@ -13803,19 +14459,19 @@
     <row r="115" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="197"/>
-      <c r="E115" s="198"/>
-      <c r="F115" s="199"/>
-      <c r="G115" s="200"/>
-      <c r="H115" s="201"/>
-      <c r="I115" s="199"/>
-      <c r="J115" s="200"/>
-      <c r="K115" s="200"/>
-      <c r="L115" s="201"/>
-      <c r="M115" s="202"/>
-      <c r="N115" s="202"/>
-      <c r="O115" s="202"/>
-      <c r="P115" s="202"/>
+      <c r="D115" s="200"/>
+      <c r="E115" s="201"/>
+      <c r="F115" s="202"/>
+      <c r="G115" s="203"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="202"/>
+      <c r="J115" s="203"/>
+      <c r="K115" s="203"/>
+      <c r="L115" s="204"/>
+      <c r="M115" s="205"/>
+      <c r="N115" s="205"/>
+      <c r="O115" s="205"/>
+      <c r="P115" s="205"/>
       <c r="Q115" s="73"/>
       <c r="R115" s="74"/>
       <c r="U115" s="70"/>
@@ -13828,19 +14484,19 @@
     <row r="116" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B116" s="58"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="197"/>
-      <c r="E116" s="198"/>
-      <c r="F116" s="199"/>
-      <c r="G116" s="200"/>
-      <c r="H116" s="201"/>
-      <c r="I116" s="199"/>
-      <c r="J116" s="200"/>
-      <c r="K116" s="200"/>
-      <c r="L116" s="201"/>
-      <c r="M116" s="202"/>
-      <c r="N116" s="202"/>
-      <c r="O116" s="202"/>
-      <c r="P116" s="202"/>
+      <c r="D116" s="200"/>
+      <c r="E116" s="201"/>
+      <c r="F116" s="202"/>
+      <c r="G116" s="203"/>
+      <c r="H116" s="204"/>
+      <c r="I116" s="202"/>
+      <c r="J116" s="203"/>
+      <c r="K116" s="203"/>
+      <c r="L116" s="204"/>
+      <c r="M116" s="205"/>
+      <c r="N116" s="205"/>
+      <c r="O116" s="205"/>
+      <c r="P116" s="205"/>
       <c r="Q116" s="73"/>
       <c r="R116" s="74"/>
       <c r="U116" s="70"/>
@@ -13867,32 +14523,32 @@
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B119" s="189" t="s">
+      <c r="B119" s="215" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="189" t="s">
+      <c r="C119" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="189" t="s">
+      <c r="D119" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="189" t="s">
+      <c r="E119" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F119" s="191" t="s">
+      <c r="F119" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="G119" s="185" t="s">
+      <c r="G119" s="211" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B120" s="190"/>
-      <c r="C120" s="190"/>
-      <c r="D120" s="190"/>
-      <c r="E120" s="190"/>
-      <c r="F120" s="191"/>
-      <c r="G120" s="186"/>
+      <c r="B120" s="216"/>
+      <c r="C120" s="216"/>
+      <c r="D120" s="216"/>
+      <c r="E120" s="216"/>
+      <c r="F120" s="217"/>
+      <c r="G120" s="212"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1">
       <c r="B121" s="64">
@@ -14308,19 +14964,19 @@
       <c r="L137" s="88"/>
     </row>
     <row r="138" spans="2:13" s="24" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B138" s="194" t="s">
+      <c r="B138" s="206" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="194"/>
-      <c r="D138" s="194"/>
-      <c r="E138" s="194"/>
-      <c r="F138" s="194"/>
-      <c r="G138" s="194"/>
-      <c r="H138" s="194"/>
-      <c r="I138" s="194"/>
-      <c r="J138" s="194"/>
-      <c r="K138" s="194"/>
-      <c r="L138" s="194"/>
+      <c r="C138" s="206"/>
+      <c r="D138" s="206"/>
+      <c r="E138" s="206"/>
+      <c r="F138" s="206"/>
+      <c r="G138" s="206"/>
+      <c r="H138" s="206"/>
+      <c r="I138" s="206"/>
+      <c r="J138" s="206"/>
+      <c r="K138" s="206"/>
+      <c r="L138" s="206"/>
     </row>
     <row r="139" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="82"/>
@@ -14357,20 +15013,20 @@
       <c r="C141" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D141" s="195" t="s">
+      <c r="D141" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="E141" s="195"/>
-      <c r="F141" s="195"/>
-      <c r="G141" s="195"/>
-      <c r="H141" s="196" t="s">
+      <c r="E141" s="207"/>
+      <c r="F141" s="207"/>
+      <c r="G141" s="207"/>
+      <c r="H141" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="196"/>
-      <c r="J141" s="196"/>
-      <c r="K141" s="196"/>
-      <c r="L141" s="196"/>
-      <c r="M141" s="196"/>
+      <c r="I141" s="208"/>
+      <c r="J141" s="208"/>
+      <c r="K141" s="208"/>
+      <c r="L141" s="208"/>
+      <c r="M141" s="208"/>
     </row>
     <row r="142" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B142" s="85">
@@ -14379,119 +15035,61 @@
       <c r="C142" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D142" s="192"/>
-      <c r="E142" s="192"/>
-      <c r="F142" s="192"/>
-      <c r="G142" s="192"/>
-      <c r="H142" s="193"/>
-      <c r="I142" s="193"/>
-      <c r="J142" s="193"/>
-      <c r="K142" s="193"/>
-      <c r="L142" s="193"/>
-      <c r="M142" s="193"/>
+      <c r="D142" s="209"/>
+      <c r="E142" s="209"/>
+      <c r="F142" s="209"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="210"/>
+      <c r="I142" s="210"/>
+      <c r="J142" s="210"/>
+      <c r="K142" s="210"/>
+      <c r="L142" s="210"/>
+      <c r="M142" s="210"/>
     </row>
     <row r="143" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="192"/>
-      <c r="G143" s="192"/>
-      <c r="H143" s="193"/>
-      <c r="I143" s="193"/>
-      <c r="J143" s="193"/>
-      <c r="K143" s="193"/>
-      <c r="L143" s="193"/>
-      <c r="M143" s="193"/>
+      <c r="D143" s="209"/>
+      <c r="E143" s="209"/>
+      <c r="F143" s="209"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="210"/>
+      <c r="I143" s="210"/>
+      <c r="J143" s="210"/>
+      <c r="K143" s="210"/>
+      <c r="L143" s="210"/>
+      <c r="M143" s="210"/>
     </row>
     <row r="144" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B144" s="85"/>
       <c r="C144" s="86"/>
-      <c r="D144" s="192"/>
-      <c r="E144" s="192"/>
-      <c r="F144" s="192"/>
-      <c r="G144" s="192"/>
-      <c r="H144" s="193"/>
-      <c r="I144" s="193"/>
-      <c r="J144" s="193"/>
-      <c r="K144" s="193"/>
-      <c r="L144" s="193"/>
-      <c r="M144" s="193"/>
+      <c r="D144" s="209"/>
+      <c r="E144" s="209"/>
+      <c r="F144" s="209"/>
+      <c r="G144" s="209"/>
+      <c r="H144" s="210"/>
+      <c r="I144" s="210"/>
+      <c r="J144" s="210"/>
+      <c r="K144" s="210"/>
+      <c r="L144" s="210"/>
+      <c r="M144" s="210"/>
     </row>
     <row r="145" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B145" s="85"/>
       <c r="C145" s="86"/>
-      <c r="D145" s="192"/>
-      <c r="E145" s="192"/>
-      <c r="F145" s="192"/>
-      <c r="G145" s="192"/>
-      <c r="H145" s="193"/>
-      <c r="I145" s="193"/>
-      <c r="J145" s="193"/>
-      <c r="K145" s="193"/>
-      <c r="L145" s="193"/>
-      <c r="M145" s="193"/>
+      <c r="D145" s="209"/>
+      <c r="E145" s="209"/>
+      <c r="F145" s="209"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="210"/>
+      <c r="I145" s="210"/>
+      <c r="J145" s="210"/>
+      <c r="K145" s="210"/>
+      <c r="L145" s="210"/>
+      <c r="M145" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="H141:M141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="H142:M142"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="H143:M143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:M144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="H145:M145"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="B80:E82"/>
@@ -14508,6 +15106,64 @@
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="F115:H115"/>
     <mergeCell ref="I115:L115"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:M143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:M144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:M145"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:M141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:M142"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98263888888888895" bottom="0.98263888888888895" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="224">
   <si>
     <t>通番</t>
   </si>
@@ -3141,6 +3141,102 @@
         <charset val="134"/>
       </rPr>
       <t>工作，IN_DB中表ap_waiting_contact未作修改。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>更新代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码后未执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>DDL文件</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表ap_subscription必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>有数据，否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>不能正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>示。</t>
     </r>
   </si>
 </sst>
@@ -3160,7 +3256,7 @@
     <numFmt numFmtId="182" formatCode="0.0_ "/>
     <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3511,12 +3607,6 @@
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4501,20 +4591,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
@@ -4534,17 +4624,17 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4561,30 +4651,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
@@ -4596,43 +4686,43 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4649,36 +4739,36 @@
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5246,107 +5336,107 @@
     <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="25" xfId="346" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="25" xfId="346" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="460">
@@ -6480,8 +6570,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.5190678684544327E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.5190678684544341E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6550,11 +6640,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="139438336"/>
-        <c:axId val="139440128"/>
+        <c:axId val="97052928"/>
+        <c:axId val="97054720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139438336"/>
+        <c:axId val="97052928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,14 +6678,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139440128"/>
+        <c:crossAx val="97054720"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139440128"/>
+        <c:axId val="97054720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6629,7 +6719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139438336"/>
+        <c:crossAx val="97052928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6679,7 +6769,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6716,8 +6806,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.0232730603965512E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.0232730603965516E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6733,10 +6823,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383208"/>
+          <c:x val="0.11177666498383211"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.6581402822268918"/>
+          <c:h val="0.65814028222689203"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6843,11 +6933,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140184960"/>
-        <c:axId val="140215424"/>
+        <c:axId val="132521344"/>
+        <c:axId val="132547712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140184960"/>
+        <c:axId val="132521344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6881,14 +6971,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140215424"/>
+        <c:crossAx val="132547712"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140215424"/>
+        <c:axId val="132547712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,7 +7012,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140184960"/>
+        <c:crossAx val="132521344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6972,7 +7062,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7009,8 +7099,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39506259248458331"/>
-          <c:y val="3.1476997578692816E-2"/>
+          <c:x val="0.39506259248458336"/>
+          <c:y val="3.1476997578692822E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7028,8 +7118,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.2592778647397928E-2"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.77572172333487799"/>
-          <c:h val="0.65133171912833332"/>
+          <c:w val="0.77572172333487832"/>
+          <c:h val="0.65133171912833343"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7331,8 +7421,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142170752"/>
-        <c:axId val="142177024"/>
+        <c:axId val="134048384"/>
+        <c:axId val="134062848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7431,11 +7521,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142178560"/>
-        <c:axId val="142184448"/>
+        <c:axId val="134064384"/>
+        <c:axId val="134078464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142170752"/>
+        <c:axId val="134048384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7469,14 +7559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142177024"/>
+        <c:crossAx val="134062848"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142177024"/>
+        <c:axId val="134062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,29 +7600,29 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142170752"/>
+        <c:crossAx val="134048384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="142178560"/>
+        <c:axId val="134064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="142184448"/>
+        <c:crossAx val="134078464"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142184448"/>
+        <c:axId val="134078464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000433"/>
+          <c:min val="0.75000000000000444"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -7564,7 +7654,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142178560"/>
+        <c:crossAx val="134064384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -7587,9 +7677,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22633788060443108"/>
-          <c:y val="0.93462469733656861"/>
-          <c:w val="0.50411630644934768"/>
+          <c:x val="0.22633788060443111"/>
+          <c:y val="0.93462469733656872"/>
+          <c:w val="0.50411630644934757"/>
           <c:h val="4.8426150121065097E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -7656,7 +7746,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7693,8 +7783,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.0232707900360214E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.0232707900360218E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7710,10 +7800,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383208"/>
+          <c:x val="0.11177666498383211"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.6581402822268928"/>
+          <c:h val="0.65814028222689303"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7775,11 +7865,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="142220672"/>
-        <c:axId val="142230656"/>
+        <c:axId val="133578112"/>
+        <c:axId val="133588096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142220672"/>
+        <c:axId val="133578112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,14 +7903,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142230656"/>
+        <c:crossAx val="133588096"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142230656"/>
+        <c:axId val="133588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7854,7 +7944,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142220672"/>
+        <c:crossAx val="133578112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7904,7 +7994,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7941,8 +8031,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.5190678684544327E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.5190678684544341E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8059,11 +8149,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="142258560"/>
-        <c:axId val="142260096"/>
+        <c:axId val="133607808"/>
+        <c:axId val="133609344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142258560"/>
+        <c:axId val="133607808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8097,14 +8187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142260096"/>
+        <c:crossAx val="133609344"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142260096"/>
+        <c:axId val="133609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8138,7 +8228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142258560"/>
+        <c:crossAx val="133607808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8188,7 +8278,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8225,8 +8315,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.5190678684544327E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.5190678684544341E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8343,11 +8433,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141055104"/>
-        <c:axId val="141056640"/>
+        <c:axId val="134501504"/>
+        <c:axId val="134503040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141055104"/>
+        <c:axId val="134501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,14 +8471,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141056640"/>
+        <c:crossAx val="134503040"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141056640"/>
+        <c:axId val="134503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8422,7 +8512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141055104"/>
+        <c:crossAx val="134501504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8472,7 +8562,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8509,8 +8599,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674024"/>
-          <c:y val="3.0232707900360214E-2"/>
+          <c:x val="0.38523037913674035"/>
+          <c:y val="3.0232707900360218E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8526,10 +8616,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383208"/>
+          <c:x val="0.11177666498383211"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.6581402822268928"/>
+          <c:h val="0.65814028222689303"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8591,11 +8681,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141076352"/>
-        <c:axId val="141077888"/>
+        <c:axId val="134526848"/>
+        <c:axId val="134528384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141076352"/>
+        <c:axId val="134526848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8629,14 +8719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141077888"/>
+        <c:crossAx val="134528384"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141077888"/>
+        <c:axId val="134528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8670,7 +8760,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141076352"/>
+        <c:crossAx val="134526848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8720,7 +8810,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9473,7 +9563,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -11260,7 +11350,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="114" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E35" s="113"/>
       <c r="F35" s="108" t="s">
@@ -11275,10 +11365,12 @@
       <c r="K35" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="218" t="s">
+      <c r="L35" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="M35" s="147"/>
+      <c r="M35" s="147" t="s">
+        <v>222</v>
+      </c>
       <c r="N35" s="128"/>
       <c r="O35" s="128"/>
       <c r="P35" s="148"/>
@@ -11296,17 +11388,31 @@
       <c r="AB35" s="183"/>
     </row>
     <row r="36" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="90">
+        <v>34</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="114" t="s">
+        <v>27</v>
+      </c>
       <c r="E36" s="113"/>
-      <c r="F36" s="108"/>
+      <c r="F36" s="108" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" s="101"/>
       <c r="H36" s="116"/>
       <c r="I36" s="144"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="115"/>
+      <c r="J36" s="129">
+        <v>43280</v>
+      </c>
+      <c r="K36" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="115" t="s">
+        <v>223</v>
+      </c>
       <c r="M36" s="147"/>
       <c r="N36" s="128"/>
       <c r="O36" s="128"/>
@@ -13142,7 +13248,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F84">
       <formula1>発生段階</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85 C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85 C35:C36">
       <formula1>"DB,ソース,テストケース,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
@@ -13205,30 +13311,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="9" customHeight="1">
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="27" t="s">
         <v>129</v>
       </c>
@@ -13306,30 +13412,30 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="214"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1">
       <c r="B21" s="26" t="s">
@@ -13338,10 +13444,10 @@
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="186"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="27" t="s">
         <v>129</v>
       </c>
@@ -13523,30 +13629,30 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B37" s="214"/>
-      <c r="C37" s="214"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B38" s="214"/>
-      <c r="C38" s="214"/>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B39" s="214"/>
-      <c r="C39" s="214"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" s="26" t="s">
@@ -13555,10 +13661,10 @@
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
-      <c r="B44" s="185" t="s">
+      <c r="B44" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="186"/>
+      <c r="C44" s="218"/>
       <c r="D44" s="27" t="s">
         <v>129</v>
       </c>
@@ -13712,30 +13818,30 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B56" s="214" t="s">
+      <c r="B56" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="214"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="214"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
     </row>
     <row r="57" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B57" s="214"/>
-      <c r="C57" s="214"/>
-      <c r="D57" s="214"/>
-      <c r="E57" s="214"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B58" s="214"/>
-      <c r="C58" s="214"/>
-      <c r="D58" s="214"/>
-      <c r="E58" s="214"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="189"/>
     </row>
     <row r="59" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B59" s="214"/>
-      <c r="C59" s="214"/>
-      <c r="D59" s="214"/>
-      <c r="E59" s="214"/>
+      <c r="B59" s="189"/>
+      <c r="C59" s="189"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="189"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" customHeight="1">
       <c r="B64" s="26" t="s">
@@ -13744,10 +13850,10 @@
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B65" s="187" t="s">
+      <c r="B65" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="188"/>
+      <c r="C65" s="211"/>
       <c r="D65" s="27" t="s">
         <v>129</v>
       </c>
@@ -13927,28 +14033,28 @@
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B80" s="214" t="s">
+      <c r="B80" s="189" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="214"/>
-      <c r="D80" s="214"/>
-      <c r="E80" s="214"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="189"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B81" s="214"/>
-      <c r="C81" s="214"/>
-      <c r="D81" s="214"/>
-      <c r="E81" s="214"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="189"/>
+      <c r="D81" s="189"/>
+      <c r="E81" s="189"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B82" s="214"/>
-      <c r="C82" s="214"/>
-      <c r="D82" s="214"/>
-      <c r="E82" s="214"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="189"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="189"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
     </row>
@@ -13967,10 +14073,10 @@
       <c r="C84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B85" s="187" t="s">
+      <c r="B85" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="188"/>
+      <c r="C85" s="211"/>
       <c r="D85" s="27" t="s">
         <v>129</v>
       </c>
@@ -14042,28 +14148,28 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B91" s="214" t="s">
+      <c r="B91" s="189" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="214"/>
-      <c r="D91" s="214"/>
-      <c r="E91" s="214"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="189"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B92" s="214"/>
-      <c r="C92" s="214"/>
-      <c r="D92" s="214"/>
-      <c r="E92" s="214"/>
+      <c r="B92" s="189"/>
+      <c r="C92" s="189"/>
+      <c r="D92" s="189"/>
+      <c r="E92" s="189"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B93" s="214"/>
-      <c r="C93" s="214"/>
-      <c r="D93" s="214"/>
-      <c r="E93" s="214"/>
+      <c r="B93" s="189"/>
+      <c r="C93" s="189"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
     </row>
@@ -14082,10 +14188,10 @@
       <c r="C95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B96" s="187" t="s">
+      <c r="B96" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="188"/>
+      <c r="C96" s="211"/>
       <c r="D96" s="27" t="s">
         <v>129</v>
       </c>
@@ -14143,28 +14249,28 @@
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B101" s="214" t="s">
+      <c r="B101" s="189" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="214"/>
-      <c r="D101" s="214"/>
-      <c r="E101" s="214"/>
+      <c r="C101" s="189"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="189"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B102" s="214"/>
-      <c r="C102" s="214"/>
-      <c r="D102" s="214"/>
-      <c r="E102" s="214"/>
+      <c r="B102" s="189"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="189"/>
+      <c r="E102" s="189"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B103" s="214"/>
-      <c r="C103" s="214"/>
-      <c r="D103" s="214"/>
-      <c r="E103" s="214"/>
+      <c r="B103" s="189"/>
+      <c r="C103" s="189"/>
+      <c r="D103" s="189"/>
+      <c r="E103" s="189"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
     </row>
@@ -14206,27 +14312,27 @@
       <c r="C106" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="189" t="s">
+      <c r="D106" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="E106" s="190"/>
-      <c r="F106" s="191" t="s">
+      <c r="E106" s="213"/>
+      <c r="F106" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="192"/>
-      <c r="H106" s="193"/>
-      <c r="I106" s="191" t="s">
+      <c r="G106" s="215"/>
+      <c r="H106" s="216"/>
+      <c r="I106" s="214" t="s">
         <v>186</v>
       </c>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
-      <c r="L106" s="193"/>
-      <c r="M106" s="191" t="s">
+      <c r="J106" s="215"/>
+      <c r="K106" s="215"/>
+      <c r="L106" s="216"/>
+      <c r="M106" s="214" t="s">
         <v>187</v>
       </c>
-      <c r="N106" s="192"/>
-      <c r="O106" s="192"/>
-      <c r="P106" s="193"/>
+      <c r="N106" s="215"/>
+      <c r="O106" s="215"/>
+      <c r="P106" s="216"/>
       <c r="Q106" s="63" t="s">
         <v>188</v>
       </c>
@@ -14247,27 +14353,27 @@
       <c r="C107" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="194" t="s">
+      <c r="D107" s="204" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="195"/>
-      <c r="F107" s="196" t="s">
+      <c r="E107" s="205"/>
+      <c r="F107" s="206" t="s">
         <v>193</v>
       </c>
-      <c r="G107" s="197"/>
-      <c r="H107" s="198"/>
-      <c r="I107" s="196" t="s">
+      <c r="G107" s="207"/>
+      <c r="H107" s="208"/>
+      <c r="I107" s="206" t="s">
         <v>194</v>
       </c>
-      <c r="J107" s="197"/>
-      <c r="K107" s="197"/>
-      <c r="L107" s="198"/>
-      <c r="M107" s="199" t="s">
+      <c r="J107" s="207"/>
+      <c r="K107" s="207"/>
+      <c r="L107" s="208"/>
+      <c r="M107" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="N107" s="199"/>
-      <c r="O107" s="199"/>
-      <c r="P107" s="199"/>
+      <c r="N107" s="209"/>
+      <c r="O107" s="209"/>
+      <c r="P107" s="209"/>
       <c r="Q107" s="71" t="s">
         <v>196</v>
       </c>
@@ -14284,19 +14390,19 @@
     <row r="108" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="200"/>
-      <c r="E108" s="201"/>
-      <c r="F108" s="202"/>
-      <c r="G108" s="203"/>
-      <c r="H108" s="204"/>
-      <c r="I108" s="202"/>
-      <c r="J108" s="203"/>
-      <c r="K108" s="203"/>
-      <c r="L108" s="204"/>
-      <c r="M108" s="205"/>
-      <c r="N108" s="205"/>
-      <c r="O108" s="205"/>
-      <c r="P108" s="205"/>
+      <c r="D108" s="193"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="195"/>
+      <c r="G108" s="196"/>
+      <c r="H108" s="197"/>
+      <c r="I108" s="195"/>
+      <c r="J108" s="196"/>
+      <c r="K108" s="196"/>
+      <c r="L108" s="197"/>
+      <c r="M108" s="203"/>
+      <c r="N108" s="203"/>
+      <c r="O108" s="203"/>
+      <c r="P108" s="203"/>
       <c r="Q108" s="73"/>
       <c r="R108" s="74"/>
       <c r="U108" s="70"/>
@@ -14309,19 +14415,19 @@
     <row r="109" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B109" s="58"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="200"/>
-      <c r="E109" s="201"/>
-      <c r="F109" s="202"/>
-      <c r="G109" s="203"/>
-      <c r="H109" s="204"/>
-      <c r="I109" s="202"/>
-      <c r="J109" s="203"/>
-      <c r="K109" s="203"/>
-      <c r="L109" s="204"/>
-      <c r="M109" s="205"/>
-      <c r="N109" s="205"/>
-      <c r="O109" s="205"/>
-      <c r="P109" s="205"/>
+      <c r="D109" s="193"/>
+      <c r="E109" s="194"/>
+      <c r="F109" s="195"/>
+      <c r="G109" s="196"/>
+      <c r="H109" s="197"/>
+      <c r="I109" s="195"/>
+      <c r="J109" s="196"/>
+      <c r="K109" s="196"/>
+      <c r="L109" s="197"/>
+      <c r="M109" s="203"/>
+      <c r="N109" s="203"/>
+      <c r="O109" s="203"/>
+      <c r="P109" s="203"/>
       <c r="Q109" s="73"/>
       <c r="R109" s="74"/>
       <c r="U109" s="70"/>
@@ -14334,19 +14440,19 @@
     <row r="110" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B110" s="58"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="200"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="202"/>
-      <c r="G110" s="203"/>
-      <c r="H110" s="204"/>
-      <c r="I110" s="202"/>
-      <c r="J110" s="203"/>
-      <c r="K110" s="203"/>
-      <c r="L110" s="204"/>
-      <c r="M110" s="205"/>
-      <c r="N110" s="205"/>
-      <c r="O110" s="205"/>
-      <c r="P110" s="205"/>
+      <c r="D110" s="193"/>
+      <c r="E110" s="194"/>
+      <c r="F110" s="195"/>
+      <c r="G110" s="196"/>
+      <c r="H110" s="197"/>
+      <c r="I110" s="195"/>
+      <c r="J110" s="196"/>
+      <c r="K110" s="196"/>
+      <c r="L110" s="197"/>
+      <c r="M110" s="203"/>
+      <c r="N110" s="203"/>
+      <c r="O110" s="203"/>
+      <c r="P110" s="203"/>
       <c r="Q110" s="73"/>
       <c r="R110" s="74"/>
       <c r="U110" s="70"/>
@@ -14359,19 +14465,19 @@
     <row r="111" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B111" s="58"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="200"/>
-      <c r="E111" s="201"/>
-      <c r="F111" s="202"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="204"/>
-      <c r="I111" s="202"/>
-      <c r="J111" s="203"/>
-      <c r="K111" s="203"/>
-      <c r="L111" s="204"/>
-      <c r="M111" s="205"/>
-      <c r="N111" s="205"/>
-      <c r="O111" s="205"/>
-      <c r="P111" s="205"/>
+      <c r="D111" s="193"/>
+      <c r="E111" s="194"/>
+      <c r="F111" s="195"/>
+      <c r="G111" s="196"/>
+      <c r="H111" s="197"/>
+      <c r="I111" s="195"/>
+      <c r="J111" s="196"/>
+      <c r="K111" s="196"/>
+      <c r="L111" s="197"/>
+      <c r="M111" s="203"/>
+      <c r="N111" s="203"/>
+      <c r="O111" s="203"/>
+      <c r="P111" s="203"/>
       <c r="Q111" s="73"/>
       <c r="R111" s="74"/>
       <c r="U111" s="70"/>
@@ -14384,19 +14490,19 @@
     <row r="112" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B112" s="58"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
-      <c r="G112" s="203"/>
-      <c r="H112" s="204"/>
-      <c r="I112" s="202"/>
-      <c r="J112" s="203"/>
-      <c r="K112" s="203"/>
-      <c r="L112" s="204"/>
-      <c r="M112" s="205"/>
-      <c r="N112" s="205"/>
-      <c r="O112" s="205"/>
-      <c r="P112" s="205"/>
+      <c r="D112" s="193"/>
+      <c r="E112" s="194"/>
+      <c r="F112" s="195"/>
+      <c r="G112" s="196"/>
+      <c r="H112" s="197"/>
+      <c r="I112" s="195"/>
+      <c r="J112" s="196"/>
+      <c r="K112" s="196"/>
+      <c r="L112" s="197"/>
+      <c r="M112" s="203"/>
+      <c r="N112" s="203"/>
+      <c r="O112" s="203"/>
+      <c r="P112" s="203"/>
       <c r="Q112" s="73"/>
       <c r="R112" s="74"/>
       <c r="U112" s="70"/>
@@ -14409,19 +14515,19 @@
     <row r="113" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B113" s="58"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="200"/>
-      <c r="E113" s="201"/>
-      <c r="F113" s="202"/>
-      <c r="G113" s="203"/>
-      <c r="H113" s="204"/>
-      <c r="I113" s="202"/>
-      <c r="J113" s="203"/>
-      <c r="K113" s="203"/>
-      <c r="L113" s="204"/>
-      <c r="M113" s="205"/>
-      <c r="N113" s="205"/>
-      <c r="O113" s="205"/>
-      <c r="P113" s="205"/>
+      <c r="D113" s="193"/>
+      <c r="E113" s="194"/>
+      <c r="F113" s="195"/>
+      <c r="G113" s="196"/>
+      <c r="H113" s="197"/>
+      <c r="I113" s="195"/>
+      <c r="J113" s="196"/>
+      <c r="K113" s="196"/>
+      <c r="L113" s="197"/>
+      <c r="M113" s="203"/>
+      <c r="N113" s="203"/>
+      <c r="O113" s="203"/>
+      <c r="P113" s="203"/>
       <c r="Q113" s="73"/>
       <c r="R113" s="74"/>
       <c r="U113" s="70"/>
@@ -14434,19 +14540,19 @@
     <row r="114" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B114" s="58"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="200"/>
-      <c r="E114" s="201"/>
-      <c r="F114" s="202"/>
-      <c r="G114" s="203"/>
-      <c r="H114" s="204"/>
-      <c r="I114" s="202"/>
-      <c r="J114" s="203"/>
-      <c r="K114" s="203"/>
-      <c r="L114" s="204"/>
-      <c r="M114" s="205"/>
-      <c r="N114" s="205"/>
-      <c r="O114" s="205"/>
-      <c r="P114" s="205"/>
+      <c r="D114" s="193"/>
+      <c r="E114" s="194"/>
+      <c r="F114" s="195"/>
+      <c r="G114" s="196"/>
+      <c r="H114" s="197"/>
+      <c r="I114" s="195"/>
+      <c r="J114" s="196"/>
+      <c r="K114" s="196"/>
+      <c r="L114" s="197"/>
+      <c r="M114" s="203"/>
+      <c r="N114" s="203"/>
+      <c r="O114" s="203"/>
+      <c r="P114" s="203"/>
       <c r="Q114" s="73"/>
       <c r="R114" s="74"/>
       <c r="U114" s="70"/>
@@ -14459,19 +14565,19 @@
     <row r="115" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="200"/>
-      <c r="E115" s="201"/>
-      <c r="F115" s="202"/>
-      <c r="G115" s="203"/>
-      <c r="H115" s="204"/>
-      <c r="I115" s="202"/>
-      <c r="J115" s="203"/>
-      <c r="K115" s="203"/>
-      <c r="L115" s="204"/>
-      <c r="M115" s="205"/>
-      <c r="N115" s="205"/>
-      <c r="O115" s="205"/>
-      <c r="P115" s="205"/>
+      <c r="D115" s="193"/>
+      <c r="E115" s="194"/>
+      <c r="F115" s="195"/>
+      <c r="G115" s="196"/>
+      <c r="H115" s="197"/>
+      <c r="I115" s="195"/>
+      <c r="J115" s="196"/>
+      <c r="K115" s="196"/>
+      <c r="L115" s="197"/>
+      <c r="M115" s="203"/>
+      <c r="N115" s="203"/>
+      <c r="O115" s="203"/>
+      <c r="P115" s="203"/>
       <c r="Q115" s="73"/>
       <c r="R115" s="74"/>
       <c r="U115" s="70"/>
@@ -14484,19 +14590,19 @@
     <row r="116" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B116" s="58"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="200"/>
-      <c r="E116" s="201"/>
-      <c r="F116" s="202"/>
-      <c r="G116" s="203"/>
-      <c r="H116" s="204"/>
-      <c r="I116" s="202"/>
-      <c r="J116" s="203"/>
-      <c r="K116" s="203"/>
-      <c r="L116" s="204"/>
-      <c r="M116" s="205"/>
-      <c r="N116" s="205"/>
-      <c r="O116" s="205"/>
-      <c r="P116" s="205"/>
+      <c r="D116" s="193"/>
+      <c r="E116" s="194"/>
+      <c r="F116" s="195"/>
+      <c r="G116" s="196"/>
+      <c r="H116" s="197"/>
+      <c r="I116" s="195"/>
+      <c r="J116" s="196"/>
+      <c r="K116" s="196"/>
+      <c r="L116" s="197"/>
+      <c r="M116" s="203"/>
+      <c r="N116" s="203"/>
+      <c r="O116" s="203"/>
+      <c r="P116" s="203"/>
       <c r="Q116" s="73"/>
       <c r="R116" s="74"/>
       <c r="U116" s="70"/>
@@ -14523,32 +14629,32 @@
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B119" s="215" t="s">
+      <c r="B119" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="215" t="s">
+      <c r="C119" s="190" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="215" t="s">
+      <c r="D119" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="215" t="s">
+      <c r="E119" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="F119" s="217" t="s">
+      <c r="F119" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="G119" s="211" t="s">
+      <c r="G119" s="186" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B120" s="216"/>
-      <c r="C120" s="216"/>
-      <c r="D120" s="216"/>
-      <c r="E120" s="216"/>
-      <c r="F120" s="217"/>
-      <c r="G120" s="212"/>
+      <c r="B120" s="191"/>
+      <c r="C120" s="191"/>
+      <c r="D120" s="191"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="192"/>
+      <c r="G120" s="187"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1">
       <c r="B121" s="64">
@@ -14964,19 +15070,19 @@
       <c r="L137" s="88"/>
     </row>
     <row r="138" spans="2:13" s="24" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B138" s="206" t="s">
+      <c r="B138" s="200" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="206"/>
-      <c r="D138" s="206"/>
-      <c r="E138" s="206"/>
-      <c r="F138" s="206"/>
-      <c r="G138" s="206"/>
-      <c r="H138" s="206"/>
-      <c r="I138" s="206"/>
-      <c r="J138" s="206"/>
-      <c r="K138" s="206"/>
-      <c r="L138" s="206"/>
+      <c r="C138" s="200"/>
+      <c r="D138" s="200"/>
+      <c r="E138" s="200"/>
+      <c r="F138" s="200"/>
+      <c r="G138" s="200"/>
+      <c r="H138" s="200"/>
+      <c r="I138" s="200"/>
+      <c r="J138" s="200"/>
+      <c r="K138" s="200"/>
+      <c r="L138" s="200"/>
     </row>
     <row r="139" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="82"/>
@@ -15013,20 +15119,20 @@
       <c r="C141" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D141" s="207" t="s">
+      <c r="D141" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="E141" s="207"/>
-      <c r="F141" s="207"/>
-      <c r="G141" s="207"/>
-      <c r="H141" s="208" t="s">
+      <c r="E141" s="201"/>
+      <c r="F141" s="201"/>
+      <c r="G141" s="201"/>
+      <c r="H141" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="208"/>
-      <c r="J141" s="208"/>
-      <c r="K141" s="208"/>
-      <c r="L141" s="208"/>
-      <c r="M141" s="208"/>
+      <c r="I141" s="202"/>
+      <c r="J141" s="202"/>
+      <c r="K141" s="202"/>
+      <c r="L141" s="202"/>
+      <c r="M141" s="202"/>
     </row>
     <row r="142" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B142" s="85">
@@ -15035,61 +15141,119 @@
       <c r="C142" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D142" s="209"/>
-      <c r="E142" s="209"/>
-      <c r="F142" s="209"/>
-      <c r="G142" s="209"/>
-      <c r="H142" s="210"/>
-      <c r="I142" s="210"/>
-      <c r="J142" s="210"/>
-      <c r="K142" s="210"/>
-      <c r="L142" s="210"/>
-      <c r="M142" s="210"/>
+      <c r="D142" s="198"/>
+      <c r="E142" s="198"/>
+      <c r="F142" s="198"/>
+      <c r="G142" s="198"/>
+      <c r="H142" s="199"/>
+      <c r="I142" s="199"/>
+      <c r="J142" s="199"/>
+      <c r="K142" s="199"/>
+      <c r="L142" s="199"/>
+      <c r="M142" s="199"/>
     </row>
     <row r="143" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
-      <c r="D143" s="209"/>
-      <c r="E143" s="209"/>
-      <c r="F143" s="209"/>
-      <c r="G143" s="209"/>
-      <c r="H143" s="210"/>
-      <c r="I143" s="210"/>
-      <c r="J143" s="210"/>
-      <c r="K143" s="210"/>
-      <c r="L143" s="210"/>
-      <c r="M143" s="210"/>
+      <c r="D143" s="198"/>
+      <c r="E143" s="198"/>
+      <c r="F143" s="198"/>
+      <c r="G143" s="198"/>
+      <c r="H143" s="199"/>
+      <c r="I143" s="199"/>
+      <c r="J143" s="199"/>
+      <c r="K143" s="199"/>
+      <c r="L143" s="199"/>
+      <c r="M143" s="199"/>
     </row>
     <row r="144" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B144" s="85"/>
       <c r="C144" s="86"/>
-      <c r="D144" s="209"/>
-      <c r="E144" s="209"/>
-      <c r="F144" s="209"/>
-      <c r="G144" s="209"/>
-      <c r="H144" s="210"/>
-      <c r="I144" s="210"/>
-      <c r="J144" s="210"/>
-      <c r="K144" s="210"/>
-      <c r="L144" s="210"/>
-      <c r="M144" s="210"/>
+      <c r="D144" s="198"/>
+      <c r="E144" s="198"/>
+      <c r="F144" s="198"/>
+      <c r="G144" s="198"/>
+      <c r="H144" s="199"/>
+      <c r="I144" s="199"/>
+      <c r="J144" s="199"/>
+      <c r="K144" s="199"/>
+      <c r="L144" s="199"/>
+      <c r="M144" s="199"/>
     </row>
     <row r="145" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B145" s="85"/>
       <c r="C145" s="86"/>
-      <c r="D145" s="209"/>
-      <c r="E145" s="209"/>
-      <c r="F145" s="209"/>
-      <c r="G145" s="209"/>
-      <c r="H145" s="210"/>
-      <c r="I145" s="210"/>
-      <c r="J145" s="210"/>
-      <c r="K145" s="210"/>
-      <c r="L145" s="210"/>
-      <c r="M145" s="210"/>
+      <c r="D145" s="198"/>
+      <c r="E145" s="198"/>
+      <c r="F145" s="198"/>
+      <c r="G145" s="198"/>
+      <c r="H145" s="199"/>
+      <c r="I145" s="199"/>
+      <c r="J145" s="199"/>
+      <c r="K145" s="199"/>
+      <c r="L145" s="199"/>
+      <c r="M145" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:M141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:M142"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:M143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:M144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:M145"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="B80:E82"/>
@@ -15106,64 +15270,6 @@
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="F115:H115"/>
     <mergeCell ref="I115:L115"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="H143:M143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:M144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="H145:M145"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="H141:M141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="H142:M142"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98263888888888895" bottom="0.98263888888888895" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="226">
   <si>
     <t>通番</t>
   </si>
@@ -3237,6 +3237,51 @@
         <family val="2"/>
       </rPr>
       <t>示。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>契約手続き中-&gt;名前-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保存按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>失效</t>
     </r>
   </si>
 </sst>
@@ -5339,6 +5384,84 @@
     <xf numFmtId="180" fontId="15" fillId="0" borderId="25" xfId="346" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5359,84 +5482,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="460">
@@ -6570,8 +6615,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.5190678684544341E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.5190678684544348E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6640,11 +6685,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97052928"/>
-        <c:axId val="97054720"/>
+        <c:axId val="143182080"/>
+        <c:axId val="143187968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97052928"/>
+        <c:axId val="143182080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,14 +6723,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97054720"/>
+        <c:crossAx val="143187968"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97054720"/>
+        <c:axId val="143187968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6719,7 +6764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97052928"/>
+        <c:crossAx val="143182080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6769,7 +6814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6806,8 +6851,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.0232730603965516E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.0232730603965523E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6823,10 +6868,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383211"/>
+          <c:x val="0.11177666498383214"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689203"/>
+          <c:h val="0.65814028222689225"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6933,11 +6978,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132521344"/>
-        <c:axId val="132547712"/>
+        <c:axId val="144256384"/>
+        <c:axId val="144278656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132521344"/>
+        <c:axId val="144256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6971,14 +7016,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132547712"/>
+        <c:crossAx val="144278656"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132547712"/>
+        <c:axId val="144278656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7012,7 +7057,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132521344"/>
+        <c:crossAx val="144256384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7062,7 +7107,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7099,8 +7144,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39506259248458336"/>
-          <c:y val="3.1476997578692822E-2"/>
+          <c:x val="0.39506259248458342"/>
+          <c:y val="3.1476997578692829E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7118,8 +7163,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.2592778647397928E-2"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.77572172333487832"/>
-          <c:h val="0.65133171912833343"/>
+          <c:w val="0.77572172333487865"/>
+          <c:h val="0.65133171912833354"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7421,8 +7466,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134048384"/>
-        <c:axId val="134062848"/>
+        <c:axId val="148851328"/>
+        <c:axId val="148865792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7521,11 +7566,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134064384"/>
-        <c:axId val="134078464"/>
+        <c:axId val="148867328"/>
+        <c:axId val="148885504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134048384"/>
+        <c:axId val="148851328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7559,14 +7604,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134062848"/>
+        <c:crossAx val="148865792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134062848"/>
+        <c:axId val="148865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7600,29 +7645,29 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134048384"/>
+        <c:crossAx val="148851328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="134064384"/>
+        <c:axId val="148867328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="134078464"/>
+        <c:crossAx val="148885504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134078464"/>
+        <c:axId val="148885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000444"/>
+          <c:min val="0.75000000000000455"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -7654,7 +7699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134064384"/>
+        <c:crossAx val="148867328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -7677,8 +7722,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22633788060443111"/>
-          <c:y val="0.93462469733656872"/>
+          <c:x val="0.22633788060443114"/>
+          <c:y val="0.93462469733656883"/>
           <c:w val="0.50411630644934757"/>
           <c:h val="4.8426150121065097E-2"/>
         </c:manualLayout>
@@ -7746,7 +7791,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7783,8 +7828,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.0232707900360218E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.0232707900360225E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7800,10 +7845,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383211"/>
+          <c:x val="0.11177666498383214"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689303"/>
+          <c:h val="0.65814028222689325"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7865,11 +7910,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133578112"/>
-        <c:axId val="133588096"/>
+        <c:axId val="151133568"/>
+        <c:axId val="151147648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133578112"/>
+        <c:axId val="151133568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,14 +7948,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133588096"/>
+        <c:crossAx val="151147648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133588096"/>
+        <c:axId val="151147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7944,7 +7989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133578112"/>
+        <c:crossAx val="151133568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7994,7 +8039,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8031,8 +8076,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.5190678684544341E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.5190678684544348E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8149,11 +8194,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133607808"/>
-        <c:axId val="133609344"/>
+        <c:axId val="151175552"/>
+        <c:axId val="151177088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133607808"/>
+        <c:axId val="151175552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8187,14 +8232,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133609344"/>
+        <c:crossAx val="151177088"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133609344"/>
+        <c:axId val="151177088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8228,7 +8273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133607808"/>
+        <c:crossAx val="151175552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8278,7 +8323,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8315,8 +8360,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.5190678684544341E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.5190678684544348E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8433,11 +8478,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134501504"/>
-        <c:axId val="134503040"/>
+        <c:axId val="146957440"/>
+        <c:axId val="146958976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134501504"/>
+        <c:axId val="146957440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8471,14 +8516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134503040"/>
+        <c:crossAx val="146958976"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134503040"/>
+        <c:axId val="146958976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,7 +8557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134501504"/>
+        <c:crossAx val="146957440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8562,7 +8607,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8599,8 +8644,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674035"/>
-          <c:y val="3.0232707900360218E-2"/>
+          <c:x val="0.38523037913674041"/>
+          <c:y val="3.0232707900360225E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8616,10 +8661,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383211"/>
+          <c:x val="0.11177666498383214"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689303"/>
+          <c:h val="0.65814028222689325"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8681,11 +8726,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134526848"/>
-        <c:axId val="134528384"/>
+        <c:axId val="146974592"/>
+        <c:axId val="146976128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134526848"/>
+        <c:axId val="146974592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8719,14 +8764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134528384"/>
+        <c:crossAx val="146976128"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134528384"/>
+        <c:axId val="146976128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8760,7 +8805,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134526848"/>
+        <c:crossAx val="146974592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8810,7 +8855,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9560,7 +9605,7 @@
   <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
@@ -11431,17 +11476,33 @@
       <c r="AB36" s="183"/>
     </row>
     <row r="37" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B37" s="90"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="114"/>
+      <c r="B37" s="90">
+        <v>35</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="114" t="s">
+        <v>27</v>
+      </c>
       <c r="E37" s="113"/>
-      <c r="F37" s="108"/>
+      <c r="F37" s="108" t="s">
+        <v>29</v>
+      </c>
       <c r="G37" s="101"/>
       <c r="H37" s="116"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="115"/>
+      <c r="I37" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="129">
+        <v>43280</v>
+      </c>
+      <c r="K37" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="115" t="s">
+        <v>225</v>
+      </c>
       <c r="M37" s="147"/>
       <c r="N37" s="128"/>
       <c r="O37" s="128"/>
@@ -13311,30 +13372,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="9" customHeight="1">
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="27" t="s">
         <v>129</v>
       </c>
@@ -13412,30 +13473,30 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
     </row>
     <row r="15" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1">
       <c r="B21" s="26" t="s">
@@ -13444,10 +13505,10 @@
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1">
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="218"/>
+      <c r="C22" s="187"/>
       <c r="D22" s="27" t="s">
         <v>129</v>
       </c>
@@ -13629,30 +13690,30 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B38" s="189"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" s="26" t="s">
@@ -13661,10 +13722,10 @@
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
-      <c r="B44" s="217" t="s">
+      <c r="B44" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="218"/>
+      <c r="C44" s="187"/>
       <c r="D44" s="27" t="s">
         <v>129</v>
       </c>
@@ -13818,30 +13879,30 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B56" s="189" t="s">
+      <c r="B56" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="189"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
     </row>
     <row r="57" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B57" s="189"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
     </row>
     <row r="58" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="215"/>
     </row>
     <row r="59" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B59" s="189"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="189"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
     </row>
     <row r="64" spans="2:5" ht="17.25" customHeight="1">
       <c r="B64" s="26" t="s">
@@ -13850,10 +13911,10 @@
       <c r="C64" s="26"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="211"/>
+      <c r="C65" s="189"/>
       <c r="D65" s="27" t="s">
         <v>129</v>
       </c>
@@ -14033,28 +14094,28 @@
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B80" s="189" t="s">
+      <c r="B80" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="189"/>
-      <c r="D80" s="189"/>
-      <c r="E80" s="189"/>
+      <c r="C80" s="215"/>
+      <c r="D80" s="215"/>
+      <c r="E80" s="215"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B81" s="189"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="189"/>
-      <c r="E81" s="189"/>
+      <c r="B81" s="215"/>
+      <c r="C81" s="215"/>
+      <c r="D81" s="215"/>
+      <c r="E81" s="215"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B82" s="189"/>
-      <c r="C82" s="189"/>
-      <c r="D82" s="189"/>
-      <c r="E82" s="189"/>
+      <c r="B82" s="215"/>
+      <c r="C82" s="215"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="215"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
     </row>
@@ -14073,10 +14134,10 @@
       <c r="C84" s="26"/>
     </row>
     <row r="85" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B85" s="210" t="s">
+      <c r="B85" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="211"/>
+      <c r="C85" s="189"/>
       <c r="D85" s="27" t="s">
         <v>129</v>
       </c>
@@ -14148,28 +14209,28 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B91" s="189" t="s">
+      <c r="B91" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="189"/>
-      <c r="D91" s="189"/>
-      <c r="E91" s="189"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B92" s="189"/>
-      <c r="C92" s="189"/>
-      <c r="D92" s="189"/>
-      <c r="E92" s="189"/>
+      <c r="B92" s="215"/>
+      <c r="C92" s="215"/>
+      <c r="D92" s="215"/>
+      <c r="E92" s="215"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B93" s="189"/>
-      <c r="C93" s="189"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
+      <c r="B93" s="215"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="215"/>
+      <c r="E93" s="215"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
     </row>
@@ -14188,10 +14249,10 @@
       <c r="C95" s="26"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B96" s="210" t="s">
+      <c r="B96" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="211"/>
+      <c r="C96" s="189"/>
       <c r="D96" s="27" t="s">
         <v>129</v>
       </c>
@@ -14249,28 +14310,28 @@
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B101" s="189" t="s">
+      <c r="B101" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="189"/>
-      <c r="D101" s="189"/>
-      <c r="E101" s="189"/>
+      <c r="C101" s="215"/>
+      <c r="D101" s="215"/>
+      <c r="E101" s="215"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B102" s="189"/>
-      <c r="C102" s="189"/>
-      <c r="D102" s="189"/>
-      <c r="E102" s="189"/>
+      <c r="B102" s="215"/>
+      <c r="C102" s="215"/>
+      <c r="D102" s="215"/>
+      <c r="E102" s="215"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
     <row r="103" spans="1:50" ht="23.25" customHeight="1">
-      <c r="B103" s="189"/>
-      <c r="C103" s="189"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="189"/>
+      <c r="B103" s="215"/>
+      <c r="C103" s="215"/>
+      <c r="D103" s="215"/>
+      <c r="E103" s="215"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
     </row>
@@ -14312,27 +14373,27 @@
       <c r="C106" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="212" t="s">
+      <c r="D106" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="E106" s="213"/>
-      <c r="F106" s="214" t="s">
+      <c r="E106" s="191"/>
+      <c r="F106" s="192" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="215"/>
-      <c r="H106" s="216"/>
-      <c r="I106" s="214" t="s">
+      <c r="G106" s="193"/>
+      <c r="H106" s="194"/>
+      <c r="I106" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="J106" s="215"/>
-      <c r="K106" s="215"/>
-      <c r="L106" s="216"/>
-      <c r="M106" s="214" t="s">
+      <c r="J106" s="193"/>
+      <c r="K106" s="193"/>
+      <c r="L106" s="194"/>
+      <c r="M106" s="192" t="s">
         <v>187</v>
       </c>
-      <c r="N106" s="215"/>
-      <c r="O106" s="215"/>
-      <c r="P106" s="216"/>
+      <c r="N106" s="193"/>
+      <c r="O106" s="193"/>
+      <c r="P106" s="194"/>
       <c r="Q106" s="63" t="s">
         <v>188</v>
       </c>
@@ -14353,27 +14414,27 @@
       <c r="C107" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="204" t="s">
+      <c r="D107" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="205"/>
-      <c r="F107" s="206" t="s">
+      <c r="E107" s="196"/>
+      <c r="F107" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="G107" s="207"/>
-      <c r="H107" s="208"/>
-      <c r="I107" s="206" t="s">
+      <c r="G107" s="198"/>
+      <c r="H107" s="199"/>
+      <c r="I107" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="J107" s="207"/>
-      <c r="K107" s="207"/>
-      <c r="L107" s="208"/>
-      <c r="M107" s="209" t="s">
+      <c r="J107" s="198"/>
+      <c r="K107" s="198"/>
+      <c r="L107" s="199"/>
+      <c r="M107" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="N107" s="209"/>
-      <c r="O107" s="209"/>
-      <c r="P107" s="209"/>
+      <c r="N107" s="200"/>
+      <c r="O107" s="200"/>
+      <c r="P107" s="200"/>
       <c r="Q107" s="71" t="s">
         <v>196</v>
       </c>
@@ -14390,19 +14451,19 @@
     <row r="108" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B108" s="58"/>
       <c r="C108" s="59"/>
-      <c r="D108" s="193"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="195"/>
-      <c r="G108" s="196"/>
-      <c r="H108" s="197"/>
-      <c r="I108" s="195"/>
-      <c r="J108" s="196"/>
-      <c r="K108" s="196"/>
-      <c r="L108" s="197"/>
-      <c r="M108" s="203"/>
-      <c r="N108" s="203"/>
-      <c r="O108" s="203"/>
-      <c r="P108" s="203"/>
+      <c r="D108" s="201"/>
+      <c r="E108" s="202"/>
+      <c r="F108" s="203"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="205"/>
+      <c r="I108" s="203"/>
+      <c r="J108" s="204"/>
+      <c r="K108" s="204"/>
+      <c r="L108" s="205"/>
+      <c r="M108" s="206"/>
+      <c r="N108" s="206"/>
+      <c r="O108" s="206"/>
+      <c r="P108" s="206"/>
       <c r="Q108" s="73"/>
       <c r="R108" s="74"/>
       <c r="U108" s="70"/>
@@ -14415,19 +14476,19 @@
     <row r="109" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B109" s="58"/>
       <c r="C109" s="59"/>
-      <c r="D109" s="193"/>
-      <c r="E109" s="194"/>
-      <c r="F109" s="195"/>
-      <c r="G109" s="196"/>
-      <c r="H109" s="197"/>
-      <c r="I109" s="195"/>
-      <c r="J109" s="196"/>
-      <c r="K109" s="196"/>
-      <c r="L109" s="197"/>
-      <c r="M109" s="203"/>
-      <c r="N109" s="203"/>
-      <c r="O109" s="203"/>
-      <c r="P109" s="203"/>
+      <c r="D109" s="201"/>
+      <c r="E109" s="202"/>
+      <c r="F109" s="203"/>
+      <c r="G109" s="204"/>
+      <c r="H109" s="205"/>
+      <c r="I109" s="203"/>
+      <c r="J109" s="204"/>
+      <c r="K109" s="204"/>
+      <c r="L109" s="205"/>
+      <c r="M109" s="206"/>
+      <c r="N109" s="206"/>
+      <c r="O109" s="206"/>
+      <c r="P109" s="206"/>
       <c r="Q109" s="73"/>
       <c r="R109" s="74"/>
       <c r="U109" s="70"/>
@@ -14440,19 +14501,19 @@
     <row r="110" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B110" s="58"/>
       <c r="C110" s="59"/>
-      <c r="D110" s="193"/>
-      <c r="E110" s="194"/>
-      <c r="F110" s="195"/>
-      <c r="G110" s="196"/>
-      <c r="H110" s="197"/>
-      <c r="I110" s="195"/>
-      <c r="J110" s="196"/>
-      <c r="K110" s="196"/>
-      <c r="L110" s="197"/>
-      <c r="M110" s="203"/>
-      <c r="N110" s="203"/>
-      <c r="O110" s="203"/>
-      <c r="P110" s="203"/>
+      <c r="D110" s="201"/>
+      <c r="E110" s="202"/>
+      <c r="F110" s="203"/>
+      <c r="G110" s="204"/>
+      <c r="H110" s="205"/>
+      <c r="I110" s="203"/>
+      <c r="J110" s="204"/>
+      <c r="K110" s="204"/>
+      <c r="L110" s="205"/>
+      <c r="M110" s="206"/>
+      <c r="N110" s="206"/>
+      <c r="O110" s="206"/>
+      <c r="P110" s="206"/>
       <c r="Q110" s="73"/>
       <c r="R110" s="74"/>
       <c r="U110" s="70"/>
@@ -14465,19 +14526,19 @@
     <row r="111" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B111" s="58"/>
       <c r="C111" s="59"/>
-      <c r="D111" s="193"/>
-      <c r="E111" s="194"/>
-      <c r="F111" s="195"/>
-      <c r="G111" s="196"/>
-      <c r="H111" s="197"/>
-      <c r="I111" s="195"/>
-      <c r="J111" s="196"/>
-      <c r="K111" s="196"/>
-      <c r="L111" s="197"/>
-      <c r="M111" s="203"/>
-      <c r="N111" s="203"/>
-      <c r="O111" s="203"/>
-      <c r="P111" s="203"/>
+      <c r="D111" s="201"/>
+      <c r="E111" s="202"/>
+      <c r="F111" s="203"/>
+      <c r="G111" s="204"/>
+      <c r="H111" s="205"/>
+      <c r="I111" s="203"/>
+      <c r="J111" s="204"/>
+      <c r="K111" s="204"/>
+      <c r="L111" s="205"/>
+      <c r="M111" s="206"/>
+      <c r="N111" s="206"/>
+      <c r="O111" s="206"/>
+      <c r="P111" s="206"/>
       <c r="Q111" s="73"/>
       <c r="R111" s="74"/>
       <c r="U111" s="70"/>
@@ -14490,19 +14551,19 @@
     <row r="112" spans="1:50" s="23" customFormat="1" ht="11.25">
       <c r="B112" s="58"/>
       <c r="C112" s="59"/>
-      <c r="D112" s="193"/>
-      <c r="E112" s="194"/>
-      <c r="F112" s="195"/>
-      <c r="G112" s="196"/>
-      <c r="H112" s="197"/>
-      <c r="I112" s="195"/>
-      <c r="J112" s="196"/>
-      <c r="K112" s="196"/>
-      <c r="L112" s="197"/>
-      <c r="M112" s="203"/>
-      <c r="N112" s="203"/>
-      <c r="O112" s="203"/>
-      <c r="P112" s="203"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="202"/>
+      <c r="F112" s="203"/>
+      <c r="G112" s="204"/>
+      <c r="H112" s="205"/>
+      <c r="I112" s="203"/>
+      <c r="J112" s="204"/>
+      <c r="K112" s="204"/>
+      <c r="L112" s="205"/>
+      <c r="M112" s="206"/>
+      <c r="N112" s="206"/>
+      <c r="O112" s="206"/>
+      <c r="P112" s="206"/>
       <c r="Q112" s="73"/>
       <c r="R112" s="74"/>
       <c r="U112" s="70"/>
@@ -14515,19 +14576,19 @@
     <row r="113" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B113" s="58"/>
       <c r="C113" s="59"/>
-      <c r="D113" s="193"/>
-      <c r="E113" s="194"/>
-      <c r="F113" s="195"/>
-      <c r="G113" s="196"/>
-      <c r="H113" s="197"/>
-      <c r="I113" s="195"/>
-      <c r="J113" s="196"/>
-      <c r="K113" s="196"/>
-      <c r="L113" s="197"/>
-      <c r="M113" s="203"/>
-      <c r="N113" s="203"/>
-      <c r="O113" s="203"/>
-      <c r="P113" s="203"/>
+      <c r="D113" s="201"/>
+      <c r="E113" s="202"/>
+      <c r="F113" s="203"/>
+      <c r="G113" s="204"/>
+      <c r="H113" s="205"/>
+      <c r="I113" s="203"/>
+      <c r="J113" s="204"/>
+      <c r="K113" s="204"/>
+      <c r="L113" s="205"/>
+      <c r="M113" s="206"/>
+      <c r="N113" s="206"/>
+      <c r="O113" s="206"/>
+      <c r="P113" s="206"/>
       <c r="Q113" s="73"/>
       <c r="R113" s="74"/>
       <c r="U113" s="70"/>
@@ -14540,19 +14601,19 @@
     <row r="114" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B114" s="58"/>
       <c r="C114" s="59"/>
-      <c r="D114" s="193"/>
-      <c r="E114" s="194"/>
-      <c r="F114" s="195"/>
-      <c r="G114" s="196"/>
-      <c r="H114" s="197"/>
-      <c r="I114" s="195"/>
-      <c r="J114" s="196"/>
-      <c r="K114" s="196"/>
-      <c r="L114" s="197"/>
-      <c r="M114" s="203"/>
-      <c r="N114" s="203"/>
-      <c r="O114" s="203"/>
-      <c r="P114" s="203"/>
+      <c r="D114" s="201"/>
+      <c r="E114" s="202"/>
+      <c r="F114" s="203"/>
+      <c r="G114" s="204"/>
+      <c r="H114" s="205"/>
+      <c r="I114" s="203"/>
+      <c r="J114" s="204"/>
+      <c r="K114" s="204"/>
+      <c r="L114" s="205"/>
+      <c r="M114" s="206"/>
+      <c r="N114" s="206"/>
+      <c r="O114" s="206"/>
+      <c r="P114" s="206"/>
       <c r="Q114" s="73"/>
       <c r="R114" s="74"/>
       <c r="U114" s="70"/>
@@ -14565,19 +14626,19 @@
     <row r="115" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B115" s="58"/>
       <c r="C115" s="59"/>
-      <c r="D115" s="193"/>
-      <c r="E115" s="194"/>
-      <c r="F115" s="195"/>
-      <c r="G115" s="196"/>
-      <c r="H115" s="197"/>
-      <c r="I115" s="195"/>
-      <c r="J115" s="196"/>
-      <c r="K115" s="196"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="203"/>
-      <c r="N115" s="203"/>
-      <c r="O115" s="203"/>
-      <c r="P115" s="203"/>
+      <c r="D115" s="201"/>
+      <c r="E115" s="202"/>
+      <c r="F115" s="203"/>
+      <c r="G115" s="204"/>
+      <c r="H115" s="205"/>
+      <c r="I115" s="203"/>
+      <c r="J115" s="204"/>
+      <c r="K115" s="204"/>
+      <c r="L115" s="205"/>
+      <c r="M115" s="206"/>
+      <c r="N115" s="206"/>
+      <c r="O115" s="206"/>
+      <c r="P115" s="206"/>
       <c r="Q115" s="73"/>
       <c r="R115" s="74"/>
       <c r="U115" s="70"/>
@@ -14590,19 +14651,19 @@
     <row r="116" spans="2:26" s="23" customFormat="1" ht="11.25">
       <c r="B116" s="58"/>
       <c r="C116" s="59"/>
-      <c r="D116" s="193"/>
-      <c r="E116" s="194"/>
-      <c r="F116" s="195"/>
-      <c r="G116" s="196"/>
-      <c r="H116" s="197"/>
-      <c r="I116" s="195"/>
-      <c r="J116" s="196"/>
-      <c r="K116" s="196"/>
-      <c r="L116" s="197"/>
-      <c r="M116" s="203"/>
-      <c r="N116" s="203"/>
-      <c r="O116" s="203"/>
-      <c r="P116" s="203"/>
+      <c r="D116" s="201"/>
+      <c r="E116" s="202"/>
+      <c r="F116" s="203"/>
+      <c r="G116" s="204"/>
+      <c r="H116" s="205"/>
+      <c r="I116" s="203"/>
+      <c r="J116" s="204"/>
+      <c r="K116" s="204"/>
+      <c r="L116" s="205"/>
+      <c r="M116" s="206"/>
+      <c r="N116" s="206"/>
+      <c r="O116" s="206"/>
+      <c r="P116" s="206"/>
       <c r="Q116" s="73"/>
       <c r="R116" s="74"/>
       <c r="U116" s="70"/>
@@ -14629,32 +14690,32 @@
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B119" s="190" t="s">
+      <c r="B119" s="216" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="190" t="s">
+      <c r="C119" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="D119" s="190" t="s">
+      <c r="D119" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="190" t="s">
+      <c r="E119" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="F119" s="192" t="s">
+      <c r="F119" s="218" t="s">
         <v>201</v>
       </c>
-      <c r="G119" s="186" t="s">
+      <c r="G119" s="212" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B120" s="191"/>
-      <c r="C120" s="191"/>
-      <c r="D120" s="191"/>
-      <c r="E120" s="191"/>
-      <c r="F120" s="192"/>
-      <c r="G120" s="187"/>
+      <c r="B120" s="217"/>
+      <c r="C120" s="217"/>
+      <c r="D120" s="217"/>
+      <c r="E120" s="217"/>
+      <c r="F120" s="218"/>
+      <c r="G120" s="213"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1">
       <c r="B121" s="64">
@@ -15070,19 +15131,19 @@
       <c r="L137" s="88"/>
     </row>
     <row r="138" spans="2:13" s="24" customFormat="1" ht="59.25" customHeight="1">
-      <c r="B138" s="200" t="s">
+      <c r="B138" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="200"/>
-      <c r="D138" s="200"/>
-      <c r="E138" s="200"/>
-      <c r="F138" s="200"/>
-      <c r="G138" s="200"/>
-      <c r="H138" s="200"/>
-      <c r="I138" s="200"/>
-      <c r="J138" s="200"/>
-      <c r="K138" s="200"/>
-      <c r="L138" s="200"/>
+      <c r="C138" s="207"/>
+      <c r="D138" s="207"/>
+      <c r="E138" s="207"/>
+      <c r="F138" s="207"/>
+      <c r="G138" s="207"/>
+      <c r="H138" s="207"/>
+      <c r="I138" s="207"/>
+      <c r="J138" s="207"/>
+      <c r="K138" s="207"/>
+      <c r="L138" s="207"/>
     </row>
     <row r="139" spans="2:13" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="B139" s="82"/>
@@ -15119,20 +15180,20 @@
       <c r="C141" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D141" s="201" t="s">
+      <c r="D141" s="208" t="s">
         <v>206</v>
       </c>
-      <c r="E141" s="201"/>
-      <c r="F141" s="201"/>
-      <c r="G141" s="201"/>
-      <c r="H141" s="202" t="s">
+      <c r="E141" s="208"/>
+      <c r="F141" s="208"/>
+      <c r="G141" s="208"/>
+      <c r="H141" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="202"/>
-      <c r="J141" s="202"/>
-      <c r="K141" s="202"/>
-      <c r="L141" s="202"/>
-      <c r="M141" s="202"/>
+      <c r="I141" s="209"/>
+      <c r="J141" s="209"/>
+      <c r="K141" s="209"/>
+      <c r="L141" s="209"/>
+      <c r="M141" s="209"/>
     </row>
     <row r="142" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B142" s="85">
@@ -15141,119 +15202,61 @@
       <c r="C142" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="D142" s="198"/>
-      <c r="E142" s="198"/>
-      <c r="F142" s="198"/>
-      <c r="G142" s="198"/>
-      <c r="H142" s="199"/>
-      <c r="I142" s="199"/>
-      <c r="J142" s="199"/>
-      <c r="K142" s="199"/>
-      <c r="L142" s="199"/>
-      <c r="M142" s="199"/>
+      <c r="D142" s="210"/>
+      <c r="E142" s="210"/>
+      <c r="F142" s="210"/>
+      <c r="G142" s="210"/>
+      <c r="H142" s="211"/>
+      <c r="I142" s="211"/>
+      <c r="J142" s="211"/>
+      <c r="K142" s="211"/>
+      <c r="L142" s="211"/>
+      <c r="M142" s="211"/>
     </row>
     <row r="143" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
-      <c r="D143" s="198"/>
-      <c r="E143" s="198"/>
-      <c r="F143" s="198"/>
-      <c r="G143" s="198"/>
-      <c r="H143" s="199"/>
-      <c r="I143" s="199"/>
-      <c r="J143" s="199"/>
-      <c r="K143" s="199"/>
-      <c r="L143" s="199"/>
-      <c r="M143" s="199"/>
+      <c r="D143" s="210"/>
+      <c r="E143" s="210"/>
+      <c r="F143" s="210"/>
+      <c r="G143" s="210"/>
+      <c r="H143" s="211"/>
+      <c r="I143" s="211"/>
+      <c r="J143" s="211"/>
+      <c r="K143" s="211"/>
+      <c r="L143" s="211"/>
+      <c r="M143" s="211"/>
     </row>
     <row r="144" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B144" s="85"/>
       <c r="C144" s="86"/>
-      <c r="D144" s="198"/>
-      <c r="E144" s="198"/>
-      <c r="F144" s="198"/>
-      <c r="G144" s="198"/>
-      <c r="H144" s="199"/>
-      <c r="I144" s="199"/>
-      <c r="J144" s="199"/>
-      <c r="K144" s="199"/>
-      <c r="L144" s="199"/>
-      <c r="M144" s="199"/>
+      <c r="D144" s="210"/>
+      <c r="E144" s="210"/>
+      <c r="F144" s="210"/>
+      <c r="G144" s="210"/>
+      <c r="H144" s="211"/>
+      <c r="I144" s="211"/>
+      <c r="J144" s="211"/>
+      <c r="K144" s="211"/>
+      <c r="L144" s="211"/>
+      <c r="M144" s="211"/>
     </row>
     <row r="145" spans="2:13" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B145" s="85"/>
       <c r="C145" s="86"/>
-      <c r="D145" s="198"/>
-      <c r="E145" s="198"/>
-      <c r="F145" s="198"/>
-      <c r="G145" s="198"/>
-      <c r="H145" s="199"/>
-      <c r="I145" s="199"/>
-      <c r="J145" s="199"/>
-      <c r="K145" s="199"/>
-      <c r="L145" s="199"/>
-      <c r="M145" s="199"/>
+      <c r="D145" s="210"/>
+      <c r="E145" s="210"/>
+      <c r="F145" s="210"/>
+      <c r="G145" s="210"/>
+      <c r="H145" s="211"/>
+      <c r="I145" s="211"/>
+      <c r="J145" s="211"/>
+      <c r="K145" s="211"/>
+      <c r="L145" s="211"/>
+      <c r="M145" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="B138:L138"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="H141:M141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="H142:M142"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="H143:M143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:M144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="H145:M145"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="B80:E82"/>
@@ -15270,6 +15273,64 @@
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="F115:H115"/>
     <mergeCell ref="I115:L115"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:M143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:M144"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:M145"/>
+    <mergeCell ref="B138:L138"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:M141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:M142"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98263888888888895" bottom="0.98263888888888895" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/document/AP_障害管理票_QDYL.xlsx
+++ b/document/AP_障害管理票_QDYL.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="230">
   <si>
     <t>通番</t>
   </si>
@@ -3283,6 +3283,147 @@
       </rPr>
       <t>失效</t>
     </r>
+  </si>
+  <si>
+    <t>随時対応一覧-&gt;保管場所使用承諾証明書発行（名義変更）-&gt;進捗情報1</t>
+  </si>
+  <si>
+    <r>
+      <t>送付先与書類送付先不一致，且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>更送付先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时以及保存时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>提示“Unknown format code 'd' for object of type 'str'”。但是修改的内容能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>够保存。</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>契約者一覧-&gt;名前-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保存按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钮被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮遮挡</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6615,8 +6756,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.5190678684544348E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.5190678684544389E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6685,11 +6826,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="143182080"/>
-        <c:axId val="143187968"/>
+        <c:axId val="133556480"/>
+        <c:axId val="133558272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143182080"/>
+        <c:axId val="133556480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,14 +6864,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143187968"/>
+        <c:crossAx val="133558272"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143187968"/>
+        <c:axId val="133558272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6764,7 +6905,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143182080"/>
+        <c:crossAx val="133556480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6814,7 +6955,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6851,8 +6992,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.0232730603965523E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.0232730603965589E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6868,10 +7009,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383214"/>
+          <c:x val="0.11177666498383228"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689225"/>
+          <c:h val="0.6581402822268938"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6978,11 +7119,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="144256384"/>
-        <c:axId val="144278656"/>
+        <c:axId val="133569920"/>
+        <c:axId val="133600384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144256384"/>
+        <c:axId val="133569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,14 +7157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144278656"/>
+        <c:crossAx val="133600384"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144278656"/>
+        <c:axId val="133600384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7057,7 +7198,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144256384"/>
+        <c:crossAx val="133569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7107,7 +7248,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7144,8 +7285,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39506259248458342"/>
-          <c:y val="3.1476997578692829E-2"/>
+          <c:x val="0.39506259248458392"/>
+          <c:y val="3.1476997578692878E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7163,8 +7304,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.2592778647397928E-2"/>
           <c:y val="0.113801452784504"/>
-          <c:w val="0.77572172333487865"/>
-          <c:h val="0.65133171912833354"/>
+          <c:w val="0.77572172333488054"/>
+          <c:h val="0.65133171912833365"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7466,8 +7607,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="148851328"/>
-        <c:axId val="148865792"/>
+        <c:axId val="134507136"/>
+        <c:axId val="134517504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7566,11 +7707,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="148867328"/>
-        <c:axId val="148885504"/>
+        <c:axId val="134519040"/>
+        <c:axId val="134537216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148851328"/>
+        <c:axId val="134507136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7604,14 +7745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148865792"/>
+        <c:crossAx val="134517504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148865792"/>
+        <c:axId val="134517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7645,29 +7786,29 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148851328"/>
+        <c:crossAx val="134507136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="148867328"/>
+        <c:axId val="134519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="148885504"/>
+        <c:crossAx val="134537216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148885504"/>
+        <c:axId val="134537216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000455"/>
+          <c:min val="0.75000000000000522"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -7699,7 +7840,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148867328"/>
+        <c:crossAx val="134519040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -7722,8 +7863,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22633788060443114"/>
-          <c:y val="0.93462469733656883"/>
+          <c:x val="0.2263378806044313"/>
+          <c:y val="0.93462469733656972"/>
           <c:w val="0.50411630644934757"/>
           <c:h val="4.8426150121065097E-2"/>
         </c:manualLayout>
@@ -7791,7 +7932,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7828,8 +7969,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.0232707900360225E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.023270790036026E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7845,10 +7986,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383214"/>
+          <c:x val="0.11177666498383228"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689325"/>
+          <c:h val="0.6581402822268948"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7910,11 +8051,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151133568"/>
-        <c:axId val="151147648"/>
+        <c:axId val="133909888"/>
+        <c:axId val="133915776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151133568"/>
+        <c:axId val="133909888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7948,14 +8089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151147648"/>
+        <c:crossAx val="133915776"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151147648"/>
+        <c:axId val="133915776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7989,7 +8130,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151133568"/>
+        <c:crossAx val="133909888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8039,7 +8180,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8076,8 +8217,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.5190678684544348E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.5190678684544389E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8194,11 +8335,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151175552"/>
-        <c:axId val="151177088"/>
+        <c:axId val="133935488"/>
+        <c:axId val="133937024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151175552"/>
+        <c:axId val="133935488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8232,14 +8373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151177088"/>
+        <c:crossAx val="133937024"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151177088"/>
+        <c:axId val="133937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,7 +8414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151175552"/>
+        <c:crossAx val="133935488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8323,7 +8464,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8360,8 +8501,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.5190678684544348E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.5190678684544389E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8478,11 +8619,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146957440"/>
-        <c:axId val="146958976"/>
+        <c:axId val="136860800"/>
+        <c:axId val="136862336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146957440"/>
+        <c:axId val="136860800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8516,14 +8657,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146958976"/>
+        <c:crossAx val="136862336"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146958976"/>
+        <c:axId val="136862336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8557,7 +8698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146957440"/>
+        <c:crossAx val="136860800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8607,7 +8748,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8644,8 +8785,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38523037913674041"/>
-          <c:y val="3.0232707900360225E-2"/>
+          <c:x val="0.38523037913674085"/>
+          <c:y val="3.023270790036026E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8661,10 +8802,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11177666498383214"/>
+          <c:x val="0.11177666498383228"/>
           <c:y val="0.100000113553908"/>
           <c:w val="0.78044064301210703"/>
-          <c:h val="0.65814028222689325"/>
+          <c:h val="0.6581402822268948"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8726,11 +8867,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146974592"/>
-        <c:axId val="146976128"/>
+        <c:axId val="136886144"/>
+        <c:axId val="136887680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146974592"/>
+        <c:axId val="136886144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8764,14 +8905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146976128"/>
+        <c:crossAx val="136887680"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146976128"/>
+        <c:axId val="136887680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8805,7 +8946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146974592"/>
+        <c:crossAx val="136886144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8855,7 +8996,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9602,13 +9743,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -11440,7 +11581,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E36" s="113"/>
       <c r="F36" s="108" t="s">
@@ -11483,7 +11624,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="114" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E37" s="113"/>
       <c r="F37" s="108" t="s">
@@ -11503,7 +11644,9 @@
       <c r="L37" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="M37" s="147"/>
+      <c r="M37" s="147" t="s">
+        <v>229</v>
+      </c>
       <c r="N37" s="128"/>
       <c r="O37" s="128"/>
       <c r="P37" s="148"/>
@@ -11521,18 +11664,36 @@
       <c r="AB37" s="183"/>
     </row>
     <row r="38" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B38" s="90"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="114"/>
+      <c r="B38" s="90">
+        <v>36</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="114" t="s">
+        <v>54</v>
+      </c>
       <c r="E38" s="113"/>
-      <c r="F38" s="108"/>
+      <c r="F38" s="108" t="s">
+        <v>29</v>
+      </c>
       <c r="G38" s="101"/>
       <c r="H38" s="116"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="147"/>
+      <c r="I38" s="144" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="129">
+        <v>43280</v>
+      </c>
+      <c r="K38" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="M38" s="147" t="s">
+        <v>229</v>
+      </c>
       <c r="N38" s="128"/>
       <c r="O38" s="128"/>
       <c r="P38" s="148"/>
@@ -11549,18 +11710,34 @@
       <c r="AA38" s="179"/>
       <c r="AB38" s="183"/>
     </row>
-    <row r="39" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B39" s="90"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="114"/>
+    <row r="39" spans="2:28" ht="34.5" customHeight="1">
+      <c r="B39" s="90">
+        <v>37</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="114" t="s">
+        <v>27</v>
+      </c>
       <c r="E39" s="113"/>
-      <c r="F39" s="108"/>
+      <c r="F39" s="108" t="s">
+        <v>29</v>
+      </c>
       <c r="G39" s="101"/>
       <c r="H39" s="116"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="115"/>
+      <c r="I39" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="129">
+        <v>43280</v>
+      </c>
+      <c r="K39" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="115" t="s">
+        <v>227</v>
+      </c>
       <c r="M39" s="147"/>
       <c r="N39" s="128"/>
       <c r="O39" s="128"/>
@@ -12885,15 +13062,15 @@
     </row>
     <row r="85" spans="2:28" ht="14.25" customHeight="1">
       <c r="B85" s="90"/>
-      <c r="C85" s="113"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="114"/>
       <c r="E85" s="113"/>
-      <c r="F85" s="184"/>
+      <c r="F85" s="108"/>
       <c r="G85" s="101"/>
-      <c r="H85" s="115"/>
+      <c r="H85" s="116"/>
       <c r="I85" s="144"/>
-      <c r="J85" s="125"/>
-      <c r="K85" s="144"/>
+      <c r="J85" s="129"/>
+      <c r="K85" s="145"/>
       <c r="L85" s="115"/>
       <c r="M85" s="147"/>
       <c r="N85" s="128"/>
@@ -12912,8 +13089,34 @@
       <c r="AA85" s="179"/>
       <c r="AB85" s="183"/>
     </row>
-    <row r="86" spans="2:28">
-      <c r="P86" s="93"/>
+    <row r="86" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B86" s="90"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="184"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="115"/>
+      <c r="M86" s="147"/>
+      <c r="N86" s="128"/>
+      <c r="O86" s="128"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="176"/>
+      <c r="R86" s="176"/>
+      <c r="S86" s="176"/>
+      <c r="T86" s="176"/>
+      <c r="U86" s="144"/>
+      <c r="V86" s="144"/>
+      <c r="W86" s="177"/>
+      <c r="X86" s="144"/>
+      <c r="Y86" s="125"/>
+      <c r="Z86" s="179"/>
+      <c r="AA86" s="179"/>
+      <c r="AB86" s="183"/>
     </row>
     <row r="87" spans="2:28">
       <c r="P87" s="93"/>
@@ -12989,6 +13192,9 @@
     </row>
     <row r="111" spans="16:16">
       <c r="P111" s="93"/>
+    </row>
+    <row r="112" spans="16:16">
+      <c r="P112" s="93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="52" type="noConversion"/>
@@ -13245,30 +13451,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>IF($B33="完了",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13297,19 +13503,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:T7 F85:F65586 P10:T85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:T7 F86:F65587 P10:T86">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D86">
       <formula1>"未着手,対応判断中,対応中,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E86">
       <formula1>"新規,変更"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F85">
       <formula1>発生段階</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85 C35:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C36 G2:G86">
       <formula1>"DB,ソース,テストケース,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
@@ -13318,10 +13524,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
       <formula1>対応区分</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N86">
       <formula1>"●,✖"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O86">
       <formula1>"高,中,低,実害無し"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6 P8:P9">
@@ -13339,7 +13545,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6 T8:T9">
       <formula1>原因工程</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:AA85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:AA86">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13409,7 +13615,7 @@
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="31">
-        <f>COUNTIF(単体障害一覧!P$2:P$475,B4)</f>
+        <f>COUNTIF(単体障害一覧!P$2:P$476,B4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="32" t="e">
@@ -13423,7 +13629,7 @@
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35">
-        <f>COUNTIF(単体障害一覧!P$2:P$475,B5)</f>
+        <f>COUNTIF(単体障害一覧!P$2:P$476,B5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="32" t="e">
@@ -13522,7 +13728,7 @@
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B23)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B23)</f>
         <v>0</v>
       </c>
       <c r="E23" s="41" t="e">
@@ -13536,7 +13742,7 @@
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B24)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B24)</f>
         <v>0</v>
       </c>
       <c r="E24" s="42" t="e">
@@ -13550,7 +13756,7 @@
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B25)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B25)</f>
         <v>0</v>
       </c>
       <c r="E25" s="42" t="e">
@@ -13564,7 +13770,7 @@
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B26)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B26)</f>
         <v>0</v>
       </c>
       <c r="E26" s="42" t="e">
@@ -13578,7 +13784,7 @@
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B27)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B27)</f>
         <v>0</v>
       </c>
       <c r="E27" s="42" t="e">
@@ -13592,7 +13798,7 @@
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B28)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B28)</f>
         <v>0</v>
       </c>
       <c r="E28" s="42" t="e">
@@ -13606,7 +13812,7 @@
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B29)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B29)</f>
         <v>0</v>
       </c>
       <c r="E29" s="42" t="e">
@@ -13620,7 +13826,7 @@
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B30)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B30)</f>
         <v>0</v>
       </c>
       <c r="E30" s="42" t="e">
@@ -13634,7 +13840,7 @@
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B31)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B31)</f>
         <v>0</v>
       </c>
       <c r="E31" s="42" t="e">
@@ -13648,7 +13854,7 @@
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B32)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B32)</f>
         <v>0</v>
       </c>
       <c r="E32" s="42" t="e">
@@ -13662,7 +13868,7 @@
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B33)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B33)</f>
         <v>0</v>
       </c>
       <c r="E33" s="42" t="e">
@@ -13676,7 +13882,7 @@
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="38">
-        <f>COUNTIF(単体障害一覧!Q$2:Q$475,B34)</f>
+        <f>COUNTIF(単体障害一覧!Q$2:Q$476,B34)</f>
         <v>0</v>
       </c>
       <c r="E34" s="43" t="e">
@@ -13739,7 +13945,7 @@
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="31">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B45)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B45)</f>
         <v>0</v>
       </c>
       <c r="E45" s="41" t="e">
@@ -13753,7 +13959,7 @@
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B46)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B46)</f>
         <v>0</v>
       </c>
       <c r="E46" s="42" t="e">
@@ -13767,7 +13973,7 @@
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B47)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B47)</f>
         <v>0</v>
       </c>
       <c r="E47" s="42" t="e">
@@ -13781,7 +13987,7 @@
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B48)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B48)</f>
         <v>0</v>
       </c>
       <c r="E48" s="42" t="e">
@@ -13795,7 +14001,7 @@
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B49)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B49)</f>
         <v>0</v>
       </c>
       <c r="E49" s="42" t="e">
@@ -13809,7 +14015,7 @@
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B50)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B50)</f>
         <v>0</v>
       </c>
       <c r="E50" s="42" t="e">
@@ -13823,7 +14029,7 @@
       </c>
       <c r="C51" s="34"/>
       <c r="D51" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B51)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B51)</f>
         <v>0</v>
       </c>
       <c r="E51" s="42" t="e">
@@ -13837,7 +14043,7 @@
       </c>
       <c r="C52" s="34"/>
       <c r="D52" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B52)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B52)</f>
         <v>0</v>
       </c>
       <c r="E52" s="42" t="e">
@@ -13851,7 +14057,7 @@
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="35">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B53)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B53)</f>
         <v>0</v>
       </c>
       <c r="E53" s="42" t="e">
@@ -13865,7 +14071,7 @@
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="38">
-        <f>COUNTIF(単体障害一覧!R$2:R$475,B54)</f>
+        <f>COUNTIF(単体障害一覧!R$2:R$476,B54)</f>
         <v>0</v>
       </c>
       <c r="E54" s="43" t="e">
@@ -13928,7 +14134,7 @@
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="31">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B66)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B66)</f>
         <v>0</v>
       </c>
       <c r="E66" s="41" t="e">
@@ -13942,7 +14148,7 @@
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B67)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B67)</f>
         <v>0</v>
       </c>
       <c r="E67" s="42" t="e">
@@ -13956,7 +14162,7 @@
       </c>
       <c r="C68" s="47"/>
       <c r="D68" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B68)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B68)</f>
         <v>0</v>
       </c>
       <c r="E68" s="42" t="e">
@@ -13970,7 +14176,7 @@
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B69)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B69)</f>
         <v>0</v>
       </c>
       <c r="E69" s="42" t="e">
@@ -13984,7 +14190,7 @@
       </c>
       <c r="C70" s="47"/>
       <c r="D70" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B70)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B70)</f>
         <v>0</v>
       </c>
       <c r="E70" s="42" t="e">
@@ -14022,7 +14228,7 @@
       </c>
       <c r="C74" s="47"/>
       <c r="D74" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B74)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B74)</f>
         <v>0</v>
       </c>
       <c r="E74" s="42" t="e">
@@ -14036,7 +14242,7 @@
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B75)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B75)</f>
         <v>0</v>
       </c>
       <c r="E75" s="42" t="e">
@@ -14050,7 +14256,7 @@
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B76)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B76)</f>
         <v>0</v>
       </c>
       <c r="E76" s="42" t="e">
@@ -14064,7 +14270,7 @@
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="35">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B77)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B77)</f>
         <v>0</v>
       </c>
       <c r="E77" s="42" t="e">
@@ -14078,7 +14284,7 @@
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="38">
-        <f>COUNTIF(単体障害一覧!S$2:S$475,B78)</f>
+        <f>COUNTIF(単体障害一覧!S$2:S$476,B78)</f>
         <v>0</v>
       </c>
       <c r="E78" s="43" t="e">
@@ -14151,7 +14357,7 @@
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="31">
-        <f>COUNTIF(単体障害一覧!T$2:T$475,B86)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$476,B86)</f>
         <v>0</v>
       </c>
       <c r="E86" s="41" t="e">
@@ -14165,7 +14371,7 @@
       </c>
       <c r="C87" s="47"/>
       <c r="D87" s="35">
-        <f>COUNTIF(単体障害一覧!T$2:T$475,B87)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$476,B87)</f>
         <v>0</v>
       </c>
       <c r="E87" s="42" t="e">
@@ -14179,7 +14385,7 @@
       </c>
       <c r="C88" s="47"/>
       <c r="D88" s="35">
-        <f>COUNTIF(単体障害一覧!T$2:T$475,B88)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$476,B88)</f>
         <v>0</v>
       </c>
       <c r="E88" s="42" t="e">
@@ -14193,7 +14399,7 @@
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="38">
-        <f>COUNTIF(単体障害一覧!T$2:T$475,B89)</f>
+        <f>COUNTIF(単体障害一覧!T$2:T$476,B89)</f>
         <v>0</v>
       </c>
       <c r="E89" s="43" t="e">
@@ -14266,7 +14472,7 @@
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="31">
-        <f>COUNTIF(単体障害一覧!B$2:B$475,B97)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$476,B97)</f>
         <v>0</v>
       </c>
       <c r="E97" s="41" t="e">
@@ -14280,7 +14486,7 @@
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="35">
-        <f>COUNTIF(単体障害一覧!B$2:B$475,B98)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$476,B98)</f>
         <v>0</v>
       </c>
       <c r="E98" s="42" t="e">
@@ -14294,7 +14500,7 @@
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="38">
-        <f>COUNTIF(単体障害一覧!B$2:B$475,B99)</f>
+        <f>COUNTIF(単体障害一覧!B$2:B$476,B99)</f>
         <v>0</v>
       </c>
       <c r="E99" s="43" t="e">
@@ -14722,11 +14928,11 @@
         <v>39707</v>
       </c>
       <c r="C121" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B121)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B121)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D121" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B121)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B121)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E121" s="66">
@@ -14748,11 +14954,11 @@
         <v>39713</v>
       </c>
       <c r="C122" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B122)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B122)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D122" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B122)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B122)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E122" s="66" t="e">
@@ -14774,11 +14980,11 @@
         <v>39719</v>
       </c>
       <c r="C123" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B123)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B123)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D123" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B123)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B123)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E123" s="66" t="e">
@@ -14800,11 +15006,11 @@
         <v>39725</v>
       </c>
       <c r="C124" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B124)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B124)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D124" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B124)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B124)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E124" s="66" t="e">
@@ -14826,11 +15032,11 @@
         <v>39731</v>
       </c>
       <c r="C125" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B125)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B125)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D125" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B125)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B125)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E125" s="66" t="e">
@@ -14852,11 +15058,11 @@
         <v>39737</v>
       </c>
       <c r="C126" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B126)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B126)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D126" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B126)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B126)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E126" s="66" t="e">
@@ -14878,11 +15084,11 @@
         <v>39743</v>
       </c>
       <c r="C127" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B127)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B127)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D127" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B127)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B127)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E127" s="66" t="e">
@@ -14904,11 +15110,11 @@
         <v>39749</v>
       </c>
       <c r="C128" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B128)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B128)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D128" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B128)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B128)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E128" s="66" t="e">
@@ -14930,11 +15136,11 @@
         <v>39755</v>
       </c>
       <c r="C129" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B129)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B129)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D129" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B129)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B129)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E129" s="66" t="e">
@@ -14956,11 +15162,11 @@
         <v>39761</v>
       </c>
       <c r="C130" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B130)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B130)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D130" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B130)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B130)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E130" s="66" t="e">
@@ -14982,11 +15188,11 @@
         <v>39767</v>
       </c>
       <c r="C131" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B131)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B131)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D131" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B131)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B131)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E131" s="66" t="e">
@@ -15008,11 +15214,11 @@
         <v>39773</v>
       </c>
       <c r="C132" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B132)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B132)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D132" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B132)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B132)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E132" s="66" t="e">
@@ -15034,11 +15240,11 @@
         <v>39779</v>
       </c>
       <c r="C133" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B133)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B133)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D133" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B133)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B133)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E133" s="66" t="e">
@@ -15060,11 +15266,11 @@
         <v>39785</v>
       </c>
       <c r="C134" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B134)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B134)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D134" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B134)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B134)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E134" s="66" t="e">
@@ -15086,11 +15292,11 @@
         <v>39791</v>
       </c>
       <c r="C135" s="65">
-        <f>SUMPRODUCT((単体障害一覧!J$2:J$475&lt;B135)*(単体障害一覧!J$2:J$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!J$2:J$476&lt;B135)*(単体障害一覧!J$2:J$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="D135" s="65">
-        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$475&lt;B135)*(単体障害一覧!Y$2:Y$475&lt;&gt;""))</f>
+        <f>SUMPRODUCT((単体障害一覧!Y$2:Y$476&lt;B135)*(単体障害一覧!Y$2:Y$476&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E135" s="66" t="e">
